--- a/RB-Blessing/CE-Beurteilung.xlsx
+++ b/RB-Blessing/CE-Beurteilung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thofmann\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CB572B-562F-40A8-9E2A-D048EF4CA86B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="Grenzen der Maschine" sheetId="1" r:id="rId1"/>
@@ -40,11 +39,8 @@
     <definedName name="Liste11">#REF!</definedName>
     <definedName name="Ursprung">'Ursprung-Folgen nach ISO 12100'!$C$11:$C$108</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="450">
   <si>
     <t>Betriebsarten:</t>
   </si>
@@ -1703,9 +1699,6 @@
     <t>Mustermaschine</t>
   </si>
   <si>
-    <t>Grenzen einer MusterMaschine / eines MusterProduktes</t>
-  </si>
-  <si>
     <r>
       <t>Personenkreise, die mit der Maschine / dem Produkt</t>
     </r>
@@ -1859,31 +1852,70 @@
     <t>test2</t>
   </si>
   <si>
-    <t xml:space="preserve">Das Förderband dient ausschließlich dem Transport von leichten bis mittel schweren Gütern auf waagerechten  oder  leicht  steigendem Untergrund dar. Die Güter werden auf den sich bewegenden Gurt gelegt und von dem Bandanfang bis  Bandende transportiert. </t>
-  </si>
-  <si>
-    <t>Durch die stufenlose Regelung der Geschwindigkeit und den damit verbundenen Leistungsstarken Elektromotor kann das Förderband individuell in Betrieb genommen werden.</t>
-  </si>
-  <si>
-    <t>Die Bedinung des Förderbands ist einfach Gestaltet, weshalb Jung und auch Alt gerne mit unserem Produkt arbeiten.</t>
-  </si>
-  <si>
-    <t>Da unser Förderband eine unschlagbare Lebensdauer von mindestens 30000h hat, gibt es nur bei uns auch eine Lebenslange garantie.*</t>
-  </si>
-  <si>
     <t>Verwendungstemperaturen: -10°C bis 40°C</t>
   </si>
   <si>
-    <t>Dem neuen xxx sind natürlich keine Grenzen gesetzt.</t>
-  </si>
-  <si>
-    <t>Der Einsatzbereich des modernen Förderbands ist äußerst breit. Der Gurtförderer kann extremen Wetterverhältnissen ausgesetzt werden, selbst bei weniger als -10°C lässt Sie das Förderband nicht im Stich. Des Weiteren Überwindet der xxx problemlos Steigungen bis zu 10%.</t>
+    <t>Durch die stufenlose Regelung der Geschwindigkeit und dem damit verbundenen leistungsstarken Elektromotor kann das Förderband individuell in Betrieb genommen werden.</t>
+  </si>
+  <si>
+    <t>Mit einer Bandbreite von 240 mm kann eine Vielzahl von Gütern transportiert werden.</t>
+  </si>
+  <si>
+    <t>Grenzen eines Bandförderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Höhe der Antriebstrommel über dem Boden beläuft sich auf mindestens 300mm bzgl. des Untertrums. </t>
+  </si>
+  <si>
+    <t>Die Lebensdauer beträgt 30000h.</t>
+  </si>
+  <si>
+    <t>Steigung bis zu 10%</t>
+  </si>
+  <si>
+    <t>Der Bandförderer kann sowohl in einer Halle als auch draußen genutzt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für den Elektromotor sollte sich ein ein Netzanschluss in nächster Nähe befinden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auch Mitarbeiter des Lagers und der Logistik können die Produkte beim Transport beschädigen. </t>
+  </si>
+  <si>
+    <t>Ebenso der Transport zum Kunde stellt ein hohes Risiko für Transportschäden dar. Das Produkt kann unter Umständen nicht fristgerecht geliefert werden oder Bestandteile davon fehlen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei der Inbetriebnahme des Bandförderers kann die Montageanleitung nicht ausreichend genau gelesen werden und dadurch das Produkt fehlerhaft zusammengebaut werden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Während der ersten Lebensphase, der Produktion / Montage des Bandförderers, sind Mitarbeiter der Fertigung und Montage in direktem Kontakt mit dem Produkt. Eigenangefertige Teile können fehlerhaft produziert werden. Zukaufteile können ebenso fehlerhaft produziert oder beim Transport beschädigt worden sein. </t>
+  </si>
+  <si>
+    <t>Der Bandförderer dient dem Transport von leichten bis mittelschweren Gütern auf waagerechtem oder leicht steigendem Untergrund. Die Güter werden auf das sich bewegende Band gelegt und vom Bandanfang bis Bandende transportiert. Das Band wird von einer Antriebsrolle angetrieben, das widerrum von einem Elektromotor angetrieben wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kunde kann beim Einrichten des Produktes durch einen falschen Netzanschluss den Elektromotor beschädigen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tritt ein Fehlerfall ein, bei dem ein Austausch von Teilen notwendig ist, ist darauf zu achten, dass Ersatzteile verwendet werden, die den Vorgaben des Herstellers entsprechen. </t>
+  </si>
+  <si>
+    <t>Während des Betriebes ist vom Kunde darauf zu achten, dass die Umgebungstemperaturen die angegebenen Extremwerte von -10°C bis +40°C nicht über- bzw unterschreiten. Außerdem sollte der Bandförderer nur von befugtem Personal betrieben werden.</t>
+  </si>
+  <si>
+    <t>Sollte das Förderband durch den Betrieb verschmutzt worden sein, sollten keine chemikalischen Reinigungsmittel verwendet werden, da das Material des Förderbandes, der Elekromotor oder andere Teile des Bandförderers dadurch beschädigt werden könnten. Sollte bei der Reinigung der Anlage eine Demontage einzelner Bestandteile notwendig sein ist die Demontage- und anschließend die Montageanleitung zu beachten. Bei Nichtbeachten kann die Funktion der Maschine nicht mehr gewährleistet werden.</t>
+  </si>
+  <si>
+    <t>Bei der Instanthaltung und Wartung ist darauf zu achten, dass dies durch qualifiziertes Personal erfolgt.</t>
+  </si>
+  <si>
+    <t>Wird das Produkt außer Betrieb genommen oder demontiert, muss die Demontageanleitung beachtet werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
     <numFmt numFmtId="165" formatCode="mmm\-yy"/>
@@ -3120,12 +3152,10 @@
     <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -3405,6 +3435,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -3417,6 +3459,22 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -3429,16 +3487,32 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3453,50 +3527,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3530,28 +3560,46 @@
     <xf numFmtId="49" fontId="22" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3562,12 +3610,6 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3617,38 +3659,26 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3665,6 +3695,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3674,51 +3740,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3728,63 +3803,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Standard 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 3" xfId="2"/>
+    <cellStyle name="Standard 4" xfId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3913,7 +3950,7 @@
         <xdr:cNvPr id="2049" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3935,14 +3972,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4012,7 +4049,7 @@
         <xdr:cNvPr id="2052" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4034,14 +4071,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4416,11 +4453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:L22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4435,319 +4472,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="238" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="240"/>
+    </row>
+    <row r="2" spans="1:12" ht="7.5" customHeight="1">
+      <c r="A2" s="245"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="247"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" s="248" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="250"/>
+    </row>
+    <row r="4" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A4" s="244" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="243"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="241"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="243"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="244"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="243"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="241"/>
+      <c r="B7" s="242"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="250"/>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A9" s="244" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="242"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="243"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="241"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="243"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="241"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="243"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="241"/>
+      <c r="B12" s="242"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="243"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="255" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="249"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="250"/>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A14" s="244" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="243"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="244" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="242"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="242"/>
+      <c r="L15" s="243"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="244"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="242"/>
+      <c r="L16" s="243"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="241"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="243"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="241"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="243"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="241"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="242"/>
+      <c r="L19" s="243"/>
+    </row>
+    <row r="20" spans="1:13" ht="6" customHeight="1">
+      <c r="A20" s="245"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="247"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75">
+      <c r="A21" s="248" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="262"/>
-    </row>
-    <row r="2" spans="1:12" ht="7.5" customHeight="1">
-      <c r="A2" s="246"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="243" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="245"/>
-    </row>
-    <row r="4" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A4" s="256" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="242"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="240"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="242"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="256"/>
-      <c r="B6" s="241"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="242"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="240"/>
-      <c r="B7" s="241"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="242"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A9" s="256" t="s">
-        <v>432</v>
-      </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="241"/>
-      <c r="L9" s="242"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="240"/>
-      <c r="B10" s="241"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
-      <c r="L10" s="242"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="240"/>
-      <c r="B11" s="241"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="242"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="240"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="241"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="241"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="241"/>
-      <c r="L12" s="242"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="252" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="244"/>
-      <c r="C13" s="244"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="244"/>
-      <c r="J13" s="244"/>
-      <c r="K13" s="244"/>
-      <c r="L13" s="245"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="256" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="242"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="240"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="242"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="240"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="242"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="240"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="242"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="240"/>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="241"/>
-      <c r="L18" s="242"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="240"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="242"/>
-    </row>
-    <row r="20" spans="1:13" ht="6" customHeight="1">
-      <c r="A20" s="246"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="247"/>
-      <c r="K20" s="247"/>
-      <c r="L20" s="248"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75">
-      <c r="A21" s="243" t="s">
-        <v>394</v>
-      </c>
-      <c r="B21" s="244"/>
-      <c r="C21" s="244"/>
-      <c r="D21" s="244"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="244"/>
-      <c r="J21" s="244"/>
-      <c r="K21" s="244"/>
-      <c r="L21" s="245"/>
+      <c r="B21" s="249"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="249"/>
+      <c r="K21" s="249"/>
+      <c r="L21" s="250"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="256" t="s">
-        <v>433</v>
-      </c>
+      <c r="A22" s="244"/>
       <c r="B22" s="257"/>
       <c r="C22" s="257"/>
       <c r="D22" s="257"/>
@@ -4758,752 +4795,884 @@
       <c r="I22" s="257"/>
       <c r="J22" s="257"/>
       <c r="K22" s="257"/>
-      <c r="L22" s="242"/>
+      <c r="L22" s="243"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="258"/>
-      <c r="B23" s="253" t="s">
+      <c r="A23" s="253"/>
+      <c r="B23" s="256" t="s">
         <v>370</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="139"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="256"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="137"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A24" s="259"/>
-      <c r="B24" s="254" t="s">
+      <c r="A24" s="254"/>
+      <c r="B24" s="251" t="s">
         <v>376</v>
       </c>
-      <c r="C24" s="254" t="s">
+      <c r="C24" s="251" t="s">
         <v>378</v>
       </c>
-      <c r="D24" s="254" t="s">
+      <c r="D24" s="251" t="s">
         <v>373</v>
       </c>
-      <c r="E24" s="254" t="s">
+      <c r="E24" s="251" t="s">
         <v>375</v>
       </c>
-      <c r="F24" s="254" t="s">
+      <c r="F24" s="251" t="s">
         <v>371</v>
       </c>
-      <c r="G24" s="254" t="s">
+      <c r="G24" s="251" t="s">
         <v>377</v>
       </c>
-      <c r="H24" s="254" t="s">
+      <c r="H24" s="251" t="s">
         <v>374</v>
       </c>
-      <c r="I24" s="254" t="s">
+      <c r="I24" s="251" t="s">
         <v>379</v>
       </c>
-      <c r="J24" s="254"/>
-      <c r="K24" s="254"/>
-      <c r="L24" s="138"/>
+      <c r="J24" s="251"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="136"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="133" t="s">
         <v>391</v>
       </c>
-      <c r="B25" s="255"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="255"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="255"/>
-      <c r="L25" s="138"/>
+      <c r="B25" s="252"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="252"/>
+      <c r="H25" s="252"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="252"/>
+      <c r="L25" s="136"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="134"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="138"/>
+      <c r="A26" s="349" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" s="350"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="136"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="134"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="138"/>
+      <c r="A27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" s="134"/>
+      <c r="C27" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="136"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="138"/>
+      <c r="A28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="F28" s="350"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="136"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="134"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="138"/>
+      <c r="A29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="136"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="134"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="138"/>
+      <c r="A30" t="s">
+        <v>411</v>
+      </c>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="136"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="134"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="138"/>
+      <c r="A31" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="136"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="134"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="138"/>
+      <c r="A32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="136"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="138"/>
+      <c r="A33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="136"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="136"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="135"/>
-      <c r="L34" s="138"/>
+      <c r="A34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="G34" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="H34" s="350"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="136"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="136"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="138"/>
+      <c r="A35" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="F35" s="134"/>
+      <c r="G35" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="H35" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="136"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="136"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="138"/>
+      <c r="A36" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="350" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="136"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="240"/>
-      <c r="B37" s="241"/>
-      <c r="C37" s="241"/>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+      <c r="A37" s="241"/>
+      <c r="B37" s="242"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A38" s="240" t="s">
+      <c r="A38" s="241" t="s">
         <v>372</v>
       </c>
-      <c r="B38" s="241"/>
-      <c r="C38" s="241"/>
-      <c r="D38" s="241"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="241"/>
-      <c r="G38" s="241"/>
-      <c r="H38" s="241"/>
-      <c r="I38" s="241"/>
-      <c r="J38" s="241"/>
-      <c r="K38" s="241"/>
-      <c r="L38" s="242"/>
+      <c r="B38" s="242"/>
+      <c r="C38" s="242"/>
+      <c r="D38" s="242"/>
+      <c r="E38" s="242"/>
+      <c r="F38" s="242"/>
+      <c r="G38" s="242"/>
+      <c r="H38" s="242"/>
+      <c r="I38" s="242"/>
+      <c r="J38" s="242"/>
+      <c r="K38" s="242"/>
+      <c r="L38" s="243"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="244" t="s">
+        <v>420</v>
+      </c>
+      <c r="B39" s="242"/>
+      <c r="C39" s="242"/>
+      <c r="D39" s="242"/>
+      <c r="E39" s="242"/>
+      <c r="F39" s="242"/>
+      <c r="G39" s="242"/>
+      <c r="H39" s="242"/>
+      <c r="I39" s="242"/>
+      <c r="J39" s="242"/>
+      <c r="K39" s="242"/>
+      <c r="L39" s="243"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="241"/>
+      <c r="B40" s="242"/>
+      <c r="C40" s="242"/>
+      <c r="D40" s="242"/>
+      <c r="E40" s="242"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="242"/>
+      <c r="H40" s="242"/>
+      <c r="I40" s="242"/>
+      <c r="J40" s="242"/>
+      <c r="K40" s="242"/>
+      <c r="L40" s="243"/>
+    </row>
+    <row r="41" spans="1:12" ht="6" customHeight="1">
+      <c r="A41" s="245"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="246"/>
+      <c r="E41" s="246"/>
+      <c r="F41" s="246"/>
+      <c r="G41" s="246"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="246"/>
+      <c r="J41" s="246"/>
+      <c r="K41" s="246"/>
+      <c r="L41" s="247"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
+      <c r="A42" s="248" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="241"/>
-      <c r="C39" s="241"/>
-      <c r="D39" s="241"/>
-      <c r="E39" s="241"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="241"/>
-      <c r="I39" s="241"/>
-      <c r="J39" s="241"/>
-      <c r="K39" s="241"/>
-      <c r="L39" s="242"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="240"/>
-      <c r="B40" s="241"/>
-      <c r="C40" s="241"/>
-      <c r="D40" s="241"/>
-      <c r="E40" s="241"/>
-      <c r="F40" s="241"/>
-      <c r="G40" s="241"/>
-      <c r="H40" s="241"/>
-      <c r="I40" s="241"/>
-      <c r="J40" s="241"/>
-      <c r="K40" s="241"/>
-      <c r="L40" s="242"/>
-    </row>
-    <row r="41" spans="1:12" ht="6" customHeight="1">
-      <c r="A41" s="246"/>
-      <c r="B41" s="247"/>
-      <c r="C41" s="247"/>
-      <c r="D41" s="247"/>
-      <c r="E41" s="247"/>
-      <c r="F41" s="247"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="247"/>
-      <c r="I41" s="247"/>
-      <c r="J41" s="247"/>
-      <c r="K41" s="247"/>
-      <c r="L41" s="248"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="243" t="s">
+      <c r="B42" s="249"/>
+      <c r="C42" s="249"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="249"/>
+      <c r="J42" s="249"/>
+      <c r="K42" s="249"/>
+      <c r="L42" s="250"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="244" t="s">
+        <v>434</v>
+      </c>
+      <c r="B43" s="242"/>
+      <c r="C43" s="242"/>
+      <c r="D43" s="242"/>
+      <c r="E43" s="242"/>
+      <c r="F43" s="242"/>
+      <c r="G43" s="242"/>
+      <c r="H43" s="242"/>
+      <c r="I43" s="242"/>
+      <c r="J43" s="242"/>
+      <c r="K43" s="242"/>
+      <c r="L43" s="243"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="244" t="s">
+        <v>438</v>
+      </c>
+      <c r="B44" s="242"/>
+      <c r="C44" s="242"/>
+      <c r="D44" s="242"/>
+      <c r="E44" s="242"/>
+      <c r="F44" s="242"/>
+      <c r="G44" s="242"/>
+      <c r="H44" s="242"/>
+      <c r="I44" s="242"/>
+      <c r="J44" s="242"/>
+      <c r="K44" s="242"/>
+      <c r="L44" s="243"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="241"/>
+      <c r="B45" s="242"/>
+      <c r="C45" s="242"/>
+      <c r="D45" s="242"/>
+      <c r="E45" s="242"/>
+      <c r="F45" s="242"/>
+      <c r="G45" s="242"/>
+      <c r="H45" s="242"/>
+      <c r="I45" s="242"/>
+      <c r="J45" s="242"/>
+      <c r="K45" s="242"/>
+      <c r="L45" s="243"/>
+    </row>
+    <row r="46" spans="1:12" ht="6" customHeight="1">
+      <c r="A46" s="245"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="246"/>
+      <c r="E46" s="246"/>
+      <c r="F46" s="246"/>
+      <c r="G46" s="246"/>
+      <c r="H46" s="246"/>
+      <c r="I46" s="246"/>
+      <c r="J46" s="246"/>
+      <c r="K46" s="246"/>
+      <c r="L46" s="247"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75">
+      <c r="A47" s="248" t="s">
         <v>422</v>
       </c>
-      <c r="B42" s="244"/>
-      <c r="C42" s="244"/>
-      <c r="D42" s="244"/>
-      <c r="E42" s="244"/>
-      <c r="F42" s="244"/>
-      <c r="G42" s="244"/>
-      <c r="H42" s="244"/>
-      <c r="I42" s="244"/>
-      <c r="J42" s="244"/>
-      <c r="K42" s="244"/>
-      <c r="L42" s="245"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="256" t="s">
+      <c r="B47" s="249"/>
+      <c r="C47" s="249"/>
+      <c r="D47" s="249"/>
+      <c r="E47" s="249"/>
+      <c r="F47" s="249"/>
+      <c r="G47" s="249"/>
+      <c r="H47" s="249"/>
+      <c r="I47" s="249"/>
+      <c r="J47" s="249"/>
+      <c r="K47" s="249"/>
+      <c r="L47" s="250"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="244" t="s">
+        <v>435</v>
+      </c>
+      <c r="B48" s="242"/>
+      <c r="C48" s="242"/>
+      <c r="D48" s="242"/>
+      <c r="E48" s="242"/>
+      <c r="F48" s="242"/>
+      <c r="G48" s="242"/>
+      <c r="H48" s="242"/>
+      <c r="I48" s="242"/>
+      <c r="J48" s="242"/>
+      <c r="K48" s="242"/>
+      <c r="L48" s="243"/>
+    </row>
+    <row r="49" spans="1:12" ht="6" customHeight="1">
+      <c r="A49" s="245"/>
+      <c r="B49" s="246"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="246"/>
+      <c r="E49" s="246"/>
+      <c r="F49" s="246"/>
+      <c r="G49" s="246"/>
+      <c r="H49" s="246"/>
+      <c r="I49" s="246"/>
+      <c r="J49" s="246"/>
+      <c r="K49" s="246"/>
+      <c r="L49" s="247"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
+      <c r="A50" s="248" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" s="249"/>
+      <c r="C50" s="249"/>
+      <c r="D50" s="249"/>
+      <c r="E50" s="249"/>
+      <c r="F50" s="249"/>
+      <c r="G50" s="249"/>
+      <c r="H50" s="249"/>
+      <c r="I50" s="249"/>
+      <c r="J50" s="249"/>
+      <c r="K50" s="249"/>
+      <c r="L50" s="250"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="244" t="s">
+        <v>430</v>
+      </c>
+      <c r="B51" s="242"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="242"/>
+      <c r="E51" s="242"/>
+      <c r="F51" s="242"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="242"/>
+      <c r="I51" s="242"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="243"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="244" t="s">
         <v>436</v>
       </c>
-      <c r="B43" s="241"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
-      <c r="I43" s="241"/>
-      <c r="J43" s="241"/>
-      <c r="K43" s="241"/>
-      <c r="L43" s="242"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="240"/>
-      <c r="B44" s="241"/>
-      <c r="C44" s="241"/>
-      <c r="D44" s="241"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
-      <c r="G44" s="241"/>
-      <c r="H44" s="241"/>
-      <c r="I44" s="241"/>
-      <c r="J44" s="241"/>
-      <c r="K44" s="241"/>
-      <c r="L44" s="242"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="240"/>
-      <c r="B45" s="241"/>
-      <c r="C45" s="241"/>
-      <c r="D45" s="241"/>
-      <c r="E45" s="241"/>
-      <c r="F45" s="241"/>
-      <c r="G45" s="241"/>
-      <c r="H45" s="241"/>
-      <c r="I45" s="241"/>
-      <c r="J45" s="241"/>
-      <c r="K45" s="241"/>
-      <c r="L45" s="242"/>
-    </row>
-    <row r="46" spans="1:12" ht="6" customHeight="1">
-      <c r="A46" s="246"/>
-      <c r="B46" s="247"/>
-      <c r="C46" s="247"/>
-      <c r="D46" s="247"/>
-      <c r="E46" s="247"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="247"/>
-      <c r="H46" s="247"/>
-      <c r="I46" s="247"/>
-      <c r="J46" s="247"/>
-      <c r="K46" s="247"/>
-      <c r="L46" s="248"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75">
-      <c r="A47" s="243" t="s">
-        <v>423</v>
-      </c>
-      <c r="B47" s="244"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="244"/>
-      <c r="E47" s="244"/>
-      <c r="F47" s="244"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="244"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="244"/>
-      <c r="K47" s="244"/>
-      <c r="L47" s="245"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="256" t="s">
-        <v>434</v>
-      </c>
-      <c r="B48" s="241"/>
-      <c r="C48" s="241"/>
-      <c r="D48" s="241"/>
-      <c r="E48" s="241"/>
-      <c r="F48" s="241"/>
-      <c r="G48" s="241"/>
-      <c r="H48" s="241"/>
-      <c r="I48" s="241"/>
-      <c r="J48" s="241"/>
-      <c r="K48" s="241"/>
-      <c r="L48" s="242"/>
-    </row>
-    <row r="49" spans="1:12" ht="6" customHeight="1">
-      <c r="A49" s="246"/>
-      <c r="B49" s="247"/>
-      <c r="C49" s="247"/>
-      <c r="D49" s="247"/>
-      <c r="E49" s="247"/>
-      <c r="F49" s="247"/>
-      <c r="G49" s="247"/>
-      <c r="H49" s="247"/>
-      <c r="I49" s="247"/>
-      <c r="J49" s="247"/>
-      <c r="K49" s="247"/>
-      <c r="L49" s="248"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="243" t="s">
+      <c r="B52" s="242"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="242"/>
+      <c r="E52" s="242"/>
+      <c r="F52" s="242"/>
+      <c r="G52" s="242"/>
+      <c r="H52" s="242"/>
+      <c r="I52" s="242"/>
+      <c r="J52" s="242"/>
+      <c r="K52" s="242"/>
+      <c r="L52" s="243"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="241"/>
+      <c r="B53" s="242"/>
+      <c r="C53" s="242"/>
+      <c r="D53" s="242"/>
+      <c r="E53" s="242"/>
+      <c r="F53" s="242"/>
+      <c r="G53" s="242"/>
+      <c r="H53" s="242"/>
+      <c r="I53" s="242"/>
+      <c r="J53" s="242"/>
+      <c r="K53" s="242"/>
+      <c r="L53" s="243"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="241"/>
+      <c r="B54" s="242"/>
+      <c r="C54" s="242"/>
+      <c r="D54" s="242"/>
+      <c r="E54" s="242"/>
+      <c r="F54" s="242"/>
+      <c r="G54" s="242"/>
+      <c r="H54" s="242"/>
+      <c r="I54" s="242"/>
+      <c r="J54" s="242"/>
+      <c r="K54" s="242"/>
+      <c r="L54" s="243"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="241"/>
+      <c r="B55" s="242"/>
+      <c r="C55" s="242"/>
+      <c r="D55" s="242"/>
+      <c r="E55" s="242"/>
+      <c r="F55" s="242"/>
+      <c r="G55" s="242"/>
+      <c r="H55" s="242"/>
+      <c r="I55" s="242"/>
+      <c r="J55" s="242"/>
+      <c r="K55" s="242"/>
+      <c r="L55" s="243"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="241"/>
+      <c r="B56" s="242"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="242"/>
+      <c r="E56" s="242"/>
+      <c r="F56" s="242"/>
+      <c r="G56" s="242"/>
+      <c r="H56" s="242"/>
+      <c r="I56" s="242"/>
+      <c r="J56" s="242"/>
+      <c r="K56" s="242"/>
+      <c r="L56" s="243"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="241"/>
+      <c r="B57" s="242"/>
+      <c r="C57" s="242"/>
+      <c r="D57" s="242"/>
+      <c r="E57" s="242"/>
+      <c r="F57" s="242"/>
+      <c r="G57" s="242"/>
+      <c r="H57" s="242"/>
+      <c r="I57" s="242"/>
+      <c r="J57" s="242"/>
+      <c r="K57" s="242"/>
+      <c r="L57" s="243"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="241"/>
+      <c r="B58" s="242"/>
+      <c r="C58" s="242"/>
+      <c r="D58" s="242"/>
+      <c r="E58" s="242"/>
+      <c r="F58" s="242"/>
+      <c r="G58" s="242"/>
+      <c r="H58" s="242"/>
+      <c r="I58" s="242"/>
+      <c r="J58" s="242"/>
+      <c r="K58" s="242"/>
+      <c r="L58" s="243"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="241"/>
+      <c r="B59" s="242"/>
+      <c r="C59" s="242"/>
+      <c r="D59" s="242"/>
+      <c r="E59" s="242"/>
+      <c r="F59" s="242"/>
+      <c r="G59" s="242"/>
+      <c r="H59" s="242"/>
+      <c r="I59" s="242"/>
+      <c r="J59" s="242"/>
+      <c r="K59" s="242"/>
+      <c r="L59" s="243"/>
+    </row>
+    <row r="60" spans="1:12" ht="6" customHeight="1">
+      <c r="A60" s="245"/>
+      <c r="B60" s="246"/>
+      <c r="C60" s="246"/>
+      <c r="D60" s="246"/>
+      <c r="E60" s="246"/>
+      <c r="F60" s="246"/>
+      <c r="G60" s="246"/>
+      <c r="H60" s="246"/>
+      <c r="I60" s="246"/>
+      <c r="J60" s="246"/>
+      <c r="K60" s="246"/>
+      <c r="L60" s="247"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A61" s="248" t="s">
         <v>424</v>
       </c>
-      <c r="B50" s="244"/>
-      <c r="C50" s="244"/>
-      <c r="D50" s="244"/>
-      <c r="E50" s="244"/>
-      <c r="F50" s="244"/>
-      <c r="G50" s="244"/>
-      <c r="H50" s="244"/>
-      <c r="I50" s="244"/>
-      <c r="J50" s="244"/>
-      <c r="K50" s="244"/>
-      <c r="L50" s="245"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="256" t="s">
-        <v>435</v>
-      </c>
-      <c r="B51" s="241"/>
-      <c r="C51" s="241"/>
-      <c r="D51" s="241"/>
-      <c r="E51" s="241"/>
-      <c r="F51" s="241"/>
-      <c r="G51" s="241"/>
-      <c r="H51" s="241"/>
-      <c r="I51" s="241"/>
-      <c r="J51" s="241"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="242"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="240"/>
-      <c r="B52" s="241"/>
-      <c r="C52" s="241"/>
-      <c r="D52" s="241"/>
-      <c r="E52" s="241"/>
-      <c r="F52" s="241"/>
-      <c r="G52" s="241"/>
-      <c r="H52" s="241"/>
-      <c r="I52" s="241"/>
-      <c r="J52" s="241"/>
-      <c r="K52" s="241"/>
-      <c r="L52" s="242"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="240"/>
-      <c r="B53" s="241"/>
-      <c r="C53" s="241"/>
-      <c r="D53" s="241"/>
-      <c r="E53" s="241"/>
-      <c r="F53" s="241"/>
-      <c r="G53" s="241"/>
-      <c r="H53" s="241"/>
-      <c r="I53" s="241"/>
-      <c r="J53" s="241"/>
-      <c r="K53" s="241"/>
-      <c r="L53" s="242"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="240"/>
-      <c r="B54" s="241"/>
-      <c r="C54" s="241"/>
-      <c r="D54" s="241"/>
-      <c r="E54" s="241"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="241"/>
-      <c r="H54" s="241"/>
-      <c r="I54" s="241"/>
-      <c r="J54" s="241"/>
-      <c r="K54" s="241"/>
-      <c r="L54" s="242"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="240"/>
-      <c r="B55" s="241"/>
-      <c r="C55" s="241"/>
-      <c r="D55" s="241"/>
-      <c r="E55" s="241"/>
-      <c r="F55" s="241"/>
-      <c r="G55" s="241"/>
-      <c r="H55" s="241"/>
-      <c r="I55" s="241"/>
-      <c r="J55" s="241"/>
-      <c r="K55" s="241"/>
-      <c r="L55" s="242"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="240"/>
-      <c r="B56" s="241"/>
-      <c r="C56" s="241"/>
-      <c r="D56" s="241"/>
-      <c r="E56" s="241"/>
-      <c r="F56" s="241"/>
-      <c r="G56" s="241"/>
-      <c r="H56" s="241"/>
-      <c r="I56" s="241"/>
-      <c r="J56" s="241"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="242"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="240"/>
-      <c r="B57" s="241"/>
-      <c r="C57" s="241"/>
-      <c r="D57" s="241"/>
-      <c r="E57" s="241"/>
-      <c r="F57" s="241"/>
-      <c r="G57" s="241"/>
-      <c r="H57" s="241"/>
-      <c r="I57" s="241"/>
-      <c r="J57" s="241"/>
-      <c r="K57" s="241"/>
-      <c r="L57" s="242"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="240"/>
-      <c r="B58" s="241"/>
-      <c r="C58" s="241"/>
-      <c r="D58" s="241"/>
-      <c r="E58" s="241"/>
-      <c r="F58" s="241"/>
-      <c r="G58" s="241"/>
-      <c r="H58" s="241"/>
-      <c r="I58" s="241"/>
-      <c r="J58" s="241"/>
-      <c r="K58" s="241"/>
-      <c r="L58" s="242"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="240"/>
-      <c r="B59" s="241"/>
-      <c r="C59" s="241"/>
-      <c r="D59" s="241"/>
-      <c r="E59" s="241"/>
-      <c r="F59" s="241"/>
-      <c r="G59" s="241"/>
-      <c r="H59" s="241"/>
-      <c r="I59" s="241"/>
-      <c r="J59" s="241"/>
-      <c r="K59" s="241"/>
-      <c r="L59" s="242"/>
-    </row>
-    <row r="60" spans="1:12" ht="6" customHeight="1">
-      <c r="A60" s="246"/>
-      <c r="B60" s="247"/>
-      <c r="C60" s="247"/>
-      <c r="D60" s="247"/>
-      <c r="E60" s="247"/>
-      <c r="F60" s="247"/>
-      <c r="G60" s="247"/>
-      <c r="H60" s="247"/>
-      <c r="I60" s="247"/>
-      <c r="J60" s="247"/>
-      <c r="K60" s="247"/>
-      <c r="L60" s="248"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A61" s="243" t="s">
-        <v>425</v>
-      </c>
-      <c r="B61" s="244"/>
-      <c r="C61" s="244"/>
-      <c r="D61" s="244"/>
-      <c r="E61" s="244"/>
-      <c r="F61" s="244"/>
-      <c r="G61" s="244"/>
-      <c r="H61" s="244"/>
-      <c r="I61" s="244"/>
-      <c r="J61" s="244"/>
-      <c r="K61" s="244"/>
-      <c r="L61" s="245"/>
+      <c r="B61" s="249"/>
+      <c r="C61" s="249"/>
+      <c r="D61" s="249"/>
+      <c r="E61" s="249"/>
+      <c r="F61" s="249"/>
+      <c r="G61" s="249"/>
+      <c r="H61" s="249"/>
+      <c r="I61" s="249"/>
+      <c r="J61" s="249"/>
+      <c r="K61" s="249"/>
+      <c r="L61" s="250"/>
     </row>
     <row r="62" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A62" s="249" t="s">
-        <v>395</v>
-      </c>
-      <c r="B62" s="250"/>
-      <c r="C62" s="250"/>
-      <c r="D62" s="250"/>
-      <c r="E62" s="250"/>
-      <c r="F62" s="250"/>
-      <c r="G62" s="250"/>
-      <c r="H62" s="250"/>
-      <c r="I62" s="250"/>
-      <c r="J62" s="250"/>
-      <c r="K62" s="250"/>
-      <c r="L62" s="251"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="240"/>
-      <c r="B63" s="241"/>
-      <c r="C63" s="241"/>
-      <c r="D63" s="241"/>
-      <c r="E63" s="241"/>
-      <c r="F63" s="241"/>
-      <c r="G63" s="241"/>
-      <c r="H63" s="241"/>
-      <c r="I63" s="241"/>
-      <c r="J63" s="241"/>
-      <c r="K63" s="241"/>
-      <c r="L63" s="242"/>
+      <c r="A62" s="258" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" s="259"/>
+      <c r="C62" s="259"/>
+      <c r="D62" s="259"/>
+      <c r="E62" s="259"/>
+      <c r="F62" s="259"/>
+      <c r="G62" s="259"/>
+      <c r="H62" s="259"/>
+      <c r="I62" s="259"/>
+      <c r="J62" s="259"/>
+      <c r="K62" s="259"/>
+      <c r="L62" s="260"/>
+    </row>
+    <row r="63" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A63" s="244" t="s">
+        <v>442</v>
+      </c>
+      <c r="B63" s="242"/>
+      <c r="C63" s="242"/>
+      <c r="D63" s="242"/>
+      <c r="E63" s="242"/>
+      <c r="F63" s="242"/>
+      <c r="G63" s="242"/>
+      <c r="H63" s="242"/>
+      <c r="I63" s="242"/>
+      <c r="J63" s="242"/>
+      <c r="K63" s="242"/>
+      <c r="L63" s="243"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="240"/>
-      <c r="B64" s="241"/>
-      <c r="C64" s="241"/>
-      <c r="D64" s="241"/>
-      <c r="E64" s="241"/>
-      <c r="F64" s="241"/>
-      <c r="G64" s="241"/>
-      <c r="H64" s="241"/>
-      <c r="I64" s="241"/>
-      <c r="J64" s="241"/>
-      <c r="K64" s="241"/>
-      <c r="L64" s="242"/>
+      <c r="A64" s="244" t="s">
+        <v>439</v>
+      </c>
+      <c r="B64" s="242"/>
+      <c r="C64" s="242"/>
+      <c r="D64" s="242"/>
+      <c r="E64" s="242"/>
+      <c r="F64" s="242"/>
+      <c r="G64" s="242"/>
+      <c r="H64" s="242"/>
+      <c r="I64" s="242"/>
+      <c r="J64" s="242"/>
+      <c r="K64" s="242"/>
+      <c r="L64" s="243"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="240"/>
-      <c r="B65" s="241"/>
-      <c r="C65" s="241"/>
-      <c r="D65" s="241"/>
-      <c r="E65" s="241"/>
-      <c r="F65" s="241"/>
-      <c r="G65" s="241"/>
-      <c r="H65" s="241"/>
-      <c r="I65" s="241"/>
-      <c r="J65" s="241"/>
-      <c r="K65" s="241"/>
-      <c r="L65" s="242"/>
+      <c r="A65" s="244" t="s">
+        <v>440</v>
+      </c>
+      <c r="B65" s="242"/>
+      <c r="C65" s="242"/>
+      <c r="D65" s="242"/>
+      <c r="E65" s="242"/>
+      <c r="F65" s="242"/>
+      <c r="G65" s="242"/>
+      <c r="H65" s="242"/>
+      <c r="I65" s="242"/>
+      <c r="J65" s="242"/>
+      <c r="K65" s="242"/>
+      <c r="L65" s="243"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="240"/>
-      <c r="B66" s="241"/>
-      <c r="C66" s="241"/>
-      <c r="D66" s="241"/>
-      <c r="E66" s="241"/>
-      <c r="F66" s="241"/>
-      <c r="G66" s="241"/>
-      <c r="H66" s="241"/>
-      <c r="I66" s="241"/>
-      <c r="J66" s="241"/>
-      <c r="K66" s="241"/>
-      <c r="L66" s="242"/>
+      <c r="A66" s="244" t="s">
+        <v>441</v>
+      </c>
+      <c r="B66" s="242"/>
+      <c r="C66" s="242"/>
+      <c r="D66" s="242"/>
+      <c r="E66" s="242"/>
+      <c r="F66" s="242"/>
+      <c r="G66" s="242"/>
+      <c r="H66" s="242"/>
+      <c r="I66" s="242"/>
+      <c r="J66" s="242"/>
+      <c r="K66" s="242"/>
+      <c r="L66" s="243"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="240"/>
-      <c r="B67" s="241"/>
-      <c r="C67" s="241"/>
-      <c r="D67" s="241"/>
-      <c r="E67" s="241"/>
-      <c r="F67" s="241"/>
-      <c r="G67" s="241"/>
-      <c r="H67" s="241"/>
-      <c r="I67" s="241"/>
-      <c r="J67" s="241"/>
-      <c r="K67" s="241"/>
-      <c r="L67" s="242"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="240"/>
-      <c r="B68" s="241"/>
-      <c r="C68" s="241"/>
-      <c r="D68" s="241"/>
-      <c r="E68" s="241"/>
-      <c r="F68" s="241"/>
-      <c r="G68" s="241"/>
-      <c r="H68" s="241"/>
-      <c r="I68" s="241"/>
-      <c r="J68" s="241"/>
-      <c r="K68" s="241"/>
-      <c r="L68" s="242"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="240"/>
-      <c r="B69" s="241"/>
-      <c r="C69" s="241"/>
-      <c r="D69" s="241"/>
-      <c r="E69" s="241"/>
-      <c r="F69" s="241"/>
-      <c r="G69" s="241"/>
-      <c r="H69" s="241"/>
-      <c r="I69" s="241"/>
-      <c r="J69" s="241"/>
-      <c r="K69" s="241"/>
-      <c r="L69" s="242"/>
+      <c r="A67" s="244" t="s">
+        <v>444</v>
+      </c>
+      <c r="B67" s="242"/>
+      <c r="C67" s="242"/>
+      <c r="D67" s="242"/>
+      <c r="E67" s="242"/>
+      <c r="F67" s="242"/>
+      <c r="G67" s="242"/>
+      <c r="H67" s="242"/>
+      <c r="I67" s="242"/>
+      <c r="J67" s="242"/>
+      <c r="K67" s="242"/>
+      <c r="L67" s="243"/>
+    </row>
+    <row r="68" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A68" s="244" t="s">
+        <v>446</v>
+      </c>
+      <c r="B68" s="242"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="242"/>
+      <c r="E68" s="242"/>
+      <c r="F68" s="242"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="242"/>
+      <c r="I68" s="242"/>
+      <c r="J68" s="242"/>
+      <c r="K68" s="242"/>
+      <c r="L68" s="243"/>
+    </row>
+    <row r="69" spans="1:12" ht="39" customHeight="1">
+      <c r="A69" s="244" t="s">
+        <v>447</v>
+      </c>
+      <c r="B69" s="242"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="242"/>
+      <c r="E69" s="242"/>
+      <c r="F69" s="242"/>
+      <c r="G69" s="242"/>
+      <c r="H69" s="242"/>
+      <c r="I69" s="242"/>
+      <c r="J69" s="242"/>
+      <c r="K69" s="242"/>
+      <c r="L69" s="243"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="240"/>
-      <c r="B70" s="241"/>
-      <c r="C70" s="241"/>
-      <c r="D70" s="241"/>
-      <c r="E70" s="241"/>
-      <c r="F70" s="241"/>
-      <c r="G70" s="241"/>
-      <c r="H70" s="241"/>
-      <c r="I70" s="241"/>
-      <c r="J70" s="241"/>
-      <c r="K70" s="241"/>
-      <c r="L70" s="242"/>
+      <c r="A70" s="244" t="s">
+        <v>448</v>
+      </c>
+      <c r="B70" s="242"/>
+      <c r="C70" s="242"/>
+      <c r="D70" s="242"/>
+      <c r="E70" s="242"/>
+      <c r="F70" s="242"/>
+      <c r="G70" s="242"/>
+      <c r="H70" s="242"/>
+      <c r="I70" s="242"/>
+      <c r="J70" s="242"/>
+      <c r="K70" s="242"/>
+      <c r="L70" s="243"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="240"/>
-      <c r="B71" s="241"/>
-      <c r="C71" s="241"/>
-      <c r="D71" s="241"/>
-      <c r="E71" s="241"/>
-      <c r="F71" s="241"/>
-      <c r="G71" s="241"/>
-      <c r="H71" s="241"/>
-      <c r="I71" s="241"/>
-      <c r="J71" s="241"/>
-      <c r="K71" s="241"/>
-      <c r="L71" s="242"/>
+      <c r="A71" s="244" t="s">
+        <v>445</v>
+      </c>
+      <c r="B71" s="242"/>
+      <c r="C71" s="242"/>
+      <c r="D71" s="242"/>
+      <c r="E71" s="242"/>
+      <c r="F71" s="242"/>
+      <c r="G71" s="242"/>
+      <c r="H71" s="242"/>
+      <c r="I71" s="242"/>
+      <c r="J71" s="242"/>
+      <c r="K71" s="242"/>
+      <c r="L71" s="243"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="240"/>
-      <c r="B72" s="241"/>
-      <c r="C72" s="241"/>
-      <c r="D72" s="241"/>
-      <c r="E72" s="241"/>
-      <c r="F72" s="241"/>
-      <c r="G72" s="241"/>
-      <c r="H72" s="241"/>
-      <c r="I72" s="241"/>
-      <c r="J72" s="241"/>
-      <c r="K72" s="241"/>
-      <c r="L72" s="242"/>
+      <c r="A72" s="244" t="s">
+        <v>449</v>
+      </c>
+      <c r="B72" s="242"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="242"/>
+      <c r="E72" s="242"/>
+      <c r="F72" s="242"/>
+      <c r="G72" s="242"/>
+      <c r="H72" s="242"/>
+      <c r="I72" s="242"/>
+      <c r="J72" s="242"/>
+      <c r="K72" s="242"/>
+      <c r="L72" s="243"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <mergeCells count="70">
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="A17:L17"/>
@@ -5520,71 +5689,19 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A70:L70"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A46:L46"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" activeCellId="1" sqref="A11 A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -5592,63 +5709,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="30">
-      <c r="A1" s="238" t="s">
-        <v>419</v>
+      <c r="A1" s="236" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="235" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="235" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="235" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="235" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="235" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="237" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="237" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="237" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15">
-      <c r="A6" s="237" t="s">
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="235" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15">
-      <c r="A7" s="237" t="s">
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="235" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="237" t="s">
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="235" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" s="237" t="s">
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="235" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15">
-      <c r="A10" s="237" t="s">
+    <row r="11" spans="1:1" ht="15">
+      <c r="A11" s="235" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15">
-      <c r="A11" s="237" t="s">
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="235" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15">
-      <c r="A12" s="237" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5657,11 +5774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5671,16 +5788,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="238" t="s">
-        <v>428</v>
+      <c r="A1" s="236" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5688,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5696,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5795,7 +5912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5808,19 +5925,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="140" customWidth="1"/>
-    <col min="2" max="3" width="3.125" style="141" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="142" customWidth="1"/>
-    <col min="5" max="5" width="18" style="143" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="143" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="143" customWidth="1"/>
-    <col min="8" max="8" width="3.125" style="144" customWidth="1"/>
-    <col min="9" max="11" width="3.625" style="145" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="138" customWidth="1"/>
+    <col min="2" max="3" width="3.125" style="139" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="140" customWidth="1"/>
+    <col min="5" max="5" width="18" style="141" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="141" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="141" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="142" customWidth="1"/>
+    <col min="9" max="11" width="3.625" style="143" customWidth="1"/>
     <col min="12" max="12" width="4.625" style="68" customWidth="1"/>
-    <col min="13" max="16" width="25.625" style="146" customWidth="1"/>
-    <col min="17" max="20" width="3.625" style="141" customWidth="1"/>
-    <col min="21" max="21" width="3.625" style="147" customWidth="1"/>
-    <col min="22" max="22" width="14.625" style="146" customWidth="1"/>
+    <col min="13" max="16" width="25.625" style="144" customWidth="1"/>
+    <col min="17" max="20" width="3.625" style="139" customWidth="1"/>
+    <col min="21" max="21" width="3.625" style="145" customWidth="1"/>
+    <col min="22" max="22" width="14.625" style="144" customWidth="1"/>
     <col min="23" max="23" width="2.125" style="122" customWidth="1"/>
     <col min="24" max="26" width="11.375" style="122"/>
     <col min="27" max="27" width="42" style="122" customWidth="1"/>
@@ -5834,238 +5951,238 @@
   <sheetData>
     <row r="1" spans="1:34" ht="63.75" customHeight="1"/>
     <row r="2" spans="1:34" ht="23.25" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="272" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="270" t="s">
         <v>392</v>
       </c>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="151" t="s">
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="263" t="s">
+      <c r="Q2" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="264"/>
-      <c r="U2" s="264"/>
-      <c r="V2" s="265"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="263"/>
     </row>
     <row r="3" spans="1:34" ht="23.25" customHeight="1">
-      <c r="A3" s="152" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="155" t="s">
+      <c r="A3" s="150" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="271"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="266" t="s">
+      <c r="Q3" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="267"/>
-      <c r="S3" s="267"/>
-      <c r="T3" s="267"/>
-      <c r="U3" s="267"/>
-      <c r="V3" s="268"/>
-    </row>
-    <row r="4" spans="1:34" s="156" customFormat="1" ht="20.25">
-      <c r="A4" s="269" t="s">
+      <c r="R3" s="265"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="266"/>
+    </row>
+    <row r="4" spans="1:34" s="154" customFormat="1" ht="20.25">
+      <c r="A4" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="270"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="269" t="s">
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
-      <c r="K4" s="270"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-      <c r="N4" s="270"/>
-      <c r="O4" s="270"/>
-      <c r="P4" s="270"/>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="270"/>
-      <c r="S4" s="270"/>
-      <c r="T4" s="270"/>
-      <c r="U4" s="270"/>
-      <c r="V4" s="271"/>
+      <c r="I4" s="268"/>
+      <c r="J4" s="268"/>
+      <c r="K4" s="268"/>
+      <c r="L4" s="268"/>
+      <c r="M4" s="268"/>
+      <c r="N4" s="268"/>
+      <c r="O4" s="268"/>
+      <c r="P4" s="268"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="268"/>
+      <c r="S4" s="268"/>
+      <c r="T4" s="268"/>
+      <c r="U4" s="268"/>
+      <c r="V4" s="269"/>
     </row>
     <row r="5" spans="1:34" ht="12" customHeight="1">
-      <c r="A5" s="157"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="163" t="s">
+      <c r="A5" s="155"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="161" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="137.25">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="226" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="227" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="228" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="228" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="228" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="229" t="s">
         <v>396</v>
       </c>
-      <c r="B6" s="229" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="229" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="164" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="165" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="230" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="230" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="230" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="231" t="s">
+      <c r="L6" s="230" t="s">
         <v>397</v>
-      </c>
-      <c r="L6" s="232" t="s">
-        <v>398</v>
       </c>
       <c r="M6" s="124" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="124" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O6" s="124" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="124" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q6" s="233" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q6" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="233" t="s">
+      <c r="R6" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="233" t="s">
+      <c r="S6" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="233" t="s">
+      <c r="T6" s="231" t="s">
+        <v>396</v>
+      </c>
+      <c r="U6" s="232" t="s">
         <v>397</v>
-      </c>
-      <c r="U6" s="234" t="s">
-        <v>398</v>
       </c>
       <c r="V6" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="193" t="str">
+      <c r="AA6" s="191" t="str">
         <f t="shared" ref="AA6:AF6" si="0">B6</f>
         <v>Lebensphase</v>
       </c>
-      <c r="AB6" s="193" t="str">
+      <c r="AB6" s="191" t="str">
         <f t="shared" si="0"/>
         <v>Anwendung/Funktion</v>
       </c>
-      <c r="AC6" s="194" t="str">
+      <c r="AC6" s="192" t="str">
         <f t="shared" si="0"/>
         <v>Aufgabe/ Tätigkeit</v>
       </c>
-      <c r="AD6" s="195" t="str">
+      <c r="AD6" s="193" t="str">
         <f t="shared" si="0"/>
         <v>Ursprung der Gefährdung durch Maschine,  Umwelt und Mensch</v>
       </c>
-      <c r="AE6" s="193" t="str">
+      <c r="AE6" s="191" t="str">
         <f t="shared" si="0"/>
         <v>Gefährdungsereignis</v>
       </c>
-      <c r="AF6" s="193" t="str">
+      <c r="AF6" s="191" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Folge der Gefährdung für Mensch </v>
       </c>
-      <c r="AG6" s="192"/>
-      <c r="AH6" s="192"/>
+      <c r="AG6" s="190"/>
+      <c r="AH6" s="190"/>
     </row>
     <row r="7" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A7" s="166">
+      <c r="A7" s="164">
         <v>1</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="217"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
       <c r="L7" s="125" t="str">
         <f>IF(OR(K7="",K7="-"),"",LOOKUP(CONCATENATE(K7,IF(SUM(H7:J7)&lt;5,1,IF(SUM(H7:J7)&lt;8,2,IF(SUM(H7:J7)&lt;11,3,IF(SUM(H7:J7)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
       <c r="Q7" s="125"/>
       <c r="R7" s="125"/>
       <c r="S7" s="125"/>
@@ -6075,103 +6192,103 @@
         <v/>
       </c>
       <c r="V7" s="126"/>
-      <c r="AA7" s="239" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB7" s="196" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC7" s="196" t="e">
+      <c r="AA7" s="237" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB7" s="194" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC7" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD7" s="197" t="str">
+      <c r="AD7" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C11</f>
         <v xml:space="preserve">Ursprung  </v>
       </c>
-      <c r="AE7" s="196" t="str">
+      <c r="AE7" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B26</f>
         <v>Ausfall von Einrichtungen zum Anhalten von sich bewegenden Teilen</v>
       </c>
-      <c r="AF7" s="196" t="str">
+      <c r="AF7" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D12</f>
         <v>F1 Mechanische Gefährdung</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A8" s="166">
+      <c r="A8" s="164">
         <v>2</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="215"/>
       <c r="L8" s="125" t="str">
         <f>IF(OR(K8="",K8="-"),"",LOOKUP(CONCATENATE(K8,IF(SUM(H8:J8)&lt;5,1,IF(SUM(H8:J8)&lt;8,2,IF(SUM(H8:J8)&lt;11,3,IF(SUM(H8:J8)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
       <c r="Q8" s="125"/>
       <c r="R8" s="125"/>
       <c r="S8" s="125"/>
       <c r="T8" s="125"/>
       <c r="U8" s="126"/>
       <c r="V8" s="126"/>
-      <c r="AA8" s="239" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB8" s="196" t="e">
+      <c r="AA8" s="237" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB8" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC8" s="196" t="e">
+      <c r="AC8" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD8" s="197" t="str">
+      <c r="AD8" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C12</f>
         <v>U1 Mechanische Gefährdung</v>
       </c>
-      <c r="AE8" s="196" t="str">
+      <c r="AE8" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B15</f>
         <v>Bruch während des Betriebs</v>
       </c>
-      <c r="AF8" s="196" t="str">
+      <c r="AF8" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D13</f>
         <v>F1.1 überfahren werden</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A9" s="166">
+      <c r="A9" s="164">
         <v>3</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
       <c r="L9" s="125" t="str">
         <f>IF(OR(K9="",K9="-"),"",LOOKUP(CONCATENATE(K9,IF(SUM(H9:J9)&lt;5,1,IF(SUM(H9:J9)&lt;8,2,IF(SUM(H9:J9)&lt;11,3,IF(SUM(H9:J9)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
       <c r="Q9" s="125"/>
       <c r="R9" s="125"/>
       <c r="S9" s="125"/>
@@ -6181,147 +6298,147 @@
         <v/>
       </c>
       <c r="V9" s="126"/>
-      <c r="AA9" s="239" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB9" s="196" t="e">
+      <c r="AA9" s="237" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB9" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC9" s="196" t="e">
+      <c r="AC9" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD9" s="197" t="str">
+      <c r="AD9" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C13</f>
         <v>U1.1 Beschleunigung/Abbremsung (kinetische Energie)</v>
       </c>
-      <c r="AE9" s="196" t="str">
+      <c r="AE9" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B19</f>
         <v>direkter Kontakt</v>
       </c>
-      <c r="AF9" s="196" t="str">
+      <c r="AF9" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D14</f>
         <v>F1.2 weggeschleudert werden</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A10" s="166">
+      <c r="A10" s="164">
         <v>4</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
       <c r="L10" s="125" t="str">
         <f>IF(OR(K10="",K10="-"),"",LOOKUP(CONCATENATE(K10,IF(SUM(H10:J10)&lt;5,1,IF(SUM(H10:J10)&lt;8,2,IF(SUM(H10:J10)&lt;11,3,IF(SUM(H10:J10)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
       <c r="Q10" s="125"/>
       <c r="R10" s="125"/>
       <c r="S10" s="125"/>
       <c r="T10" s="125"/>
       <c r="U10" s="126"/>
       <c r="V10" s="126"/>
-      <c r="AA10" s="239" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB10" s="196" t="e">
+      <c r="AA10" s="237" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB10" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC10" s="196" t="e">
+      <c r="AC10" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD10" s="197" t="str">
+      <c r="AD10" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C14</f>
         <v>U1.2 spitze Teile</v>
       </c>
-      <c r="AE10" s="196" t="str">
+      <c r="AE10" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B20</f>
         <v>Durchschlag</v>
       </c>
-      <c r="AF10" s="196" t="str">
+      <c r="AF10" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D15</f>
         <v>F1.3 Quetschen</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A11" s="166">
+      <c r="A11" s="164">
         <v>5</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="125" t="str">
         <f>IF(OR(K11="",K11="-"),"",LOOKUP(CONCATENATE(K11,IF(SUM(H11:J11)&lt;5,1,IF(SUM(H11:J11)&lt;8,2,IF(SUM(H11:J11)&lt;11,3,IF(SUM(H11:J11)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="174"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="172"/>
       <c r="U11" s="126" t="str">
         <f>IF(OR(T11="",T11="-"),"",LOOKUP(CONCATENATE(T11,IF(SUM(Q11:S11)&lt;5,1,IF(SUM(Q11:S11)&lt;8,2,IF(SUM(Q11:S11)&lt;11,3,IF(SUM(Q11:S11)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
       <c r="V11" s="126"/>
-      <c r="AA11" s="239" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB11" s="196" t="e">
+      <c r="AA11" s="237" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB11" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC11" s="196" t="e">
+      <c r="AC11" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD11" s="197" t="str">
+      <c r="AD11" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C15</f>
         <v>U1.3 Annäherung eines sich bewegenden Teiles</v>
       </c>
-      <c r="AE11" s="196" t="str">
+      <c r="AE11" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B33</f>
         <v>Emission eines Geräuschpegels, der gefährdend sein kann</v>
       </c>
-      <c r="AF11" s="196" t="str">
+      <c r="AF11" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D16</f>
         <v>F1.4 Schneiden oder Abschneiden</v>
       </c>
     </row>
     <row r="12" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A12" s="166">
+      <c r="A12" s="164">
         <v>6</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
       <c r="H12" s="125"/>
       <c r="I12" s="125"/>
       <c r="J12" s="125"/>
@@ -6330,50 +6447,50 @@
         <f>IF(OR(K12="",K12="-"),"",LOOKUP(CONCATENATE(K12,IF(SUM(H12:J12)&lt;5,1,IF(SUM(H12:J12)&lt;8,2,IF(SUM(H12:J12)&lt;11,3,IF(SUM(H12:J12)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="176"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="174"/>
       <c r="U12" s="126"/>
       <c r="V12" s="126"/>
-      <c r="AA12" s="239" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB12" s="196" t="e">
+      <c r="AA12" s="237" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB12" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC12" s="196" t="e">
+      <c r="AC12" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD12" s="197" t="str">
+      <c r="AD12" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C16</f>
         <v>U1.4 schneidende Teile</v>
       </c>
-      <c r="AE12" s="196" t="str">
+      <c r="AE12" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B34</f>
         <v>Emission eines Geräuschpegels, der zu Störungen der Sprachkommunikation oder zu Störungen akustischer Signale führen kann</v>
       </c>
-      <c r="AF12" s="196" t="str">
+      <c r="AF12" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D17</f>
         <v>F1.5 Einziehen oder Fangen</v>
       </c>
     </row>
     <row r="13" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A13" s="166">
+      <c r="A13" s="164">
         <v>7</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
       <c r="H13" s="125"/>
       <c r="I13" s="125"/>
       <c r="J13" s="125"/>
@@ -6382,10 +6499,10 @@
         <f>IF(OR(K13="",K13="-"),"",LOOKUP(CONCATENATE(K13,IF(SUM(H13:J13)&lt;5,1,IF(SUM(H13:J13)&lt;8,2,IF(SUM(H13:J13)&lt;11,3,IF(SUM(H13:J13)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
       <c r="Q13" s="125"/>
       <c r="R13" s="125"/>
       <c r="S13" s="125"/>
@@ -6395,40 +6512,40 @@
         <v/>
       </c>
       <c r="V13" s="126"/>
-      <c r="AA13" s="239" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB13" s="196" t="e">
+      <c r="AA13" s="237" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB13" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC13" s="196" t="e">
+      <c r="AC13" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD13" s="197" t="str">
+      <c r="AD13" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C17</f>
         <v>U1.5 elastische Elemente</v>
       </c>
-      <c r="AE13" s="196" t="str">
+      <c r="AE13" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B35</f>
         <v>Emission eines Schwingungspegels, der gefährdend sein kann</v>
       </c>
-      <c r="AF13" s="196" t="str">
+      <c r="AF13" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D18</f>
         <v>F1.6 Erfassen</v>
       </c>
     </row>
     <row r="14" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A14" s="166">
+      <c r="A14" s="164">
         <v>8</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
       <c r="H14" s="125"/>
       <c r="I14" s="125"/>
       <c r="J14" s="125"/>
@@ -6437,10 +6554,10 @@
         <f>IF(OR(K14="",K14="-"),"",LOOKUP(CONCATENATE(K14,IF(SUM(H14:J14)&lt;5,1,IF(SUM(H14:J14)&lt;8,2,IF(SUM(H14:J14)&lt;11,3,IF(SUM(H14:J14)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
       <c r="Q14" s="125"/>
       <c r="R14" s="125"/>
       <c r="S14" s="125"/>
@@ -6450,40 +6567,40 @@
         <v/>
       </c>
       <c r="V14" s="126"/>
-      <c r="AA14" s="239" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB14" s="196" t="e">
+      <c r="AA14" s="237" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB14" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC14" s="196" t="e">
+      <c r="AC14" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD14" s="197" t="str">
+      <c r="AD14" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C18</f>
         <v>U1.6 herabfallende Gegenstände</v>
       </c>
-      <c r="AE14" s="196" t="str">
+      <c r="AE14" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B32</f>
         <v>Emission eines Stoffes, der gefährdend sein kann</v>
       </c>
-      <c r="AF14" s="196" t="str">
+      <c r="AF14" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D19</f>
         <v>F1.7 Reiben oder Abschürfen</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A15" s="166">
+      <c r="A15" s="164">
         <v>9</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
       <c r="H15" s="125"/>
       <c r="I15" s="125"/>
       <c r="J15" s="125"/>
@@ -6492,10 +6609,10 @@
         <f>IF(OR(K15="",K15="-"),"",LOOKUP(CONCATENATE(K15,IF(SUM(H15:J15)&lt;5,1,IF(SUM(H15:J15)&lt;8,2,IF(SUM(H15:J15)&lt;11,3,IF(SUM(H15:J15)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
       <c r="Q15" s="125"/>
       <c r="R15" s="125"/>
       <c r="S15" s="125"/>
@@ -6505,40 +6622,40 @@
         <v/>
       </c>
       <c r="V15" s="126"/>
-      <c r="AA15" s="239" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB15" s="196" t="e">
+      <c r="AA15" s="237" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB15" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC15" s="196" t="e">
+      <c r="AC15" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD15" s="197" t="str">
+      <c r="AD15" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C19</f>
         <v>U1.7 Schwerkraft (gespeicherte Energie)</v>
       </c>
-      <c r="AE15" s="196" t="str">
+      <c r="AE15" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B36</f>
         <v>Emission von Strahlungsfeldern, die gefährdend sein können</v>
       </c>
-      <c r="AF15" s="196" t="str">
+      <c r="AF15" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D20</f>
         <v>F1.8 Stoß</v>
       </c>
     </row>
     <row r="16" spans="1:34" s="123" customFormat="1" ht="15">
-      <c r="A16" s="166">
+      <c r="A16" s="164">
         <v>10</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
       <c r="H16" s="125"/>
       <c r="I16" s="125"/>
       <c r="J16" s="125"/>
@@ -6547,10 +6664,10 @@
         <f>IF(OR(K16="",K16="-"),"",LOOKUP(CONCATENATE(K16,IF(SUM(H16:J16)&lt;5,1,IF(SUM(H16:J16)&lt;8,2,IF(SUM(H16:J16)&lt;11,3,IF(SUM(H16:J16)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="168"/>
       <c r="Q16" s="125"/>
       <c r="R16" s="125"/>
       <c r="S16" s="125"/>
@@ -6560,40 +6677,40 @@
         <v/>
       </c>
       <c r="V16" s="126"/>
-      <c r="AA16" s="239" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB16" s="196" t="e">
+      <c r="AA16" s="237" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB16" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC16" s="196" t="e">
+      <c r="AC16" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD16" s="197" t="str">
+      <c r="AD16" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C20</f>
         <v>U1.8 Höhe gegenüber dem Boden</v>
       </c>
-      <c r="AE16" s="196" t="str">
+      <c r="AE16" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B22</f>
         <v>Feuer</v>
       </c>
-      <c r="AF16" s="196" t="str">
+      <c r="AF16" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D21</f>
         <v>F1.9 Eindringen von unter Druck stehenden Medien</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="123" customFormat="1" ht="15">
-      <c r="A17" s="166">
+      <c r="A17" s="164">
         <v>11</v>
       </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
       <c r="H17" s="125"/>
       <c r="I17" s="125"/>
       <c r="J17" s="125"/>
@@ -6602,10 +6719,10 @@
         <f>IF(OR(K17="",K17="-"),"",LOOKUP(CONCATENATE(K17,IF(SUM(H17:J17)&lt;5,1,IF(SUM(H17:J17)&lt;8,2,IF(SUM(H17:J17)&lt;11,3,IF(SUM(H17:J17)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
       <c r="Q17" s="125"/>
       <c r="R17" s="125"/>
       <c r="S17" s="125"/>
@@ -6615,40 +6732,40 @@
         <v/>
       </c>
       <c r="V17" s="126"/>
-      <c r="AA17" s="239" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB17" s="196" t="e">
+      <c r="AA17" s="237" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB17" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AC17" s="196" t="e">
+      <c r="AC17" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD17" s="197" t="str">
+      <c r="AD17" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C21</f>
         <v>U1.9 Hochdruck</v>
       </c>
-      <c r="AE17" s="196" t="str">
+      <c r="AE17" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B13</f>
         <v>Herabfallen oder Ausstoß von Objekten</v>
       </c>
-      <c r="AF17" s="196" t="str">
+      <c r="AF17" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D22</f>
         <v>F1.10 Scheren</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A18" s="166">
+      <c r="A18" s="164">
         <v>12</v>
       </c>
-      <c r="B18" s="177"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
       <c r="H18" s="125"/>
       <c r="I18" s="125"/>
       <c r="J18" s="125"/>
@@ -6657,10 +6774,10 @@
         <f>IF(OR(K18="",K18="-"),"",LOOKUP(CONCATENATE(K18,IF(SUM(H18:J18)&lt;5,1,IF(SUM(H18:J18)&lt;8,2,IF(SUM(H18:J18)&lt;11,3,IF(SUM(H18:J18)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="168"/>
       <c r="Q18" s="125"/>
       <c r="R18" s="125"/>
       <c r="S18" s="125"/>
@@ -6670,185 +6787,185 @@
         <v/>
       </c>
       <c r="V18" s="126"/>
-      <c r="AA18" s="196"/>
-      <c r="AB18" s="196"/>
-      <c r="AC18" s="196" t="e">
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD18" s="197" t="str">
+      <c r="AD18" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C22</f>
         <v>U1.10 Beweglichkeit der Maschine</v>
       </c>
-      <c r="AE18" s="196" t="str">
+      <c r="AE18" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B25</f>
         <v>Herabfallen oder Herausschleudern eines sich bewegenden Maschinenteils oder eines in der Maschine festgeklemmten Werkstückes</v>
       </c>
-      <c r="AF18" s="196" t="str">
+      <c r="AF18" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D23</f>
         <v>F1.11 Ausrutschen, Stolpern oder Stürzen</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A19" s="166">
+      <c r="A19" s="164">
         <v>13</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
       <c r="L19" s="125" t="str">
         <f>IF(OR(K19="",K19="-"),"",LOOKUP(CONCATENATE(K19,IF(SUM(H19:J19)&lt;5,1,IF(SUM(H19:J19)&lt;8,2,IF(SUM(H19:J19)&lt;11,3,IF(SUM(H19:J19)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M19" s="178"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="174"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
+      <c r="T19" s="172"/>
       <c r="U19" s="126" t="str">
         <f>IF(OR(T19="",T19="-"),"",LOOKUP(CONCATENATE(T19,IF(SUM(Q19:S19)&lt;5,1,IF(SUM(Q19:S19)&lt;8,2,IF(SUM(Q19:S19)&lt;11,3,IF(SUM(Q19:S19)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V19" s="179"/>
-      <c r="AA19" s="196"/>
-      <c r="AB19" s="196"/>
-      <c r="AC19" s="196" t="e">
+      <c r="V19" s="177"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD19" s="197" t="str">
+      <c r="AD19" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C23</f>
         <v>U1.11 sich bewegende Teile</v>
       </c>
-      <c r="AE19" s="196" t="str">
+      <c r="AE19" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B17</f>
         <v>Herausspritzen von Flüssigkeiten unter hohem Druck</v>
       </c>
-      <c r="AF19" s="196" t="str">
+      <c r="AF19" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D24</f>
         <v>F1.12 Durchstich oder Einstich</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A20" s="166">
+      <c r="A20" s="164">
         <v>14</v>
       </c>
-      <c r="B20" s="177"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
       <c r="L20" s="125" t="str">
         <f>IF(OR(K20="",K20="-"),"",LOOKUP(CONCATENATE(K20,IF(SUM(H20:J20)&lt;5,1,IF(SUM(H20:J20)&lt;8,2,IF(SUM(H20:J20)&lt;11,3,IF(SUM(H20:J20)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M20" s="172"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="171"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="172"/>
       <c r="U20" s="126" t="str">
         <f>IF(OR(T20="",T20="-"),"",LOOKUP(CONCATENATE(T20,IF(SUM(Q20:S20)&lt;5,1,IF(SUM(Q20:S20)&lt;8,2,IF(SUM(Q20:S20)&lt;11,3,IF(SUM(Q20:S20)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V20" s="179"/>
-      <c r="AA20" s="196"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196" t="e">
+      <c r="V20" s="177"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD20" s="197" t="str">
+      <c r="AD20" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C24</f>
         <v>U1.12 rotierende Teile</v>
       </c>
-      <c r="AE20" s="196" t="str">
+      <c r="AE20" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B23</f>
         <v>indirekter Kontakt</v>
       </c>
-      <c r="AF20" s="196" t="str">
+      <c r="AF20" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D25</f>
         <v>F1.13 Ersticken</v>
       </c>
     </row>
     <row r="21" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A21" s="166">
+      <c r="A21" s="164">
         <v>15</v>
       </c>
-      <c r="B21" s="177"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
       <c r="L21" s="125" t="str">
         <f>IF(OR(K21="",K21="-"),"",LOOKUP(CONCATENATE(K21,IF(SUM(H21:J21)&lt;5,1,IF(SUM(H21:J21)&lt;8,2,IF(SUM(H21:J21)&lt;11,3,IF(SUM(H21:J21)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="172"/>
       <c r="U21" s="126" t="str">
         <f>IF(OR(T21="",T21="-"),"",LOOKUP(CONCATENATE(T21,IF(SUM(Q21:S21)&lt;5,1,IF(SUM(Q21:S21)&lt;8,2,IF(SUM(Q21:S21)&lt;11,3,IF(SUM(Q21:S21)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V21" s="179"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196" t="e">
+      <c r="V21" s="177"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD21" s="197" t="str">
+      <c r="AD21" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C25</f>
         <v>U1.13 raue, rutschige Oberfläche</v>
       </c>
-      <c r="AE21" s="196" t="str">
+      <c r="AE21" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B31</f>
         <v>Kontakt mit Objekten hoher oder geringer Temperatur</v>
       </c>
-      <c r="AF21" s="196" t="str">
+      <c r="AF21" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D26</f>
         <v>./.</v>
       </c>
     </row>
     <row r="22" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A22" s="166">
+      <c r="A22" s="164">
         <v>16</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
       <c r="H22" s="125"/>
       <c r="I22" s="125"/>
       <c r="J22" s="125"/>
@@ -6857,10 +6974,10 @@
         <f>IF(OR(K22="",K22="-"),"",LOOKUP(CONCATENATE(K22,IF(SUM(H22:J22)&lt;5,1,IF(SUM(H22:J22)&lt;8,2,IF(SUM(H22:J22)&lt;11,3,IF(SUM(H22:J22)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="170"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
       <c r="Q22" s="125"/>
       <c r="R22" s="125"/>
       <c r="S22" s="125"/>
@@ -6870,35 +6987,35 @@
         <v/>
       </c>
       <c r="V22" s="126"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196" t="e">
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD22" s="197" t="str">
+      <c r="AD22" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C26</f>
         <v>U1.14 scharfe Kanten</v>
       </c>
-      <c r="AE22" s="196" t="str">
+      <c r="AE22" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B9</f>
         <v>Kontakt mit rauen Oberflächen</v>
       </c>
-      <c r="AF22" s="196" t="str">
+      <c r="AF22" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D27</f>
         <v>./.</v>
       </c>
     </row>
     <row r="23" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A23" s="166">
+      <c r="A23" s="164">
         <v>17</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
       <c r="H23" s="125"/>
       <c r="I23" s="125"/>
       <c r="J23" s="125"/>
@@ -6907,48 +7024,48 @@
         <f>IF(OR(K23="",K23="-"),"",LOOKUP(CONCATENATE(K23,IF(SUM(H23:J23)&lt;5,1,IF(SUM(H23:J23)&lt;8,2,IF(SUM(H23:J23)&lt;11,3,IF(SUM(H23:J23)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M23" s="175"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="176"/>
-      <c r="T23" s="176"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="174"/>
       <c r="U23" s="126" t="str">
         <f>IF(OR(T23="",T23="-"),"",LOOKUP(CONCATENATE(T23,IF(SUM(Q23:S23)&lt;5,1,IF(SUM(Q23:S23)&lt;8,2,IF(SUM(Q23:S23)&lt;11,3,IF(SUM(Q23:S23)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
       <c r="V23" s="126"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196" t="e">
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD23" s="197" t="str">
+      <c r="AD23" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C27</f>
         <v>U1.15 Standfestigkeit/-sicherheit</v>
       </c>
-      <c r="AE23" s="196" t="str">
+      <c r="AE23" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B12</f>
         <v>Kontakt mit rotierenden offenen Enden</v>
       </c>
-      <c r="AF23" s="196" t="str">
+      <c r="AF23" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D28</f>
         <v>./.</v>
       </c>
     </row>
     <row r="24" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A24" s="166">
+      <c r="A24" s="164">
         <v>18</v>
       </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
       <c r="H24" s="125"/>
       <c r="I24" s="125"/>
       <c r="J24" s="125"/>
@@ -6957,10 +7074,10 @@
         <f>IF(OR(K24="",K24="-"),"",LOOKUP(CONCATENATE(K24,IF(SUM(H24:J24)&lt;5,1,IF(SUM(H24:J24)&lt;8,2,IF(SUM(H24:J24)&lt;11,3,IF(SUM(H24:J24)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="168"/>
       <c r="Q24" s="125"/>
       <c r="R24" s="125"/>
       <c r="S24" s="125"/>
@@ -6970,35 +7087,35 @@
         <v/>
       </c>
       <c r="V24" s="126"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="196" t="e">
+      <c r="AA24" s="194"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD24" s="197" t="str">
+      <c r="AD24" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C28</f>
         <v>U1.16 Vakuum</v>
       </c>
-      <c r="AE24" s="196" t="str">
+      <c r="AE24" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B10</f>
         <v>Kontakt mit scharfen Kanten und Ecken, vorstehenden Teilen</v>
       </c>
-      <c r="AF24" s="196">
+      <c r="AF24" s="194">
         <f>'Ursprung-Folgen nach ISO 12100'!D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A25" s="166">
+      <c r="A25" s="164">
         <v>19</v>
       </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
       <c r="H25" s="125"/>
       <c r="I25" s="125"/>
       <c r="J25" s="125"/>
@@ -7007,10 +7124,10 @@
         <f>IF(OR(K25="",K25="-"),"",LOOKUP(CONCATENATE(K25,IF(SUM(H25:J25)&lt;5,1,IF(SUM(H25:J25)&lt;8,2,IF(SUM(H25:J25)&lt;11,3,IF(SUM(H25:J25)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="168"/>
       <c r="Q25" s="125"/>
       <c r="R25" s="125"/>
       <c r="S25" s="125"/>
@@ -7020,186 +7137,186 @@
         <v/>
       </c>
       <c r="V25" s="126"/>
-      <c r="AA25" s="196"/>
-      <c r="AB25" s="196"/>
-      <c r="AC25" s="196" t="e">
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="194"/>
+      <c r="AC25" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD25" s="197" t="str">
+      <c r="AD25" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C29</f>
         <v>U1.17 Beschleunigung/Abbremsung</v>
       </c>
-      <c r="AE25" s="196" t="str">
+      <c r="AE25" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B24</f>
         <v>Kurzschluss</v>
       </c>
-      <c r="AF25" s="196">
+      <c r="AF25" s="194">
         <f>'Ursprung-Folgen nach ISO 12100'!D30</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:32" s="123" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A26" s="166">
+      <c r="A26" s="164">
         <v>20</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="169"/>
       <c r="L26" s="125" t="str">
         <f>IF(OR(K26="",K26="-"),"",LOOKUP(CONCATENATE(K26,IF(SUM(H26:J26)&lt;5,1,IF(SUM(H26:J26)&lt;8,2,IF(SUM(H26:J26)&lt;11,3,IF(SUM(H26:J26)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M26" s="172"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172"/>
       <c r="U26" s="126" t="str">
         <f>IF(OR(T26="",T26="-"),"",LOOKUP(CONCATENATE(T26,IF(SUM(Q26:S26)&lt;5,1,IF(SUM(Q26:S26)&lt;8,2,IF(SUM(Q26:S26)&lt;11,3,IF(SUM(Q26:S26)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V26" s="179"/>
-      <c r="AA26" s="196"/>
-      <c r="AB26" s="196"/>
-      <c r="AC26" s="196" t="e">
+      <c r="V26" s="177"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD26" s="197" t="str">
+      <c r="AD26" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C30</f>
         <v>U1.18 Annäherung eines sich bewegenden Teils an ein 
           feststehendes Teil</v>
       </c>
-      <c r="AE26" s="196" t="str">
+      <c r="AE26" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B21</f>
         <v>Lichtbogen</v>
       </c>
-      <c r="AF26" s="196" t="str">
+      <c r="AF26" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D31</f>
         <v>F2 Elektrische Gefährdungen</v>
       </c>
     </row>
     <row r="27" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A27" s="166">
+      <c r="A27" s="164">
         <v>21</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="169"/>
       <c r="L27" s="125" t="str">
         <f>IF(OR(K27="",K27="-"),"",LOOKUP(CONCATENATE(K27,IF(SUM(H27:J27)&lt;5,1,IF(SUM(H27:J27)&lt;8,2,IF(SUM(H27:J27)&lt;11,3,IF(SUM(H27:J27)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M27" s="172"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="174"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="174"/>
-      <c r="T27" s="174"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="171"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="172"/>
       <c r="U27" s="126" t="str">
         <f>IF(OR(T27="",T27="-"),"",LOOKUP(CONCATENATE(T27,IF(SUM(Q27:S27)&lt;5,1,IF(SUM(Q27:S27)&lt;8,2,IF(SUM(Q27:S27)&lt;11,3,IF(SUM(Q27:S27)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V27" s="179"/>
-      <c r="AA27" s="196"/>
-      <c r="AB27" s="196"/>
-      <c r="AC27" s="196" t="e">
+      <c r="V27" s="177"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
+      <c r="AC27" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD27" s="197" t="str">
+      <c r="AD27" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C31</f>
         <v>U2 Elektrische Gefährdungen</v>
       </c>
-      <c r="AE27" s="196" t="str">
+      <c r="AE27" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B27</f>
         <v>Maschinentätigkeit als Ergebnis der Wirkungslosigkeit (Umgehen oder Ausfall) von Schutzeinrichtungen</v>
       </c>
-      <c r="AF27" s="196" t="str">
+      <c r="AF27" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D32</f>
         <v>F2.1 Verbrennung</v>
       </c>
     </row>
     <row r="28" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A28" s="166">
+      <c r="A28" s="164">
         <v>22</v>
       </c>
-      <c r="B28" s="177"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="169"/>
       <c r="L28" s="125" t="str">
         <f>IF(OR(K28="",K28="-"),"",LOOKUP(CONCATENATE(K28,IF(SUM(H28:J28)&lt;5,1,IF(SUM(H28:J28)&lt;8,2,IF(SUM(H28:J28)&lt;11,3,IF(SUM(H28:J28)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="174"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="172"/>
       <c r="U28" s="126" t="str">
         <f>IF(OR(T28="",T28="-"),"",LOOKUP(CONCATENATE(T28,IF(SUM(Q28:S28)&lt;5,1,IF(SUM(Q28:S28)&lt;8,2,IF(SUM(Q28:S28)&lt;11,3,IF(SUM(Q28:S28)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V28" s="179"/>
-      <c r="AA28" s="196"/>
-      <c r="AB28" s="196"/>
-      <c r="AC28" s="196" t="e">
+      <c r="V28" s="177"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD28" s="197" t="str">
+      <c r="AD28" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C32</f>
         <v>U2.1 Lichtbogen</v>
       </c>
-      <c r="AE28" s="196" t="str">
+      <c r="AE28" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B39</f>
         <v>menschliche Fehler/ menschliches Fehlverhalten (unbeabsichtigt und/oder vorsätzlich durch die Konstruktion hervorgerufen)</v>
       </c>
-      <c r="AF28" s="196" t="str">
+      <c r="AF28" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D33</f>
         <v>F2.2 chemische Reaktionen</v>
       </c>
     </row>
     <row r="29" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A29" s="166">
+      <c r="A29" s="164">
         <v>23</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="125"/>
       <c r="I29" s="125"/>
       <c r="J29" s="125"/>
@@ -7208,48 +7325,48 @@
         <f>IF(OR(K29="",K29="-"),"",LOOKUP(CONCATENATE(K29,IF(SUM(H29:J29)&lt;5,1,IF(SUM(H29:J29)&lt;8,2,IF(SUM(H29:J29)&lt;11,3,IF(SUM(H29:J29)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="176"/>
-      <c r="S29" s="176"/>
-      <c r="T29" s="176"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
       <c r="U29" s="126" t="str">
         <f>IF(OR(T29="",T29="-"),"",LOOKUP(CONCATENATE(T29,IF(SUM(Q29:S29)&lt;5,1,IF(SUM(Q29:S29)&lt;8,2,IF(SUM(Q29:S29)&lt;11,3,IF(SUM(Q29:S29)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V29" s="179"/>
-      <c r="AA29" s="196"/>
-      <c r="AB29" s="196"/>
-      <c r="AC29" s="196" t="e">
+      <c r="V29" s="177"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD29" s="197" t="str">
+      <c r="AD29" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C33</f>
         <v>U2.2 elektromagnetische Vorgänge</v>
       </c>
-      <c r="AE29" s="196" t="str">
+      <c r="AE29" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B37</f>
         <v>raue Umgebungsbedingungen</v>
       </c>
-      <c r="AF29" s="196" t="str">
+      <c r="AF29" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D34</f>
         <v>F2.3 Auswirkungen auf medizinische Implantate</v>
       </c>
     </row>
     <row r="30" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A30" s="166">
+      <c r="A30" s="164">
         <v>24</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
       <c r="H30" s="125"/>
       <c r="I30" s="125"/>
       <c r="J30" s="125"/>
@@ -7258,48 +7375,48 @@
         <f>IF(OR(K30="",K30="-"),"",LOOKUP(CONCATENATE(K30,IF(SUM(H30:J30)&lt;5,1,IF(SUM(H30:J30)&lt;8,2,IF(SUM(H30:J30)&lt;11,3,IF(SUM(H30:J30)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M30" s="175"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="176"/>
-      <c r="R30" s="176"/>
-      <c r="S30" s="176"/>
-      <c r="T30" s="176"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="174"/>
+      <c r="T30" s="174"/>
       <c r="U30" s="126" t="str">
         <f>IF(OR(T30="",T30="-"),"",LOOKUP(CONCATENATE(T30,IF(SUM(Q30:S30)&lt;5,1,IF(SUM(Q30:S30)&lt;8,2,IF(SUM(Q30:S30)&lt;11,3,IF(SUM(Q30:S30)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V30" s="179"/>
-      <c r="AA30" s="196"/>
-      <c r="AB30" s="196"/>
-      <c r="AC30" s="196" t="e">
+      <c r="V30" s="177"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
+      <c r="AC30" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD30" s="197" t="str">
+      <c r="AD30" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C34</f>
         <v>U2.3 elektrostatische Vorgänge</v>
       </c>
-      <c r="AE30" s="196" t="str">
+      <c r="AE30" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B41</f>
         <v>schmerzhafte und ermüdende Körperhaltungen</v>
       </c>
-      <c r="AF30" s="196" t="str">
+      <c r="AF30" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D35</f>
         <v>F2.4 tödlilcher Stromschlag</v>
       </c>
     </row>
     <row r="31" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A31" s="166">
+      <c r="A31" s="164">
         <v>25</v>
       </c>
-      <c r="B31" s="177"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
       <c r="H31" s="125"/>
       <c r="I31" s="125"/>
       <c r="J31" s="125"/>
@@ -7308,48 +7425,48 @@
         <f>IF(OR(K31="",K31="-"),"",LOOKUP(CONCATENATE(K31,IF(SUM(H31:J31)&lt;5,1,IF(SUM(H31:J31)&lt;8,2,IF(SUM(H31:J31)&lt;11,3,IF(SUM(H31:J31)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="176"/>
-      <c r="T31" s="176"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="168"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
       <c r="U31" s="126" t="str">
         <f>IF(OR(T31="",T31="-"),"",LOOKUP(CONCATENATE(T31,IF(SUM(Q31:S31)&lt;5,1,IF(SUM(Q31:S31)&lt;8,2,IF(SUM(Q31:S31)&lt;11,3,IF(SUM(Q31:S31)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
       <c r="V31" s="126"/>
-      <c r="AA31" s="196"/>
-      <c r="AB31" s="196"/>
-      <c r="AC31" s="196" t="e">
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD31" s="197" t="str">
+      <c r="AD31" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C35</f>
         <v>U2.4 spannungsführende Teile</v>
       </c>
-      <c r="AE31" s="196" t="str">
+      <c r="AE31" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B42</f>
         <v>sich in hoher Frequenz wiederholende Tätigkeiten</v>
       </c>
-      <c r="AF31" s="196" t="str">
+      <c r="AF31" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D36</f>
         <v>F2.5 Stürzen, weggeschleudert werden</v>
       </c>
     </row>
     <row r="32" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A32" s="166">
+      <c r="A32" s="164">
         <v>26</v>
       </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
       <c r="H32" s="125"/>
       <c r="I32" s="125"/>
       <c r="J32" s="125"/>
@@ -7358,48 +7475,48 @@
         <f>IF(OR(K32="",K32="-"),"",LOOKUP(CONCATENATE(K32,IF(SUM(H32:J32)&lt;5,1,IF(SUM(H32:J32)&lt;8,2,IF(SUM(H32:J32)&lt;11,3,IF(SUM(H32:J32)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="176"/>
-      <c r="R32" s="176"/>
-      <c r="S32" s="176"/>
-      <c r="T32" s="176"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="174"/>
       <c r="U32" s="126" t="str">
         <f>IF(OR(T32="",T32="-"),"",LOOKUP(CONCATENATE(T32,IF(SUM(Q32:S32)&lt;5,1,IF(SUM(Q32:S32)&lt;8,2,IF(SUM(Q32:S32)&lt;11,3,IF(SUM(Q32:S32)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V32" s="179"/>
-      <c r="AA32" s="196"/>
-      <c r="AB32" s="196"/>
-      <c r="AC32" s="196" t="e">
+      <c r="V32" s="177"/>
+      <c r="AA32" s="194"/>
+      <c r="AB32" s="194"/>
+      <c r="AC32" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD32" s="197" t="str">
+      <c r="AD32" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C36</f>
         <v>U2.5 unzureichender Abstand zu unter Hochspannung stehenden Teilen</v>
       </c>
-      <c r="AE32" s="196" t="str">
+      <c r="AE32" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B38</f>
         <v>übermäßige Anstrengung</v>
       </c>
-      <c r="AF32" s="196" t="str">
+      <c r="AF32" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D37</f>
         <v>F2.6 Feuer</v>
       </c>
     </row>
     <row r="33" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A33" s="166">
+      <c r="A33" s="164">
         <v>27</v>
       </c>
-      <c r="B33" s="177"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
       <c r="H33" s="125"/>
       <c r="I33" s="125"/>
       <c r="J33" s="125"/>
@@ -7408,48 +7525,48 @@
         <f>IF(OR(K33="",K33="-"),"",LOOKUP(CONCATENATE(K33,IF(SUM(H33:J33)&lt;5,1,IF(SUM(H33:J33)&lt;8,2,IF(SUM(H33:J33)&lt;11,3,IF(SUM(H33:J33)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="176"/>
-      <c r="S33" s="176"/>
-      <c r="T33" s="176"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="168"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="174"/>
+      <c r="S33" s="174"/>
+      <c r="T33" s="174"/>
       <c r="U33" s="126" t="str">
         <f>IF(OR(T33="",T33="-"),"",LOOKUP(CONCATENATE(T33,IF(SUM(Q33:S33)&lt;5,1,IF(SUM(Q33:S33)&lt;8,2,IF(SUM(Q33:S33)&lt;11,3,IF(SUM(Q33:S33)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V33" s="179"/>
-      <c r="AA33" s="196"/>
-      <c r="AB33" s="196"/>
-      <c r="AC33" s="196" t="e">
+      <c r="V33" s="177"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD33" s="197" t="str">
+      <c r="AD33" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C37</f>
         <v>U2.6 Überlast</v>
       </c>
-      <c r="AE33" s="196" t="str">
+      <c r="AE33" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B29</f>
         <v>unbeabsichtigter/unerwarteter Anlauf</v>
       </c>
-      <c r="AF33" s="196" t="str">
+      <c r="AF33" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D38</f>
         <v>F2.7 Herausschleudern von geschmolzenen Teilen</v>
       </c>
     </row>
     <row r="34" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A34" s="166">
+      <c r="A34" s="164">
         <v>28</v>
       </c>
-      <c r="B34" s="177"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
       <c r="H34" s="125"/>
       <c r="I34" s="125"/>
       <c r="J34" s="125"/>
@@ -7458,10 +7575,10 @@
         <f>IF(OR(K34="",K34="-"),"",LOOKUP(CONCATENATE(K34,IF(SUM(H34:J34)&lt;5,1,IF(SUM(H34:J34)&lt;8,2,IF(SUM(H34:J34)&lt;11,3,IF(SUM(H34:J34)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M34" s="170"/>
-      <c r="N34" s="170"/>
-      <c r="O34" s="170"/>
-      <c r="P34" s="170"/>
+      <c r="M34" s="168"/>
+      <c r="N34" s="168"/>
+      <c r="O34" s="168"/>
+      <c r="P34" s="168"/>
       <c r="Q34" s="125"/>
       <c r="R34" s="125"/>
       <c r="S34" s="125"/>
@@ -7470,86 +7587,86 @@
         <f>IF(OR(T34="",T34="-"),"",LOOKUP(CONCATENATE(T34,IF(SUM(Q34:S34)&lt;5,1,IF(SUM(Q34:S34)&lt;8,2,IF(SUM(Q34:S34)&lt;11,3,IF(SUM(Q34:S34)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V34" s="179"/>
-      <c r="AA34" s="196"/>
-      <c r="AB34" s="196"/>
-      <c r="AC34" s="196" t="e">
+      <c r="V34" s="177"/>
+      <c r="AA34" s="194"/>
+      <c r="AB34" s="194"/>
+      <c r="AC34" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD34" s="197" t="str">
+      <c r="AD34" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C38</f>
         <v>U2.7 Teile, die im Fehlerzustand spannungsführend geworden sind</v>
       </c>
-      <c r="AE34" s="196" t="str">
+      <c r="AE34" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B18</f>
         <v>ungesteuerte Bewegungen</v>
       </c>
-      <c r="AF34" s="196" t="str">
+      <c r="AF34" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D39</f>
         <v>F2.8 (elektrischer) Schlag</v>
       </c>
     </row>
     <row r="35" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A35" s="166">
+      <c r="A35" s="164">
         <v>29</v>
       </c>
-      <c r="B35" s="177"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="169"/>
       <c r="L35" s="125" t="str">
         <f>IF(OR(K35="",K35="-"),"",LOOKUP(CONCATENATE(K35,IF(SUM(H35:J35)&lt;5,1,IF(SUM(H35:J35)&lt;8,2,IF(SUM(H35:J35)&lt;11,3,IF(SUM(H35:J35)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="R35" s="173"/>
-      <c r="S35" s="174"/>
-      <c r="T35" s="174"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="171"/>
+      <c r="Q35" s="171"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="172"/>
+      <c r="T35" s="172"/>
       <c r="U35" s="126" t="str">
         <f>IF(OR(T35="",T35="-"),"",LOOKUP(CONCATENATE(T35,IF(SUM(Q35:S35)&lt;5,1,IF(SUM(Q35:S35)&lt;8,2,IF(SUM(Q35:S35)&lt;11,3,IF(SUM(Q35:S35)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V35" s="179"/>
-      <c r="AA35" s="196"/>
-      <c r="AB35" s="196"/>
-      <c r="AC35" s="196" t="e">
+      <c r="V35" s="177"/>
+      <c r="AA35" s="194"/>
+      <c r="AB35" s="194"/>
+      <c r="AC35" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD35" s="197" t="str">
+      <c r="AD35" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C39</f>
         <v>U2.8 Kurzschluss</v>
       </c>
-      <c r="AE35" s="196" t="str">
+      <c r="AE35" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B28</f>
         <v>ungesteuerte Bewegungen (einschließlich Geschwindigkeitsänderung)</v>
       </c>
-      <c r="AF35" s="196" t="str">
+      <c r="AF35" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D40</f>
         <v>./.</v>
       </c>
     </row>
     <row r="36" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A36" s="166">
+      <c r="A36" s="164">
         <v>30</v>
       </c>
-      <c r="B36" s="177"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
       <c r="H36" s="125"/>
       <c r="I36" s="125"/>
       <c r="J36" s="125"/>
@@ -7558,10 +7675,10 @@
         <f>IF(OR(K36="",K36="-"),"",LOOKUP(CONCATENATE(K36,IF(SUM(H36:J36)&lt;5,1,IF(SUM(H36:J36)&lt;8,2,IF(SUM(H36:J36)&lt;11,3,IF(SUM(H36:J36)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M36" s="170"/>
-      <c r="N36" s="170"/>
-      <c r="O36" s="170"/>
-      <c r="P36" s="170"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="168"/>
+      <c r="O36" s="168"/>
+      <c r="P36" s="168"/>
       <c r="Q36" s="125"/>
       <c r="R36" s="125"/>
       <c r="S36" s="125"/>
@@ -7570,1419 +7687,1419 @@
         <f>IF(OR(T36="",T36="-"),"",LOOKUP(CONCATENATE(T36,IF(SUM(Q36:S36)&lt;5,1,IF(SUM(Q36:S36)&lt;8,2,IF(SUM(Q36:S36)&lt;11,3,IF(SUM(Q36:S36)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V36" s="179"/>
-      <c r="AA36" s="196"/>
-      <c r="AB36" s="196"/>
-      <c r="AC36" s="196" t="e">
+      <c r="V36" s="177"/>
+      <c r="AA36" s="194"/>
+      <c r="AB36" s="194"/>
+      <c r="AC36" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD36" s="197" t="str">
+      <c r="AD36" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C40</f>
         <v>U2.9 Wärmestrahlung</v>
       </c>
-      <c r="AE36" s="196" t="str">
+      <c r="AE36" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B40</f>
         <v>Verlust der direkten Sichtbarkeit des Arbeitsbereiches</v>
       </c>
-      <c r="AF36" s="196" t="str">
+      <c r="AF36" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D41</f>
         <v>F3 Thermische Gefährdungen</v>
       </c>
     </row>
     <row r="37" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A37" s="166">
+      <c r="A37" s="164">
         <v>31</v>
       </c>
-      <c r="B37" s="177"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
       <c r="L37" s="125" t="str">
         <f>IF(OR(K37="",K37="-"),"",LOOKUP(CONCATENATE(K37,IF(SUM(H37:J37)&lt;5,1,IF(SUM(H37:J37)&lt;8,2,IF(SUM(H37:J37)&lt;11,3,IF(SUM(H37:J37)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
-      <c r="S37" s="174"/>
-      <c r="T37" s="174"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="170"/>
+      <c r="Q37" s="172"/>
+      <c r="R37" s="172"/>
+      <c r="S37" s="172"/>
+      <c r="T37" s="172"/>
       <c r="U37" s="126" t="str">
         <f>IF(OR(T37="",T37="-"),"",LOOKUP(CONCATENATE(T37,IF(SUM(Q37:S37)&lt;5,1,IF(SUM(Q37:S37)&lt;8,2,IF(SUM(Q37:S37)&lt;11,3,IF(SUM(Q37:S37)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V37" s="179"/>
-      <c r="AA37" s="196"/>
-      <c r="AB37" s="196"/>
-      <c r="AC37" s="196" t="e">
+      <c r="V37" s="177"/>
+      <c r="AA37" s="194"/>
+      <c r="AB37" s="194"/>
+      <c r="AC37" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD37" s="197" t="str">
+      <c r="AD37" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C41</f>
         <v>U3 Thermische Gefährdungen</v>
       </c>
-      <c r="AE37" s="196" t="str">
+      <c r="AE37" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B14</f>
         <v>Verlust der Standfestigkeit/-sicherheit</v>
       </c>
-      <c r="AF37" s="196" t="str">
+      <c r="AF37" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D42</f>
         <v>F3.1 Verbrennung</v>
       </c>
     </row>
     <row r="38" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A38" s="166">
+      <c r="A38" s="164">
         <v>32</v>
       </c>
-      <c r="B38" s="177"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
       <c r="L38" s="125" t="str">
         <f>IF(OR(K38="",K38="-"),"",LOOKUP(CONCATENATE(K38,IF(SUM(H38:J38)&lt;5,1,IF(SUM(H38:J38)&lt;8,2,IF(SUM(H38:J38)&lt;11,3,IF(SUM(H38:J38)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
-      <c r="S38" s="174"/>
-      <c r="T38" s="174"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="170"/>
+      <c r="O38" s="170"/>
+      <c r="P38" s="171"/>
+      <c r="Q38" s="172"/>
+      <c r="R38" s="172"/>
+      <c r="S38" s="172"/>
+      <c r="T38" s="172"/>
       <c r="U38" s="126" t="str">
         <f>IF(OR(T38="",T38="-"),"",LOOKUP(CONCATENATE(T38,IF(SUM(Q38:S38)&lt;5,1,IF(SUM(Q38:S38)&lt;8,2,IF(SUM(Q38:S38)&lt;11,3,IF(SUM(Q38:S38)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V38" s="179"/>
-      <c r="AA38" s="196"/>
-      <c r="AB38" s="196"/>
-      <c r="AC38" s="196" t="e">
+      <c r="V38" s="177"/>
+      <c r="AA38" s="194"/>
+      <c r="AB38" s="194"/>
+      <c r="AC38" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD38" s="197" t="str">
+      <c r="AD38" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C42</f>
         <v>U3.1 Explosiion</v>
       </c>
-      <c r="AE38" s="196" t="str">
+      <c r="AE38" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B16</f>
         <v>Verschieben sich bewegender Teile</v>
       </c>
-      <c r="AF38" s="196" t="str">
+      <c r="AF38" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D43</f>
         <v>F3.2 Dehydrierung</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A39" s="166">
+      <c r="A39" s="164">
         <v>33</v>
       </c>
-      <c r="B39" s="177"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
+      <c r="B39" s="175"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="169"/>
+      <c r="K39" s="169"/>
       <c r="L39" s="125" t="str">
         <f>IF(OR(K39="",K39="-"),"",LOOKUP(CONCATENATE(K39,IF(SUM(H39:J39)&lt;5,1,IF(SUM(H39:J39)&lt;8,2,IF(SUM(H39:J39)&lt;11,3,IF(SUM(H39:J39)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="174"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="170"/>
+      <c r="P39" s="171"/>
+      <c r="Q39" s="172"/>
+      <c r="R39" s="172"/>
+      <c r="S39" s="172"/>
+      <c r="T39" s="172"/>
       <c r="U39" s="126" t="str">
         <f>IF(OR(T39="",T39="-"),"",LOOKUP(CONCATENATE(T39,IF(SUM(Q39:S39)&lt;5,1,IF(SUM(Q39:S39)&lt;8,2,IF(SUM(Q39:S39)&lt;11,3,IF(SUM(Q39:S39)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V39" s="179"/>
-      <c r="AA39" s="196"/>
-      <c r="AB39" s="196"/>
-      <c r="AC39" s="196" t="e">
+      <c r="V39" s="177"/>
+      <c r="AA39" s="194"/>
+      <c r="AB39" s="194"/>
+      <c r="AC39" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD39" s="197" t="str">
+      <c r="AD39" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C43</f>
         <v>U3.2 Flamme</v>
       </c>
-      <c r="AE39" s="196" t="str">
+      <c r="AE39" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B30</f>
         <v>weitere Gefährdungsereignisse durch Ausfälle oder unzureichende Konstruktion der Steuerung</v>
       </c>
-      <c r="AF39" s="196" t="str">
+      <c r="AF39" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D44</f>
         <v>F3.3 Unbehagen</v>
       </c>
     </row>
     <row r="40" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A40" s="166">
+      <c r="A40" s="164">
         <v>34</v>
       </c>
-      <c r="B40" s="177"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="169"/>
       <c r="L40" s="125" t="str">
         <f>IF(OR(K40="",K40="-"),"",LOOKUP(CONCATENATE(K40,IF(SUM(H40:J40)&lt;5,1,IF(SUM(H40:J40)&lt;8,2,IF(SUM(H40:J40)&lt;11,3,IF(SUM(H40:J40)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M40" s="172"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
-      <c r="S40" s="174"/>
-      <c r="T40" s="174"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="170"/>
+      <c r="O40" s="170"/>
+      <c r="P40" s="171"/>
+      <c r="Q40" s="172"/>
+      <c r="R40" s="172"/>
+      <c r="S40" s="172"/>
+      <c r="T40" s="172"/>
       <c r="U40" s="126" t="str">
         <f>IF(OR(T40="",T40="-"),"",LOOKUP(CONCATENATE(T40,IF(SUM(Q40:S40)&lt;5,1,IF(SUM(Q40:S40)&lt;8,2,IF(SUM(Q40:S40)&lt;11,3,IF(SUM(Q40:S40)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V40" s="179"/>
-      <c r="AA40" s="196"/>
-      <c r="AB40" s="196"/>
-      <c r="AC40" s="196" t="e">
+      <c r="V40" s="177"/>
+      <c r="AA40" s="194"/>
+      <c r="AB40" s="194"/>
+      <c r="AC40" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD40" s="197" t="str">
+      <c r="AD40" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C44</f>
         <v>U3.3 Objekte oder Materialien hoher oder niedriger Temperatur</v>
       </c>
-      <c r="AE40" s="196" t="str">
+      <c r="AE40" s="194" t="str">
         <f>'Ereignisse nach ISO 12100'!B11</f>
         <v>Zugang zu/Kontakt mit beweglichen Teilen</v>
       </c>
-      <c r="AF40" s="196" t="str">
+      <c r="AF40" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D45</f>
         <v>F3.4 Erfrierung</v>
       </c>
     </row>
     <row r="41" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A41" s="166">
+      <c r="A41" s="164">
         <v>35</v>
       </c>
-      <c r="B41" s="177"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
+      <c r="B41" s="175"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="169"/>
       <c r="L41" s="125" t="str">
         <f>IF(OR(K41="",K41="-"),"",LOOKUP(CONCATENATE(K41,IF(SUM(H41:J41)&lt;5,1,IF(SUM(H41:J41)&lt;8,2,IF(SUM(H41:J41)&lt;11,3,IF(SUM(H41:J41)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v/>
       </c>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="172"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="170"/>
+      <c r="P41" s="171"/>
+      <c r="Q41" s="172"/>
+      <c r="R41" s="172"/>
+      <c r="S41" s="172"/>
+      <c r="T41" s="172"/>
       <c r="U41" s="126" t="str">
         <f>IF(OR(T41="",T41="-"),"",LOOKUP(CONCATENATE(T41,IF(SUM(Q41:S41)&lt;5,1,IF(SUM(Q41:S41)&lt;8,2,IF(SUM(Q41:S41)&lt;11,3,IF(SUM(Q41:S41)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v/>
       </c>
-      <c r="V41" s="179"/>
-      <c r="AA41" s="196"/>
-      <c r="AB41" s="196"/>
-      <c r="AC41" s="196" t="e">
+      <c r="V41" s="177"/>
+      <c r="AA41" s="194"/>
+      <c r="AB41" s="194"/>
+      <c r="AC41" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD41" s="197" t="str">
+      <c r="AD41" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C45</f>
         <v>U3.4 Strahlung von Wärmequellen</v>
       </c>
-      <c r="AE41" s="196"/>
-      <c r="AF41" s="196" t="str">
+      <c r="AE41" s="194"/>
+      <c r="AF41" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D46</f>
         <v>F3.5 Verletzungen durch Strahlung von Wärmequellen</v>
       </c>
     </row>
     <row r="42" spans="1:32" s="123" customFormat="1" ht="12.75">
-      <c r="A42" s="180"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="185"/>
-      <c r="L42" s="186"/>
-      <c r="M42" s="187"/>
-      <c r="N42" s="187"/>
-      <c r="O42" s="187"/>
-      <c r="P42" s="187"/>
-      <c r="Q42" s="181"/>
-      <c r="R42" s="181"/>
-      <c r="S42" s="181"/>
-      <c r="T42" s="181"/>
-      <c r="U42" s="188"/>
-      <c r="V42" s="187"/>
-      <c r="AA42" s="196"/>
-      <c r="AB42" s="196"/>
-      <c r="AC42" s="196" t="e">
+      <c r="A42" s="178"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="182"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="184"/>
+      <c r="M42" s="185"/>
+      <c r="N42" s="185"/>
+      <c r="O42" s="185"/>
+      <c r="P42" s="185"/>
+      <c r="Q42" s="179"/>
+      <c r="R42" s="179"/>
+      <c r="S42" s="179"/>
+      <c r="T42" s="179"/>
+      <c r="U42" s="186"/>
+      <c r="V42" s="185"/>
+      <c r="AA42" s="194"/>
+      <c r="AB42" s="194"/>
+      <c r="AC42" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD42" s="197" t="str">
+      <c r="AD42" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C46</f>
         <v>./.</v>
       </c>
-      <c r="AE42" s="196"/>
-      <c r="AF42" s="196" t="str">
+      <c r="AE42" s="194"/>
+      <c r="AF42" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D47</f>
         <v>F3.6 Verbrühung</v>
       </c>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="180"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="185"/>
-      <c r="K43" s="185"/>
-      <c r="L43" s="186"/>
-      <c r="M43" s="187"/>
-      <c r="N43" s="187"/>
-      <c r="O43" s="187"/>
-      <c r="P43" s="187"/>
-      <c r="Q43" s="181"/>
-      <c r="R43" s="181"/>
-      <c r="S43" s="181"/>
-      <c r="T43" s="181"/>
-      <c r="U43" s="188"/>
-      <c r="V43" s="187"/>
-      <c r="AA43" s="196"/>
-      <c r="AB43" s="196"/>
-      <c r="AC43" s="196" t="e">
+      <c r="A43" s="178"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="184"/>
+      <c r="M43" s="185"/>
+      <c r="N43" s="185"/>
+      <c r="O43" s="185"/>
+      <c r="P43" s="185"/>
+      <c r="Q43" s="179"/>
+      <c r="R43" s="179"/>
+      <c r="S43" s="179"/>
+      <c r="T43" s="179"/>
+      <c r="U43" s="186"/>
+      <c r="V43" s="185"/>
+      <c r="AA43" s="194"/>
+      <c r="AB43" s="194"/>
+      <c r="AC43" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD43" s="197" t="str">
+      <c r="AD43" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C47</f>
         <v>./.</v>
       </c>
-      <c r="AE43" s="198"/>
-      <c r="AF43" s="196" t="str">
+      <c r="AE43" s="196"/>
+      <c r="AF43" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D48</f>
         <v>F4 Gefährdung durch Lärm</v>
       </c>
     </row>
     <row r="44" spans="1:32">
-      <c r="G44" s="189"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="191"/>
-      <c r="K44" s="191"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="189"/>
+      <c r="J44" s="189"/>
+      <c r="K44" s="189"/>
       <c r="L44" s="122"/>
-      <c r="AA44" s="196"/>
-      <c r="AB44" s="196"/>
-      <c r="AC44" s="196" t="e">
+      <c r="AA44" s="194"/>
+      <c r="AB44" s="194"/>
+      <c r="AC44" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD44" s="197" t="str">
+      <c r="AD44" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C48</f>
         <v>U4 Gefährdung durch Lärm</v>
       </c>
-      <c r="AE44" s="198"/>
-      <c r="AF44" s="196" t="str">
+      <c r="AE44" s="196"/>
+      <c r="AF44" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D49</f>
         <v>F4.1 Unbehagen</v>
       </c>
     </row>
     <row r="45" spans="1:32">
-      <c r="G45" s="189"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="191"/>
-      <c r="K45" s="191"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="188"/>
+      <c r="I45" s="189"/>
+      <c r="J45" s="189"/>
+      <c r="K45" s="189"/>
       <c r="L45" s="122"/>
-      <c r="AA45" s="196"/>
-      <c r="AB45" s="196"/>
-      <c r="AC45" s="196" t="e">
+      <c r="AA45" s="194"/>
+      <c r="AB45" s="194"/>
+      <c r="AC45" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD45" s="197" t="str">
+      <c r="AD45" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C49</f>
         <v>U4.1 Kavitationsvorgänge</v>
       </c>
-      <c r="AE45" s="198"/>
-      <c r="AF45" s="196" t="str">
+      <c r="AE45" s="196"/>
+      <c r="AF45" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D50</f>
         <v>F4.2 Bewusstseinsverlust</v>
       </c>
     </row>
     <row r="46" spans="1:32">
-      <c r="G46" s="189"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="191"/>
-      <c r="K46" s="191"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="189"/>
+      <c r="J46" s="189"/>
+      <c r="K46" s="189"/>
       <c r="L46" s="122"/>
-      <c r="AA46" s="196"/>
-      <c r="AB46" s="196"/>
-      <c r="AC46" s="196" t="e">
+      <c r="AA46" s="194"/>
+      <c r="AB46" s="194"/>
+      <c r="AC46" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD46" s="197" t="str">
+      <c r="AD46" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C50</f>
         <v>U4.2 Abluftsystem</v>
       </c>
-      <c r="AE46" s="198"/>
-      <c r="AF46" s="196" t="str">
+      <c r="AE46" s="196"/>
+      <c r="AF46" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D51</f>
         <v>F4.3 Gleichgewichtsstörung</v>
       </c>
     </row>
     <row r="47" spans="1:32">
-      <c r="G47" s="189"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
+      <c r="G47" s="187"/>
+      <c r="H47" s="188"/>
+      <c r="I47" s="189"/>
+      <c r="J47" s="189"/>
+      <c r="K47" s="189"/>
       <c r="L47" s="122"/>
-      <c r="AA47" s="196"/>
-      <c r="AB47" s="196"/>
-      <c r="AC47" s="196" t="e">
+      <c r="AA47" s="194"/>
+      <c r="AB47" s="194"/>
+      <c r="AC47" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD47" s="197" t="str">
+      <c r="AD47" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C51</f>
         <v>U4.3 mit hoher Geschwindigkeit austretendes Gas</v>
       </c>
-      <c r="AE47" s="198"/>
-      <c r="AF47" s="196" t="str">
+      <c r="AE47" s="196"/>
+      <c r="AF47" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D52</f>
         <v>F4.4 bleibender Gehörverlust</v>
       </c>
     </row>
     <row r="48" spans="1:32">
-      <c r="G48" s="189"/>
-      <c r="H48" s="190"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="191"/>
-      <c r="K48" s="191"/>
+      <c r="G48" s="187"/>
+      <c r="H48" s="188"/>
+      <c r="I48" s="189"/>
+      <c r="J48" s="189"/>
+      <c r="K48" s="189"/>
       <c r="L48" s="122"/>
-      <c r="AA48" s="196"/>
-      <c r="AB48" s="196"/>
-      <c r="AC48" s="196" t="e">
+      <c r="AA48" s="194"/>
+      <c r="AB48" s="194"/>
+      <c r="AC48" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD48" s="197" t="str">
+      <c r="AD48" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C52</f>
         <v>U4.4 Herstellungsprozess (Stanzen, Schneiden usw.)</v>
       </c>
-      <c r="AE48" s="198"/>
-      <c r="AF48" s="196" t="str">
+      <c r="AE48" s="196"/>
+      <c r="AF48" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D53</f>
         <v>F4.5 Stress</v>
       </c>
     </row>
     <row r="49" spans="27:32">
-      <c r="AA49" s="196"/>
-      <c r="AB49" s="196"/>
-      <c r="AC49" s="196" t="e">
+      <c r="AA49" s="194"/>
+      <c r="AB49" s="194"/>
+      <c r="AC49" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD49" s="197" t="str">
+      <c r="AD49" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C53</f>
         <v>U4.5 bewegliche Teile</v>
       </c>
-      <c r="AE49" s="198"/>
-      <c r="AF49" s="196" t="str">
+      <c r="AE49" s="196"/>
+      <c r="AF49" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D54</f>
         <v>F4.6 Tinnitus (Ohrensausen)</v>
       </c>
     </row>
     <row r="50" spans="27:32">
-      <c r="AA50" s="196"/>
-      <c r="AB50" s="196"/>
-      <c r="AC50" s="196" t="e">
+      <c r="AA50" s="194"/>
+      <c r="AB50" s="194"/>
+      <c r="AC50" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD50" s="197" t="str">
+      <c r="AD50" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C54</f>
         <v>U4.6 reibende Flächen</v>
       </c>
-      <c r="AE50" s="198"/>
-      <c r="AF50" s="196" t="str">
+      <c r="AE50" s="196"/>
+      <c r="AF50" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D55</f>
         <v>F4.7 Ermüdung</v>
       </c>
     </row>
     <row r="51" spans="27:32">
-      <c r="AA51" s="196"/>
-      <c r="AB51" s="196"/>
-      <c r="AC51" s="196" t="e">
+      <c r="AA51" s="194"/>
+      <c r="AB51" s="194"/>
+      <c r="AC51" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD51" s="197" t="str">
+      <c r="AD51" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C55</f>
         <v>U4.7 mit Unwucht rotierende Teile</v>
       </c>
-      <c r="AE51" s="198"/>
-      <c r="AF51" s="196" t="str">
+      <c r="AE51" s="196"/>
+      <c r="AF51" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D56</f>
         <v>F4.8 alle weiteren (z.B. mechanischen, elektrischen) Probleme als Folge einer Störung der Sprachkommunikation oder einer Störung akustischer Signale</v>
       </c>
     </row>
     <row r="52" spans="27:32">
-      <c r="AA52" s="196"/>
-      <c r="AB52" s="196"/>
-      <c r="AC52" s="196" t="e">
+      <c r="AA52" s="194"/>
+      <c r="AB52" s="194"/>
+      <c r="AC52" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD52" s="197" t="str">
+      <c r="AD52" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C56</f>
         <v>U4.8 pfeifende Pneumatik-Einrichtungen</v>
       </c>
-      <c r="AE52" s="198"/>
-      <c r="AF52" s="196" t="str">
+      <c r="AE52" s="196"/>
+      <c r="AF52" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D57</f>
         <v>./.</v>
       </c>
     </row>
     <row r="53" spans="27:32">
-      <c r="AA53" s="196"/>
-      <c r="AB53" s="196"/>
-      <c r="AC53" s="196" t="e">
+      <c r="AA53" s="194"/>
+      <c r="AB53" s="194"/>
+      <c r="AC53" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD53" s="197" t="str">
+      <c r="AD53" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C57</f>
         <v>U4.9 verschlissene Teile</v>
       </c>
-      <c r="AE53" s="198"/>
-      <c r="AF53" s="196" t="str">
+      <c r="AE53" s="196"/>
+      <c r="AF53" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D58</f>
         <v>F5 Gefährdung durch Schwingungen</v>
       </c>
     </row>
     <row r="54" spans="27:32">
-      <c r="AA54" s="196"/>
-      <c r="AB54" s="196"/>
-      <c r="AC54" s="196" t="e">
+      <c r="AA54" s="194"/>
+      <c r="AB54" s="194"/>
+      <c r="AC54" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD54" s="197" t="str">
+      <c r="AD54" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C58</f>
         <v>U5 Gefährdung durch Schwingungen</v>
       </c>
-      <c r="AE54" s="198"/>
-      <c r="AF54" s="196" t="str">
+      <c r="AE54" s="196"/>
+      <c r="AF54" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D59</f>
         <v>F5.1 Unbehagen</v>
       </c>
     </row>
     <row r="55" spans="27:32">
-      <c r="AA55" s="196"/>
-      <c r="AB55" s="196"/>
-      <c r="AC55" s="196" t="e">
+      <c r="AA55" s="194"/>
+      <c r="AB55" s="194"/>
+      <c r="AC55" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD55" s="197" t="str">
+      <c r="AD55" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C59</f>
         <v>U5.1 Kavitationsvorgänge</v>
       </c>
-      <c r="AE55" s="198"/>
-      <c r="AF55" s="196" t="str">
+      <c r="AE55" s="196"/>
+      <c r="AF55" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D60</f>
         <v>F5.2 Erkrankungen der unteren Wirbelsäule</v>
       </c>
     </row>
     <row r="56" spans="27:32">
-      <c r="AA56" s="196"/>
-      <c r="AB56" s="196"/>
-      <c r="AC56" s="196" t="e">
+      <c r="AA56" s="194"/>
+      <c r="AB56" s="194"/>
+      <c r="AC56" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD56" s="197" t="str">
+      <c r="AD56" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C60</f>
         <v>U5.2 Fehlausrichtung sich bewegender Teile</v>
       </c>
-      <c r="AE56" s="198"/>
-      <c r="AF56" s="196" t="str">
+      <c r="AE56" s="196"/>
+      <c r="AF56" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D61</f>
         <v>F5.3 neurologische Erkrankung</v>
       </c>
     </row>
     <row r="57" spans="27:32">
-      <c r="AA57" s="196"/>
-      <c r="AB57" s="196"/>
-      <c r="AC57" s="196" t="e">
+      <c r="AA57" s="194"/>
+      <c r="AB57" s="194"/>
+      <c r="AC57" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD57" s="197" t="str">
+      <c r="AD57" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C61</f>
         <v>U5.3 bewegliche Ausrüstung</v>
       </c>
-      <c r="AE57" s="198"/>
-      <c r="AF57" s="196" t="str">
+      <c r="AE57" s="196"/>
+      <c r="AF57" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D62</f>
         <v>F5.4 Knochengelenkschaden</v>
       </c>
     </row>
     <row r="58" spans="27:32">
-      <c r="AA58" s="196"/>
-      <c r="AB58" s="196"/>
-      <c r="AC58" s="196" t="e">
+      <c r="AA58" s="194"/>
+      <c r="AB58" s="194"/>
+      <c r="AC58" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD58" s="197" t="str">
+      <c r="AD58" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C62</f>
         <v>U5.4 reibende Flächen</v>
       </c>
-      <c r="AE58" s="198"/>
-      <c r="AF58" s="196" t="str">
+      <c r="AE58" s="196"/>
+      <c r="AF58" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D63</f>
         <v>F5.5 Wirbelsäulenverletzung</v>
       </c>
     </row>
     <row r="59" spans="27:32">
-      <c r="AA59" s="196"/>
-      <c r="AB59" s="196"/>
-      <c r="AC59" s="196" t="e">
+      <c r="AA59" s="194"/>
+      <c r="AB59" s="194"/>
+      <c r="AC59" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD59" s="197" t="str">
+      <c r="AD59" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C63</f>
         <v>U5.5 mit Unwucht rotierende Teile</v>
       </c>
-      <c r="AE59" s="198"/>
-      <c r="AF59" s="196" t="str">
+      <c r="AE59" s="196"/>
+      <c r="AF59" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D64</f>
         <v>F5.6 Gefäßerkrankungen</v>
       </c>
     </row>
     <row r="60" spans="27:32">
-      <c r="AA60" s="196"/>
-      <c r="AB60" s="196"/>
-      <c r="AC60" s="196" t="e">
+      <c r="AA60" s="194"/>
+      <c r="AB60" s="194"/>
+      <c r="AC60" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD60" s="197" t="str">
+      <c r="AD60" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C64</f>
         <v>U5.6 schwingende Ausrüstung</v>
       </c>
-      <c r="AE60" s="198"/>
-      <c r="AF60" s="196" t="str">
+      <c r="AE60" s="196"/>
+      <c r="AF60" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D65</f>
         <v>./.</v>
       </c>
     </row>
     <row r="61" spans="27:32">
-      <c r="AA61" s="196"/>
-      <c r="AB61" s="196"/>
-      <c r="AC61" s="196" t="e">
+      <c r="AA61" s="194"/>
+      <c r="AB61" s="194"/>
+      <c r="AC61" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD61" s="197" t="str">
+      <c r="AD61" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C65</f>
         <v>U5.7 verschlissene Teile</v>
       </c>
-      <c r="AE61" s="198"/>
-      <c r="AF61" s="196" t="str">
+      <c r="AE61" s="196"/>
+      <c r="AF61" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D66</f>
         <v>F6 Gefährdung durch Strahlung</v>
       </c>
     </row>
     <row r="62" spans="27:32">
-      <c r="AA62" s="196"/>
-      <c r="AB62" s="196"/>
-      <c r="AC62" s="196" t="e">
+      <c r="AA62" s="194"/>
+      <c r="AB62" s="194"/>
+      <c r="AC62" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD62" s="197" t="str">
+      <c r="AD62" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C66</f>
         <v>U6 Gefährdung durch Strahlung</v>
       </c>
-      <c r="AE62" s="198"/>
-      <c r="AF62" s="196" t="str">
+      <c r="AE62" s="196"/>
+      <c r="AF62" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D67</f>
         <v>F6.1 Verbrennung</v>
       </c>
     </row>
     <row r="63" spans="27:32">
-      <c r="AA63" s="196"/>
-      <c r="AB63" s="196"/>
-      <c r="AC63" s="196" t="e">
+      <c r="AA63" s="194"/>
+      <c r="AB63" s="194"/>
+      <c r="AC63" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD63" s="197" t="str">
+      <c r="AD63" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C67</f>
         <v>U6.1 ionisierende Strahlungsquelle</v>
       </c>
-      <c r="AE63" s="198"/>
-      <c r="AF63" s="196" t="str">
+      <c r="AE63" s="196"/>
+      <c r="AF63" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D68</f>
         <v>F6.2 Augen- und Hautschädigung</v>
       </c>
     </row>
     <row r="64" spans="27:32">
-      <c r="AA64" s="196"/>
-      <c r="AB64" s="196"/>
-      <c r="AC64" s="196" t="e">
+      <c r="AA64" s="194"/>
+      <c r="AB64" s="194"/>
+      <c r="AC64" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD64" s="197" t="str">
+      <c r="AD64" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C68</f>
         <v>U6.2 niederfrequente elektromagnetische Strahlung</v>
       </c>
-      <c r="AE64" s="198"/>
-      <c r="AF64" s="196" t="str">
+      <c r="AE64" s="196"/>
+      <c r="AF64" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D69</f>
         <v>F6.3 Auswirkungen auf die Fortpflanzungsfähigkeit</v>
       </c>
     </row>
     <row r="65" spans="27:32">
-      <c r="AA65" s="196"/>
-      <c r="AB65" s="196"/>
-      <c r="AC65" s="196" t="e">
+      <c r="AA65" s="194"/>
+      <c r="AB65" s="194"/>
+      <c r="AC65" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD65" s="197" t="str">
+      <c r="AD65" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C69</f>
         <v>U6.3 optische Strahlung (infrarot, sichtbar und ultraviolett) einschließlich Laserstrahlen</v>
       </c>
-      <c r="AE65" s="198"/>
-      <c r="AF65" s="196" t="str">
+      <c r="AE65" s="196"/>
+      <c r="AF65" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D70</f>
         <v>F6.4 genetische Veränderung</v>
       </c>
     </row>
     <row r="66" spans="27:32">
-      <c r="AA66" s="196"/>
-      <c r="AB66" s="196"/>
-      <c r="AC66" s="196" t="e">
+      <c r="AA66" s="194"/>
+      <c r="AB66" s="194"/>
+      <c r="AC66" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD66" s="197" t="str">
+      <c r="AD66" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C70</f>
         <v>U6.4 hochfrequente elektromagnetische Strahlung</v>
       </c>
-      <c r="AE66" s="198"/>
-      <c r="AF66" s="196" t="str">
+      <c r="AE66" s="196"/>
+      <c r="AF66" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D71</f>
         <v>F6.5 Kopfschmerzen, Schlaflosigkeit usw.</v>
       </c>
     </row>
     <row r="67" spans="27:32">
-      <c r="AA67" s="196"/>
-      <c r="AB67" s="196"/>
-      <c r="AC67" s="196" t="e">
+      <c r="AA67" s="194"/>
+      <c r="AB67" s="194"/>
+      <c r="AC67" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD67" s="197" t="str">
+      <c r="AD67" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C71</f>
         <v>./.</v>
       </c>
-      <c r="AE67" s="198"/>
-      <c r="AF67" s="196" t="str">
+      <c r="AE67" s="196"/>
+      <c r="AF67" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D72</f>
         <v>F7 Gefährdungen durch Materialien und Stoffe</v>
       </c>
     </row>
     <row r="68" spans="27:32">
-      <c r="AA68" s="196"/>
-      <c r="AB68" s="196"/>
-      <c r="AC68" s="196" t="e">
+      <c r="AA68" s="194"/>
+      <c r="AB68" s="194"/>
+      <c r="AC68" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD68" s="197" t="str">
+      <c r="AD68" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C72</f>
         <v>U7 Gefährdungen durch Materialien und Stoffe</v>
       </c>
-      <c r="AE68" s="198"/>
-      <c r="AF68" s="196" t="str">
+      <c r="AE68" s="196"/>
+      <c r="AF68" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D73</f>
         <v>F7.1 Atembeschwerden, Ersticken</v>
       </c>
     </row>
     <row r="69" spans="27:32">
-      <c r="AA69" s="196"/>
-      <c r="AB69" s="196"/>
-      <c r="AC69" s="196" t="e">
+      <c r="AA69" s="194"/>
+      <c r="AB69" s="194"/>
+      <c r="AC69" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD69" s="197" t="str">
+      <c r="AD69" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C73</f>
         <v>U7.1 Aerosole</v>
       </c>
-      <c r="AE69" s="198"/>
-      <c r="AF69" s="196" t="str">
+      <c r="AE69" s="196"/>
+      <c r="AF69" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D74</f>
         <v>F7.2 Krebs</v>
       </c>
     </row>
     <row r="70" spans="27:32">
-      <c r="AA70" s="196"/>
-      <c r="AB70" s="196"/>
-      <c r="AC70" s="196" t="e">
+      <c r="AA70" s="194"/>
+      <c r="AB70" s="194"/>
+      <c r="AC70" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD70" s="197" t="str">
+      <c r="AD70" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C74</f>
         <v>U7.2 biologische und mikrobiologische (Viren, Bakterien, Pilze)</v>
       </c>
-      <c r="AE70" s="198"/>
-      <c r="AF70" s="196" t="str">
+      <c r="AE70" s="196"/>
+      <c r="AF70" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D75</f>
         <v>F7.3 Korrosion</v>
       </c>
     </row>
     <row r="71" spans="27:32">
-      <c r="AA71" s="196"/>
-      <c r="AB71" s="196"/>
-      <c r="AC71" s="196" t="e">
+      <c r="AA71" s="194"/>
+      <c r="AB71" s="194"/>
+      <c r="AC71" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD71" s="197" t="str">
+      <c r="AD71" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C75</f>
         <v>U7.3 Brennstoffe</v>
       </c>
-      <c r="AE71" s="198"/>
-      <c r="AF71" s="196" t="str">
+      <c r="AE71" s="196"/>
+      <c r="AF71" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D76</f>
         <v>F7.4 Auswirkungen auf die Fortpflanzungsfähigkeit</v>
       </c>
     </row>
     <row r="72" spans="27:32">
-      <c r="AA72" s="196"/>
-      <c r="AB72" s="196"/>
-      <c r="AC72" s="196" t="e">
+      <c r="AA72" s="194"/>
+      <c r="AB72" s="194"/>
+      <c r="AC72" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD72" s="197" t="str">
+      <c r="AD72" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C76</f>
         <v>U7.4 Stäube</v>
       </c>
-      <c r="AE72" s="198"/>
-      <c r="AF72" s="196" t="str">
+      <c r="AE72" s="196"/>
+      <c r="AF72" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D77</f>
         <v>F7.5 Explosion</v>
       </c>
     </row>
     <row r="73" spans="27:32">
-      <c r="AA73" s="196"/>
-      <c r="AB73" s="196"/>
-      <c r="AC73" s="196" t="e">
+      <c r="AA73" s="194"/>
+      <c r="AB73" s="194"/>
+      <c r="AC73" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD73" s="197" t="str">
+      <c r="AD73" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C77</f>
         <v>U7.5 Explosivstoffe</v>
       </c>
-      <c r="AE73" s="198"/>
-      <c r="AF73" s="196" t="str">
+      <c r="AE73" s="196"/>
+      <c r="AF73" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D78</f>
         <v>F7.6 Feuer</v>
       </c>
     </row>
     <row r="74" spans="27:32">
-      <c r="AA74" s="196"/>
-      <c r="AB74" s="196"/>
-      <c r="AC74" s="196" t="e">
+      <c r="AA74" s="194"/>
+      <c r="AB74" s="194"/>
+      <c r="AC74" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD74" s="197" t="str">
+      <c r="AD74" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C78</f>
         <v>U7.6 Fasern</v>
       </c>
-      <c r="AE74" s="198"/>
-      <c r="AF74" s="196" t="str">
+      <c r="AE74" s="196"/>
+      <c r="AF74" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D79</f>
         <v>F7.7 Infektion</v>
       </c>
     </row>
     <row r="75" spans="27:32">
-      <c r="AA75" s="196"/>
-      <c r="AB75" s="196"/>
-      <c r="AC75" s="196" t="e">
+      <c r="AA75" s="194"/>
+      <c r="AB75" s="194"/>
+      <c r="AC75" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD75" s="197" t="str">
+      <c r="AD75" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C79</f>
         <v>U7.7 feuergefährliches Material</v>
       </c>
-      <c r="AE75" s="198"/>
-      <c r="AF75" s="196" t="str">
+      <c r="AE75" s="196"/>
+      <c r="AF75" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D80</f>
         <v>F7.8 Veränderungen des Erbguts</v>
       </c>
     </row>
     <row r="76" spans="27:32">
-      <c r="AA76" s="196"/>
-      <c r="AB76" s="196"/>
-      <c r="AC76" s="196" t="e">
+      <c r="AA76" s="194"/>
+      <c r="AB76" s="194"/>
+      <c r="AC76" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD76" s="197" t="str">
+      <c r="AD76" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C80</f>
         <v>U7.8 Flüssigkeiten</v>
       </c>
-      <c r="AE76" s="198"/>
-      <c r="AF76" s="196" t="str">
+      <c r="AE76" s="196"/>
+      <c r="AF76" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D81</f>
         <v>F7.9 Vergiftung</v>
       </c>
     </row>
     <row r="77" spans="27:32">
-      <c r="AA77" s="196"/>
-      <c r="AB77" s="196"/>
-      <c r="AC77" s="196" t="e">
+      <c r="AA77" s="194"/>
+      <c r="AB77" s="194"/>
+      <c r="AC77" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD77" s="197" t="str">
+      <c r="AD77" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C81</f>
         <v>U7.9 Dämpfe</v>
       </c>
-      <c r="AE77" s="198"/>
-      <c r="AF77" s="196" t="str">
+      <c r="AE77" s="196"/>
+      <c r="AF77" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D82</f>
         <v>F7.10 Sensibilisierung</v>
       </c>
     </row>
     <row r="78" spans="27:32">
-      <c r="AA78" s="196"/>
-      <c r="AB78" s="196"/>
-      <c r="AC78" s="196" t="e">
+      <c r="AA78" s="194"/>
+      <c r="AB78" s="194"/>
+      <c r="AC78" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD78" s="197" t="str">
+      <c r="AD78" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C82</f>
         <v>U7.10 Gase</v>
       </c>
-      <c r="AE78" s="198"/>
-      <c r="AF78" s="196" t="str">
+      <c r="AE78" s="196"/>
+      <c r="AF78" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D83</f>
         <v>./.</v>
       </c>
     </row>
     <row r="79" spans="27:32">
-      <c r="AA79" s="196"/>
-      <c r="AB79" s="196"/>
-      <c r="AC79" s="196" t="e">
+      <c r="AA79" s="194"/>
+      <c r="AB79" s="194"/>
+      <c r="AC79" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD79" s="197" t="str">
+      <c r="AD79" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C83</f>
         <v>U7.11 Nebel</v>
       </c>
-      <c r="AE79" s="198"/>
-      <c r="AF79" s="196" t="str">
+      <c r="AE79" s="196"/>
+      <c r="AF79" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D84</f>
         <v>./.</v>
       </c>
     </row>
     <row r="80" spans="27:32">
-      <c r="AA80" s="196"/>
-      <c r="AB80" s="196"/>
-      <c r="AC80" s="196" t="e">
+      <c r="AA80" s="194"/>
+      <c r="AB80" s="194"/>
+      <c r="AC80" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD80" s="197" t="str">
+      <c r="AD80" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C84</f>
         <v>U7.12 Oxidationsmittel</v>
       </c>
-      <c r="AE80" s="198"/>
-      <c r="AF80" s="196" t="str">
+      <c r="AE80" s="196"/>
+      <c r="AF80" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D85</f>
         <v>F8 Gefährdung durch unergonomische Gestaltung</v>
       </c>
     </row>
     <row r="81" spans="27:32">
-      <c r="AA81" s="196"/>
-      <c r="AB81" s="196"/>
-      <c r="AC81" s="196" t="e">
+      <c r="AA81" s="194"/>
+      <c r="AB81" s="194"/>
+      <c r="AC81" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD81" s="197" t="str">
+      <c r="AD81" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C85</f>
         <v>U8 Gefährdung durch unergonomische Gestaltung</v>
       </c>
-      <c r="AE81" s="198"/>
-      <c r="AF81" s="196" t="str">
+      <c r="AE81" s="196"/>
+      <c r="AF81" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D86</f>
         <v>F8.1 Unbehagen</v>
       </c>
     </row>
     <row r="82" spans="27:32">
-      <c r="AA82" s="196"/>
-      <c r="AB82" s="196"/>
-      <c r="AC82" s="196" t="e">
+      <c r="AA82" s="194"/>
+      <c r="AB82" s="194"/>
+      <c r="AC82" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD82" s="197" t="str">
+      <c r="AD82" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C86</f>
         <v>U8.1 Zugang</v>
       </c>
-      <c r="AE82" s="198"/>
-      <c r="AF82" s="196" t="str">
+      <c r="AE82" s="196"/>
+      <c r="AF82" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D87</f>
         <v>F8.2 Ermüdung</v>
       </c>
     </row>
     <row r="83" spans="27:32">
-      <c r="AA83" s="196"/>
-      <c r="AB83" s="196"/>
-      <c r="AC83" s="196" t="e">
+      <c r="AA83" s="194"/>
+      <c r="AB83" s="194"/>
+      <c r="AC83" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD83" s="197" t="str">
+      <c r="AD83" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C87</f>
         <v>U8.2 Gestaltung oder Anordnung von Anzeigen</v>
       </c>
-      <c r="AE83" s="198"/>
-      <c r="AF83" s="196" t="str">
+      <c r="AE83" s="196"/>
+      <c r="AF83" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D88</f>
         <v>F8.3 Störungen des Bewegungsapparates</v>
       </c>
     </row>
     <row r="84" spans="27:32">
-      <c r="AA84" s="196"/>
-      <c r="AB84" s="196"/>
-      <c r="AC84" s="196" t="e">
+      <c r="AA84" s="194"/>
+      <c r="AB84" s="194"/>
+      <c r="AC84" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD84" s="197" t="str">
+      <c r="AD84" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C88</f>
         <v>U8.3 Gestaltung, Anordnung oder Erkennung</v>
       </c>
-      <c r="AE84" s="198"/>
-      <c r="AF84" s="196" t="str">
+      <c r="AE84" s="196"/>
+      <c r="AF84" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D89</f>
         <v>F8.4 Stress</v>
       </c>
     </row>
     <row r="85" spans="27:32">
-      <c r="AA85" s="196"/>
-      <c r="AB85" s="196"/>
-      <c r="AC85" s="196" t="e">
+      <c r="AA85" s="194"/>
+      <c r="AB85" s="194"/>
+      <c r="AC85" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD85" s="197" t="str">
+      <c r="AD85" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C89</f>
         <v>U8.4 Anstrengung</v>
       </c>
-      <c r="AE85" s="198"/>
-      <c r="AF85" s="196" t="str">
+      <c r="AE85" s="196"/>
+      <c r="AF85" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D90</f>
         <v>F8.5 alle weiteren (z.B. mechanischen, elektrischen) Probleme als Folge menschlichen Fehlverhaltens</v>
       </c>
     </row>
     <row r="86" spans="27:32">
-      <c r="AA86" s="196"/>
-      <c r="AB86" s="196"/>
-      <c r="AC86" s="196" t="e">
+      <c r="AA86" s="194"/>
+      <c r="AB86" s="194"/>
+      <c r="AC86" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD86" s="197" t="str">
+      <c r="AD86" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C90</f>
         <v>U8.5 Flackern, Blenden, Schattenbildung und stroboskopische Effekte</v>
       </c>
-      <c r="AE86" s="198"/>
-      <c r="AF86" s="196" t="str">
+      <c r="AE86" s="196"/>
+      <c r="AF86" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D91</f>
         <v>./.</v>
       </c>
     </row>
     <row r="87" spans="27:32">
-      <c r="AA87" s="196"/>
-      <c r="AB87" s="196"/>
-      <c r="AC87" s="196" t="e">
+      <c r="AA87" s="194"/>
+      <c r="AB87" s="194"/>
+      <c r="AC87" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD87" s="197" t="str">
+      <c r="AD87" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C91</f>
         <v>U8.6 örtliche Beleuchtung</v>
       </c>
-      <c r="AE87" s="198"/>
-      <c r="AF87" s="196" t="str">
+      <c r="AE87" s="196"/>
+      <c r="AF87" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D92</f>
         <v>./.</v>
       </c>
     </row>
     <row r="88" spans="27:32">
-      <c r="AA88" s="196"/>
-      <c r="AB88" s="196"/>
-      <c r="AC88" s="196" t="e">
+      <c r="AA88" s="194"/>
+      <c r="AB88" s="194"/>
+      <c r="AC88" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD88" s="197" t="str">
+      <c r="AD88" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C92</f>
         <v>U8.7 psychische Überbelastung/Unterforderung</v>
       </c>
-      <c r="AE88" s="198"/>
-      <c r="AF88" s="196" t="str">
+      <c r="AE88" s="196"/>
+      <c r="AF88" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D93</f>
         <v>./.</v>
       </c>
     </row>
     <row r="89" spans="27:32">
-      <c r="AA89" s="196"/>
-      <c r="AB89" s="196"/>
-      <c r="AC89" s="196" t="e">
+      <c r="AA89" s="194"/>
+      <c r="AB89" s="194"/>
+      <c r="AC89" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD89" s="197" t="str">
+      <c r="AD89" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C93</f>
         <v>U8.8 Körperhaltung</v>
       </c>
-      <c r="AE89" s="198"/>
-      <c r="AF89" s="196" t="str">
+      <c r="AE89" s="196"/>
+      <c r="AF89" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D94</f>
         <v>./.</v>
       </c>
     </row>
     <row r="90" spans="27:32">
-      <c r="AA90" s="196"/>
-      <c r="AB90" s="196"/>
-      <c r="AC90" s="196" t="e">
+      <c r="AA90" s="194"/>
+      <c r="AB90" s="194"/>
+      <c r="AC90" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD90" s="197" t="str">
+      <c r="AD90" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C94</f>
         <v>U8.9 sich wiederholende Tätigkeiten</v>
       </c>
-      <c r="AE90" s="198"/>
-      <c r="AF90" s="196" t="str">
+      <c r="AE90" s="196"/>
+      <c r="AF90" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D95</f>
         <v>./.</v>
       </c>
     </row>
     <row r="91" spans="27:32">
-      <c r="AA91" s="196"/>
-      <c r="AB91" s="196"/>
-      <c r="AC91" s="196" t="e">
+      <c r="AA91" s="194"/>
+      <c r="AB91" s="194"/>
+      <c r="AC91" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD91" s="197" t="str">
+      <c r="AD91" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C95</f>
         <v>U8.10 Sichtbarkeit</v>
       </c>
-      <c r="AE91" s="198"/>
-      <c r="AF91" s="196" t="str">
+      <c r="AE91" s="196"/>
+      <c r="AF91" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D96</f>
         <v>F9 Gefährdungen im Zusammenhang mit der Einsatzumgebung der Maschine</v>
       </c>
     </row>
     <row r="92" spans="27:32">
-      <c r="AA92" s="196"/>
-      <c r="AB92" s="196"/>
-      <c r="AC92" s="196" t="e">
+      <c r="AA92" s="194"/>
+      <c r="AB92" s="194"/>
+      <c r="AC92" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD92" s="197" t="str">
+      <c r="AD92" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C96</f>
         <v>U9 Gefährdungen im Zusammenhang mit der Einsatzumgebung der Maschine</v>
       </c>
-      <c r="AE92" s="198"/>
-      <c r="AF92" s="196" t="str">
+      <c r="AE92" s="196"/>
+      <c r="AF92" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D97</f>
         <v>F9.1 Verbrennungen</v>
       </c>
     </row>
     <row r="93" spans="27:32">
-      <c r="AA93" s="196"/>
-      <c r="AB93" s="196"/>
-      <c r="AC93" s="196" t="e">
+      <c r="AA93" s="194"/>
+      <c r="AB93" s="194"/>
+      <c r="AC93" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD93" s="197" t="str">
+      <c r="AD93" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C97</f>
         <v>U9.1 Staub und Nebel</v>
       </c>
-      <c r="AE93" s="198"/>
-      <c r="AF93" s="196" t="str">
+      <c r="AE93" s="196"/>
+      <c r="AF93" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D98</f>
         <v>F9.2 leichte Erkrankungen</v>
       </c>
     </row>
     <row r="94" spans="27:32">
-      <c r="AA94" s="196"/>
-      <c r="AB94" s="196"/>
-      <c r="AC94" s="196" t="e">
+      <c r="AA94" s="194"/>
+      <c r="AB94" s="194"/>
+      <c r="AC94" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD94" s="197" t="str">
+      <c r="AD94" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C98</f>
         <v>U9.2 elektromagnetische Störungen</v>
       </c>
-      <c r="AE94" s="198"/>
-      <c r="AF94" s="196" t="str">
+      <c r="AE94" s="196"/>
+      <c r="AF94" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D99</f>
         <v>F9.3 Ausrutschen, Stürzen</v>
       </c>
     </row>
     <row r="95" spans="27:32">
-      <c r="AA95" s="196"/>
-      <c r="AB95" s="196"/>
-      <c r="AC95" s="196" t="e">
+      <c r="AA95" s="194"/>
+      <c r="AB95" s="194"/>
+      <c r="AC95" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD95" s="197" t="str">
+      <c r="AD95" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C99</f>
         <v>U9.3 Blitzschlag</v>
       </c>
-      <c r="AE95" s="198"/>
-      <c r="AF95" s="196" t="str">
+      <c r="AE95" s="196"/>
+      <c r="AF95" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D100</f>
         <v>F9.4 Ersticken</v>
       </c>
     </row>
     <row r="96" spans="27:32">
-      <c r="AA96" s="196"/>
-      <c r="AB96" s="196"/>
-      <c r="AC96" s="196" t="e">
+      <c r="AA96" s="194"/>
+      <c r="AB96" s="194"/>
+      <c r="AC96" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD96" s="197" t="str">
+      <c r="AD96" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C100</f>
         <v>U9.4 Feuchtigkeit</v>
       </c>
-      <c r="AE96" s="198"/>
-      <c r="AF96" s="196" t="str">
+      <c r="AE96" s="196"/>
+      <c r="AF96" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D101</f>
         <v>F9.5 alle weiteren Probleme, die als Folge der Auswirkungen der Gefährdungsquellen an der Maschine oder an Teilen der Maschine auftreten</v>
       </c>
     </row>
     <row r="97" spans="27:32">
-      <c r="AA97" s="196"/>
-      <c r="AB97" s="196"/>
-      <c r="AC97" s="196" t="e">
+      <c r="AA97" s="194"/>
+      <c r="AB97" s="194"/>
+      <c r="AC97" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD97" s="197" t="str">
+      <c r="AD97" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C101</f>
         <v>U9.5 Verunreinigungen</v>
       </c>
-      <c r="AE97" s="198"/>
-      <c r="AF97" s="196" t="str">
+      <c r="AE97" s="196"/>
+      <c r="AF97" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D102</f>
         <v>./.</v>
       </c>
     </row>
     <row r="98" spans="27:32">
-      <c r="AA98" s="196"/>
-      <c r="AB98" s="196"/>
-      <c r="AC98" s="196" t="e">
+      <c r="AA98" s="194"/>
+      <c r="AB98" s="194"/>
+      <c r="AC98" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD98" s="197" t="str">
+      <c r="AD98" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C102</f>
         <v>U9.6 Schnee</v>
       </c>
-      <c r="AE98" s="198"/>
-      <c r="AF98" s="196" t="str">
+      <c r="AE98" s="196"/>
+      <c r="AF98" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D103</f>
         <v>./.</v>
       </c>
     </row>
     <row r="99" spans="27:32">
-      <c r="AA99" s="196"/>
-      <c r="AB99" s="196"/>
-      <c r="AC99" s="196" t="e">
+      <c r="AA99" s="194"/>
+      <c r="AB99" s="194"/>
+      <c r="AC99" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD99" s="197" t="str">
+      <c r="AD99" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C103</f>
         <v>U9.7 Temperatur</v>
       </c>
-      <c r="AE99" s="198"/>
-      <c r="AF99" s="196" t="str">
+      <c r="AE99" s="196"/>
+      <c r="AF99" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D104</f>
         <v>./.</v>
       </c>
     </row>
     <row r="100" spans="27:32">
-      <c r="AA100" s="196"/>
-      <c r="AB100" s="196"/>
-      <c r="AC100" s="196" t="e">
+      <c r="AA100" s="194"/>
+      <c r="AB100" s="194"/>
+      <c r="AC100" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD100" s="197" t="str">
+      <c r="AD100" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C104</f>
         <v>U9.8 Wasser</v>
       </c>
-      <c r="AE100" s="198"/>
-      <c r="AF100" s="196" t="str">
+      <c r="AE100" s="196"/>
+      <c r="AF100" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D105</f>
         <v>./.</v>
       </c>
     </row>
     <row r="101" spans="27:32">
-      <c r="AA101" s="196"/>
-      <c r="AB101" s="196"/>
-      <c r="AC101" s="196" t="e">
+      <c r="AA101" s="194"/>
+      <c r="AB101" s="194"/>
+      <c r="AC101" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD101" s="197" t="str">
+      <c r="AD101" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C105</f>
         <v>U9.9 Wind</v>
       </c>
-      <c r="AE101" s="198"/>
-      <c r="AF101" s="196" t="str">
+      <c r="AE101" s="196"/>
+      <c r="AF101" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D106</f>
         <v>./.</v>
       </c>
     </row>
     <row r="102" spans="27:32">
-      <c r="AA102" s="196"/>
-      <c r="AB102" s="196"/>
-      <c r="AC102" s="196" t="e">
+      <c r="AA102" s="194"/>
+      <c r="AB102" s="194"/>
+      <c r="AC102" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD102" s="197" t="str">
+      <c r="AD102" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C106</f>
         <v>U9.10 Sauerstoffmangel</v>
       </c>
-      <c r="AE102" s="198"/>
-      <c r="AF102" s="196" t="str">
+      <c r="AE102" s="196"/>
+      <c r="AF102" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D107</f>
         <v>F10 Kombination von Gefährdungen</v>
       </c>
     </row>
     <row r="103" spans="27:32">
-      <c r="AA103" s="196"/>
-      <c r="AB103" s="196"/>
-      <c r="AC103" s="196" t="e">
+      <c r="AA103" s="194"/>
+      <c r="AB103" s="194"/>
+      <c r="AC103" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD103" s="197" t="str">
+      <c r="AD103" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C107</f>
         <v>U10 Kombination von Gefährdungen</v>
       </c>
-      <c r="AE103" s="198"/>
-      <c r="AF103" s="196" t="str">
+      <c r="AE103" s="196"/>
+      <c r="AF103" s="194" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!D108</f>
         <v>F10.1 z.B. Dehydrierung, Bewusstseinsverlust, Hitzeschock</v>
       </c>
     </row>
     <row r="104" spans="27:32">
-      <c r="AA104" s="196"/>
-      <c r="AB104" s="196"/>
-      <c r="AC104" s="196" t="e">
+      <c r="AA104" s="194"/>
+      <c r="AB104" s="194"/>
+      <c r="AC104" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AD104" s="197" t="str">
+      <c r="AD104" s="195" t="str">
         <f>'Ursprung-Folgen nach ISO 12100'!C108</f>
         <v>U10.1 z.B. sich wiederholende Tätigkeit + Anstrengung + hohe Umgebungstemperatur</v>
       </c>
-      <c r="AE104" s="198"/>
-      <c r="AF104" s="196"/>
+      <c r="AE104" s="196"/>
+      <c r="AF104" s="194"/>
     </row>
     <row r="105" spans="27:32">
       <c r="AA105" s="123"/>
       <c r="AB105" s="123"/>
-      <c r="AC105" s="196" t="e">
+      <c r="AC105" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -8992,7 +9109,7 @@
     <row r="106" spans="27:32">
       <c r="AA106" s="123"/>
       <c r="AB106" s="123"/>
-      <c r="AC106" s="196" t="e">
+      <c r="AC106" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9001,7 +9118,7 @@
     <row r="107" spans="27:32">
       <c r="AA107" s="123"/>
       <c r="AB107" s="123"/>
-      <c r="AC107" s="196" t="e">
+      <c r="AC107" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9010,7 +9127,7 @@
     <row r="108" spans="27:32">
       <c r="AA108" s="123"/>
       <c r="AB108" s="123"/>
-      <c r="AC108" s="196" t="e">
+      <c r="AC108" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9019,7 +9136,7 @@
     <row r="109" spans="27:32">
       <c r="AA109" s="123"/>
       <c r="AB109" s="123"/>
-      <c r="AC109" s="196" t="e">
+      <c r="AC109" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9028,7 +9145,7 @@
     <row r="110" spans="27:32">
       <c r="AA110" s="123"/>
       <c r="AB110" s="123"/>
-      <c r="AC110" s="196" t="e">
+      <c r="AC110" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9036,7 +9153,7 @@
     <row r="111" spans="27:32">
       <c r="AA111" s="123"/>
       <c r="AB111" s="123"/>
-      <c r="AC111" s="196" t="e">
+      <c r="AC111" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9044,7 +9161,7 @@
     <row r="112" spans="27:32">
       <c r="AA112" s="123"/>
       <c r="AB112" s="123"/>
-      <c r="AC112" s="196" t="e">
+      <c r="AC112" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9052,7 +9169,7 @@
     <row r="113" spans="27:29">
       <c r="AA113" s="123"/>
       <c r="AB113" s="123"/>
-      <c r="AC113" s="196" t="e">
+      <c r="AC113" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9060,7 +9177,7 @@
     <row r="114" spans="27:29">
       <c r="AA114" s="123"/>
       <c r="AB114" s="123"/>
-      <c r="AC114" s="196" t="e">
+      <c r="AC114" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9068,7 +9185,7 @@
     <row r="115" spans="27:29">
       <c r="AA115" s="123"/>
       <c r="AB115" s="123"/>
-      <c r="AC115" s="196" t="e">
+      <c r="AC115" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9076,7 +9193,7 @@
     <row r="116" spans="27:29">
       <c r="AA116" s="123"/>
       <c r="AB116" s="123"/>
-      <c r="AC116" s="196" t="e">
+      <c r="AC116" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9084,7 +9201,7 @@
     <row r="117" spans="27:29">
       <c r="AA117" s="123"/>
       <c r="AB117" s="123"/>
-      <c r="AC117" s="196" t="e">
+      <c r="AC117" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9092,7 +9209,7 @@
     <row r="118" spans="27:29">
       <c r="AA118" s="123"/>
       <c r="AB118" s="123"/>
-      <c r="AC118" s="196" t="e">
+      <c r="AC118" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9100,7 +9217,7 @@
     <row r="119" spans="27:29">
       <c r="AA119" s="123"/>
       <c r="AB119" s="123"/>
-      <c r="AC119" s="196" t="e">
+      <c r="AC119" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9108,7 +9225,7 @@
     <row r="120" spans="27:29">
       <c r="AA120" s="123"/>
       <c r="AB120" s="123"/>
-      <c r="AC120" s="196" t="e">
+      <c r="AC120" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9116,7 +9233,7 @@
     <row r="121" spans="27:29">
       <c r="AA121" s="123"/>
       <c r="AB121" s="123"/>
-      <c r="AC121" s="196" t="e">
+      <c r="AC121" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9124,7 +9241,7 @@
     <row r="122" spans="27:29">
       <c r="AA122" s="123"/>
       <c r="AB122" s="123"/>
-      <c r="AC122" s="196" t="e">
+      <c r="AC122" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9132,7 +9249,7 @@
     <row r="123" spans="27:29">
       <c r="AA123" s="123"/>
       <c r="AB123" s="123"/>
-      <c r="AC123" s="196" t="e">
+      <c r="AC123" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9140,7 +9257,7 @@
     <row r="124" spans="27:29">
       <c r="AA124" s="123"/>
       <c r="AB124" s="123"/>
-      <c r="AC124" s="196" t="e">
+      <c r="AC124" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9148,7 +9265,7 @@
     <row r="125" spans="27:29">
       <c r="AA125" s="123"/>
       <c r="AB125" s="123"/>
-      <c r="AC125" s="196" t="e">
+      <c r="AC125" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9156,7 +9273,7 @@
     <row r="126" spans="27:29">
       <c r="AA126" s="123"/>
       <c r="AB126" s="123"/>
-      <c r="AC126" s="196" t="e">
+      <c r="AC126" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9164,7 +9281,7 @@
     <row r="127" spans="27:29">
       <c r="AA127" s="123"/>
       <c r="AB127" s="123"/>
-      <c r="AC127" s="196" t="e">
+      <c r="AC127" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9172,7 +9289,7 @@
     <row r="128" spans="27:29">
       <c r="AA128" s="123"/>
       <c r="AB128" s="123"/>
-      <c r="AC128" s="196" t="e">
+      <c r="AC128" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9180,7 +9297,7 @@
     <row r="129" spans="27:29">
       <c r="AA129" s="123"/>
       <c r="AB129" s="123"/>
-      <c r="AC129" s="196" t="e">
+      <c r="AC129" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9188,7 +9305,7 @@
     <row r="130" spans="27:29">
       <c r="AA130" s="123"/>
       <c r="AB130" s="123"/>
-      <c r="AC130" s="196" t="e">
+      <c r="AC130" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9196,7 +9313,7 @@
     <row r="131" spans="27:29">
       <c r="AA131" s="123"/>
       <c r="AB131" s="123"/>
-      <c r="AC131" s="196" t="e">
+      <c r="AC131" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9204,7 +9321,7 @@
     <row r="132" spans="27:29">
       <c r="AA132" s="123"/>
       <c r="AB132" s="123"/>
-      <c r="AC132" s="196" t="e">
+      <c r="AC132" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9212,7 +9329,7 @@
     <row r="133" spans="27:29">
       <c r="AA133" s="123"/>
       <c r="AB133" s="123"/>
-      <c r="AC133" s="196" t="e">
+      <c r="AC133" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9220,7 +9337,7 @@
     <row r="134" spans="27:29">
       <c r="AA134" s="123"/>
       <c r="AB134" s="123"/>
-      <c r="AC134" s="196" t="e">
+      <c r="AC134" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9228,7 +9345,7 @@
     <row r="135" spans="27:29">
       <c r="AA135" s="123"/>
       <c r="AB135" s="123"/>
-      <c r="AC135" s="196" t="e">
+      <c r="AC135" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9236,7 +9353,7 @@
     <row r="136" spans="27:29">
       <c r="AA136" s="123"/>
       <c r="AB136" s="123"/>
-      <c r="AC136" s="196" t="e">
+      <c r="AC136" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9244,7 +9361,7 @@
     <row r="137" spans="27:29">
       <c r="AA137" s="123"/>
       <c r="AB137" s="123"/>
-      <c r="AC137" s="196" t="e">
+      <c r="AC137" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9252,7 +9369,7 @@
     <row r="138" spans="27:29">
       <c r="AA138" s="123"/>
       <c r="AB138" s="123"/>
-      <c r="AC138" s="196" t="e">
+      <c r="AC138" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9260,7 +9377,7 @@
     <row r="139" spans="27:29">
       <c r="AA139" s="123"/>
       <c r="AB139" s="123"/>
-      <c r="AC139" s="196" t="e">
+      <c r="AC139" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9268,7 +9385,7 @@
     <row r="140" spans="27:29">
       <c r="AA140" s="123"/>
       <c r="AB140" s="123"/>
-      <c r="AC140" s="196" t="e">
+      <c r="AC140" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9276,7 +9393,7 @@
     <row r="141" spans="27:29">
       <c r="AA141" s="123"/>
       <c r="AB141" s="123"/>
-      <c r="AC141" s="196" t="e">
+      <c r="AC141" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9284,7 +9401,7 @@
     <row r="142" spans="27:29">
       <c r="AA142" s="123"/>
       <c r="AB142" s="123"/>
-      <c r="AC142" s="196" t="e">
+      <c r="AC142" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9292,7 +9409,7 @@
     <row r="143" spans="27:29">
       <c r="AA143" s="123"/>
       <c r="AB143" s="123"/>
-      <c r="AC143" s="196" t="e">
+      <c r="AC143" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9300,7 +9417,7 @@
     <row r="144" spans="27:29">
       <c r="AA144" s="123"/>
       <c r="AB144" s="123"/>
-      <c r="AC144" s="196" t="e">
+      <c r="AC144" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9308,7 +9425,7 @@
     <row r="145" spans="27:29">
       <c r="AA145" s="123"/>
       <c r="AB145" s="123"/>
-      <c r="AC145" s="196" t="e">
+      <c r="AC145" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9316,7 +9433,7 @@
     <row r="146" spans="27:29">
       <c r="AA146" s="123"/>
       <c r="AB146" s="123"/>
-      <c r="AC146" s="196" t="e">
+      <c r="AC146" s="194" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -9468,7 +9585,7 @@
       <c r="AB181" s="123"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:V41" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A6:V41"/>
   <mergeCells count="5">
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="Q3:V3"/>
@@ -9485,16 +9602,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B41" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B41">
       <formula1>$AA$7:$AA$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E7:E41" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E7:E41">
       <formula1>$AD$8:$AD$104</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F7:F41" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F7:F41">
       <formula1>$AE$7:$AE$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G7:G41" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G7:G41">
       <formula1>$AF$7:$AF$103</formula1>
     </dataValidation>
   </dataValidations>
@@ -9509,13 +9626,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lebensphasen!$A$2:$A$12</xm:f>
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{6F241CF9-5FB7-EB44-ACDC-FB548C27B1BA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>'Aufgaben+Tätigkeiten'!$B$3:$B$22</xm:f>
           </x14:formula1>
@@ -9528,7 +9645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9682,12 +9799,12 @@
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="R3" s="282" t="s">
+      <c r="R3" s="284" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="282"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
+      <c r="S3" s="284"/>
+      <c r="T3" s="284"/>
+      <c r="U3" s="284"/>
       <c r="W3" s="112" t="s">
         <v>25</v>
       </c>
@@ -9706,14 +9823,14 @@
       </c>
       <c r="B4" s="291"/>
       <c r="C4" s="292"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="300" t="s">
+      <c r="D4" s="198"/>
+      <c r="E4" s="275" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="302"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="277"/>
       <c r="J4" s="98"/>
       <c r="R4" s="99" t="s">
         <v>30</v>
@@ -9742,21 +9859,21 @@
       <c r="AB4" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="283" t="s">
+      <c r="AC4" s="285" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="284"/>
+      <c r="AD4" s="286"/>
     </row>
     <row r="5" spans="1:79" s="69" customFormat="1" ht="18">
       <c r="A5" s="293"/>
       <c r="B5" s="294"/>
       <c r="C5" s="295"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="280"/>
       <c r="J5" s="100"/>
       <c r="R5" s="101" t="s">
         <v>38</v>
@@ -9786,16 +9903,16 @@
       <c r="AB5" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="283" t="s">
+      <c r="AC5" s="285" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="284"/>
+      <c r="AD5" s="286"/>
     </row>
     <row r="6" spans="1:79" ht="18">
       <c r="A6" s="296"/>
       <c r="B6" s="297"/>
       <c r="C6" s="298"/>
-      <c r="D6" s="202"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="128" t="s">
         <v>44</v>
       </c>
@@ -9839,19 +9956,19 @@
       </c>
     </row>
     <row r="7" spans="1:79" ht="18">
-      <c r="A7" s="203"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="289" t="s">
         <v>386</v>
       </c>
       <c r="C7" s="289"/>
-      <c r="D7" s="206" t="s">
+      <c r="D7" s="204" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="212"/>
+      <c r="E7" s="210"/>
       <c r="F7" s="129"/>
       <c r="G7" s="129"/>
       <c r="H7" s="130"/>
-      <c r="I7" s="204"/>
+      <c r="I7" s="202"/>
       <c r="J7" s="66"/>
       <c r="R7" s="107"/>
       <c r="S7" s="102">
@@ -9878,29 +9995,29 @@
       </c>
     </row>
     <row r="8" spans="1:79" ht="18">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="203" t="s">
         <v>380</v>
       </c>
       <c r="B8" s="287" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="288"/>
-      <c r="D8" s="211" t="s">
+      <c r="D8" s="209" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="215" t="s">
+      <c r="E8" s="213" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="215" t="s">
+      <c r="F8" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="215" t="s">
+      <c r="G8" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="215" t="s">
+      <c r="H8" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="215" t="s">
+      <c r="I8" s="213" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="66"/>
@@ -9934,11 +10051,11 @@
       <c r="A9" s="81">
         <v>4</v>
       </c>
-      <c r="B9" s="285" t="s">
+      <c r="B9" s="272" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="286"/>
-      <c r="D9" s="211" t="s">
+      <c r="C9" s="273"/>
+      <c r="D9" s="209" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="83" t="s">
@@ -9987,14 +10104,14 @@
       <c r="A10" s="81">
         <v>3</v>
       </c>
-      <c r="B10" s="285" t="s">
+      <c r="B10" s="272" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="286"/>
-      <c r="D10" s="211" t="s">
+      <c r="C10" s="273"/>
+      <c r="D10" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="213"/>
+      <c r="E10" s="211"/>
       <c r="F10" s="83" t="s">
         <v>38</v>
       </c>
@@ -10026,14 +10143,14 @@
       <c r="A11" s="81">
         <v>2</v>
       </c>
-      <c r="B11" s="285" t="s">
+      <c r="B11" s="272" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="286"/>
-      <c r="D11" s="211" t="s">
+      <c r="C11" s="273"/>
+      <c r="D11" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="213"/>
+      <c r="E11" s="211"/>
       <c r="F11" s="83"/>
       <c r="G11" s="83" t="s">
         <v>38</v>
@@ -10045,12 +10162,12 @@
         <v>54</v>
       </c>
       <c r="J11" s="66"/>
-      <c r="R11" s="299" t="s">
+      <c r="R11" s="274" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="299"/>
-      <c r="T11" s="299"/>
-      <c r="U11" s="299"/>
+      <c r="S11" s="274"/>
+      <c r="T11" s="274"/>
+      <c r="U11" s="274"/>
       <c r="W11" s="120">
         <v>2</v>
       </c>
@@ -10069,11 +10186,11 @@
       <c r="A12" s="81">
         <v>1</v>
       </c>
-      <c r="B12" s="285" t="s">
+      <c r="B12" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="286"/>
-      <c r="D12" s="214" t="s">
+      <c r="C12" s="273"/>
+      <c r="D12" s="212" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="83"/>
@@ -10086,10 +10203,10 @@
         <v>59</v>
       </c>
       <c r="J12" s="66"/>
-      <c r="R12" s="299"/>
-      <c r="S12" s="299"/>
-      <c r="T12" s="299"/>
-      <c r="U12" s="299"/>
+      <c r="R12" s="274"/>
+      <c r="S12" s="274"/>
+      <c r="T12" s="274"/>
+      <c r="U12" s="274"/>
       <c r="W12" s="120">
         <v>2</v>
       </c>
@@ -10108,19 +10225,19 @@
       <c r="A13" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="306"/>
-      <c r="C13" s="307"/>
-      <c r="D13" s="210"/>
+      <c r="B13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="208"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
       <c r="J13" s="66"/>
-      <c r="R13" s="299"/>
-      <c r="S13" s="299"/>
-      <c r="T13" s="299"/>
-      <c r="U13" s="299"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="274"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="274"/>
       <c r="W13" s="120">
         <v>2</v>
       </c>
@@ -10139,19 +10256,19 @@
       <c r="A14" s="87"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
-      <c r="D14" s="220" t="s">
+      <c r="D14" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="220"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
       <c r="J14" s="66"/>
-      <c r="R14" s="299"/>
-      <c r="S14" s="299"/>
-      <c r="T14" s="299"/>
-      <c r="U14" s="299"/>
+      <c r="R14" s="274"/>
+      <c r="S14" s="274"/>
+      <c r="T14" s="274"/>
+      <c r="U14" s="274"/>
       <c r="W14" s="120">
         <v>2</v>
       </c>
@@ -10167,34 +10284,34 @@
       </c>
     </row>
     <row r="15" spans="1:79" ht="15" customHeight="1">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="224"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="219" t="s">
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="217" t="s">
         <v>389</v>
       </c>
       <c r="E15" s="104" t="s">
+        <v>403</v>
+      </c>
+      <c r="F15" s="105" t="s">
         <v>404</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="G15" s="104" t="s">
         <v>405</v>
       </c>
-      <c r="G15" s="104" t="s">
+      <c r="H15" s="104" t="s">
         <v>406</v>
       </c>
-      <c r="H15" s="104" t="s">
-        <v>407</v>
-      </c>
       <c r="I15" s="105" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="R15" s="299"/>
-      <c r="S15" s="299"/>
-      <c r="T15" s="299"/>
-      <c r="U15" s="299"/>
+      <c r="R15" s="274"/>
+      <c r="S15" s="274"/>
+      <c r="T15" s="274"/>
+      <c r="U15" s="274"/>
       <c r="W15" s="120">
         <v>3</v>
       </c>
@@ -10210,13 +10327,13 @@
       </c>
     </row>
     <row r="16" spans="1:79" ht="15">
-      <c r="A16" s="222">
+      <c r="A16" s="220">
         <v>5</v>
       </c>
-      <c r="B16" s="280" t="s">
+      <c r="B16" s="281" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="280"/>
+      <c r="C16" s="281"/>
       <c r="D16" s="104" t="s">
         <v>387</v>
       </c>
@@ -10257,13 +10374,13 @@
       </c>
     </row>
     <row r="17" spans="1:38" ht="15">
-      <c r="A17" s="222">
+      <c r="A17" s="220">
         <v>4</v>
       </c>
-      <c r="B17" s="280" t="s">
+      <c r="B17" s="281" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="280"/>
+      <c r="C17" s="281"/>
       <c r="D17" s="104" t="s">
         <v>388</v>
       </c>
@@ -10302,19 +10419,19 @@
       </c>
     </row>
     <row r="18" spans="1:38" ht="15">
-      <c r="A18" s="222">
+      <c r="A18" s="220">
         <v>3</v>
       </c>
-      <c r="B18" s="280" t="s">
+      <c r="B18" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="280"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
       <c r="J18" s="66"/>
       <c r="R18" s="109" t="s">
         <v>77</v>
@@ -10337,21 +10454,21 @@
       </c>
     </row>
     <row r="19" spans="1:38" ht="51" customHeight="1">
-      <c r="A19" s="222">
+      <c r="A19" s="220">
         <v>2</v>
       </c>
-      <c r="B19" s="280" t="s">
+      <c r="B19" s="281" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="280"/>
-      <c r="D19" s="279" t="s">
-        <v>403</v>
-      </c>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="302" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
       <c r="J19" s="66"/>
       <c r="R19" s="109" t="s">
         <v>79</v>
@@ -10374,19 +10491,19 @@
       </c>
     </row>
     <row r="20" spans="1:38" ht="15">
-      <c r="A20" s="222">
+      <c r="A20" s="220">
         <v>1</v>
       </c>
-      <c r="B20" s="280" t="s">
+      <c r="B20" s="281" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="280"/>
-      <c r="D20" s="279"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="279"/>
+      <c r="C20" s="281"/>
+      <c r="D20" s="302"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
       <c r="J20" s="66"/>
       <c r="R20" s="109" t="s">
         <v>81</v>
@@ -10412,12 +10529,12 @@
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
+      <c r="D21" s="302"/>
+      <c r="E21" s="302"/>
+      <c r="F21" s="302"/>
+      <c r="G21" s="302"/>
+      <c r="H21" s="302"/>
+      <c r="I21" s="302"/>
       <c r="J21" s="66"/>
       <c r="W21" s="120">
         <v>4</v>
@@ -10434,17 +10551,17 @@
       </c>
     </row>
     <row r="22" spans="1:38" ht="15" customHeight="1">
-      <c r="A22" s="226" t="s">
+      <c r="A22" s="224" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="279"/>
+      <c r="B22" s="225"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="302"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="302"/>
+      <c r="H22" s="302"/>
+      <c r="I22" s="302"/>
       <c r="J22" s="66"/>
       <c r="W22" s="120">
         <v>4</v>
@@ -10461,19 +10578,19 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1">
-      <c r="A23" s="225">
+      <c r="A23" s="223">
         <v>5</v>
       </c>
-      <c r="B23" s="278" t="s">
+      <c r="B23" s="301" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="278"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="279"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="302"/>
+      <c r="E23" s="302"/>
+      <c r="F23" s="302"/>
+      <c r="G23" s="302"/>
+      <c r="H23" s="302"/>
+      <c r="I23" s="302"/>
       <c r="J23" s="66"/>
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
@@ -10494,19 +10611,19 @@
       </c>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1">
-      <c r="A24" s="225">
+      <c r="A24" s="223">
         <v>3</v>
       </c>
-      <c r="B24" s="278" t="s">
+      <c r="B24" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="278"/>
-      <c r="D24" s="279"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="302"/>
+      <c r="E24" s="302"/>
+      <c r="F24" s="302"/>
+      <c r="G24" s="302"/>
+      <c r="H24" s="302"/>
+      <c r="I24" s="302"/>
       <c r="J24" s="66"/>
       <c r="W24" s="120">
         <v>4</v>
@@ -10523,19 +10640,19 @@
       </c>
     </row>
     <row r="25" spans="1:38" ht="15">
-      <c r="A25" s="225">
+      <c r="A25" s="223">
         <v>1</v>
       </c>
-      <c r="B25" s="278" t="s">
+      <c r="B25" s="301" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="278"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="302"/>
+      <c r="E25" s="302"/>
+      <c r="F25" s="302"/>
+      <c r="G25" s="302"/>
+      <c r="H25" s="302"/>
+      <c r="I25" s="302"/>
       <c r="J25" s="66"/>
       <c r="W25" s="120">
         <v>5</v>
@@ -10552,15 +10669,15 @@
       </c>
     </row>
     <row r="26" spans="1:38" ht="15">
-      <c r="A26" s="235"/>
-      <c r="B26" s="235"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="279"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="279"/>
-      <c r="I26" s="279"/>
+      <c r="A26" s="233"/>
+      <c r="B26" s="233"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="302"/>
+      <c r="E26" s="302"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="302"/>
       <c r="J26" s="66"/>
       <c r="W26" s="120"/>
       <c r="X26" s="112"/>
@@ -10568,15 +10685,15 @@
       <c r="Z26" s="120"/>
     </row>
     <row r="27" spans="1:38" ht="15">
-      <c r="A27" s="235"/>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
+      <c r="A27" s="233"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="302"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="302"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="302"/>
       <c r="J27" s="66"/>
       <c r="W27" s="120"/>
       <c r="X27" s="112"/>
@@ -10584,15 +10701,15 @@
       <c r="Z27" s="120"/>
     </row>
     <row r="28" spans="1:38" ht="15">
-      <c r="A28" s="235"/>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
+      <c r="A28" s="233"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="302"/>
+      <c r="E28" s="302"/>
+      <c r="F28" s="302"/>
+      <c r="G28" s="302"/>
+      <c r="H28" s="302"/>
+      <c r="I28" s="302"/>
       <c r="J28" s="66"/>
       <c r="W28" s="120"/>
       <c r="X28" s="112"/>
@@ -10600,15 +10717,15 @@
       <c r="Z28" s="120"/>
     </row>
     <row r="29" spans="1:38" ht="15">
-      <c r="A29" s="235"/>
-      <c r="B29" s="235"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="281"/>
-      <c r="E29" s="281"/>
-      <c r="F29" s="281"/>
-      <c r="G29" s="281"/>
-      <c r="H29" s="281"/>
-      <c r="I29" s="281"/>
+      <c r="A29" s="233"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="303"/>
+      <c r="F29" s="303"/>
+      <c r="G29" s="303"/>
+      <c r="H29" s="303"/>
+      <c r="I29" s="303"/>
       <c r="J29" s="66"/>
       <c r="W29" s="120"/>
       <c r="X29" s="112"/>
@@ -10619,12 +10736,12 @@
       <c r="A30" s="66"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="236"/>
+      <c r="D30" s="234"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="234"/>
+      <c r="H30" s="234"/>
+      <c r="I30" s="234"/>
       <c r="J30" s="66"/>
       <c r="W30" s="120">
         <v>5</v>
@@ -10680,11 +10797,11 @@
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1">
       <c r="A32" s="90"/>
-      <c r="B32" s="276" t="s">
+      <c r="B32" s="305" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="276"/>
-      <c r="D32" s="207" t="s">
+      <c r="C32" s="305"/>
+      <c r="D32" s="205" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="91" t="s">
@@ -10696,7 +10813,7 @@
       <c r="I32" s="92"/>
       <c r="J32" s="92"/>
       <c r="K32" s="92"/>
-      <c r="L32" s="209"/>
+      <c r="L32" s="207"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
@@ -10719,21 +10836,21 @@
       <c r="A33" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="275" t="s">
+      <c r="B33" s="299" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="275"/>
-      <c r="D33" s="199" t="s">
+      <c r="C33" s="299"/>
+      <c r="D33" s="197" t="s">
         <v>381</v>
       </c>
-      <c r="E33" s="275"/>
-      <c r="F33" s="275"/>
-      <c r="G33" s="275"/>
-      <c r="H33" s="275"/>
-      <c r="I33" s="275"/>
-      <c r="J33" s="275"/>
-      <c r="K33" s="275"/>
-      <c r="L33" s="275"/>
+      <c r="E33" s="299"/>
+      <c r="F33" s="299"/>
+      <c r="G33" s="299"/>
+      <c r="H33" s="299"/>
+      <c r="I33" s="299"/>
+      <c r="J33" s="299"/>
+      <c r="K33" s="299"/>
+      <c r="L33" s="299"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -10756,55 +10873,55 @@
       <c r="A34" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="275" t="s">
+      <c r="B34" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="275"/>
-      <c r="D34" s="199" t="s">
+      <c r="C34" s="299"/>
+      <c r="D34" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="E34" s="275" t="s">
+      <c r="E34" s="299" t="s">
         <v>384</v>
       </c>
-      <c r="F34" s="275"/>
-      <c r="G34" s="275"/>
-      <c r="H34" s="275"/>
-      <c r="I34" s="275"/>
-      <c r="J34" s="275"/>
-      <c r="K34" s="275"/>
-      <c r="L34" s="275"/>
+      <c r="F34" s="299"/>
+      <c r="G34" s="299"/>
+      <c r="H34" s="299"/>
+      <c r="I34" s="299"/>
+      <c r="J34" s="299"/>
+      <c r="K34" s="299"/>
+      <c r="L34" s="299"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="R34" s="274" t="s">
+      <c r="R34" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="S34" s="274"/>
-      <c r="T34" s="274"/>
-      <c r="U34" s="274"/>
+      <c r="S34" s="304"/>
+      <c r="T34" s="304"/>
+      <c r="U34" s="304"/>
     </row>
     <row r="35" spans="1:47" ht="218.25" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="275" t="s">
+      <c r="B35" s="299" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="275"/>
-      <c r="D35" s="199" t="s">
+      <c r="C35" s="299"/>
+      <c r="D35" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="275" t="s">
+      <c r="E35" s="299" t="s">
         <v>385</v>
       </c>
-      <c r="F35" s="275"/>
-      <c r="G35" s="275"/>
-      <c r="H35" s="275"/>
-      <c r="I35" s="275"/>
-      <c r="J35" s="275"/>
-      <c r="K35" s="275"/>
-      <c r="L35" s="275"/>
+      <c r="F35" s="299"/>
+      <c r="G35" s="299"/>
+      <c r="H35" s="299"/>
+      <c r="I35" s="299"/>
+      <c r="J35" s="299"/>
+      <c r="K35" s="299"/>
+      <c r="L35" s="299"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -10814,21 +10931,21 @@
       <c r="A36" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="275" t="s">
+      <c r="B36" s="299" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="277"/>
-      <c r="D36" s="208" t="s">
+      <c r="C36" s="300"/>
+      <c r="D36" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="275"/>
-      <c r="J36" s="275"/>
-      <c r="K36" s="275"/>
-      <c r="L36" s="275"/>
+      <c r="E36" s="299"/>
+      <c r="F36" s="299"/>
+      <c r="G36" s="299"/>
+      <c r="H36" s="299"/>
+      <c r="I36" s="299"/>
+      <c r="J36" s="299"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="299"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -12648,23 +12765,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="R11:U15"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:L36"/>
     <mergeCell ref="E33:L33"/>
@@ -12676,11 +12781,23 @@
     <mergeCell ref="D19:I28"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D29:I29"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R11:U15"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39305555555555599" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.196527777777778"/>
@@ -12695,7 +12812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12716,23 +12833,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="306" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="307" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
@@ -12763,11 +12880,11 @@
       <c r="B6" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="310" t="s">
+      <c r="C6" s="308" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
@@ -12779,11 +12896,11 @@
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="C8" s="312" t="s">
+      <c r="C8" s="310" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="312"/>
-      <c r="E8" s="312"/>
+      <c r="D8" s="310"/>
+      <c r="E8" s="310"/>
       <c r="F8" s="55"/>
       <c r="G8" s="31"/>
     </row>
@@ -13939,7 +14056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13953,29 +14070,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="306" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="307" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="C3" s="32"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="34" t="s">
@@ -13985,9 +14102,9 @@
         <v>96</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="313"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="323"/>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="38" t="s">
@@ -14018,7 +14135,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="314" t="s">
+      <c r="A9" s="324" t="s">
         <v>299</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -14026,13 +14143,13 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="315"/>
+      <c r="A10" s="325"/>
       <c r="B10" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="316" t="s">
+      <c r="A11" s="311" t="s">
         <v>302</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -14040,7 +14157,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="318"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="2" t="s">
         <v>304</v>
       </c>
@@ -14070,7 +14187,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="319" t="s">
+      <c r="A16" s="314" t="s">
         <v>311</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -14078,19 +14195,19 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="320"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="321"/>
+      <c r="A18" s="316"/>
       <c r="B18" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="319" t="s">
+      <c r="A19" s="314" t="s">
         <v>315</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -14098,37 +14215,37 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="320"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="320"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="320"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="46" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="320"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="321"/>
+      <c r="A24" s="316"/>
       <c r="B24" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="322" t="s">
+      <c r="A25" s="317" t="s">
         <v>322</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -14136,37 +14253,37 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="323"/>
+      <c r="A26" s="318"/>
       <c r="B26" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="323"/>
+      <c r="A27" s="318"/>
       <c r="B27" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="323"/>
+      <c r="A28" s="318"/>
       <c r="B28" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="323"/>
+      <c r="A29" s="318"/>
       <c r="B29" s="1" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="324"/>
+      <c r="A30" s="319"/>
       <c r="B30" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A31" s="325" t="s">
+      <c r="A31" s="320" t="s">
         <v>329</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -14174,44 +14291,44 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="326"/>
+      <c r="A32" s="321"/>
       <c r="B32" s="48" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="326"/>
+      <c r="A33" s="321"/>
       <c r="B33" s="48" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="326"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="48" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="326"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="48" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="326"/>
+      <c r="A36" s="321"/>
       <c r="B36" s="48" t="s">
         <v>335</v>
       </c>
       <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="327"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="316" t="s">
+      <c r="A38" s="311" t="s">
         <v>337</v>
       </c>
       <c r="B38" s="50" t="s">
@@ -14219,25 +14336,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="317"/>
+      <c r="A39" s="312"/>
       <c r="B39" s="51" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="317"/>
+      <c r="A40" s="312"/>
       <c r="B40" s="51" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="317"/>
+      <c r="A41" s="312"/>
       <c r="B41" s="51" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="318"/>
+      <c r="A42" s="313"/>
       <c r="B42" s="5" t="s">
         <v>342</v>
       </c>
@@ -14262,17 +14379,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14280,7 +14397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14328,19 +14445,19 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="23.25">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="343" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="328"/>
+      <c r="B4" s="343"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="343"/>
+      <c r="E4" s="343"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="343"/>
+      <c r="J4" s="343"/>
+      <c r="K4" s="343"/>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -14358,10 +14475,10 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="141" customHeight="1">
-      <c r="A6" s="329" t="s">
+      <c r="A6" s="327" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="330"/>
+      <c r="B6" s="328"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>345</v>
@@ -14371,18 +14488,18 @@
         <v>346</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="331" t="s">
+      <c r="H6" s="344" t="s">
         <v>347</v>
       </c>
-      <c r="I6" s="332"/>
-      <c r="J6" s="333"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="346"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="342" t="s">
+      <c r="L6" s="326" t="s">
         <v>348</v>
       </c>
-      <c r="M6" s="329"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="330"/>
+      <c r="M6" s="327"/>
+      <c r="N6" s="327"/>
+      <c r="O6" s="328"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="23.25">
       <c r="A7" s="11"/>
@@ -14402,25 +14519,25 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="335" t="s">
+      <c r="D8" s="337" t="s">
         <v>349</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G8" s="341" t="s">
+      <c r="G8" s="342" t="s">
         <v>351</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="334" t="s">
+      <c r="J8" s="341" t="s">
         <v>352</v>
       </c>
-      <c r="K8" s="338" t="s">
+      <c r="K8" s="336" t="s">
         <v>351</v>
       </c>
-      <c r="L8" s="334" t="s">
+      <c r="L8" s="341" t="s">
         <v>353</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -14434,16 +14551,16 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="336"/>
+      <c r="D9" s="338"/>
       <c r="E9" s="11"/>
       <c r="F9" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="G9" s="341"/>
+      <c r="G9" s="342"/>
       <c r="H9" s="19"/>
-      <c r="J9" s="334"/>
-      <c r="K9" s="338"/>
-      <c r="L9" s="334"/>
+      <c r="J9" s="341"/>
+      <c r="K9" s="336"/>
+      <c r="L9" s="341"/>
       <c r="N9" s="27" t="s">
         <v>16</v>
       </c>
@@ -14455,17 +14572,17 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="336"/>
+      <c r="D10" s="338"/>
       <c r="E10" s="11"/>
       <c r="F10" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="341"/>
+      <c r="G10" s="342"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="334"/>
-      <c r="K10" s="338"/>
-      <c r="L10" s="334"/>
+      <c r="J10" s="341"/>
+      <c r="K10" s="336"/>
+      <c r="L10" s="341"/>
       <c r="N10" s="27" t="s">
         <v>17</v>
       </c>
@@ -14477,15 +14594,15 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="336"/>
+      <c r="D11" s="338"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="341"/>
+      <c r="G11" s="342"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="334"/>
-      <c r="K11" s="338"/>
-      <c r="L11" s="334"/>
+      <c r="J11" s="341"/>
+      <c r="K11" s="336"/>
+      <c r="L11" s="341"/>
       <c r="N11" s="27" t="s">
         <v>18</v>
       </c>
@@ -14501,15 +14618,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="337"/>
+      <c r="D12" s="339"/>
       <c r="E12" s="11"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="341"/>
+      <c r="G12" s="342"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="334"/>
-      <c r="K12" s="338"/>
-      <c r="L12" s="334"/>
+      <c r="J12" s="341"/>
+      <c r="K12" s="336"/>
+      <c r="L12" s="341"/>
       <c r="N12" s="27" t="s">
         <v>19</v>
       </c>
@@ -14545,27 +14662,27 @@
         <v>9</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="334" t="s">
+      <c r="D14" s="341" t="s">
         <v>345</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="350" t="s">
+      <c r="G14" s="340" t="s">
         <v>351</v>
       </c>
-      <c r="H14" s="335" t="s">
+      <c r="H14" s="337" t="s">
         <v>356</v>
       </c>
-      <c r="I14" s="340" t="s">
+      <c r="I14" s="348" t="s">
         <v>351</v>
       </c>
-      <c r="J14" s="349" t="s">
+      <c r="J14" s="335" t="s">
         <v>357</v>
       </c>
-      <c r="K14" s="338" t="s">
+      <c r="K14" s="336" t="s">
         <v>351</v>
       </c>
-      <c r="L14" s="349" t="s">
+      <c r="L14" s="335" t="s">
         <v>353</v>
       </c>
       <c r="N14" s="27" t="s">
@@ -14583,17 +14700,17 @@
         <v>9</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="334"/>
+      <c r="D15" s="341"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G15" s="350"/>
-      <c r="H15" s="336"/>
-      <c r="I15" s="340"/>
-      <c r="J15" s="349"/>
-      <c r="K15" s="338"/>
-      <c r="L15" s="349"/>
+      <c r="G15" s="340"/>
+      <c r="H15" s="338"/>
+      <c r="I15" s="348"/>
+      <c r="J15" s="335"/>
+      <c r="K15" s="336"/>
+      <c r="L15" s="335"/>
       <c r="N15" s="27" t="s">
         <v>16</v>
       </c>
@@ -14609,17 +14726,17 @@
         <v>9</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="334"/>
+      <c r="D16" s="341"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="G16" s="350"/>
-      <c r="H16" s="336"/>
-      <c r="I16" s="340"/>
-      <c r="J16" s="349"/>
-      <c r="K16" s="338"/>
-      <c r="L16" s="349"/>
+      <c r="G16" s="340"/>
+      <c r="H16" s="338"/>
+      <c r="I16" s="348"/>
+      <c r="J16" s="335"/>
+      <c r="K16" s="336"/>
+      <c r="L16" s="335"/>
       <c r="N16" s="27" t="s">
         <v>17</v>
       </c>
@@ -14628,22 +14745,22 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="343" t="s">
+      <c r="A17" s="329" t="s">
         <v>359</v>
       </c>
-      <c r="B17" s="344"/>
+      <c r="B17" s="330"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="334"/>
+      <c r="D17" s="341"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="G17" s="350"/>
-      <c r="H17" s="336"/>
-      <c r="I17" s="340"/>
-      <c r="J17" s="349"/>
-      <c r="K17" s="338"/>
-      <c r="L17" s="349"/>
+      <c r="G17" s="340"/>
+      <c r="H17" s="338"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="335"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="335"/>
       <c r="N17" s="27" t="s">
         <v>18</v>
       </c>
@@ -14652,20 +14769,20 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="345"/>
-      <c r="B18" s="346"/>
+      <c r="A18" s="331"/>
+      <c r="B18" s="332"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="334"/>
+      <c r="D18" s="341"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="G18" s="350"/>
-      <c r="H18" s="336"/>
-      <c r="I18" s="340"/>
-      <c r="J18" s="349"/>
-      <c r="K18" s="338"/>
-      <c r="L18" s="349"/>
+      <c r="G18" s="340"/>
+      <c r="H18" s="338"/>
+      <c r="I18" s="348"/>
+      <c r="J18" s="335"/>
+      <c r="K18" s="336"/>
+      <c r="L18" s="335"/>
       <c r="M18" s="18"/>
       <c r="N18" s="27" t="s">
         <v>19</v>
@@ -14675,42 +14792,42 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="345"/>
-      <c r="B19" s="346"/>
+      <c r="A19" s="331"/>
+      <c r="B19" s="332"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="334"/>
+      <c r="D19" s="341"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="G19" s="350"/>
-      <c r="H19" s="336"/>
+      <c r="G19" s="340"/>
+      <c r="H19" s="338"/>
       <c r="I19" s="18"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="345"/>
-      <c r="B20" s="346"/>
+      <c r="A20" s="331"/>
+      <c r="B20" s="332"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="334"/>
+      <c r="D20" s="341"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="G20" s="350"/>
-      <c r="H20" s="336"/>
-      <c r="I20" s="341" t="s">
+      <c r="G20" s="340"/>
+      <c r="H20" s="338"/>
+      <c r="I20" s="342" t="s">
         <v>351</v>
       </c>
-      <c r="J20" s="349" t="s">
+      <c r="J20" s="335" t="s">
         <v>364</v>
       </c>
-      <c r="K20" s="339" t="s">
+      <c r="K20" s="347" t="s">
         <v>351</v>
       </c>
-      <c r="L20" s="349" t="s">
+      <c r="L20" s="335" t="s">
         <v>365</v>
       </c>
       <c r="N20" s="27" t="s">
@@ -14721,20 +14838,20 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="347"/>
-      <c r="B21" s="348"/>
+      <c r="A21" s="333"/>
+      <c r="B21" s="334"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="334"/>
+      <c r="D21" s="341"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="G21" s="350"/>
-      <c r="H21" s="336"/>
-      <c r="I21" s="341"/>
-      <c r="J21" s="349"/>
-      <c r="K21" s="339"/>
-      <c r="L21" s="349"/>
+      <c r="G21" s="340"/>
+      <c r="H21" s="338"/>
+      <c r="I21" s="342"/>
+      <c r="J21" s="335"/>
+      <c r="K21" s="347"/>
+      <c r="L21" s="335"/>
       <c r="N21" s="27" t="s">
         <v>16</v>
       </c>
@@ -14746,17 +14863,17 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="334"/>
+      <c r="D22" s="341"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="G22" s="350"/>
-      <c r="H22" s="336"/>
-      <c r="I22" s="341"/>
-      <c r="J22" s="349"/>
-      <c r="K22" s="339"/>
-      <c r="L22" s="349"/>
+      <c r="G22" s="340"/>
+      <c r="H22" s="338"/>
+      <c r="I22" s="342"/>
+      <c r="J22" s="335"/>
+      <c r="K22" s="347"/>
+      <c r="L22" s="335"/>
       <c r="N22" s="27" t="s">
         <v>17</v>
       </c>
@@ -14768,17 +14885,17 @@
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="334"/>
+      <c r="D23" s="341"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="G23" s="350"/>
-      <c r="H23" s="336"/>
-      <c r="I23" s="341"/>
-      <c r="J23" s="349"/>
-      <c r="K23" s="339"/>
-      <c r="L23" s="349"/>
+      <c r="G23" s="340"/>
+      <c r="H23" s="338"/>
+      <c r="I23" s="342"/>
+      <c r="J23" s="335"/>
+      <c r="K23" s="347"/>
+      <c r="L23" s="335"/>
       <c r="N23" s="27" t="s">
         <v>18</v>
       </c>
@@ -14790,15 +14907,15 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="334"/>
+      <c r="D24" s="341"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="350"/>
-      <c r="H24" s="337"/>
-      <c r="I24" s="341"/>
-      <c r="J24" s="349"/>
-      <c r="K24" s="339"/>
-      <c r="L24" s="349"/>
+      <c r="G24" s="340"/>
+      <c r="H24" s="339"/>
+      <c r="I24" s="342"/>
+      <c r="J24" s="335"/>
+      <c r="K24" s="347"/>
+      <c r="L24" s="335"/>
       <c r="N24" s="27" t="s">
         <v>19</v>
       </c>
@@ -14827,6 +14944,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I20:I24"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="A17:B21"/>
     <mergeCell ref="J14:J18"/>
@@ -14838,16 +14965,6 @@
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="L20:L24"/>
     <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I20:I24"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.78680555555555598" bottom="0.39305555555555599" header="0.31388888888888899" footer="0.31388888888888899"/>

--- a/RB-Blessing/CE-Beurteilung.xlsx
+++ b/RB-Blessing/CE-Beurteilung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thofmann\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC76F1D-48D5-4E47-9063-873D105FF460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="806"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grenzen der Maschine" sheetId="1" r:id="rId1"/>
@@ -39,7 +40,7 @@
     <definedName name="Liste11">#REF!</definedName>
     <definedName name="Ursprung">'Ursprung-Folgen nach ISO 12100'!$C$11:$C$108</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="455">
   <si>
     <t>Betriebsarten:</t>
   </si>
@@ -1855,9 +1856,6 @@
     <t>Verwendungstemperaturen: -10°C bis 40°C</t>
   </si>
   <si>
-    <t>Durch die stufenlose Regelung der Geschwindigkeit und dem damit verbundenen leistungsstarken Elektromotor kann das Förderband individuell in Betrieb genommen werden.</t>
-  </si>
-  <si>
     <t>Mit einer Bandbreite von 240 mm kann eine Vielzahl von Gütern transportiert werden.</t>
   </si>
   <si>
@@ -1867,55 +1865,73 @@
     <t xml:space="preserve">Die Höhe der Antriebstrommel über dem Boden beläuft sich auf mindestens 300mm bzgl. des Untertrums. </t>
   </si>
   <si>
-    <t>Die Lebensdauer beträgt 30000h.</t>
-  </si>
-  <si>
-    <t>Steigung bis zu 10%</t>
-  </si>
-  <si>
-    <t>Der Bandförderer kann sowohl in einer Halle als auch draußen genutzt werden.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Für den Elektromotor sollte sich ein ein Netzanschluss in nächster Nähe befinden. </t>
   </si>
   <si>
     <t xml:space="preserve">Auch Mitarbeiter des Lagers und der Logistik können die Produkte beim Transport beschädigen. </t>
   </si>
   <si>
-    <t>Ebenso der Transport zum Kunde stellt ein hohes Risiko für Transportschäden dar. Das Produkt kann unter Umständen nicht fristgerecht geliefert werden oder Bestandteile davon fehlen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bei der Inbetriebnahme des Bandförderers kann die Montageanleitung nicht ausreichend genau gelesen werden und dadurch das Produkt fehlerhaft zusammengebaut werden. </t>
   </si>
   <si>
-    <t xml:space="preserve">Während der ersten Lebensphase, der Produktion / Montage des Bandförderers, sind Mitarbeiter der Fertigung und Montage in direktem Kontakt mit dem Produkt. Eigenangefertige Teile können fehlerhaft produziert werden. Zukaufteile können ebenso fehlerhaft produziert oder beim Transport beschädigt worden sein. </t>
-  </si>
-  <si>
-    <t>Der Bandförderer dient dem Transport von leichten bis mittelschweren Gütern auf waagerechtem oder leicht steigendem Untergrund. Die Güter werden auf das sich bewegende Band gelegt und vom Bandanfang bis Bandende transportiert. Das Band wird von einer Antriebsrolle angetrieben, das widerrum von einem Elektromotor angetrieben wird.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Der Kunde kann beim Einrichten des Produktes durch einen falschen Netzanschluss den Elektromotor beschädigen. </t>
   </si>
   <si>
     <t xml:space="preserve">Tritt ein Fehlerfall ein, bei dem ein Austausch von Teilen notwendig ist, ist darauf zu achten, dass Ersatzteile verwendet werden, die den Vorgaben des Herstellers entsprechen. </t>
   </si>
   <si>
-    <t>Während des Betriebes ist vom Kunde darauf zu achten, dass die Umgebungstemperaturen die angegebenen Extremwerte von -10°C bis +40°C nicht über- bzw unterschreiten. Außerdem sollte der Bandförderer nur von befugtem Personal betrieben werden.</t>
-  </si>
-  <si>
-    <t>Sollte das Förderband durch den Betrieb verschmutzt worden sein, sollten keine chemikalischen Reinigungsmittel verwendet werden, da das Material des Förderbandes, der Elekromotor oder andere Teile des Bandförderers dadurch beschädigt werden könnten. Sollte bei der Reinigung der Anlage eine Demontage einzelner Bestandteile notwendig sein ist die Demontage- und anschließend die Montageanleitung zu beachten. Bei Nichtbeachten kann die Funktion der Maschine nicht mehr gewährleistet werden.</t>
-  </si>
-  <si>
-    <t>Bei der Instanthaltung und Wartung ist darauf zu achten, dass dies durch qualifiziertes Personal erfolgt.</t>
-  </si>
-  <si>
     <t>Wird das Produkt außer Betrieb genommen oder demontiert, muss die Demontageanleitung beachtet werden.</t>
+  </si>
+  <si>
+    <t>Bei der Instandhaltung und Wartung ist darauf zu achten, dass dies durch qualifiziertes Personal erfolgt.</t>
+  </si>
+  <si>
+    <t>Während der ersten Lebensphase, der Produktion / Montage des Bandförderers, sind Mitarbeiter der Fertigung und Montage in direktem Kontakt mit dem Produkt. Eigenangefertige Teile können fehlerhaft produziert werden. Zukaufteile können ebenso fehlerhaft produziert, bestellt oder beim Transport beschädigt worden sein. Die Richtigkeit der Teile ist deshalb zu überprüfen.</t>
+  </si>
+  <si>
+    <t>Ebenso der Transport zum Kunden stellt ein hohes Risiko für Transportschäden dar. Das Produkt kann unter Umständen nicht fristgerecht geliefert werden oder Bestandteile davon könnten fehlen.</t>
+  </si>
+  <si>
+    <t>Während des Betriebes ist vom Kunden darauf zu achten, dass die Umgebungstemperaturen die angegebenen Extremwerte von -10°C bis +40°C nicht über- bzw. unterschreiten. Außerdem sollte der Bandförderer nur von befugtem Personal betrieben werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Personal sollte neben den grundsätzlichen Verhaltensweisen an Förderanlagen vor allem mit folgenden Hinweisen vertraut gemacht werden: Weite Kleidung oder offene Hare dürfen sich nicht im Einzugbereich der Trommel, der Welle oder des Bandes befinden. Das Band ist nicht als Personentransport oder zum Transport anderer Teile als denen des Stückgutes vorgesehen. Das Band sollte im laufenden Betrieb nicht mit der bloßen Hand berührt werden. </t>
+  </si>
+  <si>
+    <t>Sollte das Förderband durch den Betrieb verschmutzt worden sein, sollten keine chemikalischen Reinigungsmittel verwendet werden, da das Material des Förderbandes, der Elekromotor oder andere Teile des Bandförderers dadurch beschädigt werden könnten. Bei der Reinigung mit Wasser ist zu beachten, dass keine Wasserrücktände in den Ritzen verbleiben sollten. Sollte bei der Reinigung der Anlage eine Demontage einzelner Bestandteile notwendig sein, ist die Demontage- und anschließend die Montageanleitung zu beachten. Bei Nichtbeachten kann die Funktion der Maschine nicht mehr gewährleistet werden.</t>
+  </si>
+  <si>
+    <t>Der Bandförderer kann sowohl in einer Halle als auch draußen genutzt werden. Der Elektromotor darf allerdings nicht dauerhaft der Witterung ausgesetzt sein, sondern benötigt dann eine Abschirmung.</t>
+  </si>
+  <si>
+    <t>Die Lebensdauer beträgt 30000h, bedingt vor allem durch die Kugellager.</t>
+  </si>
+  <si>
+    <t>Steigung bis zu 3%</t>
+  </si>
+  <si>
+    <t>Bandbreite 240mm</t>
+  </si>
+  <si>
+    <t>Zur Einrichtung und zum Aufziehen des Bandes kann ein langsamer Betriebsmodus ausgewählt werden.</t>
+  </si>
+  <si>
+    <t>Im Standardbetrieb läuft das Band kontinuierlich mit einer Geschwindigkeit von ca. 2 m/s um.</t>
+  </si>
+  <si>
+    <t>Im Falle einer Störung kann das Band in langsamer Geschwindigkeit invertiert betrieben werden. Diese Betriebsstufe darf nur kurzfristig gewählt werden.</t>
+  </si>
+  <si>
+    <t>Durch die stufenlose Regelung der Geschwindigkeit und den damit verbundenen leistungsstarken Elektromotor kann das Förderband auch individuell an den Betrieb angepasst werden.</t>
+  </si>
+  <si>
+    <t>Der Bandförderer dient dem Transport von leichten bis mittelschweren Stückgütern auf waagerechtem oder leicht steigendem Untergrund. Die Güter werden auf das sich bewegende Band gelegt und vom Bandanfang bis Bandende transportiert. Das Band wird von einer Antriebsrolle angetrieben und von einer Gegenrolle umgelenkt. Die Bandrolle wird von einem Elektromotor angetrieben.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
     <numFmt numFmtId="165" formatCode="mmm\-yy"/>
@@ -2809,7 +2825,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3435,6 +3451,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -3447,86 +3550,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3560,11 +3583,92 @@
     <xf numFmtId="49" fontId="22" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3593,93 +3697,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3695,6 +3718,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3731,24 +3763,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3770,58 +3829,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
-    <cellStyle name="Standard 4" xfId="3"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3950,7 +3978,7 @@
         <xdr:cNvPr id="2049" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3972,14 +4000,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4049,7 +4077,7 @@
         <xdr:cNvPr id="2052" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4071,14 +4099,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4453,11 +4481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:L72"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4472,403 +4500,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="238" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="240"/>
+      <c r="A1" s="260" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="262"/>
     </row>
     <row r="2" spans="1:12" ht="7.5" customHeight="1">
-      <c r="A2" s="245"/>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="247"/>
+      <c r="A2" s="247"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="249"/>
     </row>
     <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="243" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="250"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="245"/>
     </row>
     <row r="4" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A4" s="244" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="243"/>
+      <c r="A4" s="246" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="242"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="241"/>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="243"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="244"/>
-      <c r="B6" s="242"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="243"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="241"/>
-      <c r="B7" s="242"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="255" t="s">
+      <c r="A5" s="240"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="242"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="249"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A9" s="244" t="s">
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="245"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A7" s="353" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="353"/>
+      <c r="C7" s="353"/>
+      <c r="D7" s="353"/>
+      <c r="E7" s="353"/>
+      <c r="F7" s="353"/>
+      <c r="G7" s="353"/>
+      <c r="H7" s="353"/>
+      <c r="I7" s="353"/>
+      <c r="J7" s="353"/>
+      <c r="K7" s="353"/>
+      <c r="L7" s="353"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="246" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="241"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="242"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="246" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="351"/>
+      <c r="C9" s="351"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="351"/>
+      <c r="G9" s="351"/>
+      <c r="H9" s="351"/>
+      <c r="I9" s="351"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="351"/>
+      <c r="L9" s="352"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="246" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="241"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="242"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="240"/>
+      <c r="B11" s="241"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="242"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
+      <c r="A12" s="253" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A13" s="246" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="241"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="242"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="246" t="s">
         <v>431</v>
       </c>
-      <c r="B9" s="242"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="242"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="243"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="241"/>
-      <c r="B10" s="242"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="242"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="242"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="241"/>
-      <c r="B11" s="242"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="241"/>
-      <c r="B12" s="242"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="255" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="249"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="250"/>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A14" s="244" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="242"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="243"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="242"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="244" t="s">
-        <v>432</v>
-      </c>
-      <c r="B15" s="242"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="243"/>
+      <c r="A15" s="246"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="241"/>
+      <c r="L15" s="242"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="244"/>
-      <c r="B16" s="242"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="242"/>
-      <c r="K16" s="242"/>
-      <c r="L16" s="243"/>
+      <c r="A16" s="240"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="242"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="241"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="242"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="243"/>
+      <c r="A17" s="240"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="241"/>
+      <c r="L17" s="242"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="241"/>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="243"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="241"/>
-      <c r="B19" s="242"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="243"/>
-    </row>
-    <row r="20" spans="1:13" ht="6" customHeight="1">
-      <c r="A20" s="245"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="246"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="246"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="246"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="247"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75">
-      <c r="A21" s="248" t="s">
+      <c r="A18" s="240"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="242"/>
+    </row>
+    <row r="19" spans="1:13" ht="6" customHeight="1">
+      <c r="A19" s="247"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="248"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="248"/>
+      <c r="L19" s="249"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
+      <c r="A20" s="243" t="s">
         <v>393</v>
       </c>
-      <c r="B21" s="249"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="249"/>
-      <c r="K21" s="249"/>
-      <c r="L21" s="250"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="245"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="246"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="257"/>
+      <c r="E21" s="257"/>
+      <c r="F21" s="257"/>
+      <c r="G21" s="257"/>
+      <c r="H21" s="257"/>
+      <c r="I21" s="257"/>
+      <c r="J21" s="257"/>
+      <c r="K21" s="257"/>
+      <c r="L21" s="242"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="244"/>
-      <c r="B22" s="257"/>
-      <c r="C22" s="257"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="257"/>
-      <c r="K22" s="257"/>
-      <c r="L22" s="243"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="253"/>
-      <c r="B23" s="256" t="s">
+      <c r="A22" s="258"/>
+      <c r="B22" s="254" t="s">
         <v>370</v>
       </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="256"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="137"/>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A24" s="254"/>
-      <c r="B24" s="251" t="s">
+      <c r="C22" s="254"/>
+      <c r="D22" s="254"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="254"/>
+      <c r="K22" s="254"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="137"/>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A23" s="259"/>
+      <c r="B23" s="255" t="s">
         <v>376</v>
       </c>
-      <c r="C24" s="251" t="s">
+      <c r="C23" s="255" t="s">
         <v>378</v>
       </c>
-      <c r="D24" s="251" t="s">
+      <c r="D23" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="E24" s="251" t="s">
+      <c r="E23" s="255" t="s">
         <v>375</v>
       </c>
-      <c r="F24" s="251" t="s">
+      <c r="F23" s="255" t="s">
         <v>371</v>
       </c>
-      <c r="G24" s="251" t="s">
+      <c r="G23" s="255" t="s">
         <v>377</v>
       </c>
-      <c r="H24" s="251" t="s">
+      <c r="H23" s="255" t="s">
         <v>374</v>
       </c>
-      <c r="I24" s="251" t="s">
+      <c r="I23" s="255" t="s">
         <v>379</v>
       </c>
-      <c r="J24" s="251"/>
-      <c r="K24" s="251"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="255"/>
+      <c r="L23" s="136"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="133" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" s="256"/>
+      <c r="C24" s="256"/>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="256"/>
+      <c r="K24" s="256"/>
       <c r="L24" s="136"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="133" t="s">
-        <v>391</v>
-      </c>
-      <c r="B25" s="252"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="252"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="252"/>
-      <c r="K25" s="252"/>
+      <c r="A25" s="238" t="s">
+        <v>410</v>
+      </c>
+      <c r="B25" s="239" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="239"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
       <c r="L25" s="136"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="349" t="s">
-        <v>410</v>
-      </c>
-      <c r="B26" s="350" t="s">
+      <c r="A26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B26" s="134"/>
+      <c r="C26" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="C26" s="350"/>
-      <c r="D26" s="134"/>
+      <c r="D26" s="239" t="s">
+        <v>366</v>
+      </c>
       <c r="E26" s="134"/>
       <c r="F26" s="134"/>
       <c r="G26" s="134"/>
@@ -4880,17 +4920,15 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B27" s="134"/>
-      <c r="C27" s="350" t="s">
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="D27" s="350" t="s">
-        <v>366</v>
-      </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="F27" s="239"/>
       <c r="G27" s="134"/>
       <c r="H27" s="134"/>
       <c r="I27" s="134"/>
@@ -4900,15 +4938,15 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B28" s="134"/>
       <c r="C28" s="134"/>
       <c r="D28" s="134"/>
-      <c r="E28" s="350" t="s">
+      <c r="E28" s="134"/>
+      <c r="F28" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="F28" s="350"/>
       <c r="G28" s="134"/>
       <c r="H28" s="134"/>
       <c r="I28" s="134"/>
@@ -4918,13 +4956,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B29" s="134"/>
       <c r="C29" s="134"/>
       <c r="D29" s="134"/>
       <c r="E29" s="134"/>
-      <c r="F29" s="350" t="s">
+      <c r="F29" s="239" t="s">
         <v>366</v>
       </c>
       <c r="G29" s="134"/>
@@ -4936,13 +4974,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B30" s="134"/>
       <c r="C30" s="134"/>
       <c r="D30" s="134"/>
       <c r="E30" s="134"/>
-      <c r="F30" s="350" t="s">
+      <c r="F30" s="239" t="s">
         <v>366</v>
       </c>
       <c r="G30" s="134"/>
@@ -4954,13 +4992,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B31" s="134"/>
       <c r="C31" s="134"/>
       <c r="D31" s="134"/>
       <c r="E31" s="134"/>
-      <c r="F31" s="350" t="s">
+      <c r="F31" s="239" t="s">
         <v>366</v>
       </c>
       <c r="G31" s="134"/>
@@ -4972,13 +5010,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B32" s="134"/>
       <c r="C32" s="134"/>
       <c r="D32" s="134"/>
       <c r="E32" s="134"/>
-      <c r="F32" s="350" t="s">
+      <c r="F32" s="239" t="s">
         <v>366</v>
       </c>
       <c r="G32" s="134"/>
@@ -4990,17 +5028,19 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B33" s="134"/>
       <c r="C33" s="134"/>
       <c r="D33" s="134"/>
       <c r="E33" s="134"/>
-      <c r="F33" s="350" t="s">
+      <c r="F33" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
+      <c r="G33" s="239" t="s">
+        <v>366</v>
+      </c>
+      <c r="H33" s="239"/>
       <c r="I33" s="134"/>
       <c r="J33" s="134"/>
       <c r="K33" s="134"/>
@@ -5008,19 +5048,21 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B34" s="134"/>
       <c r="C34" s="134"/>
       <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="350" t="s">
+      <c r="E34" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="G34" s="350" t="s">
+      <c r="F34" s="134"/>
+      <c r="G34" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="H34" s="350"/>
+      <c r="H34" s="239" t="s">
+        <v>366</v>
+      </c>
       <c r="I34" s="134"/>
       <c r="J34" s="134"/>
       <c r="K34" s="134"/>
@@ -5028,667 +5070,663 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B35" s="134"/>
       <c r="C35" s="134"/>
       <c r="D35" s="134"/>
-      <c r="E35" s="350" t="s">
+      <c r="E35" s="134"/>
+      <c r="F35" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="F35" s="134"/>
-      <c r="G35" s="350" t="s">
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="H35" s="350" t="s">
-        <v>366</v>
-      </c>
-      <c r="I35" s="134"/>
       <c r="J35" s="134"/>
       <c r="K35" s="134"/>
       <c r="L35" s="136"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" t="s">
-        <v>417</v>
-      </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="350" t="s">
-        <v>366</v>
-      </c>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="350" t="s">
-        <v>366</v>
-      </c>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="136"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="241"/>
-      <c r="B37" s="242"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="242"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="242"/>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242"/>
-      <c r="I37" s="242"/>
-      <c r="J37" s="242"/>
-      <c r="K37" s="242"/>
-      <c r="L37" s="243"/>
-    </row>
-    <row r="38" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A38" s="241" t="s">
+      <c r="A36" s="240"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="241"/>
+      <c r="D36" s="241"/>
+      <c r="E36" s="241"/>
+      <c r="F36" s="241"/>
+      <c r="G36" s="241"/>
+      <c r="H36" s="241"/>
+      <c r="I36" s="241"/>
+      <c r="J36" s="241"/>
+      <c r="K36" s="241"/>
+      <c r="L36" s="242"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A37" s="240" t="s">
         <v>372</v>
       </c>
-      <c r="B38" s="242"/>
-      <c r="C38" s="242"/>
-      <c r="D38" s="242"/>
-      <c r="E38" s="242"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="242"/>
-      <c r="H38" s="242"/>
-      <c r="I38" s="242"/>
-      <c r="J38" s="242"/>
-      <c r="K38" s="242"/>
-      <c r="L38" s="243"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="241"/>
+      <c r="D37" s="241"/>
+      <c r="E37" s="241"/>
+      <c r="F37" s="241"/>
+      <c r="G37" s="241"/>
+      <c r="H37" s="241"/>
+      <c r="I37" s="241"/>
+      <c r="J37" s="241"/>
+      <c r="K37" s="241"/>
+      <c r="L37" s="242"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="246" t="s">
+        <v>420</v>
+      </c>
+      <c r="B38" s="241"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="241"/>
+      <c r="E38" s="241"/>
+      <c r="F38" s="241"/>
+      <c r="G38" s="241"/>
+      <c r="H38" s="241"/>
+      <c r="I38" s="241"/>
+      <c r="J38" s="241"/>
+      <c r="K38" s="241"/>
+      <c r="L38" s="242"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="244" t="s">
-        <v>420</v>
-      </c>
-      <c r="B39" s="242"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="242"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="242"/>
-      <c r="I39" s="242"/>
-      <c r="J39" s="242"/>
-      <c r="K39" s="242"/>
-      <c r="L39" s="243"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="241"/>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
-      <c r="K40" s="242"/>
-      <c r="L40" s="243"/>
-    </row>
-    <row r="41" spans="1:12" ht="6" customHeight="1">
-      <c r="A41" s="245"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="246"/>
-      <c r="D41" s="246"/>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="246"/>
-      <c r="H41" s="246"/>
-      <c r="I41" s="246"/>
-      <c r="J41" s="246"/>
-      <c r="K41" s="246"/>
-      <c r="L41" s="247"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="248" t="s">
+      <c r="A39" s="240"/>
+      <c r="B39" s="241"/>
+      <c r="C39" s="241"/>
+      <c r="D39" s="241"/>
+      <c r="E39" s="241"/>
+      <c r="F39" s="241"/>
+      <c r="G39" s="241"/>
+      <c r="H39" s="241"/>
+      <c r="I39" s="241"/>
+      <c r="J39" s="241"/>
+      <c r="K39" s="241"/>
+      <c r="L39" s="242"/>
+    </row>
+    <row r="40" spans="1:12" ht="6" customHeight="1">
+      <c r="A40" s="247"/>
+      <c r="B40" s="248"/>
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="248"/>
+      <c r="H40" s="248"/>
+      <c r="I40" s="248"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="248"/>
+      <c r="L40" s="249"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75">
+      <c r="A41" s="243" t="s">
         <v>421</v>
       </c>
-      <c r="B42" s="249"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="249"/>
-      <c r="E42" s="249"/>
-      <c r="F42" s="249"/>
-      <c r="G42" s="249"/>
-      <c r="H42" s="249"/>
-      <c r="I42" s="249"/>
-      <c r="J42" s="249"/>
-      <c r="K42" s="249"/>
-      <c r="L42" s="250"/>
+      <c r="B41" s="244"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
+      <c r="E41" s="244"/>
+      <c r="F41" s="244"/>
+      <c r="G41" s="244"/>
+      <c r="H41" s="244"/>
+      <c r="I41" s="244"/>
+      <c r="J41" s="244"/>
+      <c r="K41" s="244"/>
+      <c r="L41" s="245"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="246" t="s">
+        <v>433</v>
+      </c>
+      <c r="B42" s="241"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="241"/>
+      <c r="F42" s="241"/>
+      <c r="G42" s="241"/>
+      <c r="H42" s="241"/>
+      <c r="I42" s="241"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="241"/>
+      <c r="L42" s="242"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="244" t="s">
+      <c r="A43" s="246" t="s">
         <v>434</v>
       </c>
-      <c r="B43" s="242"/>
-      <c r="C43" s="242"/>
-      <c r="D43" s="242"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="242"/>
-      <c r="G43" s="242"/>
-      <c r="H43" s="242"/>
-      <c r="I43" s="242"/>
-      <c r="J43" s="242"/>
-      <c r="K43" s="242"/>
-      <c r="L43" s="243"/>
+      <c r="B43" s="241"/>
+      <c r="C43" s="241"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="241"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="241"/>
+      <c r="L43" s="242"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="244" t="s">
+      <c r="A44" s="240"/>
+      <c r="B44" s="241"/>
+      <c r="C44" s="241"/>
+      <c r="D44" s="241"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="241"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="241"/>
+      <c r="I44" s="241"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="241"/>
+      <c r="L44" s="242"/>
+    </row>
+    <row r="45" spans="1:12" ht="6" customHeight="1">
+      <c r="A45" s="247"/>
+      <c r="B45" s="248"/>
+      <c r="C45" s="248"/>
+      <c r="D45" s="248"/>
+      <c r="E45" s="248"/>
+      <c r="F45" s="248"/>
+      <c r="G45" s="248"/>
+      <c r="H45" s="248"/>
+      <c r="I45" s="248"/>
+      <c r="J45" s="248"/>
+      <c r="K45" s="248"/>
+      <c r="L45" s="249"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
+      <c r="A46" s="243" t="s">
+        <v>422</v>
+      </c>
+      <c r="B46" s="244"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="244"/>
+      <c r="H46" s="244"/>
+      <c r="I46" s="244"/>
+      <c r="J46" s="244"/>
+      <c r="K46" s="244"/>
+      <c r="L46" s="245"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="246" t="s">
+        <v>447</v>
+      </c>
+      <c r="B47" s="241"/>
+      <c r="C47" s="241"/>
+      <c r="D47" s="241"/>
+      <c r="E47" s="241"/>
+      <c r="F47" s="241"/>
+      <c r="G47" s="241"/>
+      <c r="H47" s="241"/>
+      <c r="I47" s="241"/>
+      <c r="J47" s="241"/>
+      <c r="K47" s="241"/>
+      <c r="L47" s="242"/>
+    </row>
+    <row r="48" spans="1:12" ht="6" customHeight="1">
+      <c r="A48" s="247"/>
+      <c r="B48" s="248"/>
+      <c r="C48" s="248"/>
+      <c r="D48" s="248"/>
+      <c r="E48" s="248"/>
+      <c r="F48" s="248"/>
+      <c r="G48" s="248"/>
+      <c r="H48" s="248"/>
+      <c r="I48" s="248"/>
+      <c r="J48" s="248"/>
+      <c r="K48" s="248"/>
+      <c r="L48" s="249"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
+      <c r="A49" s="243" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="244"/>
+      <c r="C49" s="244"/>
+      <c r="D49" s="244"/>
+      <c r="E49" s="244"/>
+      <c r="F49" s="244"/>
+      <c r="G49" s="244"/>
+      <c r="H49" s="244"/>
+      <c r="I49" s="244"/>
+      <c r="J49" s="244"/>
+      <c r="K49" s="244"/>
+      <c r="L49" s="245"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="246" t="s">
+        <v>430</v>
+      </c>
+      <c r="B50" s="241"/>
+      <c r="C50" s="241"/>
+      <c r="D50" s="241"/>
+      <c r="E50" s="241"/>
+      <c r="F50" s="241"/>
+      <c r="G50" s="241"/>
+      <c r="H50" s="241"/>
+      <c r="I50" s="241"/>
+      <c r="J50" s="241"/>
+      <c r="K50" s="241"/>
+      <c r="L50" s="242"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="246" t="s">
+        <v>448</v>
+      </c>
+      <c r="B51" s="241"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="241"/>
+      <c r="E51" s="241"/>
+      <c r="F51" s="241"/>
+      <c r="G51" s="241"/>
+      <c r="H51" s="241"/>
+      <c r="I51" s="241"/>
+      <c r="J51" s="241"/>
+      <c r="K51" s="241"/>
+      <c r="L51" s="242"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="246" t="s">
+        <v>449</v>
+      </c>
+      <c r="B52" s="241"/>
+      <c r="C52" s="241"/>
+      <c r="D52" s="241"/>
+      <c r="E52" s="241"/>
+      <c r="F52" s="241"/>
+      <c r="G52" s="241"/>
+      <c r="H52" s="241"/>
+      <c r="I52" s="241"/>
+      <c r="J52" s="241"/>
+      <c r="K52" s="241"/>
+      <c r="L52" s="242"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="240"/>
+      <c r="B53" s="241"/>
+      <c r="C53" s="241"/>
+      <c r="D53" s="241"/>
+      <c r="E53" s="241"/>
+      <c r="F53" s="241"/>
+      <c r="G53" s="241"/>
+      <c r="H53" s="241"/>
+      <c r="I53" s="241"/>
+      <c r="J53" s="241"/>
+      <c r="K53" s="241"/>
+      <c r="L53" s="242"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="240"/>
+      <c r="B54" s="241"/>
+      <c r="C54" s="241"/>
+      <c r="D54" s="241"/>
+      <c r="E54" s="241"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="241"/>
+      <c r="H54" s="241"/>
+      <c r="I54" s="241"/>
+      <c r="J54" s="241"/>
+      <c r="K54" s="241"/>
+      <c r="L54" s="242"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="240"/>
+      <c r="B55" s="241"/>
+      <c r="C55" s="241"/>
+      <c r="D55" s="241"/>
+      <c r="E55" s="241"/>
+      <c r="F55" s="241"/>
+      <c r="G55" s="241"/>
+      <c r="H55" s="241"/>
+      <c r="I55" s="241"/>
+      <c r="J55" s="241"/>
+      <c r="K55" s="241"/>
+      <c r="L55" s="242"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="240"/>
+      <c r="B56" s="241"/>
+      <c r="C56" s="241"/>
+      <c r="D56" s="241"/>
+      <c r="E56" s="241"/>
+      <c r="F56" s="241"/>
+      <c r="G56" s="241"/>
+      <c r="H56" s="241"/>
+      <c r="I56" s="241"/>
+      <c r="J56" s="241"/>
+      <c r="K56" s="241"/>
+      <c r="L56" s="242"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="240"/>
+      <c r="B57" s="241"/>
+      <c r="C57" s="241"/>
+      <c r="D57" s="241"/>
+      <c r="E57" s="241"/>
+      <c r="F57" s="241"/>
+      <c r="G57" s="241"/>
+      <c r="H57" s="241"/>
+      <c r="I57" s="241"/>
+      <c r="J57" s="241"/>
+      <c r="K57" s="241"/>
+      <c r="L57" s="242"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="240"/>
+      <c r="B58" s="241"/>
+      <c r="C58" s="241"/>
+      <c r="D58" s="241"/>
+      <c r="E58" s="241"/>
+      <c r="F58" s="241"/>
+      <c r="G58" s="241"/>
+      <c r="H58" s="241"/>
+      <c r="I58" s="241"/>
+      <c r="J58" s="241"/>
+      <c r="K58" s="241"/>
+      <c r="L58" s="242"/>
+    </row>
+    <row r="59" spans="1:12" ht="6" customHeight="1">
+      <c r="A59" s="247"/>
+      <c r="B59" s="248"/>
+      <c r="C59" s="248"/>
+      <c r="D59" s="248"/>
+      <c r="E59" s="248"/>
+      <c r="F59" s="248"/>
+      <c r="G59" s="248"/>
+      <c r="H59" s="248"/>
+      <c r="I59" s="248"/>
+      <c r="J59" s="248"/>
+      <c r="K59" s="248"/>
+      <c r="L59" s="249"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A60" s="243" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" s="244"/>
+      <c r="C60" s="244"/>
+      <c r="D60" s="244"/>
+      <c r="E60" s="244"/>
+      <c r="F60" s="244"/>
+      <c r="G60" s="244"/>
+      <c r="H60" s="244"/>
+      <c r="I60" s="244"/>
+      <c r="J60" s="244"/>
+      <c r="K60" s="244"/>
+      <c r="L60" s="245"/>
+    </row>
+    <row r="61" spans="1:12" ht="42.75" customHeight="1">
+      <c r="A61" s="250" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" s="251"/>
+      <c r="C61" s="251"/>
+      <c r="D61" s="251"/>
+      <c r="E61" s="251"/>
+      <c r="F61" s="251"/>
+      <c r="G61" s="251"/>
+      <c r="H61" s="251"/>
+      <c r="I61" s="251"/>
+      <c r="J61" s="251"/>
+      <c r="K61" s="251"/>
+      <c r="L61" s="252"/>
+    </row>
+    <row r="62" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A62" s="246" t="s">
+        <v>441</v>
+      </c>
+      <c r="B62" s="241"/>
+      <c r="C62" s="241"/>
+      <c r="D62" s="241"/>
+      <c r="E62" s="241"/>
+      <c r="F62" s="241"/>
+      <c r="G62" s="241"/>
+      <c r="H62" s="241"/>
+      <c r="I62" s="241"/>
+      <c r="J62" s="241"/>
+      <c r="K62" s="241"/>
+      <c r="L62" s="242"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="246" t="s">
+        <v>435</v>
+      </c>
+      <c r="B63" s="241"/>
+      <c r="C63" s="241"/>
+      <c r="D63" s="241"/>
+      <c r="E63" s="241"/>
+      <c r="F63" s="241"/>
+      <c r="G63" s="241"/>
+      <c r="H63" s="241"/>
+      <c r="I63" s="241"/>
+      <c r="J63" s="241"/>
+      <c r="K63" s="241"/>
+      <c r="L63" s="242"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="246" t="s">
+        <v>442</v>
+      </c>
+      <c r="B64" s="241"/>
+      <c r="C64" s="241"/>
+      <c r="D64" s="241"/>
+      <c r="E64" s="241"/>
+      <c r="F64" s="241"/>
+      <c r="G64" s="241"/>
+      <c r="H64" s="241"/>
+      <c r="I64" s="241"/>
+      <c r="J64" s="241"/>
+      <c r="K64" s="241"/>
+      <c r="L64" s="242"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="246" t="s">
+        <v>436</v>
+      </c>
+      <c r="B65" s="241"/>
+      <c r="C65" s="241"/>
+      <c r="D65" s="241"/>
+      <c r="E65" s="241"/>
+      <c r="F65" s="241"/>
+      <c r="G65" s="241"/>
+      <c r="H65" s="241"/>
+      <c r="I65" s="241"/>
+      <c r="J65" s="241"/>
+      <c r="K65" s="241"/>
+      <c r="L65" s="242"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="246" t="s">
+        <v>437</v>
+      </c>
+      <c r="B66" s="241"/>
+      <c r="C66" s="241"/>
+      <c r="D66" s="241"/>
+      <c r="E66" s="241"/>
+      <c r="F66" s="241"/>
+      <c r="G66" s="241"/>
+      <c r="H66" s="241"/>
+      <c r="I66" s="241"/>
+      <c r="J66" s="241"/>
+      <c r="K66" s="241"/>
+      <c r="L66" s="242"/>
+    </row>
+    <row r="67" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A67" s="246" t="s">
+        <v>443</v>
+      </c>
+      <c r="B67" s="241"/>
+      <c r="C67" s="241"/>
+      <c r="D67" s="241"/>
+      <c r="E67" s="241"/>
+      <c r="F67" s="241"/>
+      <c r="G67" s="241"/>
+      <c r="H67" s="241"/>
+      <c r="I67" s="241"/>
+      <c r="J67" s="241"/>
+      <c r="K67" s="241"/>
+      <c r="L67" s="242"/>
+    </row>
+    <row r="68" spans="1:12" ht="39.75" customHeight="1">
+      <c r="A68" s="246" t="s">
+        <v>444</v>
+      </c>
+      <c r="B68" s="351"/>
+      <c r="C68" s="351"/>
+      <c r="D68" s="351"/>
+      <c r="E68" s="351"/>
+      <c r="F68" s="351"/>
+      <c r="G68" s="351"/>
+      <c r="H68" s="351"/>
+      <c r="I68" s="351"/>
+      <c r="J68" s="351"/>
+      <c r="K68" s="351"/>
+      <c r="L68" s="352"/>
+    </row>
+    <row r="69" spans="1:12" ht="49.5" customHeight="1">
+      <c r="A69" s="246" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="241"/>
+      <c r="C69" s="241"/>
+      <c r="D69" s="241"/>
+      <c r="E69" s="241"/>
+      <c r="F69" s="241"/>
+      <c r="G69" s="241"/>
+      <c r="H69" s="241"/>
+      <c r="I69" s="241"/>
+      <c r="J69" s="241"/>
+      <c r="K69" s="241"/>
+      <c r="L69" s="242"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="246" t="s">
+        <v>440</v>
+      </c>
+      <c r="B70" s="241"/>
+      <c r="C70" s="241"/>
+      <c r="D70" s="241"/>
+      <c r="E70" s="241"/>
+      <c r="F70" s="241"/>
+      <c r="G70" s="241"/>
+      <c r="H70" s="241"/>
+      <c r="I70" s="241"/>
+      <c r="J70" s="241"/>
+      <c r="K70" s="241"/>
+      <c r="L70" s="242"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="246" t="s">
         <v>438</v>
       </c>
-      <c r="B44" s="242"/>
-      <c r="C44" s="242"/>
-      <c r="D44" s="242"/>
-      <c r="E44" s="242"/>
-      <c r="F44" s="242"/>
-      <c r="G44" s="242"/>
-      <c r="H44" s="242"/>
-      <c r="I44" s="242"/>
-      <c r="J44" s="242"/>
-      <c r="K44" s="242"/>
-      <c r="L44" s="243"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="241"/>
-      <c r="B45" s="242"/>
-      <c r="C45" s="242"/>
-      <c r="D45" s="242"/>
-      <c r="E45" s="242"/>
-      <c r="F45" s="242"/>
-      <c r="G45" s="242"/>
-      <c r="H45" s="242"/>
-      <c r="I45" s="242"/>
-      <c r="J45" s="242"/>
-      <c r="K45" s="242"/>
-      <c r="L45" s="243"/>
-    </row>
-    <row r="46" spans="1:12" ht="6" customHeight="1">
-      <c r="A46" s="245"/>
-      <c r="B46" s="246"/>
-      <c r="C46" s="246"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="246"/>
-      <c r="F46" s="246"/>
-      <c r="G46" s="246"/>
-      <c r="H46" s="246"/>
-      <c r="I46" s="246"/>
-      <c r="J46" s="246"/>
-      <c r="K46" s="246"/>
-      <c r="L46" s="247"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75">
-      <c r="A47" s="248" t="s">
-        <v>422</v>
-      </c>
-      <c r="B47" s="249"/>
-      <c r="C47" s="249"/>
-      <c r="D47" s="249"/>
-      <c r="E47" s="249"/>
-      <c r="F47" s="249"/>
-      <c r="G47" s="249"/>
-      <c r="H47" s="249"/>
-      <c r="I47" s="249"/>
-      <c r="J47" s="249"/>
-      <c r="K47" s="249"/>
-      <c r="L47" s="250"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="244" t="s">
-        <v>435</v>
-      </c>
-      <c r="B48" s="242"/>
-      <c r="C48" s="242"/>
-      <c r="D48" s="242"/>
-      <c r="E48" s="242"/>
-      <c r="F48" s="242"/>
-      <c r="G48" s="242"/>
-      <c r="H48" s="242"/>
-      <c r="I48" s="242"/>
-      <c r="J48" s="242"/>
-      <c r="K48" s="242"/>
-      <c r="L48" s="243"/>
-    </row>
-    <row r="49" spans="1:12" ht="6" customHeight="1">
-      <c r="A49" s="245"/>
-      <c r="B49" s="246"/>
-      <c r="C49" s="246"/>
-      <c r="D49" s="246"/>
-      <c r="E49" s="246"/>
-      <c r="F49" s="246"/>
-      <c r="G49" s="246"/>
-      <c r="H49" s="246"/>
-      <c r="I49" s="246"/>
-      <c r="J49" s="246"/>
-      <c r="K49" s="246"/>
-      <c r="L49" s="247"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="248" t="s">
-        <v>423</v>
-      </c>
-      <c r="B50" s="249"/>
-      <c r="C50" s="249"/>
-      <c r="D50" s="249"/>
-      <c r="E50" s="249"/>
-      <c r="F50" s="249"/>
-      <c r="G50" s="249"/>
-      <c r="H50" s="249"/>
-      <c r="I50" s="249"/>
-      <c r="J50" s="249"/>
-      <c r="K50" s="249"/>
-      <c r="L50" s="250"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="244" t="s">
-        <v>430</v>
-      </c>
-      <c r="B51" s="242"/>
-      <c r="C51" s="242"/>
-      <c r="D51" s="242"/>
-      <c r="E51" s="242"/>
-      <c r="F51" s="242"/>
-      <c r="G51" s="242"/>
-      <c r="H51" s="242"/>
-      <c r="I51" s="242"/>
-      <c r="J51" s="242"/>
-      <c r="K51" s="242"/>
-      <c r="L51" s="243"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="244" t="s">
-        <v>436</v>
-      </c>
-      <c r="B52" s="242"/>
-      <c r="C52" s="242"/>
-      <c r="D52" s="242"/>
-      <c r="E52" s="242"/>
-      <c r="F52" s="242"/>
-      <c r="G52" s="242"/>
-      <c r="H52" s="242"/>
-      <c r="I52" s="242"/>
-      <c r="J52" s="242"/>
-      <c r="K52" s="242"/>
-      <c r="L52" s="243"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="241"/>
-      <c r="B53" s="242"/>
-      <c r="C53" s="242"/>
-      <c r="D53" s="242"/>
-      <c r="E53" s="242"/>
-      <c r="F53" s="242"/>
-      <c r="G53" s="242"/>
-      <c r="H53" s="242"/>
-      <c r="I53" s="242"/>
-      <c r="J53" s="242"/>
-      <c r="K53" s="242"/>
-      <c r="L53" s="243"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="241"/>
-      <c r="B54" s="242"/>
-      <c r="C54" s="242"/>
-      <c r="D54" s="242"/>
-      <c r="E54" s="242"/>
-      <c r="F54" s="242"/>
-      <c r="G54" s="242"/>
-      <c r="H54" s="242"/>
-      <c r="I54" s="242"/>
-      <c r="J54" s="242"/>
-      <c r="K54" s="242"/>
-      <c r="L54" s="243"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="241"/>
-      <c r="B55" s="242"/>
-      <c r="C55" s="242"/>
-      <c r="D55" s="242"/>
-      <c r="E55" s="242"/>
-      <c r="F55" s="242"/>
-      <c r="G55" s="242"/>
-      <c r="H55" s="242"/>
-      <c r="I55" s="242"/>
-      <c r="J55" s="242"/>
-      <c r="K55" s="242"/>
-      <c r="L55" s="243"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="241"/>
-      <c r="B56" s="242"/>
-      <c r="C56" s="242"/>
-      <c r="D56" s="242"/>
-      <c r="E56" s="242"/>
-      <c r="F56" s="242"/>
-      <c r="G56" s="242"/>
-      <c r="H56" s="242"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
-      <c r="K56" s="242"/>
-      <c r="L56" s="243"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="241"/>
-      <c r="B57" s="242"/>
-      <c r="C57" s="242"/>
-      <c r="D57" s="242"/>
-      <c r="E57" s="242"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="242"/>
-      <c r="H57" s="242"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="242"/>
-      <c r="K57" s="242"/>
-      <c r="L57" s="243"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="241"/>
-      <c r="B58" s="242"/>
-      <c r="C58" s="242"/>
-      <c r="D58" s="242"/>
-      <c r="E58" s="242"/>
-      <c r="F58" s="242"/>
-      <c r="G58" s="242"/>
-      <c r="H58" s="242"/>
-      <c r="I58" s="242"/>
-      <c r="J58" s="242"/>
-      <c r="K58" s="242"/>
-      <c r="L58" s="243"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="241"/>
-      <c r="B59" s="242"/>
-      <c r="C59" s="242"/>
-      <c r="D59" s="242"/>
-      <c r="E59" s="242"/>
-      <c r="F59" s="242"/>
-      <c r="G59" s="242"/>
-      <c r="H59" s="242"/>
-      <c r="I59" s="242"/>
-      <c r="J59" s="242"/>
-      <c r="K59" s="242"/>
-      <c r="L59" s="243"/>
-    </row>
-    <row r="60" spans="1:12" ht="6" customHeight="1">
-      <c r="A60" s="245"/>
-      <c r="B60" s="246"/>
-      <c r="C60" s="246"/>
-      <c r="D60" s="246"/>
-      <c r="E60" s="246"/>
-      <c r="F60" s="246"/>
-      <c r="G60" s="246"/>
-      <c r="H60" s="246"/>
-      <c r="I60" s="246"/>
-      <c r="J60" s="246"/>
-      <c r="K60" s="246"/>
-      <c r="L60" s="247"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A61" s="248" t="s">
-        <v>424</v>
-      </c>
-      <c r="B61" s="249"/>
-      <c r="C61" s="249"/>
-      <c r="D61" s="249"/>
-      <c r="E61" s="249"/>
-      <c r="F61" s="249"/>
-      <c r="G61" s="249"/>
-      <c r="H61" s="249"/>
-      <c r="I61" s="249"/>
-      <c r="J61" s="249"/>
-      <c r="K61" s="249"/>
-      <c r="L61" s="250"/>
-    </row>
-    <row r="62" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A62" s="258" t="s">
-        <v>394</v>
-      </c>
-      <c r="B62" s="259"/>
-      <c r="C62" s="259"/>
-      <c r="D62" s="259"/>
-      <c r="E62" s="259"/>
-      <c r="F62" s="259"/>
-      <c r="G62" s="259"/>
-      <c r="H62" s="259"/>
-      <c r="I62" s="259"/>
-      <c r="J62" s="259"/>
-      <c r="K62" s="259"/>
-      <c r="L62" s="260"/>
-    </row>
-    <row r="63" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A63" s="244" t="s">
-        <v>442</v>
-      </c>
-      <c r="B63" s="242"/>
-      <c r="C63" s="242"/>
-      <c r="D63" s="242"/>
-      <c r="E63" s="242"/>
-      <c r="F63" s="242"/>
-      <c r="G63" s="242"/>
-      <c r="H63" s="242"/>
-      <c r="I63" s="242"/>
-      <c r="J63" s="242"/>
-      <c r="K63" s="242"/>
-      <c r="L63" s="243"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="244" t="s">
+      <c r="B71" s="241"/>
+      <c r="C71" s="241"/>
+      <c r="D71" s="241"/>
+      <c r="E71" s="241"/>
+      <c r="F71" s="241"/>
+      <c r="G71" s="241"/>
+      <c r="H71" s="241"/>
+      <c r="I71" s="241"/>
+      <c r="J71" s="241"/>
+      <c r="K71" s="241"/>
+      <c r="L71" s="242"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="246" t="s">
         <v>439</v>
       </c>
-      <c r="B64" s="242"/>
-      <c r="C64" s="242"/>
-      <c r="D64" s="242"/>
-      <c r="E64" s="242"/>
-      <c r="F64" s="242"/>
-      <c r="G64" s="242"/>
-      <c r="H64" s="242"/>
-      <c r="I64" s="242"/>
-      <c r="J64" s="242"/>
-      <c r="K64" s="242"/>
-      <c r="L64" s="243"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="244" t="s">
-        <v>440</v>
-      </c>
-      <c r="B65" s="242"/>
-      <c r="C65" s="242"/>
-      <c r="D65" s="242"/>
-      <c r="E65" s="242"/>
-      <c r="F65" s="242"/>
-      <c r="G65" s="242"/>
-      <c r="H65" s="242"/>
-      <c r="I65" s="242"/>
-      <c r="J65" s="242"/>
-      <c r="K65" s="242"/>
-      <c r="L65" s="243"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="244" t="s">
-        <v>441</v>
-      </c>
-      <c r="B66" s="242"/>
-      <c r="C66" s="242"/>
-      <c r="D66" s="242"/>
-      <c r="E66" s="242"/>
-      <c r="F66" s="242"/>
-      <c r="G66" s="242"/>
-      <c r="H66" s="242"/>
-      <c r="I66" s="242"/>
-      <c r="J66" s="242"/>
-      <c r="K66" s="242"/>
-      <c r="L66" s="243"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="244" t="s">
-        <v>444</v>
-      </c>
-      <c r="B67" s="242"/>
-      <c r="C67" s="242"/>
-      <c r="D67" s="242"/>
-      <c r="E67" s="242"/>
-      <c r="F67" s="242"/>
-      <c r="G67" s="242"/>
-      <c r="H67" s="242"/>
-      <c r="I67" s="242"/>
-      <c r="J67" s="242"/>
-      <c r="K67" s="242"/>
-      <c r="L67" s="243"/>
-    </row>
-    <row r="68" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A68" s="244" t="s">
-        <v>446</v>
-      </c>
-      <c r="B68" s="242"/>
-      <c r="C68" s="242"/>
-      <c r="D68" s="242"/>
-      <c r="E68" s="242"/>
-      <c r="F68" s="242"/>
-      <c r="G68" s="242"/>
-      <c r="H68" s="242"/>
-      <c r="I68" s="242"/>
-      <c r="J68" s="242"/>
-      <c r="K68" s="242"/>
-      <c r="L68" s="243"/>
-    </row>
-    <row r="69" spans="1:12" ht="39" customHeight="1">
-      <c r="A69" s="244" t="s">
-        <v>447</v>
-      </c>
-      <c r="B69" s="242"/>
-      <c r="C69" s="242"/>
-      <c r="D69" s="242"/>
-      <c r="E69" s="242"/>
-      <c r="F69" s="242"/>
-      <c r="G69" s="242"/>
-      <c r="H69" s="242"/>
-      <c r="I69" s="242"/>
-      <c r="J69" s="242"/>
-      <c r="K69" s="242"/>
-      <c r="L69" s="243"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="244" t="s">
-        <v>448</v>
-      </c>
-      <c r="B70" s="242"/>
-      <c r="C70" s="242"/>
-      <c r="D70" s="242"/>
-      <c r="E70" s="242"/>
-      <c r="F70" s="242"/>
-      <c r="G70" s="242"/>
-      <c r="H70" s="242"/>
-      <c r="I70" s="242"/>
-      <c r="J70" s="242"/>
-      <c r="K70" s="242"/>
-      <c r="L70" s="243"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="244" t="s">
-        <v>445</v>
-      </c>
-      <c r="B71" s="242"/>
-      <c r="C71" s="242"/>
-      <c r="D71" s="242"/>
-      <c r="E71" s="242"/>
-      <c r="F71" s="242"/>
-      <c r="G71" s="242"/>
-      <c r="H71" s="242"/>
-      <c r="I71" s="242"/>
-      <c r="J71" s="242"/>
-      <c r="K71" s="242"/>
-      <c r="L71" s="243"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="244" t="s">
-        <v>449</v>
-      </c>
-      <c r="B72" s="242"/>
-      <c r="C72" s="242"/>
-      <c r="D72" s="242"/>
-      <c r="E72" s="242"/>
-      <c r="F72" s="242"/>
-      <c r="G72" s="242"/>
-      <c r="H72" s="242"/>
-      <c r="I72" s="242"/>
-      <c r="J72" s="242"/>
-      <c r="K72" s="242"/>
-      <c r="L72" s="243"/>
+      <c r="B72" s="241"/>
+      <c r="C72" s="241"/>
+      <c r="D72" s="241"/>
+      <c r="E72" s="241"/>
+      <c r="F72" s="241"/>
+      <c r="G72" s="241"/>
+      <c r="H72" s="241"/>
+      <c r="I72" s="241"/>
+      <c r="J72" s="241"/>
+      <c r="K72" s="241"/>
+      <c r="L72" s="242"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <mergeCells count="70">
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A19:L19"/>
     <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A36:L36"/>
     <mergeCell ref="A69:L69"/>
     <mergeCell ref="A70:L70"/>
     <mergeCell ref="A71:L71"/>
     <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A63:L63"/>
     <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A60:L60"/>
     <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A67:L67"/>
     <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:L44"/>
     <mergeCell ref="A47:L47"/>
     <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A45:L45"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5696,7 +5734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5774,7 +5812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5912,7 +5950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5957,30 +5995,30 @@
       <c r="B2" s="147"/>
       <c r="C2" s="147"/>
       <c r="D2" s="148"/>
-      <c r="E2" s="270" t="s">
+      <c r="E2" s="272" t="s">
         <v>392</v>
       </c>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="272"/>
+      <c r="M2" s="272"/>
+      <c r="N2" s="272"/>
+      <c r="O2" s="272"/>
       <c r="P2" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="261" t="s">
+      <c r="Q2" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="262"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="263"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="265"/>
     </row>
     <row r="3" spans="1:34" ht="23.25" customHeight="1">
       <c r="A3" s="150" t="s">
@@ -5989,56 +6027,56 @@
       <c r="B3" s="151"/>
       <c r="C3" s="151"/>
       <c r="D3" s="152"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
       <c r="P3" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="264" t="s">
+      <c r="Q3" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="265"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="266"/>
+      <c r="R3" s="267"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="267"/>
+      <c r="U3" s="267"/>
+      <c r="V3" s="268"/>
     </row>
     <row r="4" spans="1:34" s="154" customFormat="1" ht="20.25">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="268"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="267" t="s">
+      <c r="B4" s="270"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="269" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="268"/>
-      <c r="J4" s="268"/>
-      <c r="K4" s="268"/>
-      <c r="L4" s="268"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="268"/>
-      <c r="O4" s="268"/>
-      <c r="P4" s="268"/>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="268"/>
-      <c r="S4" s="268"/>
-      <c r="T4" s="268"/>
-      <c r="U4" s="268"/>
-      <c r="V4" s="269"/>
+      <c r="I4" s="270"/>
+      <c r="J4" s="270"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="270"/>
+      <c r="M4" s="270"/>
+      <c r="N4" s="270"/>
+      <c r="O4" s="270"/>
+      <c r="P4" s="270"/>
+      <c r="Q4" s="270"/>
+      <c r="R4" s="270"/>
+      <c r="S4" s="270"/>
+      <c r="T4" s="270"/>
+      <c r="U4" s="270"/>
+      <c r="V4" s="271"/>
     </row>
     <row r="5" spans="1:34" ht="12" customHeight="1">
       <c r="A5" s="155"/>
@@ -9585,7 +9623,7 @@
       <c r="AB181" s="123"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:V41"/>
+  <autoFilter ref="A6:V41" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="5">
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="Q3:V3"/>
@@ -9602,16 +9640,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B41" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$AA$7:$AA$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E7:E41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E7:E41" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>$AD$8:$AD$104</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F7:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F7:F41" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>$AE$7:$AE$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G7:G41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G7:G41" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>$AF$7:$AF$103</formula1>
     </dataValidation>
   </dataValidations>
@@ -9626,13 +9664,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
           <x14:formula1>
             <xm:f>Lebensphasen!$A$2:$A$12</xm:f>
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
           <x14:formula1>
             <xm:f>'Aufgaben+Tätigkeiten'!$B$3:$B$22</xm:f>
           </x14:formula1>
@@ -9645,7 +9683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9799,12 +9837,12 @@
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="R3" s="284" t="s">
+      <c r="R3" s="282" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="284"/>
-      <c r="T3" s="284"/>
-      <c r="U3" s="284"/>
+      <c r="S3" s="282"/>
+      <c r="T3" s="282"/>
+      <c r="U3" s="282"/>
       <c r="W3" s="112" t="s">
         <v>25</v>
       </c>
@@ -9824,13 +9862,13 @@
       <c r="B4" s="291"/>
       <c r="C4" s="292"/>
       <c r="D4" s="198"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="300" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="277"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="302"/>
       <c r="J4" s="98"/>
       <c r="R4" s="99" t="s">
         <v>30</v>
@@ -9859,21 +9897,21 @@
       <c r="AB4" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="285" t="s">
+      <c r="AC4" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="286"/>
+      <c r="AD4" s="284"/>
     </row>
     <row r="5" spans="1:79" s="69" customFormat="1" ht="18">
       <c r="A5" s="293"/>
       <c r="B5" s="294"/>
       <c r="C5" s="295"/>
       <c r="D5" s="199"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="280"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="305"/>
       <c r="J5" s="100"/>
       <c r="R5" s="101" t="s">
         <v>38</v>
@@ -9903,10 +9941,10 @@
       <c r="AB5" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="285" t="s">
+      <c r="AC5" s="283" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="286"/>
+      <c r="AD5" s="284"/>
     </row>
     <row r="6" spans="1:79" ht="18">
       <c r="A6" s="296"/>
@@ -10051,10 +10089,10 @@
       <c r="A9" s="81">
         <v>4</v>
       </c>
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="273"/>
+      <c r="C9" s="286"/>
       <c r="D9" s="209" t="s">
         <v>58</v>
       </c>
@@ -10104,10 +10142,10 @@
       <c r="A10" s="81">
         <v>3</v>
       </c>
-      <c r="B10" s="272" t="s">
+      <c r="B10" s="285" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="273"/>
+      <c r="C10" s="286"/>
       <c r="D10" s="209" t="s">
         <v>62</v>
       </c>
@@ -10143,10 +10181,10 @@
       <c r="A11" s="81">
         <v>2</v>
       </c>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="285" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="273"/>
+      <c r="C11" s="286"/>
       <c r="D11" s="209" t="s">
         <v>67</v>
       </c>
@@ -10162,12 +10200,12 @@
         <v>54</v>
       </c>
       <c r="J11" s="66"/>
-      <c r="R11" s="274" t="s">
+      <c r="R11" s="299" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="274"/>
-      <c r="T11" s="274"/>
-      <c r="U11" s="274"/>
+      <c r="S11" s="299"/>
+      <c r="T11" s="299"/>
+      <c r="U11" s="299"/>
       <c r="W11" s="120">
         <v>2</v>
       </c>
@@ -10186,10 +10224,10 @@
       <c r="A12" s="81">
         <v>1</v>
       </c>
-      <c r="B12" s="272" t="s">
+      <c r="B12" s="285" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="273"/>
+      <c r="C12" s="286"/>
       <c r="D12" s="212" t="s">
         <v>42</v>
       </c>
@@ -10203,10 +10241,10 @@
         <v>59</v>
       </c>
       <c r="J12" s="66"/>
-      <c r="R12" s="274"/>
-      <c r="S12" s="274"/>
-      <c r="T12" s="274"/>
-      <c r="U12" s="274"/>
+      <c r="R12" s="299"/>
+      <c r="S12" s="299"/>
+      <c r="T12" s="299"/>
+      <c r="U12" s="299"/>
       <c r="W12" s="120">
         <v>2</v>
       </c>
@@ -10225,8 +10263,8 @@
       <c r="A13" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="282"/>
-      <c r="C13" s="283"/>
+      <c r="B13" s="306"/>
+      <c r="C13" s="307"/>
       <c r="D13" s="208"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
@@ -10234,10 +10272,10 @@
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
       <c r="J13" s="66"/>
-      <c r="R13" s="274"/>
-      <c r="S13" s="274"/>
-      <c r="T13" s="274"/>
-      <c r="U13" s="274"/>
+      <c r="R13" s="299"/>
+      <c r="S13" s="299"/>
+      <c r="T13" s="299"/>
+      <c r="U13" s="299"/>
       <c r="W13" s="120">
         <v>2</v>
       </c>
@@ -10265,10 +10303,10 @@
       <c r="H14" s="219"/>
       <c r="I14" s="219"/>
       <c r="J14" s="66"/>
-      <c r="R14" s="274"/>
-      <c r="S14" s="274"/>
-      <c r="T14" s="274"/>
-      <c r="U14" s="274"/>
+      <c r="R14" s="299"/>
+      <c r="S14" s="299"/>
+      <c r="T14" s="299"/>
+      <c r="U14" s="299"/>
       <c r="W14" s="120">
         <v>2</v>
       </c>
@@ -10308,10 +10346,10 @@
         <v>401</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="R15" s="274"/>
-      <c r="S15" s="274"/>
-      <c r="T15" s="274"/>
-      <c r="U15" s="274"/>
+      <c r="R15" s="299"/>
+      <c r="S15" s="299"/>
+      <c r="T15" s="299"/>
+      <c r="U15" s="299"/>
       <c r="W15" s="120">
         <v>3</v>
       </c>
@@ -10330,10 +10368,10 @@
       <c r="A16" s="220">
         <v>5</v>
       </c>
-      <c r="B16" s="281" t="s">
+      <c r="B16" s="280" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="281"/>
+      <c r="C16" s="280"/>
       <c r="D16" s="104" t="s">
         <v>387</v>
       </c>
@@ -10377,10 +10415,10 @@
       <c r="A17" s="220">
         <v>4</v>
       </c>
-      <c r="B17" s="281" t="s">
+      <c r="B17" s="280" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="281"/>
+      <c r="C17" s="280"/>
       <c r="D17" s="104" t="s">
         <v>388</v>
       </c>
@@ -10422,10 +10460,10 @@
       <c r="A18" s="220">
         <v>3</v>
       </c>
-      <c r="B18" s="281" t="s">
+      <c r="B18" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="281"/>
+      <c r="C18" s="280"/>
       <c r="D18" s="216"/>
       <c r="E18" s="216"/>
       <c r="F18" s="216"/>
@@ -10457,18 +10495,18 @@
       <c r="A19" s="220">
         <v>2</v>
       </c>
-      <c r="B19" s="281" t="s">
+      <c r="B19" s="280" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="281"/>
-      <c r="D19" s="302" t="s">
+      <c r="C19" s="280"/>
+      <c r="D19" s="279" t="s">
         <v>402</v>
       </c>
-      <c r="E19" s="302"/>
-      <c r="F19" s="302"/>
-      <c r="G19" s="302"/>
-      <c r="H19" s="302"/>
-      <c r="I19" s="302"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="279"/>
       <c r="J19" s="66"/>
       <c r="R19" s="109" t="s">
         <v>79</v>
@@ -10494,16 +10532,16 @@
       <c r="A20" s="220">
         <v>1</v>
       </c>
-      <c r="B20" s="281" t="s">
+      <c r="B20" s="280" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="281"/>
-      <c r="D20" s="302"/>
-      <c r="E20" s="302"/>
-      <c r="F20" s="302"/>
-      <c r="G20" s="302"/>
-      <c r="H20" s="302"/>
-      <c r="I20" s="302"/>
+      <c r="C20" s="280"/>
+      <c r="D20" s="279"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="279"/>
       <c r="J20" s="66"/>
       <c r="R20" s="109" t="s">
         <v>81</v>
@@ -10529,12 +10567,12 @@
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
-      <c r="D21" s="302"/>
-      <c r="E21" s="302"/>
-      <c r="F21" s="302"/>
-      <c r="G21" s="302"/>
-      <c r="H21" s="302"/>
-      <c r="I21" s="302"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
       <c r="J21" s="66"/>
       <c r="W21" s="120">
         <v>4</v>
@@ -10556,12 +10594,12 @@
       </c>
       <c r="B22" s="225"/>
       <c r="C22" s="225"/>
-      <c r="D22" s="302"/>
-      <c r="E22" s="302"/>
-      <c r="F22" s="302"/>
-      <c r="G22" s="302"/>
-      <c r="H22" s="302"/>
-      <c r="I22" s="302"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="279"/>
+      <c r="I22" s="279"/>
       <c r="J22" s="66"/>
       <c r="W22" s="120">
         <v>4</v>
@@ -10581,16 +10619,16 @@
       <c r="A23" s="223">
         <v>5</v>
       </c>
-      <c r="B23" s="301" t="s">
+      <c r="B23" s="278" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="301"/>
-      <c r="D23" s="302"/>
-      <c r="E23" s="302"/>
-      <c r="F23" s="302"/>
-      <c r="G23" s="302"/>
-      <c r="H23" s="302"/>
-      <c r="I23" s="302"/>
+      <c r="C23" s="278"/>
+      <c r="D23" s="279"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="279"/>
       <c r="J23" s="66"/>
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
@@ -10614,16 +10652,16 @@
       <c r="A24" s="223">
         <v>3</v>
       </c>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="278" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="301"/>
-      <c r="D24" s="302"/>
-      <c r="E24" s="302"/>
-      <c r="F24" s="302"/>
-      <c r="G24" s="302"/>
-      <c r="H24" s="302"/>
-      <c r="I24" s="302"/>
+      <c r="C24" s="278"/>
+      <c r="D24" s="279"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
       <c r="J24" s="66"/>
       <c r="W24" s="120">
         <v>4</v>
@@ -10643,16 +10681,16 @@
       <c r="A25" s="223">
         <v>1</v>
       </c>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="278" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="301"/>
-      <c r="D25" s="302"/>
-      <c r="E25" s="302"/>
-      <c r="F25" s="302"/>
-      <c r="G25" s="302"/>
-      <c r="H25" s="302"/>
-      <c r="I25" s="302"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
       <c r="J25" s="66"/>
       <c r="W25" s="120">
         <v>5</v>
@@ -10672,12 +10710,12 @@
       <c r="A26" s="233"/>
       <c r="B26" s="233"/>
       <c r="C26" s="233"/>
-      <c r="D26" s="302"/>
-      <c r="E26" s="302"/>
-      <c r="F26" s="302"/>
-      <c r="G26" s="302"/>
-      <c r="H26" s="302"/>
-      <c r="I26" s="302"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="279"/>
       <c r="J26" s="66"/>
       <c r="W26" s="120"/>
       <c r="X26" s="112"/>
@@ -10688,12 +10726,12 @@
       <c r="A27" s="233"/>
       <c r="B27" s="233"/>
       <c r="C27" s="233"/>
-      <c r="D27" s="302"/>
-      <c r="E27" s="302"/>
-      <c r="F27" s="302"/>
-      <c r="G27" s="302"/>
-      <c r="H27" s="302"/>
-      <c r="I27" s="302"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
       <c r="J27" s="66"/>
       <c r="W27" s="120"/>
       <c r="X27" s="112"/>
@@ -10704,12 +10742,12 @@
       <c r="A28" s="233"/>
       <c r="B28" s="233"/>
       <c r="C28" s="233"/>
-      <c r="D28" s="302"/>
-      <c r="E28" s="302"/>
-      <c r="F28" s="302"/>
-      <c r="G28" s="302"/>
-      <c r="H28" s="302"/>
-      <c r="I28" s="302"/>
+      <c r="D28" s="279"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="279"/>
       <c r="J28" s="66"/>
       <c r="W28" s="120"/>
       <c r="X28" s="112"/>
@@ -10720,12 +10758,12 @@
       <c r="A29" s="233"/>
       <c r="B29" s="233"/>
       <c r="C29" s="233"/>
-      <c r="D29" s="303"/>
-      <c r="E29" s="303"/>
-      <c r="F29" s="303"/>
-      <c r="G29" s="303"/>
-      <c r="H29" s="303"/>
-      <c r="I29" s="303"/>
+      <c r="D29" s="281"/>
+      <c r="E29" s="281"/>
+      <c r="F29" s="281"/>
+      <c r="G29" s="281"/>
+      <c r="H29" s="281"/>
+      <c r="I29" s="281"/>
       <c r="J29" s="66"/>
       <c r="W29" s="120"/>
       <c r="X29" s="112"/>
@@ -10797,10 +10835,10 @@
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1">
       <c r="A32" s="90"/>
-      <c r="B32" s="305" t="s">
+      <c r="B32" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="305"/>
+      <c r="C32" s="276"/>
       <c r="D32" s="205" t="s">
         <v>85</v>
       </c>
@@ -10836,21 +10874,21 @@
       <c r="A33" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="299" t="s">
+      <c r="B33" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="299"/>
+      <c r="C33" s="275"/>
       <c r="D33" s="197" t="s">
         <v>381</v>
       </c>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="299"/>
-      <c r="K33" s="299"/>
-      <c r="L33" s="299"/>
+      <c r="E33" s="275"/>
+      <c r="F33" s="275"/>
+      <c r="G33" s="275"/>
+      <c r="H33" s="275"/>
+      <c r="I33" s="275"/>
+      <c r="J33" s="275"/>
+      <c r="K33" s="275"/>
+      <c r="L33" s="275"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -10873,55 +10911,55 @@
       <c r="A34" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="299" t="s">
+      <c r="B34" s="275" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="299"/>
+      <c r="C34" s="275"/>
       <c r="D34" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="E34" s="299" t="s">
+      <c r="E34" s="275" t="s">
         <v>384</v>
       </c>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
-      <c r="I34" s="299"/>
-      <c r="J34" s="299"/>
-      <c r="K34" s="299"/>
-      <c r="L34" s="299"/>
+      <c r="F34" s="275"/>
+      <c r="G34" s="275"/>
+      <c r="H34" s="275"/>
+      <c r="I34" s="275"/>
+      <c r="J34" s="275"/>
+      <c r="K34" s="275"/>
+      <c r="L34" s="275"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="R34" s="304" t="s">
+      <c r="R34" s="274" t="s">
         <v>89</v>
       </c>
-      <c r="S34" s="304"/>
-      <c r="T34" s="304"/>
-      <c r="U34" s="304"/>
+      <c r="S34" s="274"/>
+      <c r="T34" s="274"/>
+      <c r="U34" s="274"/>
     </row>
     <row r="35" spans="1:47" ht="218.25" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="299" t="s">
+      <c r="B35" s="275" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="299"/>
+      <c r="C35" s="275"/>
       <c r="D35" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="299" t="s">
+      <c r="E35" s="275" t="s">
         <v>385</v>
       </c>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="299"/>
-      <c r="K35" s="299"/>
-      <c r="L35" s="299"/>
+      <c r="F35" s="275"/>
+      <c r="G35" s="275"/>
+      <c r="H35" s="275"/>
+      <c r="I35" s="275"/>
+      <c r="J35" s="275"/>
+      <c r="K35" s="275"/>
+      <c r="L35" s="275"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -10931,21 +10969,21 @@
       <c r="A36" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="299" t="s">
+      <c r="B36" s="275" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="300"/>
+      <c r="C36" s="277"/>
       <c r="D36" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="299"/>
+      <c r="E36" s="275"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="275"/>
+      <c r="H36" s="275"/>
+      <c r="I36" s="275"/>
+      <c r="J36" s="275"/>
+      <c r="K36" s="275"/>
+      <c r="L36" s="275"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -12765,11 +12803,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R11:U15"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:C6"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:L36"/>
     <mergeCell ref="E33:L33"/>
@@ -12781,23 +12831,11 @@
     <mergeCell ref="D19:I28"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D29:I29"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="R11:U15"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39305555555555599" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.196527777777778"/>
@@ -12812,7 +12850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12833,23 +12871,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="309" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
@@ -12880,11 +12918,11 @@
       <c r="B6" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="308" t="s">
+      <c r="C6" s="310" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="309"/>
-      <c r="E6" s="309"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
@@ -12896,11 +12934,11 @@
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="C8" s="310" t="s">
+      <c r="C8" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="310"/>
-      <c r="E8" s="310"/>
+      <c r="D8" s="312"/>
+      <c r="E8" s="312"/>
       <c r="F8" s="55"/>
       <c r="G8" s="31"/>
     </row>
@@ -14056,7 +14094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14070,29 +14108,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="308" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="309" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="C3" s="32"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="34" t="s">
@@ -14102,9 +14140,9 @@
         <v>96</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="38" t="s">
@@ -14135,7 +14173,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="324" t="s">
+      <c r="A9" s="314" t="s">
         <v>299</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -14143,13 +14181,13 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="325"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="311" t="s">
+      <c r="A11" s="316" t="s">
         <v>302</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -14157,7 +14195,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="313"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="2" t="s">
         <v>304</v>
       </c>
@@ -14187,7 +14225,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="314" t="s">
+      <c r="A16" s="319" t="s">
         <v>311</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -14195,19 +14233,19 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="315"/>
+      <c r="A17" s="320"/>
       <c r="B17" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="316"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="314" t="s">
+      <c r="A19" s="319" t="s">
         <v>315</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -14215,37 +14253,37 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="315"/>
+      <c r="A20" s="320"/>
       <c r="B20" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="315"/>
+      <c r="A21" s="320"/>
       <c r="B21" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="315"/>
+      <c r="A22" s="320"/>
       <c r="B22" s="46" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="315"/>
+      <c r="A23" s="320"/>
       <c r="B23" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="316"/>
+      <c r="A24" s="321"/>
       <c r="B24" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="317" t="s">
+      <c r="A25" s="322" t="s">
         <v>322</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -14253,37 +14291,37 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="318"/>
+      <c r="A26" s="323"/>
       <c r="B26" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="318"/>
+      <c r="A27" s="323"/>
       <c r="B27" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="318"/>
+      <c r="A28" s="323"/>
       <c r="B28" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="318"/>
+      <c r="A29" s="323"/>
       <c r="B29" s="1" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="319"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A31" s="320" t="s">
+      <c r="A31" s="325" t="s">
         <v>329</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -14291,44 +14329,44 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="321"/>
+      <c r="A32" s="326"/>
       <c r="B32" s="48" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="321"/>
+      <c r="A33" s="326"/>
       <c r="B33" s="48" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="321"/>
+      <c r="A34" s="326"/>
       <c r="B34" s="48" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="321"/>
+      <c r="A35" s="326"/>
       <c r="B35" s="48" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="321"/>
+      <c r="A36" s="326"/>
       <c r="B36" s="48" t="s">
         <v>335</v>
       </c>
       <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="322"/>
+      <c r="A37" s="327"/>
       <c r="B37" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="311" t="s">
+      <c r="A38" s="316" t="s">
         <v>337</v>
       </c>
       <c r="B38" s="50" t="s">
@@ -14336,25 +14374,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="312"/>
+      <c r="A39" s="317"/>
       <c r="B39" s="51" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="312"/>
+      <c r="A40" s="317"/>
       <c r="B40" s="51" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="312"/>
+      <c r="A41" s="317"/>
       <c r="B41" s="51" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="313"/>
+      <c r="A42" s="318"/>
       <c r="B42" s="5" t="s">
         <v>342</v>
       </c>
@@ -14379,17 +14417,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14397,7 +14435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14445,19 +14483,19 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="23.25">
-      <c r="A4" s="343" t="s">
+      <c r="A4" s="328" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="343"/>
-      <c r="C4" s="343"/>
-      <c r="D4" s="343"/>
-      <c r="E4" s="343"/>
-      <c r="F4" s="343"/>
-      <c r="G4" s="343"/>
-      <c r="H4" s="343"/>
-      <c r="I4" s="343"/>
-      <c r="J4" s="343"/>
-      <c r="K4" s="343"/>
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="328"/>
+      <c r="I4" s="328"/>
+      <c r="J4" s="328"/>
+      <c r="K4" s="328"/>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -14475,10 +14513,10 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="141" customHeight="1">
-      <c r="A6" s="327" t="s">
+      <c r="A6" s="329" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="328"/>
+      <c r="B6" s="330"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>345</v>
@@ -14488,18 +14526,18 @@
         <v>346</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="344" t="s">
+      <c r="H6" s="331" t="s">
         <v>347</v>
       </c>
-      <c r="I6" s="345"/>
-      <c r="J6" s="346"/>
+      <c r="I6" s="332"/>
+      <c r="J6" s="333"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="326" t="s">
+      <c r="L6" s="342" t="s">
         <v>348</v>
       </c>
-      <c r="M6" s="327"/>
-      <c r="N6" s="327"/>
-      <c r="O6" s="328"/>
+      <c r="M6" s="329"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="330"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="23.25">
       <c r="A7" s="11"/>
@@ -14519,25 +14557,25 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="337" t="s">
+      <c r="D8" s="335" t="s">
         <v>349</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G8" s="342" t="s">
+      <c r="G8" s="341" t="s">
         <v>351</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="341" t="s">
+      <c r="J8" s="334" t="s">
         <v>352</v>
       </c>
-      <c r="K8" s="336" t="s">
+      <c r="K8" s="338" t="s">
         <v>351</v>
       </c>
-      <c r="L8" s="341" t="s">
+      <c r="L8" s="334" t="s">
         <v>353</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -14551,16 +14589,16 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="338"/>
+      <c r="D9" s="336"/>
       <c r="E9" s="11"/>
       <c r="F9" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="G9" s="342"/>
+      <c r="G9" s="341"/>
       <c r="H9" s="19"/>
-      <c r="J9" s="341"/>
-      <c r="K9" s="336"/>
-      <c r="L9" s="341"/>
+      <c r="J9" s="334"/>
+      <c r="K9" s="338"/>
+      <c r="L9" s="334"/>
       <c r="N9" s="27" t="s">
         <v>16</v>
       </c>
@@ -14572,17 +14610,17 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="338"/>
+      <c r="D10" s="336"/>
       <c r="E10" s="11"/>
       <c r="F10" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="342"/>
+      <c r="G10" s="341"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="341"/>
-      <c r="K10" s="336"/>
-      <c r="L10" s="341"/>
+      <c r="J10" s="334"/>
+      <c r="K10" s="338"/>
+      <c r="L10" s="334"/>
       <c r="N10" s="27" t="s">
         <v>17</v>
       </c>
@@ -14594,15 +14632,15 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="338"/>
+      <c r="D11" s="336"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="342"/>
+      <c r="G11" s="341"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="341"/>
-      <c r="K11" s="336"/>
-      <c r="L11" s="341"/>
+      <c r="J11" s="334"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="334"/>
       <c r="N11" s="27" t="s">
         <v>18</v>
       </c>
@@ -14618,15 +14656,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="339"/>
+      <c r="D12" s="337"/>
       <c r="E12" s="11"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="342"/>
+      <c r="G12" s="341"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="341"/>
-      <c r="K12" s="336"/>
-      <c r="L12" s="341"/>
+      <c r="J12" s="334"/>
+      <c r="K12" s="338"/>
+      <c r="L12" s="334"/>
       <c r="N12" s="27" t="s">
         <v>19</v>
       </c>
@@ -14662,27 +14700,27 @@
         <v>9</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="341" t="s">
+      <c r="D14" s="334" t="s">
         <v>345</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="340" t="s">
+      <c r="G14" s="350" t="s">
         <v>351</v>
       </c>
-      <c r="H14" s="337" t="s">
+      <c r="H14" s="335" t="s">
         <v>356</v>
       </c>
-      <c r="I14" s="348" t="s">
+      <c r="I14" s="340" t="s">
         <v>351</v>
       </c>
-      <c r="J14" s="335" t="s">
+      <c r="J14" s="349" t="s">
         <v>357</v>
       </c>
-      <c r="K14" s="336" t="s">
+      <c r="K14" s="338" t="s">
         <v>351</v>
       </c>
-      <c r="L14" s="335" t="s">
+      <c r="L14" s="349" t="s">
         <v>353</v>
       </c>
       <c r="N14" s="27" t="s">
@@ -14700,17 +14738,17 @@
         <v>9</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="341"/>
+      <c r="D15" s="334"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G15" s="340"/>
-      <c r="H15" s="338"/>
-      <c r="I15" s="348"/>
-      <c r="J15" s="335"/>
-      <c r="K15" s="336"/>
-      <c r="L15" s="335"/>
+      <c r="G15" s="350"/>
+      <c r="H15" s="336"/>
+      <c r="I15" s="340"/>
+      <c r="J15" s="349"/>
+      <c r="K15" s="338"/>
+      <c r="L15" s="349"/>
       <c r="N15" s="27" t="s">
         <v>16</v>
       </c>
@@ -14726,17 +14764,17 @@
         <v>9</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="341"/>
+      <c r="D16" s="334"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="G16" s="340"/>
-      <c r="H16" s="338"/>
-      <c r="I16" s="348"/>
-      <c r="J16" s="335"/>
-      <c r="K16" s="336"/>
-      <c r="L16" s="335"/>
+      <c r="G16" s="350"/>
+      <c r="H16" s="336"/>
+      <c r="I16" s="340"/>
+      <c r="J16" s="349"/>
+      <c r="K16" s="338"/>
+      <c r="L16" s="349"/>
       <c r="N16" s="27" t="s">
         <v>17</v>
       </c>
@@ -14745,22 +14783,22 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="329" t="s">
+      <c r="A17" s="343" t="s">
         <v>359</v>
       </c>
-      <c r="B17" s="330"/>
+      <c r="B17" s="344"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="341"/>
+      <c r="D17" s="334"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="G17" s="340"/>
-      <c r="H17" s="338"/>
-      <c r="I17" s="348"/>
-      <c r="J17" s="335"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="335"/>
+      <c r="G17" s="350"/>
+      <c r="H17" s="336"/>
+      <c r="I17" s="340"/>
+      <c r="J17" s="349"/>
+      <c r="K17" s="338"/>
+      <c r="L17" s="349"/>
       <c r="N17" s="27" t="s">
         <v>18</v>
       </c>
@@ -14769,20 +14807,20 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="331"/>
-      <c r="B18" s="332"/>
+      <c r="A18" s="345"/>
+      <c r="B18" s="346"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="341"/>
+      <c r="D18" s="334"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="G18" s="340"/>
-      <c r="H18" s="338"/>
-      <c r="I18" s="348"/>
-      <c r="J18" s="335"/>
-      <c r="K18" s="336"/>
-      <c r="L18" s="335"/>
+      <c r="G18" s="350"/>
+      <c r="H18" s="336"/>
+      <c r="I18" s="340"/>
+      <c r="J18" s="349"/>
+      <c r="K18" s="338"/>
+      <c r="L18" s="349"/>
       <c r="M18" s="18"/>
       <c r="N18" s="27" t="s">
         <v>19</v>
@@ -14792,42 +14830,42 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="331"/>
-      <c r="B19" s="332"/>
+      <c r="A19" s="345"/>
+      <c r="B19" s="346"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="341"/>
+      <c r="D19" s="334"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="G19" s="340"/>
-      <c r="H19" s="338"/>
+      <c r="G19" s="350"/>
+      <c r="H19" s="336"/>
       <c r="I19" s="18"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="331"/>
-      <c r="B20" s="332"/>
+      <c r="A20" s="345"/>
+      <c r="B20" s="346"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="341"/>
+      <c r="D20" s="334"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="G20" s="340"/>
-      <c r="H20" s="338"/>
-      <c r="I20" s="342" t="s">
+      <c r="G20" s="350"/>
+      <c r="H20" s="336"/>
+      <c r="I20" s="341" t="s">
         <v>351</v>
       </c>
-      <c r="J20" s="335" t="s">
+      <c r="J20" s="349" t="s">
         <v>364</v>
       </c>
-      <c r="K20" s="347" t="s">
+      <c r="K20" s="339" t="s">
         <v>351</v>
       </c>
-      <c r="L20" s="335" t="s">
+      <c r="L20" s="349" t="s">
         <v>365</v>
       </c>
       <c r="N20" s="27" t="s">
@@ -14838,20 +14876,20 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="333"/>
-      <c r="B21" s="334"/>
+      <c r="A21" s="347"/>
+      <c r="B21" s="348"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="341"/>
+      <c r="D21" s="334"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="G21" s="340"/>
-      <c r="H21" s="338"/>
-      <c r="I21" s="342"/>
-      <c r="J21" s="335"/>
-      <c r="K21" s="347"/>
-      <c r="L21" s="335"/>
+      <c r="G21" s="350"/>
+      <c r="H21" s="336"/>
+      <c r="I21" s="341"/>
+      <c r="J21" s="349"/>
+      <c r="K21" s="339"/>
+      <c r="L21" s="349"/>
       <c r="N21" s="27" t="s">
         <v>16</v>
       </c>
@@ -14863,17 +14901,17 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="341"/>
+      <c r="D22" s="334"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="G22" s="340"/>
-      <c r="H22" s="338"/>
-      <c r="I22" s="342"/>
-      <c r="J22" s="335"/>
-      <c r="K22" s="347"/>
-      <c r="L22" s="335"/>
+      <c r="G22" s="350"/>
+      <c r="H22" s="336"/>
+      <c r="I22" s="341"/>
+      <c r="J22" s="349"/>
+      <c r="K22" s="339"/>
+      <c r="L22" s="349"/>
       <c r="N22" s="27" t="s">
         <v>17</v>
       </c>
@@ -14885,17 +14923,17 @@
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="341"/>
+      <c r="D23" s="334"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="G23" s="340"/>
-      <c r="H23" s="338"/>
-      <c r="I23" s="342"/>
-      <c r="J23" s="335"/>
-      <c r="K23" s="347"/>
-      <c r="L23" s="335"/>
+      <c r="G23" s="350"/>
+      <c r="H23" s="336"/>
+      <c r="I23" s="341"/>
+      <c r="J23" s="349"/>
+      <c r="K23" s="339"/>
+      <c r="L23" s="349"/>
       <c r="N23" s="27" t="s">
         <v>18</v>
       </c>
@@ -14907,15 +14945,15 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="341"/>
+      <c r="D24" s="334"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="340"/>
-      <c r="H24" s="339"/>
-      <c r="I24" s="342"/>
-      <c r="J24" s="335"/>
-      <c r="K24" s="347"/>
-      <c r="L24" s="335"/>
+      <c r="G24" s="350"/>
+      <c r="H24" s="337"/>
+      <c r="I24" s="341"/>
+      <c r="J24" s="349"/>
+      <c r="K24" s="339"/>
+      <c r="L24" s="349"/>
       <c r="N24" s="27" t="s">
         <v>19</v>
       </c>
@@ -14944,16 +14982,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I20:I24"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="A17:B21"/>
     <mergeCell ref="J14:J18"/>
@@ -14965,6 +14993,16 @@
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="L20:L24"/>
     <mergeCell ref="G8:G12"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I20:I24"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.78680555555555598" bottom="0.39305555555555599" header="0.31388888888888899" footer="0.31388888888888899"/>

--- a/RB-Blessing/CE-Beurteilung.xlsx
+++ b/RB-Blessing/CE-Beurteilung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofmannt.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC76F1D-48D5-4E47-9063-873D105FF460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30559D49-50F2-486B-8D44-918F7ED9FDC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="806" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grenzen der Maschine" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="486">
   <si>
     <t>Betriebsarten:</t>
   </si>
@@ -1841,18 +1841,12 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Aufgabe / Tätigkeit</t>
-  </si>
-  <si>
     <t>Aufgaben in der Lebensphase</t>
   </si>
   <si>
     <t>nach DIN EN  ISO 12100:2011</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>Verwendungstemperaturen: -10°C bis 40°C</t>
   </si>
   <si>
@@ -1925,7 +1919,106 @@
     <t>Durch die stufenlose Regelung der Geschwindigkeit und den damit verbundenen leistungsstarken Elektromotor kann das Förderband auch individuell an den Betrieb angepasst werden.</t>
   </si>
   <si>
-    <t>Der Bandförderer dient dem Transport von leichten bis mittelschweren Stückgütern auf waagerechtem oder leicht steigendem Untergrund. Die Güter werden auf das sich bewegende Band gelegt und vom Bandanfang bis Bandende transportiert. Das Band wird von einer Antriebsrolle angetrieben und von einer Gegenrolle umgelenkt. Die Bandrolle wird von einem Elektromotor angetrieben.</t>
+    <t>Aufgaben</t>
+  </si>
+  <si>
+    <t>Fertigen einzelner Bauteile</t>
+  </si>
+  <si>
+    <t>Transport von Kaufteilen zum Hersteller</t>
+  </si>
+  <si>
+    <t>Zusammenbau zu einzelnen Baugruppen</t>
+  </si>
+  <si>
+    <t>Transportieren der Bauteile von Maschine / Lager zur Montage</t>
+  </si>
+  <si>
+    <t>Transportieren von zusammengebauten Baugruppen ins Lager</t>
+  </si>
+  <si>
+    <t>Transport (zum Kunde)</t>
+  </si>
+  <si>
+    <t>Transportieren vom Lager zur Verpackungsstation</t>
+  </si>
+  <si>
+    <t>Verpacken der Bauteile / Baugruppe</t>
+  </si>
+  <si>
+    <t>Transportieren</t>
+  </si>
+  <si>
+    <t>Entladen beim Kunde</t>
+  </si>
+  <si>
+    <t>Auspacken</t>
+  </si>
+  <si>
+    <t>Transport (beim Kunde innerbetrieblich)</t>
+  </si>
+  <si>
+    <t>Transportieren der Bauteile / Baugruppen zur Montagestation</t>
+  </si>
+  <si>
+    <t>Zusammenbau der Maschine nach der Montageanleitung</t>
+  </si>
+  <si>
+    <t>Einstellungen an der Maschine und deren Bauteile (axiale Ausrichtung)</t>
+  </si>
+  <si>
+    <t>Anschluss an die Stromversorgung für den Elektromotor</t>
+  </si>
+  <si>
+    <t>Einbringen von Hilfsflüssigkeiten (Schmierstoff)</t>
+  </si>
+  <si>
+    <t>Anbringen von Schutzeinrichtung</t>
+  </si>
+  <si>
+    <t>Vorführung / Betrieb der Maschine ohne Last</t>
+  </si>
+  <si>
+    <t>Vorbereitungen für die Installation (Anschlussstelle für Betonanker vorbereiten; Fundament)</t>
+  </si>
+  <si>
+    <t>Prüfung</t>
+  </si>
+  <si>
+    <t>Der Bandförderer dient dem Transport von leichten bis mittelschweren Stückgütern (Gesamtgewicht aller Teile auf dem Band max. 300 kg) auf waagerechtem oder leicht steigendem Untergrund. Die Güter werden auf das sich bewegende Band gelegt und vom Bandanfang bis Bandende transportiert. Das Band wird von einer Antriebsrolle angetrieben und von einer Gegenrolle umgelenkt. Die Bandrolle wird von einem Elektromotor angetrieben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versuche unter Höchstlast  (Gesamtgewicht aller Teile auf dem Band max. 300 kg) </t>
+  </si>
+  <si>
+    <t>Einstellen und Einrichten bzw. Überprüfen der funktionalen Parameter der Maschine (Geschwindigkeit, Abstand zwischen Untertommel und Antriebstrommel, Höhe gegenüber dem Boden)</t>
+  </si>
+  <si>
+    <t>Funktionsprüfung / Versuche</t>
+  </si>
+  <si>
+    <t>Funktionsprüfung des Motors (Nothalt)</t>
+  </si>
+  <si>
+    <t>Überwachen (Regelmäßiges Nachziehen der Betonanker, Schmierung)</t>
+  </si>
+  <si>
+    <t>Antreiben der Maschine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fördern der Stückgüter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beladen / Entladen des Bandförderers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geringfügige Einstellungs- und Einrichtungsvorgänge bei den Funktionsparamteren der Maschine </t>
+  </si>
+  <si>
+    <t>Geringfügige Eingriffe während des Betriebs (z.B. Beseitigung von Blockierungen, lokale Reinigung)</t>
+  </si>
+  <si>
+    <t>Powerpoint Blessing III S. 158</t>
   </si>
 </sst>
 </file>
@@ -3458,16 +3551,56 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3482,20 +3615,32 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3510,46 +3655,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3583,28 +3688,46 @@
     <xf numFmtId="49" fontId="22" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3615,12 +3738,6 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3670,38 +3787,26 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3718,6 +3823,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3727,51 +3868,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3781,68 +3931,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4000,14 +4093,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4099,14 +4192,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4484,8 +4577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4500,384 +4593,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="260" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="262"/>
+      <c r="A1" s="244" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="246"/>
     </row>
     <row r="2" spans="1:12" ht="7.5" customHeight="1">
-      <c r="A2" s="247"/>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="249"/>
+      <c r="A2" s="250"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="252"/>
     </row>
     <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="253" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="245"/>
-    </row>
-    <row r="4" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A4" s="246" t="s">
-        <v>454</v>
-      </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="242"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="255"/>
+    </row>
+    <row r="4" spans="1:12" ht="37.5" customHeight="1">
+      <c r="A4" s="241" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="248"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="240"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="242"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="248"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="245"/>
+      <c r="B6" s="254"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="255"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A7" s="353" t="s">
+      <c r="A7" s="240" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="241" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="247"/>
+      <c r="L8" s="248"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="241" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="353"/>
-      <c r="C7" s="353"/>
-      <c r="D7" s="353"/>
-      <c r="E7" s="353"/>
-      <c r="F7" s="353"/>
-      <c r="G7" s="353"/>
-      <c r="H7" s="353"/>
-      <c r="I7" s="353"/>
-      <c r="J7" s="353"/>
-      <c r="K7" s="353"/>
-      <c r="L7" s="353"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="246" t="s">
+      <c r="B9" s="242"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="243"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="241" t="s">
         <v>451</v>
       </c>
-      <c r="B8" s="241"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="242"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="246" t="s">
-        <v>452</v>
-      </c>
-      <c r="B9" s="351"/>
-      <c r="C9" s="351"/>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="351"/>
-      <c r="G9" s="351"/>
-      <c r="H9" s="351"/>
-      <c r="I9" s="351"/>
-      <c r="J9" s="351"/>
-      <c r="K9" s="351"/>
-      <c r="L9" s="352"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="246" t="s">
-        <v>453</v>
-      </c>
-      <c r="B10" s="241"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
-      <c r="L10" s="242"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="247"/>
+      <c r="K10" s="247"/>
+      <c r="L10" s="248"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="240"/>
-      <c r="B11" s="241"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="242"/>
+      <c r="A11" s="249"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="247"/>
+      <c r="K11" s="247"/>
+      <c r="L11" s="248"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="253" t="s">
+      <c r="A12" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="244"/>
-      <c r="C12" s="244"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="B12" s="254"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="255"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A13" s="246" t="s">
-        <v>446</v>
-      </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="242"/>
+      <c r="A13" s="241" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="247"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="246" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="242"/>
+      <c r="A14" s="241" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="247"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="247"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="247"/>
+      <c r="K14" s="247"/>
+      <c r="L14" s="248"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="246"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="242"/>
+      <c r="A15" s="241"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="247"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="248"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="240"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="242"/>
+      <c r="A16" s="249"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="247"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="248"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="240"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="242"/>
+      <c r="A17" s="249"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="247"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="248"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="240"/>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="241"/>
-      <c r="L18" s="242"/>
+      <c r="A18" s="249"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="247"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="247"/>
+      <c r="K18" s="247"/>
+      <c r="L18" s="248"/>
     </row>
     <row r="19" spans="1:13" ht="6" customHeight="1">
-      <c r="A19" s="247"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="248"/>
-      <c r="E19" s="248"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="248"/>
-      <c r="H19" s="248"/>
-      <c r="I19" s="248"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="248"/>
-      <c r="L19" s="249"/>
+      <c r="A19" s="250"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
     </row>
     <row r="20" spans="1:13" ht="15.75">
-      <c r="A20" s="243" t="s">
+      <c r="A20" s="253" t="s">
         <v>393</v>
       </c>
-      <c r="B20" s="244"/>
-      <c r="C20" s="244"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="244"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="244"/>
-      <c r="J20" s="244"/>
-      <c r="K20" s="244"/>
-      <c r="L20" s="245"/>
+      <c r="B20" s="254"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="255"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="246"/>
-      <c r="B21" s="257"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
-      <c r="H21" s="257"/>
-      <c r="I21" s="257"/>
-      <c r="J21" s="257"/>
-      <c r="K21" s="257"/>
-      <c r="L21" s="242"/>
+      <c r="A21" s="241"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="262"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="262"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="248"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="258"/>
-      <c r="B22" s="254" t="s">
+      <c r="B22" s="261" t="s">
         <v>370</v>
       </c>
-      <c r="C22" s="254"/>
-      <c r="D22" s="254"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="254"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="254"/>
-      <c r="K22" s="254"/>
+      <c r="C22" s="261"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="261"/>
       <c r="L22" s="135"/>
       <c r="M22" s="137"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1">
       <c r="A23" s="259"/>
-      <c r="B23" s="255" t="s">
+      <c r="B23" s="256" t="s">
         <v>376</v>
       </c>
-      <c r="C23" s="255" t="s">
+      <c r="C23" s="256" t="s">
         <v>378</v>
       </c>
-      <c r="D23" s="255" t="s">
+      <c r="D23" s="256" t="s">
         <v>373</v>
       </c>
-      <c r="E23" s="255" t="s">
+      <c r="E23" s="256" t="s">
         <v>375</v>
       </c>
-      <c r="F23" s="255" t="s">
+      <c r="F23" s="256" t="s">
         <v>371</v>
       </c>
-      <c r="G23" s="255" t="s">
+      <c r="G23" s="256" t="s">
         <v>377</v>
       </c>
-      <c r="H23" s="255" t="s">
+      <c r="H23" s="256" t="s">
         <v>374</v>
       </c>
-      <c r="I23" s="255" t="s">
+      <c r="I23" s="256" t="s">
         <v>379</v>
       </c>
-      <c r="J23" s="255"/>
-      <c r="K23" s="255"/>
+      <c r="J23" s="256"/>
+      <c r="K23" s="256"/>
       <c r="L23" s="136"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="133" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="256"/>
-      <c r="K24" s="256"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="257"/>
+      <c r="G24" s="257"/>
+      <c r="H24" s="257"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="257"/>
+      <c r="K24" s="257"/>
       <c r="L24" s="136"/>
     </row>
     <row r="25" spans="1:13">
@@ -5089,615 +5182,588 @@
       <c r="L35" s="136"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="240"/>
-      <c r="B36" s="241"/>
-      <c r="C36" s="241"/>
-      <c r="D36" s="241"/>
-      <c r="E36" s="241"/>
-      <c r="F36" s="241"/>
-      <c r="G36" s="241"/>
-      <c r="H36" s="241"/>
-      <c r="I36" s="241"/>
-      <c r="J36" s="241"/>
-      <c r="K36" s="241"/>
-      <c r="L36" s="242"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="247"/>
+      <c r="C36" s="247"/>
+      <c r="D36" s="247"/>
+      <c r="E36" s="247"/>
+      <c r="F36" s="247"/>
+      <c r="G36" s="247"/>
+      <c r="H36" s="247"/>
+      <c r="I36" s="247"/>
+      <c r="J36" s="247"/>
+      <c r="K36" s="247"/>
+      <c r="L36" s="248"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A37" s="240" t="s">
+      <c r="A37" s="249" t="s">
         <v>372</v>
       </c>
-      <c r="B37" s="241"/>
-      <c r="C37" s="241"/>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+      <c r="B37" s="247"/>
+      <c r="C37" s="247"/>
+      <c r="D37" s="247"/>
+      <c r="E37" s="247"/>
+      <c r="F37" s="247"/>
+      <c r="G37" s="247"/>
+      <c r="H37" s="247"/>
+      <c r="I37" s="247"/>
+      <c r="J37" s="247"/>
+      <c r="K37" s="247"/>
+      <c r="L37" s="248"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="246" t="s">
+      <c r="A38" s="241" t="s">
         <v>420</v>
       </c>
-      <c r="B38" s="241"/>
-      <c r="C38" s="241"/>
-      <c r="D38" s="241"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="241"/>
-      <c r="G38" s="241"/>
-      <c r="H38" s="241"/>
-      <c r="I38" s="241"/>
-      <c r="J38" s="241"/>
-      <c r="K38" s="241"/>
-      <c r="L38" s="242"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="247"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="247"/>
+      <c r="F38" s="247"/>
+      <c r="G38" s="247"/>
+      <c r="H38" s="247"/>
+      <c r="I38" s="247"/>
+      <c r="J38" s="247"/>
+      <c r="K38" s="247"/>
+      <c r="L38" s="248"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="240"/>
-      <c r="B39" s="241"/>
-      <c r="C39" s="241"/>
-      <c r="D39" s="241"/>
-      <c r="E39" s="241"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="241"/>
-      <c r="I39" s="241"/>
-      <c r="J39" s="241"/>
-      <c r="K39" s="241"/>
-      <c r="L39" s="242"/>
+      <c r="A39" s="249"/>
+      <c r="B39" s="247"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="247"/>
+      <c r="E39" s="247"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="247"/>
+      <c r="H39" s="247"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="247"/>
+      <c r="K39" s="247"/>
+      <c r="L39" s="248"/>
     </row>
     <row r="40" spans="1:12" ht="6" customHeight="1">
-      <c r="A40" s="247"/>
-      <c r="B40" s="248"/>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="248"/>
-      <c r="F40" s="248"/>
-      <c r="G40" s="248"/>
-      <c r="H40" s="248"/>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="248"/>
-      <c r="L40" s="249"/>
+      <c r="A40" s="250"/>
+      <c r="B40" s="251"/>
+      <c r="C40" s="251"/>
+      <c r="D40" s="251"/>
+      <c r="E40" s="251"/>
+      <c r="F40" s="251"/>
+      <c r="G40" s="251"/>
+      <c r="H40" s="251"/>
+      <c r="I40" s="251"/>
+      <c r="J40" s="251"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="252"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="243" t="s">
+      <c r="A41" s="253" t="s">
         <v>421</v>
       </c>
-      <c r="B41" s="244"/>
-      <c r="C41" s="244"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="244"/>
-      <c r="F41" s="244"/>
-      <c r="G41" s="244"/>
-      <c r="H41" s="244"/>
-      <c r="I41" s="244"/>
-      <c r="J41" s="244"/>
-      <c r="K41" s="244"/>
-      <c r="L41" s="245"/>
+      <c r="B41" s="254"/>
+      <c r="C41" s="254"/>
+      <c r="D41" s="254"/>
+      <c r="E41" s="254"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="254"/>
+      <c r="H41" s="254"/>
+      <c r="I41" s="254"/>
+      <c r="J41" s="254"/>
+      <c r="K41" s="254"/>
+      <c r="L41" s="255"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="246" t="s">
+      <c r="A42" s="241" t="s">
+        <v>431</v>
+      </c>
+      <c r="B42" s="247"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="247"/>
+      <c r="E42" s="247"/>
+      <c r="F42" s="247"/>
+      <c r="G42" s="247"/>
+      <c r="H42" s="247"/>
+      <c r="I42" s="247"/>
+      <c r="J42" s="247"/>
+      <c r="K42" s="247"/>
+      <c r="L42" s="248"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="241" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="247"/>
+      <c r="C43" s="247"/>
+      <c r="D43" s="247"/>
+      <c r="E43" s="247"/>
+      <c r="F43" s="247"/>
+      <c r="G43" s="247"/>
+      <c r="H43" s="247"/>
+      <c r="I43" s="247"/>
+      <c r="J43" s="247"/>
+      <c r="K43" s="247"/>
+      <c r="L43" s="248"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="249"/>
+      <c r="B44" s="247"/>
+      <c r="C44" s="247"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="248"/>
+    </row>
+    <row r="45" spans="1:12" ht="6" customHeight="1">
+      <c r="A45" s="250"/>
+      <c r="B45" s="251"/>
+      <c r="C45" s="251"/>
+      <c r="D45" s="251"/>
+      <c r="E45" s="251"/>
+      <c r="F45" s="251"/>
+      <c r="G45" s="251"/>
+      <c r="H45" s="251"/>
+      <c r="I45" s="251"/>
+      <c r="J45" s="251"/>
+      <c r="K45" s="251"/>
+      <c r="L45" s="252"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
+      <c r="A46" s="253" t="s">
+        <v>422</v>
+      </c>
+      <c r="B46" s="254"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="254"/>
+      <c r="G46" s="254"/>
+      <c r="H46" s="254"/>
+      <c r="I46" s="254"/>
+      <c r="J46" s="254"/>
+      <c r="K46" s="254"/>
+      <c r="L46" s="255"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="241" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47" s="247"/>
+      <c r="C47" s="247"/>
+      <c r="D47" s="247"/>
+      <c r="E47" s="247"/>
+      <c r="F47" s="247"/>
+      <c r="G47" s="247"/>
+      <c r="H47" s="247"/>
+      <c r="I47" s="247"/>
+      <c r="J47" s="247"/>
+      <c r="K47" s="247"/>
+      <c r="L47" s="248"/>
+    </row>
+    <row r="48" spans="1:12" ht="6" customHeight="1">
+      <c r="A48" s="250"/>
+      <c r="B48" s="251"/>
+      <c r="C48" s="251"/>
+      <c r="D48" s="251"/>
+      <c r="E48" s="251"/>
+      <c r="F48" s="251"/>
+      <c r="G48" s="251"/>
+      <c r="H48" s="251"/>
+      <c r="I48" s="251"/>
+      <c r="J48" s="251"/>
+      <c r="K48" s="251"/>
+      <c r="L48" s="252"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
+      <c r="A49" s="253" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="254"/>
+      <c r="C49" s="254"/>
+      <c r="D49" s="254"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="254"/>
+      <c r="G49" s="254"/>
+      <c r="H49" s="254"/>
+      <c r="I49" s="254"/>
+      <c r="J49" s="254"/>
+      <c r="K49" s="254"/>
+      <c r="L49" s="255"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="241" t="s">
+        <v>428</v>
+      </c>
+      <c r="B50" s="247"/>
+      <c r="C50" s="247"/>
+      <c r="D50" s="247"/>
+      <c r="E50" s="247"/>
+      <c r="F50" s="247"/>
+      <c r="G50" s="247"/>
+      <c r="H50" s="247"/>
+      <c r="I50" s="247"/>
+      <c r="J50" s="247"/>
+      <c r="K50" s="247"/>
+      <c r="L50" s="248"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="241" t="s">
+        <v>446</v>
+      </c>
+      <c r="B51" s="247"/>
+      <c r="C51" s="247"/>
+      <c r="D51" s="247"/>
+      <c r="E51" s="247"/>
+      <c r="F51" s="247"/>
+      <c r="G51" s="247"/>
+      <c r="H51" s="247"/>
+      <c r="I51" s="247"/>
+      <c r="J51" s="247"/>
+      <c r="K51" s="247"/>
+      <c r="L51" s="248"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="241" t="s">
+        <v>447</v>
+      </c>
+      <c r="B52" s="247"/>
+      <c r="C52" s="247"/>
+      <c r="D52" s="247"/>
+      <c r="E52" s="247"/>
+      <c r="F52" s="247"/>
+      <c r="G52" s="247"/>
+      <c r="H52" s="247"/>
+      <c r="I52" s="247"/>
+      <c r="J52" s="247"/>
+      <c r="K52" s="247"/>
+      <c r="L52" s="248"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="249"/>
+      <c r="B53" s="247"/>
+      <c r="C53" s="247"/>
+      <c r="D53" s="247"/>
+      <c r="E53" s="247"/>
+      <c r="F53" s="247"/>
+      <c r="G53" s="247"/>
+      <c r="H53" s="247"/>
+      <c r="I53" s="247"/>
+      <c r="J53" s="247"/>
+      <c r="K53" s="247"/>
+      <c r="L53" s="248"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="249"/>
+      <c r="B54" s="247"/>
+      <c r="C54" s="247"/>
+      <c r="D54" s="247"/>
+      <c r="E54" s="247"/>
+      <c r="F54" s="247"/>
+      <c r="G54" s="247"/>
+      <c r="H54" s="247"/>
+      <c r="I54" s="247"/>
+      <c r="J54" s="247"/>
+      <c r="K54" s="247"/>
+      <c r="L54" s="248"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="249"/>
+      <c r="B55" s="247"/>
+      <c r="C55" s="247"/>
+      <c r="D55" s="247"/>
+      <c r="E55" s="247"/>
+      <c r="F55" s="247"/>
+      <c r="G55" s="247"/>
+      <c r="H55" s="247"/>
+      <c r="I55" s="247"/>
+      <c r="J55" s="247"/>
+      <c r="K55" s="247"/>
+      <c r="L55" s="248"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="249"/>
+      <c r="B56" s="247"/>
+      <c r="C56" s="247"/>
+      <c r="D56" s="247"/>
+      <c r="E56" s="247"/>
+      <c r="F56" s="247"/>
+      <c r="G56" s="247"/>
+      <c r="H56" s="247"/>
+      <c r="I56" s="247"/>
+      <c r="J56" s="247"/>
+      <c r="K56" s="247"/>
+      <c r="L56" s="248"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="249"/>
+      <c r="B57" s="247"/>
+      <c r="C57" s="247"/>
+      <c r="D57" s="247"/>
+      <c r="E57" s="247"/>
+      <c r="F57" s="247"/>
+      <c r="G57" s="247"/>
+      <c r="H57" s="247"/>
+      <c r="I57" s="247"/>
+      <c r="J57" s="247"/>
+      <c r="K57" s="247"/>
+      <c r="L57" s="248"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="249"/>
+      <c r="B58" s="247"/>
+      <c r="C58" s="247"/>
+      <c r="D58" s="247"/>
+      <c r="E58" s="247"/>
+      <c r="F58" s="247"/>
+      <c r="G58" s="247"/>
+      <c r="H58" s="247"/>
+      <c r="I58" s="247"/>
+      <c r="J58" s="247"/>
+      <c r="K58" s="247"/>
+      <c r="L58" s="248"/>
+    </row>
+    <row r="59" spans="1:12" ht="6" customHeight="1">
+      <c r="A59" s="250"/>
+      <c r="B59" s="251"/>
+      <c r="C59" s="251"/>
+      <c r="D59" s="251"/>
+      <c r="E59" s="251"/>
+      <c r="F59" s="251"/>
+      <c r="G59" s="251"/>
+      <c r="H59" s="251"/>
+      <c r="I59" s="251"/>
+      <c r="J59" s="251"/>
+      <c r="K59" s="251"/>
+      <c r="L59" s="252"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A60" s="253" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" s="254"/>
+      <c r="C60" s="254"/>
+      <c r="D60" s="254"/>
+      <c r="E60" s="254"/>
+      <c r="F60" s="254"/>
+      <c r="G60" s="254"/>
+      <c r="H60" s="254"/>
+      <c r="I60" s="254"/>
+      <c r="J60" s="254"/>
+      <c r="K60" s="254"/>
+      <c r="L60" s="255"/>
+    </row>
+    <row r="61" spans="1:12" ht="42.75" customHeight="1">
+      <c r="A61" s="263" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" s="264"/>
+      <c r="C61" s="264"/>
+      <c r="D61" s="264"/>
+      <c r="E61" s="264"/>
+      <c r="F61" s="264"/>
+      <c r="G61" s="264"/>
+      <c r="H61" s="264"/>
+      <c r="I61" s="264"/>
+      <c r="J61" s="264"/>
+      <c r="K61" s="264"/>
+      <c r="L61" s="265"/>
+    </row>
+    <row r="62" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A62" s="241" t="s">
+        <v>439</v>
+      </c>
+      <c r="B62" s="247"/>
+      <c r="C62" s="247"/>
+      <c r="D62" s="247"/>
+      <c r="E62" s="247"/>
+      <c r="F62" s="247"/>
+      <c r="G62" s="247"/>
+      <c r="H62" s="247"/>
+      <c r="I62" s="247"/>
+      <c r="J62" s="247"/>
+      <c r="K62" s="247"/>
+      <c r="L62" s="248"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="241" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="241"/>
-      <c r="C42" s="241"/>
-      <c r="D42" s="241"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="241"/>
-      <c r="G42" s="241"/>
-      <c r="H42" s="241"/>
-      <c r="I42" s="241"/>
-      <c r="J42" s="241"/>
-      <c r="K42" s="241"/>
-      <c r="L42" s="242"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="246" t="s">
+      <c r="B63" s="247"/>
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="247"/>
+      <c r="H63" s="247"/>
+      <c r="I63" s="247"/>
+      <c r="J63" s="247"/>
+      <c r="K63" s="247"/>
+      <c r="L63" s="248"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="241" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="247"/>
+      <c r="C64" s="247"/>
+      <c r="D64" s="247"/>
+      <c r="E64" s="247"/>
+      <c r="F64" s="247"/>
+      <c r="G64" s="247"/>
+      <c r="H64" s="247"/>
+      <c r="I64" s="247"/>
+      <c r="J64" s="247"/>
+      <c r="K64" s="247"/>
+      <c r="L64" s="248"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="241" t="s">
         <v>434</v>
       </c>
-      <c r="B43" s="241"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
-      <c r="I43" s="241"/>
-      <c r="J43" s="241"/>
-      <c r="K43" s="241"/>
-      <c r="L43" s="242"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="240"/>
-      <c r="B44" s="241"/>
-      <c r="C44" s="241"/>
-      <c r="D44" s="241"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
-      <c r="G44" s="241"/>
-      <c r="H44" s="241"/>
-      <c r="I44" s="241"/>
-      <c r="J44" s="241"/>
-      <c r="K44" s="241"/>
-      <c r="L44" s="242"/>
-    </row>
-    <row r="45" spans="1:12" ht="6" customHeight="1">
-      <c r="A45" s="247"/>
-      <c r="B45" s="248"/>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="248"/>
-      <c r="F45" s="248"/>
-      <c r="G45" s="248"/>
-      <c r="H45" s="248"/>
-      <c r="I45" s="248"/>
-      <c r="J45" s="248"/>
-      <c r="K45" s="248"/>
-      <c r="L45" s="249"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="243" t="s">
-        <v>422</v>
-      </c>
-      <c r="B46" s="244"/>
-      <c r="C46" s="244"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="244"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="244"/>
-      <c r="H46" s="244"/>
-      <c r="I46" s="244"/>
-      <c r="J46" s="244"/>
-      <c r="K46" s="244"/>
-      <c r="L46" s="245"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="246" t="s">
-        <v>447</v>
-      </c>
-      <c r="B47" s="241"/>
-      <c r="C47" s="241"/>
-      <c r="D47" s="241"/>
-      <c r="E47" s="241"/>
-      <c r="F47" s="241"/>
-      <c r="G47" s="241"/>
-      <c r="H47" s="241"/>
-      <c r="I47" s="241"/>
-      <c r="J47" s="241"/>
-      <c r="K47" s="241"/>
-      <c r="L47" s="242"/>
-    </row>
-    <row r="48" spans="1:12" ht="6" customHeight="1">
-      <c r="A48" s="247"/>
-      <c r="B48" s="248"/>
-      <c r="C48" s="248"/>
-      <c r="D48" s="248"/>
-      <c r="E48" s="248"/>
-      <c r="F48" s="248"/>
-      <c r="G48" s="248"/>
-      <c r="H48" s="248"/>
-      <c r="I48" s="248"/>
-      <c r="J48" s="248"/>
-      <c r="K48" s="248"/>
-      <c r="L48" s="249"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75">
-      <c r="A49" s="243" t="s">
-        <v>423</v>
-      </c>
-      <c r="B49" s="244"/>
-      <c r="C49" s="244"/>
-      <c r="D49" s="244"/>
-      <c r="E49" s="244"/>
-      <c r="F49" s="244"/>
-      <c r="G49" s="244"/>
-      <c r="H49" s="244"/>
-      <c r="I49" s="244"/>
-      <c r="J49" s="244"/>
-      <c r="K49" s="244"/>
-      <c r="L49" s="245"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="246" t="s">
-        <v>430</v>
-      </c>
-      <c r="B50" s="241"/>
-      <c r="C50" s="241"/>
-      <c r="D50" s="241"/>
-      <c r="E50" s="241"/>
-      <c r="F50" s="241"/>
-      <c r="G50" s="241"/>
-      <c r="H50" s="241"/>
-      <c r="I50" s="241"/>
-      <c r="J50" s="241"/>
-      <c r="K50" s="241"/>
-      <c r="L50" s="242"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="246" t="s">
-        <v>448</v>
-      </c>
-      <c r="B51" s="241"/>
-      <c r="C51" s="241"/>
-      <c r="D51" s="241"/>
-      <c r="E51" s="241"/>
-      <c r="F51" s="241"/>
-      <c r="G51" s="241"/>
-      <c r="H51" s="241"/>
-      <c r="I51" s="241"/>
-      <c r="J51" s="241"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="242"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="246" t="s">
-        <v>449</v>
-      </c>
-      <c r="B52" s="241"/>
-      <c r="C52" s="241"/>
-      <c r="D52" s="241"/>
-      <c r="E52" s="241"/>
-      <c r="F52" s="241"/>
-      <c r="G52" s="241"/>
-      <c r="H52" s="241"/>
-      <c r="I52" s="241"/>
-      <c r="J52" s="241"/>
-      <c r="K52" s="241"/>
-      <c r="L52" s="242"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="240"/>
-      <c r="B53" s="241"/>
-      <c r="C53" s="241"/>
-      <c r="D53" s="241"/>
-      <c r="E53" s="241"/>
-      <c r="F53" s="241"/>
-      <c r="G53" s="241"/>
-      <c r="H53" s="241"/>
-      <c r="I53" s="241"/>
-      <c r="J53" s="241"/>
-      <c r="K53" s="241"/>
-      <c r="L53" s="242"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="240"/>
-      <c r="B54" s="241"/>
-      <c r="C54" s="241"/>
-      <c r="D54" s="241"/>
-      <c r="E54" s="241"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="241"/>
-      <c r="H54" s="241"/>
-      <c r="I54" s="241"/>
-      <c r="J54" s="241"/>
-      <c r="K54" s="241"/>
-      <c r="L54" s="242"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="240"/>
-      <c r="B55" s="241"/>
-      <c r="C55" s="241"/>
-      <c r="D55" s="241"/>
-      <c r="E55" s="241"/>
-      <c r="F55" s="241"/>
-      <c r="G55" s="241"/>
-      <c r="H55" s="241"/>
-      <c r="I55" s="241"/>
-      <c r="J55" s="241"/>
-      <c r="K55" s="241"/>
-      <c r="L55" s="242"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="240"/>
-      <c r="B56" s="241"/>
-      <c r="C56" s="241"/>
-      <c r="D56" s="241"/>
-      <c r="E56" s="241"/>
-      <c r="F56" s="241"/>
-      <c r="G56" s="241"/>
-      <c r="H56" s="241"/>
-      <c r="I56" s="241"/>
-      <c r="J56" s="241"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="242"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="240"/>
-      <c r="B57" s="241"/>
-      <c r="C57" s="241"/>
-      <c r="D57" s="241"/>
-      <c r="E57" s="241"/>
-      <c r="F57" s="241"/>
-      <c r="G57" s="241"/>
-      <c r="H57" s="241"/>
-      <c r="I57" s="241"/>
-      <c r="J57" s="241"/>
-      <c r="K57" s="241"/>
-      <c r="L57" s="242"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="240"/>
-      <c r="B58" s="241"/>
-      <c r="C58" s="241"/>
-      <c r="D58" s="241"/>
-      <c r="E58" s="241"/>
-      <c r="F58" s="241"/>
-      <c r="G58" s="241"/>
-      <c r="H58" s="241"/>
-      <c r="I58" s="241"/>
-      <c r="J58" s="241"/>
-      <c r="K58" s="241"/>
-      <c r="L58" s="242"/>
-    </row>
-    <row r="59" spans="1:12" ht="6" customHeight="1">
-      <c r="A59" s="247"/>
-      <c r="B59" s="248"/>
-      <c r="C59" s="248"/>
-      <c r="D59" s="248"/>
-      <c r="E59" s="248"/>
-      <c r="F59" s="248"/>
-      <c r="G59" s="248"/>
-      <c r="H59" s="248"/>
-      <c r="I59" s="248"/>
-      <c r="J59" s="248"/>
-      <c r="K59" s="248"/>
-      <c r="L59" s="249"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="243" t="s">
-        <v>424</v>
-      </c>
-      <c r="B60" s="244"/>
-      <c r="C60" s="244"/>
-      <c r="D60" s="244"/>
-      <c r="E60" s="244"/>
-      <c r="F60" s="244"/>
-      <c r="G60" s="244"/>
-      <c r="H60" s="244"/>
-      <c r="I60" s="244"/>
-      <c r="J60" s="244"/>
-      <c r="K60" s="244"/>
-      <c r="L60" s="245"/>
-    </row>
-    <row r="61" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A61" s="250" t="s">
-        <v>394</v>
-      </c>
-      <c r="B61" s="251"/>
-      <c r="C61" s="251"/>
-      <c r="D61" s="251"/>
-      <c r="E61" s="251"/>
-      <c r="F61" s="251"/>
-      <c r="G61" s="251"/>
-      <c r="H61" s="251"/>
-      <c r="I61" s="251"/>
-      <c r="J61" s="251"/>
-      <c r="K61" s="251"/>
-      <c r="L61" s="252"/>
-    </row>
-    <row r="62" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A62" s="246" t="s">
+      <c r="B65" s="247"/>
+      <c r="C65" s="247"/>
+      <c r="D65" s="247"/>
+      <c r="E65" s="247"/>
+      <c r="F65" s="247"/>
+      <c r="G65" s="247"/>
+      <c r="H65" s="247"/>
+      <c r="I65" s="247"/>
+      <c r="J65" s="247"/>
+      <c r="K65" s="247"/>
+      <c r="L65" s="248"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="241" t="s">
+        <v>435</v>
+      </c>
+      <c r="B66" s="247"/>
+      <c r="C66" s="247"/>
+      <c r="D66" s="247"/>
+      <c r="E66" s="247"/>
+      <c r="F66" s="247"/>
+      <c r="G66" s="247"/>
+      <c r="H66" s="247"/>
+      <c r="I66" s="247"/>
+      <c r="J66" s="247"/>
+      <c r="K66" s="247"/>
+      <c r="L66" s="248"/>
+    </row>
+    <row r="67" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A67" s="241" t="s">
         <v>441</v>
       </c>
-      <c r="B62" s="241"/>
-      <c r="C62" s="241"/>
-      <c r="D62" s="241"/>
-      <c r="E62" s="241"/>
-      <c r="F62" s="241"/>
-      <c r="G62" s="241"/>
-      <c r="H62" s="241"/>
-      <c r="I62" s="241"/>
-      <c r="J62" s="241"/>
-      <c r="K62" s="241"/>
-      <c r="L62" s="242"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="246" t="s">
-        <v>435</v>
-      </c>
-      <c r="B63" s="241"/>
-      <c r="C63" s="241"/>
-      <c r="D63" s="241"/>
-      <c r="E63" s="241"/>
-      <c r="F63" s="241"/>
-      <c r="G63" s="241"/>
-      <c r="H63" s="241"/>
-      <c r="I63" s="241"/>
-      <c r="J63" s="241"/>
-      <c r="K63" s="241"/>
-      <c r="L63" s="242"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="246" t="s">
+      <c r="B67" s="247"/>
+      <c r="C67" s="247"/>
+      <c r="D67" s="247"/>
+      <c r="E67" s="247"/>
+      <c r="F67" s="247"/>
+      <c r="G67" s="247"/>
+      <c r="H67" s="247"/>
+      <c r="I67" s="247"/>
+      <c r="J67" s="247"/>
+      <c r="K67" s="247"/>
+      <c r="L67" s="248"/>
+    </row>
+    <row r="68" spans="1:12" ht="39.75" customHeight="1">
+      <c r="A68" s="241" t="s">
         <v>442</v>
       </c>
-      <c r="B64" s="241"/>
-      <c r="C64" s="241"/>
-      <c r="D64" s="241"/>
-      <c r="E64" s="241"/>
-      <c r="F64" s="241"/>
-      <c r="G64" s="241"/>
-      <c r="H64" s="241"/>
-      <c r="I64" s="241"/>
-      <c r="J64" s="241"/>
-      <c r="K64" s="241"/>
-      <c r="L64" s="242"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="246" t="s">
+      <c r="B68" s="242"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="242"/>
+      <c r="E68" s="242"/>
+      <c r="F68" s="242"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="242"/>
+      <c r="I68" s="242"/>
+      <c r="J68" s="242"/>
+      <c r="K68" s="242"/>
+      <c r="L68" s="243"/>
+    </row>
+    <row r="69" spans="1:12" ht="49.5" customHeight="1">
+      <c r="A69" s="241" t="s">
+        <v>443</v>
+      </c>
+      <c r="B69" s="247"/>
+      <c r="C69" s="247"/>
+      <c r="D69" s="247"/>
+      <c r="E69" s="247"/>
+      <c r="F69" s="247"/>
+      <c r="G69" s="247"/>
+      <c r="H69" s="247"/>
+      <c r="I69" s="247"/>
+      <c r="J69" s="247"/>
+      <c r="K69" s="247"/>
+      <c r="L69" s="248"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="241" t="s">
+        <v>438</v>
+      </c>
+      <c r="B70" s="247"/>
+      <c r="C70" s="247"/>
+      <c r="D70" s="247"/>
+      <c r="E70" s="247"/>
+      <c r="F70" s="247"/>
+      <c r="G70" s="247"/>
+      <c r="H70" s="247"/>
+      <c r="I70" s="247"/>
+      <c r="J70" s="247"/>
+      <c r="K70" s="247"/>
+      <c r="L70" s="248"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="241" t="s">
         <v>436</v>
       </c>
-      <c r="B65" s="241"/>
-      <c r="C65" s="241"/>
-      <c r="D65" s="241"/>
-      <c r="E65" s="241"/>
-      <c r="F65" s="241"/>
-      <c r="G65" s="241"/>
-      <c r="H65" s="241"/>
-      <c r="I65" s="241"/>
-      <c r="J65" s="241"/>
-      <c r="K65" s="241"/>
-      <c r="L65" s="242"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="246" t="s">
+      <c r="B71" s="247"/>
+      <c r="C71" s="247"/>
+      <c r="D71" s="247"/>
+      <c r="E71" s="247"/>
+      <c r="F71" s="247"/>
+      <c r="G71" s="247"/>
+      <c r="H71" s="247"/>
+      <c r="I71" s="247"/>
+      <c r="J71" s="247"/>
+      <c r="K71" s="247"/>
+      <c r="L71" s="248"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="241" t="s">
         <v>437</v>
       </c>
-      <c r="B66" s="241"/>
-      <c r="C66" s="241"/>
-      <c r="D66" s="241"/>
-      <c r="E66" s="241"/>
-      <c r="F66" s="241"/>
-      <c r="G66" s="241"/>
-      <c r="H66" s="241"/>
-      <c r="I66" s="241"/>
-      <c r="J66" s="241"/>
-      <c r="K66" s="241"/>
-      <c r="L66" s="242"/>
-    </row>
-    <row r="67" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A67" s="246" t="s">
-        <v>443</v>
-      </c>
-      <c r="B67" s="241"/>
-      <c r="C67" s="241"/>
-      <c r="D67" s="241"/>
-      <c r="E67" s="241"/>
-      <c r="F67" s="241"/>
-      <c r="G67" s="241"/>
-      <c r="H67" s="241"/>
-      <c r="I67" s="241"/>
-      <c r="J67" s="241"/>
-      <c r="K67" s="241"/>
-      <c r="L67" s="242"/>
-    </row>
-    <row r="68" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A68" s="246" t="s">
-        <v>444</v>
-      </c>
-      <c r="B68" s="351"/>
-      <c r="C68" s="351"/>
-      <c r="D68" s="351"/>
-      <c r="E68" s="351"/>
-      <c r="F68" s="351"/>
-      <c r="G68" s="351"/>
-      <c r="H68" s="351"/>
-      <c r="I68" s="351"/>
-      <c r="J68" s="351"/>
-      <c r="K68" s="351"/>
-      <c r="L68" s="352"/>
-    </row>
-    <row r="69" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A69" s="246" t="s">
-        <v>445</v>
-      </c>
-      <c r="B69" s="241"/>
-      <c r="C69" s="241"/>
-      <c r="D69" s="241"/>
-      <c r="E69" s="241"/>
-      <c r="F69" s="241"/>
-      <c r="G69" s="241"/>
-      <c r="H69" s="241"/>
-      <c r="I69" s="241"/>
-      <c r="J69" s="241"/>
-      <c r="K69" s="241"/>
-      <c r="L69" s="242"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="246" t="s">
-        <v>440</v>
-      </c>
-      <c r="B70" s="241"/>
-      <c r="C70" s="241"/>
-      <c r="D70" s="241"/>
-      <c r="E70" s="241"/>
-      <c r="F70" s="241"/>
-      <c r="G70" s="241"/>
-      <c r="H70" s="241"/>
-      <c r="I70" s="241"/>
-      <c r="J70" s="241"/>
-      <c r="K70" s="241"/>
-      <c r="L70" s="242"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="246" t="s">
-        <v>438</v>
-      </c>
-      <c r="B71" s="241"/>
-      <c r="C71" s="241"/>
-      <c r="D71" s="241"/>
-      <c r="E71" s="241"/>
-      <c r="F71" s="241"/>
-      <c r="G71" s="241"/>
-      <c r="H71" s="241"/>
-      <c r="I71" s="241"/>
-      <c r="J71" s="241"/>
-      <c r="K71" s="241"/>
-      <c r="L71" s="242"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="246" t="s">
-        <v>439</v>
-      </c>
-      <c r="B72" s="241"/>
-      <c r="C72" s="241"/>
-      <c r="D72" s="241"/>
-      <c r="E72" s="241"/>
-      <c r="F72" s="241"/>
-      <c r="G72" s="241"/>
-      <c r="H72" s="241"/>
-      <c r="I72" s="241"/>
-      <c r="J72" s="241"/>
-      <c r="K72" s="241"/>
-      <c r="L72" s="242"/>
+      <c r="B72" s="247"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="247"/>
+      <c r="E72" s="247"/>
+      <c r="F72" s="247"/>
+      <c r="G72" s="247"/>
+      <c r="H72" s="247"/>
+      <c r="I72" s="247"/>
+      <c r="J72" s="247"/>
+      <c r="K72" s="247"/>
+      <c r="L72" s="248"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <mergeCells count="70">
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A45:L45"/>
     <mergeCell ref="A69:L69"/>
     <mergeCell ref="A70:L70"/>
     <mergeCell ref="A71:L71"/>
@@ -5713,20 +5779,47 @@
     <mergeCell ref="A60:L60"/>
     <mergeCell ref="A64:L64"/>
     <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5738,7 +5831,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="A11 A12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5813,135 +5906,261 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="54.875" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:3" ht="30">
       <c r="A1" s="236" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="235" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="235" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
         <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5956,7 +6175,7 @@
   </sheetPr>
   <dimension ref="A1:AH181"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -5995,88 +6214,88 @@
       <c r="B2" s="147"/>
       <c r="C2" s="147"/>
       <c r="D2" s="148"/>
-      <c r="E2" s="272" t="s">
+      <c r="E2" s="275" t="s">
         <v>392</v>
       </c>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="272"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
       <c r="P2" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="263" t="s">
+      <c r="Q2" s="266" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="264"/>
-      <c r="U2" s="264"/>
-      <c r="V2" s="265"/>
+      <c r="R2" s="267"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="267"/>
+      <c r="U2" s="267"/>
+      <c r="V2" s="268"/>
     </row>
     <row r="3" spans="1:34" ht="23.25" customHeight="1">
       <c r="A3" s="150" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B3" s="151"/>
       <c r="C3" s="151"/>
       <c r="D3" s="152"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="276"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="276"/>
       <c r="P3" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="266" t="s">
+      <c r="Q3" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="267"/>
-      <c r="S3" s="267"/>
-      <c r="T3" s="267"/>
-      <c r="U3" s="267"/>
-      <c r="V3" s="268"/>
+      <c r="R3" s="270"/>
+      <c r="S3" s="270"/>
+      <c r="T3" s="270"/>
+      <c r="U3" s="270"/>
+      <c r="V3" s="271"/>
     </row>
     <row r="4" spans="1:34" s="154" customFormat="1" ht="20.25">
-      <c r="A4" s="269" t="s">
+      <c r="A4" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="270"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="269" t="s">
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
-      <c r="K4" s="270"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-      <c r="N4" s="270"/>
-      <c r="O4" s="270"/>
-      <c r="P4" s="270"/>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="270"/>
-      <c r="S4" s="270"/>
-      <c r="T4" s="270"/>
-      <c r="U4" s="270"/>
-      <c r="V4" s="271"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="273"/>
+      <c r="S4" s="273"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="273"/>
+      <c r="V4" s="274"/>
     </row>
     <row r="5" spans="1:34" ht="12" customHeight="1">
       <c r="A5" s="155"/>
@@ -9672,7 +9891,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
           <x14:formula1>
-            <xm:f>'Aufgaben+Tätigkeiten'!$B$3:$B$22</xm:f>
+            <xm:f>'Aufgaben+Tätigkeiten'!$B$3:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>D7:D41</xm:sqref>
         </x14:dataValidation>
@@ -9689,8 +9908,8 @@
   </sheetPr>
   <dimension ref="A1:CA104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
@@ -9837,12 +10056,12 @@
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="R3" s="282" t="s">
+      <c r="R3" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="282"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
+      <c r="S3" s="289"/>
+      <c r="T3" s="289"/>
+      <c r="U3" s="289"/>
       <c r="W3" s="112" t="s">
         <v>25</v>
       </c>
@@ -9856,19 +10075,19 @@
       <c r="AD3" s="113"/>
     </row>
     <row r="4" spans="1:79" s="69" customFormat="1" ht="18">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="295" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="291"/>
-      <c r="C4" s="292"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="297"/>
       <c r="D4" s="198"/>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="302"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="282"/>
       <c r="J4" s="98"/>
       <c r="R4" s="99" t="s">
         <v>30</v>
@@ -9897,21 +10116,21 @@
       <c r="AB4" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="283" t="s">
+      <c r="AC4" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="284"/>
+      <c r="AD4" s="291"/>
     </row>
     <row r="5" spans="1:79" s="69" customFormat="1" ht="18">
-      <c r="A5" s="293"/>
-      <c r="B5" s="294"/>
-      <c r="C5" s="295"/>
+      <c r="A5" s="298"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="300"/>
       <c r="D5" s="199"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="305"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284"/>
+      <c r="H5" s="284"/>
+      <c r="I5" s="285"/>
       <c r="J5" s="100"/>
       <c r="R5" s="101" t="s">
         <v>38</v>
@@ -9941,15 +10160,15 @@
       <c r="AB5" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="283" t="s">
+      <c r="AC5" s="290" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="284"/>
+      <c r="AD5" s="291"/>
     </row>
     <row r="6" spans="1:79" ht="18">
-      <c r="A6" s="296"/>
-      <c r="B6" s="297"/>
-      <c r="C6" s="298"/>
+      <c r="A6" s="301"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="303"/>
       <c r="D6" s="200"/>
       <c r="E6" s="128" t="s">
         <v>44</v>
@@ -9995,10 +10214,10 @@
     </row>
     <row r="7" spans="1:79" ht="18">
       <c r="A7" s="201"/>
-      <c r="B7" s="289" t="s">
+      <c r="B7" s="294" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="289"/>
+      <c r="C7" s="294"/>
       <c r="D7" s="204" t="s">
         <v>390</v>
       </c>
@@ -10036,10 +10255,10 @@
       <c r="A8" s="203" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="287" t="s">
+      <c r="B8" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="288"/>
+      <c r="C8" s="293"/>
       <c r="D8" s="209" t="s">
         <v>52</v>
       </c>
@@ -10089,10 +10308,10 @@
       <c r="A9" s="81">
         <v>4</v>
       </c>
-      <c r="B9" s="285" t="s">
+      <c r="B9" s="277" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="286"/>
+      <c r="C9" s="278"/>
       <c r="D9" s="209" t="s">
         <v>58</v>
       </c>
@@ -10142,10 +10361,10 @@
       <c r="A10" s="81">
         <v>3</v>
       </c>
-      <c r="B10" s="285" t="s">
+      <c r="B10" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="286"/>
+      <c r="C10" s="278"/>
       <c r="D10" s="209" t="s">
         <v>62</v>
       </c>
@@ -10181,10 +10400,10 @@
       <c r="A11" s="81">
         <v>2</v>
       </c>
-      <c r="B11" s="285" t="s">
+      <c r="B11" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="286"/>
+      <c r="C11" s="278"/>
       <c r="D11" s="209" t="s">
         <v>67</v>
       </c>
@@ -10200,12 +10419,12 @@
         <v>54</v>
       </c>
       <c r="J11" s="66"/>
-      <c r="R11" s="299" t="s">
+      <c r="R11" s="279" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="299"/>
-      <c r="T11" s="299"/>
-      <c r="U11" s="299"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="279"/>
+      <c r="U11" s="279"/>
       <c r="W11" s="120">
         <v>2</v>
       </c>
@@ -10224,10 +10443,10 @@
       <c r="A12" s="81">
         <v>1</v>
       </c>
-      <c r="B12" s="285" t="s">
+      <c r="B12" s="277" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="286"/>
+      <c r="C12" s="278"/>
       <c r="D12" s="212" t="s">
         <v>42</v>
       </c>
@@ -10241,10 +10460,10 @@
         <v>59</v>
       </c>
       <c r="J12" s="66"/>
-      <c r="R12" s="299"/>
-      <c r="S12" s="299"/>
-      <c r="T12" s="299"/>
-      <c r="U12" s="299"/>
+      <c r="R12" s="279"/>
+      <c r="S12" s="279"/>
+      <c r="T12" s="279"/>
+      <c r="U12" s="279"/>
       <c r="W12" s="120">
         <v>2</v>
       </c>
@@ -10263,8 +10482,8 @@
       <c r="A13" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="306"/>
-      <c r="C13" s="307"/>
+      <c r="B13" s="287"/>
+      <c r="C13" s="288"/>
       <c r="D13" s="208"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
@@ -10272,10 +10491,10 @@
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
       <c r="J13" s="66"/>
-      <c r="R13" s="299"/>
-      <c r="S13" s="299"/>
-      <c r="T13" s="299"/>
-      <c r="U13" s="299"/>
+      <c r="R13" s="279"/>
+      <c r="S13" s="279"/>
+      <c r="T13" s="279"/>
+      <c r="U13" s="279"/>
       <c r="W13" s="120">
         <v>2</v>
       </c>
@@ -10303,10 +10522,10 @@
       <c r="H14" s="219"/>
       <c r="I14" s="219"/>
       <c r="J14" s="66"/>
-      <c r="R14" s="299"/>
-      <c r="S14" s="299"/>
-      <c r="T14" s="299"/>
-      <c r="U14" s="299"/>
+      <c r="R14" s="279"/>
+      <c r="S14" s="279"/>
+      <c r="T14" s="279"/>
+      <c r="U14" s="279"/>
       <c r="W14" s="120">
         <v>2</v>
       </c>
@@ -10346,10 +10565,10 @@
         <v>401</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="R15" s="299"/>
-      <c r="S15" s="299"/>
-      <c r="T15" s="299"/>
-      <c r="U15" s="299"/>
+      <c r="R15" s="279"/>
+      <c r="S15" s="279"/>
+      <c r="T15" s="279"/>
+      <c r="U15" s="279"/>
       <c r="W15" s="120">
         <v>3</v>
       </c>
@@ -10368,10 +10587,10 @@
       <c r="A16" s="220">
         <v>5</v>
       </c>
-      <c r="B16" s="280" t="s">
+      <c r="B16" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="280"/>
+      <c r="C16" s="286"/>
       <c r="D16" s="104" t="s">
         <v>387</v>
       </c>
@@ -10415,10 +10634,10 @@
       <c r="A17" s="220">
         <v>4</v>
       </c>
-      <c r="B17" s="280" t="s">
+      <c r="B17" s="286" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="280"/>
+      <c r="C17" s="286"/>
       <c r="D17" s="104" t="s">
         <v>388</v>
       </c>
@@ -10460,10 +10679,10 @@
       <c r="A18" s="220">
         <v>3</v>
       </c>
-      <c r="B18" s="280" t="s">
+      <c r="B18" s="286" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="280"/>
+      <c r="C18" s="286"/>
       <c r="D18" s="216"/>
       <c r="E18" s="216"/>
       <c r="F18" s="216"/>
@@ -10495,18 +10714,18 @@
       <c r="A19" s="220">
         <v>2</v>
       </c>
-      <c r="B19" s="280" t="s">
+      <c r="B19" s="286" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="280"/>
-      <c r="D19" s="279" t="s">
+      <c r="C19" s="286"/>
+      <c r="D19" s="307" t="s">
         <v>402</v>
       </c>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="307"/>
+      <c r="I19" s="307"/>
       <c r="J19" s="66"/>
       <c r="R19" s="109" t="s">
         <v>79</v>
@@ -10532,16 +10751,16 @@
       <c r="A20" s="220">
         <v>1</v>
       </c>
-      <c r="B20" s="280" t="s">
+      <c r="B20" s="286" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="280"/>
-      <c r="D20" s="279"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="279"/>
+      <c r="C20" s="286"/>
+      <c r="D20" s="307"/>
+      <c r="E20" s="307"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="307"/>
+      <c r="H20" s="307"/>
+      <c r="I20" s="307"/>
       <c r="J20" s="66"/>
       <c r="R20" s="109" t="s">
         <v>81</v>
@@ -10567,12 +10786,12 @@
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
+      <c r="D21" s="307"/>
+      <c r="E21" s="307"/>
+      <c r="F21" s="307"/>
+      <c r="G21" s="307"/>
+      <c r="H21" s="307"/>
+      <c r="I21" s="307"/>
       <c r="J21" s="66"/>
       <c r="W21" s="120">
         <v>4</v>
@@ -10594,12 +10813,12 @@
       </c>
       <c r="B22" s="225"/>
       <c r="C22" s="225"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="279"/>
+      <c r="D22" s="307"/>
+      <c r="E22" s="307"/>
+      <c r="F22" s="307"/>
+      <c r="G22" s="307"/>
+      <c r="H22" s="307"/>
+      <c r="I22" s="307"/>
       <c r="J22" s="66"/>
       <c r="W22" s="120">
         <v>4</v>
@@ -10619,16 +10838,16 @@
       <c r="A23" s="223">
         <v>5</v>
       </c>
-      <c r="B23" s="278" t="s">
+      <c r="B23" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="278"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="279"/>
+      <c r="C23" s="306"/>
+      <c r="D23" s="307"/>
+      <c r="E23" s="307"/>
+      <c r="F23" s="307"/>
+      <c r="G23" s="307"/>
+      <c r="H23" s="307"/>
+      <c r="I23" s="307"/>
       <c r="J23" s="66"/>
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
@@ -10652,16 +10871,16 @@
       <c r="A24" s="223">
         <v>3</v>
       </c>
-      <c r="B24" s="278" t="s">
+      <c r="B24" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="278"/>
-      <c r="D24" s="279"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
+      <c r="C24" s="306"/>
+      <c r="D24" s="307"/>
+      <c r="E24" s="307"/>
+      <c r="F24" s="307"/>
+      <c r="G24" s="307"/>
+      <c r="H24" s="307"/>
+      <c r="I24" s="307"/>
       <c r="J24" s="66"/>
       <c r="W24" s="120">
         <v>4</v>
@@ -10681,16 +10900,16 @@
       <c r="A25" s="223">
         <v>1</v>
       </c>
-      <c r="B25" s="278" t="s">
+      <c r="B25" s="306" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="278"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
+      <c r="C25" s="306"/>
+      <c r="D25" s="307"/>
+      <c r="E25" s="307"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="307"/>
+      <c r="H25" s="307"/>
+      <c r="I25" s="307"/>
       <c r="J25" s="66"/>
       <c r="W25" s="120">
         <v>5</v>
@@ -10710,12 +10929,12 @@
       <c r="A26" s="233"/>
       <c r="B26" s="233"/>
       <c r="C26" s="233"/>
-      <c r="D26" s="279"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="279"/>
-      <c r="I26" s="279"/>
+      <c r="D26" s="307"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="307"/>
+      <c r="H26" s="307"/>
+      <c r="I26" s="307"/>
       <c r="J26" s="66"/>
       <c r="W26" s="120"/>
       <c r="X26" s="112"/>
@@ -10726,12 +10945,12 @@
       <c r="A27" s="233"/>
       <c r="B27" s="233"/>
       <c r="C27" s="233"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
+      <c r="D27" s="307"/>
+      <c r="E27" s="307"/>
+      <c r="F27" s="307"/>
+      <c r="G27" s="307"/>
+      <c r="H27" s="307"/>
+      <c r="I27" s="307"/>
       <c r="J27" s="66"/>
       <c r="W27" s="120"/>
       <c r="X27" s="112"/>
@@ -10742,12 +10961,12 @@
       <c r="A28" s="233"/>
       <c r="B28" s="233"/>
       <c r="C28" s="233"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
+      <c r="D28" s="307"/>
+      <c r="E28" s="307"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="307"/>
+      <c r="H28" s="307"/>
+      <c r="I28" s="307"/>
       <c r="J28" s="66"/>
       <c r="W28" s="120"/>
       <c r="X28" s="112"/>
@@ -10758,12 +10977,12 @@
       <c r="A29" s="233"/>
       <c r="B29" s="233"/>
       <c r="C29" s="233"/>
-      <c r="D29" s="281"/>
-      <c r="E29" s="281"/>
-      <c r="F29" s="281"/>
-      <c r="G29" s="281"/>
-      <c r="H29" s="281"/>
-      <c r="I29" s="281"/>
+      <c r="D29" s="308"/>
+      <c r="E29" s="308"/>
+      <c r="F29" s="308"/>
+      <c r="G29" s="308"/>
+      <c r="H29" s="308"/>
+      <c r="I29" s="308"/>
       <c r="J29" s="66"/>
       <c r="W29" s="120"/>
       <c r="X29" s="112"/>
@@ -10835,10 +11054,10 @@
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1">
       <c r="A32" s="90"/>
-      <c r="B32" s="276" t="s">
+      <c r="B32" s="310" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="276"/>
+      <c r="C32" s="310"/>
       <c r="D32" s="205" t="s">
         <v>85</v>
       </c>
@@ -10874,21 +11093,21 @@
       <c r="A33" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="275" t="s">
+      <c r="B33" s="304" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="275"/>
+      <c r="C33" s="304"/>
       <c r="D33" s="197" t="s">
         <v>381</v>
       </c>
-      <c r="E33" s="275"/>
-      <c r="F33" s="275"/>
-      <c r="G33" s="275"/>
-      <c r="H33" s="275"/>
-      <c r="I33" s="275"/>
-      <c r="J33" s="275"/>
-      <c r="K33" s="275"/>
-      <c r="L33" s="275"/>
+      <c r="E33" s="304"/>
+      <c r="F33" s="304"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="304"/>
+      <c r="J33" s="304"/>
+      <c r="K33" s="304"/>
+      <c r="L33" s="304"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -10911,55 +11130,55 @@
       <c r="A34" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="275" t="s">
+      <c r="B34" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="275"/>
+      <c r="C34" s="304"/>
       <c r="D34" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="E34" s="275" t="s">
+      <c r="E34" s="304" t="s">
         <v>384</v>
       </c>
-      <c r="F34" s="275"/>
-      <c r="G34" s="275"/>
-      <c r="H34" s="275"/>
-      <c r="I34" s="275"/>
-      <c r="J34" s="275"/>
-      <c r="K34" s="275"/>
-      <c r="L34" s="275"/>
+      <c r="F34" s="304"/>
+      <c r="G34" s="304"/>
+      <c r="H34" s="304"/>
+      <c r="I34" s="304"/>
+      <c r="J34" s="304"/>
+      <c r="K34" s="304"/>
+      <c r="L34" s="304"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="R34" s="274" t="s">
+      <c r="R34" s="309" t="s">
         <v>89</v>
       </c>
-      <c r="S34" s="274"/>
-      <c r="T34" s="274"/>
-      <c r="U34" s="274"/>
+      <c r="S34" s="309"/>
+      <c r="T34" s="309"/>
+      <c r="U34" s="309"/>
     </row>
     <row r="35" spans="1:47" ht="218.25" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="275" t="s">
+      <c r="B35" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="275"/>
+      <c r="C35" s="304"/>
       <c r="D35" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="275" t="s">
+      <c r="E35" s="304" t="s">
         <v>385</v>
       </c>
-      <c r="F35" s="275"/>
-      <c r="G35" s="275"/>
-      <c r="H35" s="275"/>
-      <c r="I35" s="275"/>
-      <c r="J35" s="275"/>
-      <c r="K35" s="275"/>
-      <c r="L35" s="275"/>
+      <c r="F35" s="304"/>
+      <c r="G35" s="304"/>
+      <c r="H35" s="304"/>
+      <c r="I35" s="304"/>
+      <c r="J35" s="304"/>
+      <c r="K35" s="304"/>
+      <c r="L35" s="304"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -10969,21 +11188,21 @@
       <c r="A36" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="275" t="s">
+      <c r="B36" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="277"/>
+      <c r="C36" s="305"/>
       <c r="D36" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="275"/>
-      <c r="J36" s="275"/>
-      <c r="K36" s="275"/>
-      <c r="L36" s="275"/>
+      <c r="E36" s="304"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="304"/>
+      <c r="H36" s="304"/>
+      <c r="I36" s="304"/>
+      <c r="J36" s="304"/>
+      <c r="K36" s="304"/>
+      <c r="L36" s="304"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -12803,23 +13022,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="R11:U15"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:L36"/>
     <mergeCell ref="E33:L33"/>
@@ -12831,11 +13038,23 @@
     <mergeCell ref="D19:I28"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D29:I29"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R11:U15"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39305555555555599" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.196527777777778"/>
@@ -12871,23 +13090,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="311" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
@@ -12918,11 +13137,11 @@
       <c r="B6" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="310" t="s">
+      <c r="C6" s="313" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
@@ -12934,11 +13153,11 @@
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="C8" s="312" t="s">
+      <c r="C8" s="315" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="312"/>
-      <c r="E8" s="312"/>
+      <c r="D8" s="315"/>
+      <c r="E8" s="315"/>
       <c r="F8" s="55"/>
       <c r="G8" s="31"/>
     </row>
@@ -14108,29 +14327,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="311" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="C3" s="32"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="34" t="s">
@@ -14140,9 +14359,9 @@
         <v>96</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="38" t="s">
@@ -14173,7 +14392,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="314" t="s">
+      <c r="A9" s="329" t="s">
         <v>299</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -14181,7 +14400,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="315"/>
+      <c r="A10" s="330"/>
       <c r="B10" s="2" t="s">
         <v>301</v>
       </c>
@@ -14417,17 +14636,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14483,19 +14702,19 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="23.25">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="348" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="328"/>
+      <c r="B4" s="348"/>
+      <c r="C4" s="348"/>
+      <c r="D4" s="348"/>
+      <c r="E4" s="348"/>
+      <c r="F4" s="348"/>
+      <c r="G4" s="348"/>
+      <c r="H4" s="348"/>
+      <c r="I4" s="348"/>
+      <c r="J4" s="348"/>
+      <c r="K4" s="348"/>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -14513,10 +14732,10 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="141" customHeight="1">
-      <c r="A6" s="329" t="s">
+      <c r="A6" s="332" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="330"/>
+      <c r="B6" s="333"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>345</v>
@@ -14526,18 +14745,18 @@
         <v>346</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="331" t="s">
+      <c r="H6" s="349" t="s">
         <v>347</v>
       </c>
-      <c r="I6" s="332"/>
-      <c r="J6" s="333"/>
+      <c r="I6" s="350"/>
+      <c r="J6" s="351"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="342" t="s">
+      <c r="L6" s="331" t="s">
         <v>348</v>
       </c>
-      <c r="M6" s="329"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="330"/>
+      <c r="M6" s="332"/>
+      <c r="N6" s="332"/>
+      <c r="O6" s="333"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="23.25">
       <c r="A7" s="11"/>
@@ -14557,25 +14776,25 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="335" t="s">
+      <c r="D8" s="342" t="s">
         <v>349</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G8" s="341" t="s">
+      <c r="G8" s="347" t="s">
         <v>351</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="334" t="s">
+      <c r="J8" s="346" t="s">
         <v>352</v>
       </c>
-      <c r="K8" s="338" t="s">
+      <c r="K8" s="341" t="s">
         <v>351</v>
       </c>
-      <c r="L8" s="334" t="s">
+      <c r="L8" s="346" t="s">
         <v>353</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -14589,16 +14808,16 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="336"/>
+      <c r="D9" s="343"/>
       <c r="E9" s="11"/>
       <c r="F9" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="G9" s="341"/>
+      <c r="G9" s="347"/>
       <c r="H9" s="19"/>
-      <c r="J9" s="334"/>
-      <c r="K9" s="338"/>
-      <c r="L9" s="334"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="341"/>
+      <c r="L9" s="346"/>
       <c r="N9" s="27" t="s">
         <v>16</v>
       </c>
@@ -14610,17 +14829,17 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="336"/>
+      <c r="D10" s="343"/>
       <c r="E10" s="11"/>
       <c r="F10" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="341"/>
+      <c r="G10" s="347"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="334"/>
-      <c r="K10" s="338"/>
-      <c r="L10" s="334"/>
+      <c r="J10" s="346"/>
+      <c r="K10" s="341"/>
+      <c r="L10" s="346"/>
       <c r="N10" s="27" t="s">
         <v>17</v>
       </c>
@@ -14632,15 +14851,15 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="336"/>
+      <c r="D11" s="343"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="341"/>
+      <c r="G11" s="347"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="334"/>
-      <c r="K11" s="338"/>
-      <c r="L11" s="334"/>
+      <c r="J11" s="346"/>
+      <c r="K11" s="341"/>
+      <c r="L11" s="346"/>
       <c r="N11" s="27" t="s">
         <v>18</v>
       </c>
@@ -14656,15 +14875,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="337"/>
+      <c r="D12" s="344"/>
       <c r="E12" s="11"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="341"/>
+      <c r="G12" s="347"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="334"/>
-      <c r="K12" s="338"/>
-      <c r="L12" s="334"/>
+      <c r="J12" s="346"/>
+      <c r="K12" s="341"/>
+      <c r="L12" s="346"/>
       <c r="N12" s="27" t="s">
         <v>19</v>
       </c>
@@ -14700,27 +14919,27 @@
         <v>9</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="334" t="s">
+      <c r="D14" s="346" t="s">
         <v>345</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="350" t="s">
+      <c r="G14" s="345" t="s">
         <v>351</v>
       </c>
-      <c r="H14" s="335" t="s">
+      <c r="H14" s="342" t="s">
         <v>356</v>
       </c>
-      <c r="I14" s="340" t="s">
+      <c r="I14" s="353" t="s">
         <v>351</v>
       </c>
-      <c r="J14" s="349" t="s">
+      <c r="J14" s="340" t="s">
         <v>357</v>
       </c>
-      <c r="K14" s="338" t="s">
+      <c r="K14" s="341" t="s">
         <v>351</v>
       </c>
-      <c r="L14" s="349" t="s">
+      <c r="L14" s="340" t="s">
         <v>353</v>
       </c>
       <c r="N14" s="27" t="s">
@@ -14738,17 +14957,17 @@
         <v>9</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="334"/>
+      <c r="D15" s="346"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G15" s="350"/>
-      <c r="H15" s="336"/>
-      <c r="I15" s="340"/>
-      <c r="J15" s="349"/>
-      <c r="K15" s="338"/>
-      <c r="L15" s="349"/>
+      <c r="G15" s="345"/>
+      <c r="H15" s="343"/>
+      <c r="I15" s="353"/>
+      <c r="J15" s="340"/>
+      <c r="K15" s="341"/>
+      <c r="L15" s="340"/>
       <c r="N15" s="27" t="s">
         <v>16</v>
       </c>
@@ -14764,17 +14983,17 @@
         <v>9</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="334"/>
+      <c r="D16" s="346"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="G16" s="350"/>
-      <c r="H16" s="336"/>
-      <c r="I16" s="340"/>
-      <c r="J16" s="349"/>
-      <c r="K16" s="338"/>
-      <c r="L16" s="349"/>
+      <c r="G16" s="345"/>
+      <c r="H16" s="343"/>
+      <c r="I16" s="353"/>
+      <c r="J16" s="340"/>
+      <c r="K16" s="341"/>
+      <c r="L16" s="340"/>
       <c r="N16" s="27" t="s">
         <v>17</v>
       </c>
@@ -14783,22 +15002,22 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="343" t="s">
+      <c r="A17" s="334" t="s">
         <v>359</v>
       </c>
-      <c r="B17" s="344"/>
+      <c r="B17" s="335"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="334"/>
+      <c r="D17" s="346"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="G17" s="350"/>
-      <c r="H17" s="336"/>
-      <c r="I17" s="340"/>
-      <c r="J17" s="349"/>
-      <c r="K17" s="338"/>
-      <c r="L17" s="349"/>
+      <c r="G17" s="345"/>
+      <c r="H17" s="343"/>
+      <c r="I17" s="353"/>
+      <c r="J17" s="340"/>
+      <c r="K17" s="341"/>
+      <c r="L17" s="340"/>
       <c r="N17" s="27" t="s">
         <v>18</v>
       </c>
@@ -14807,20 +15026,20 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="345"/>
-      <c r="B18" s="346"/>
+      <c r="A18" s="336"/>
+      <c r="B18" s="337"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="334"/>
+      <c r="D18" s="346"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="G18" s="350"/>
-      <c r="H18" s="336"/>
-      <c r="I18" s="340"/>
-      <c r="J18" s="349"/>
-      <c r="K18" s="338"/>
-      <c r="L18" s="349"/>
+      <c r="G18" s="345"/>
+      <c r="H18" s="343"/>
+      <c r="I18" s="353"/>
+      <c r="J18" s="340"/>
+      <c r="K18" s="341"/>
+      <c r="L18" s="340"/>
       <c r="M18" s="18"/>
       <c r="N18" s="27" t="s">
         <v>19</v>
@@ -14830,42 +15049,42 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="345"/>
-      <c r="B19" s="346"/>
+      <c r="A19" s="336"/>
+      <c r="B19" s="337"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="334"/>
+      <c r="D19" s="346"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="G19" s="350"/>
-      <c r="H19" s="336"/>
+      <c r="G19" s="345"/>
+      <c r="H19" s="343"/>
       <c r="I19" s="18"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="345"/>
-      <c r="B20" s="346"/>
+      <c r="A20" s="336"/>
+      <c r="B20" s="337"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="334"/>
+      <c r="D20" s="346"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="G20" s="350"/>
-      <c r="H20" s="336"/>
-      <c r="I20" s="341" t="s">
+      <c r="G20" s="345"/>
+      <c r="H20" s="343"/>
+      <c r="I20" s="347" t="s">
         <v>351</v>
       </c>
-      <c r="J20" s="349" t="s">
+      <c r="J20" s="340" t="s">
         <v>364</v>
       </c>
-      <c r="K20" s="339" t="s">
+      <c r="K20" s="352" t="s">
         <v>351</v>
       </c>
-      <c r="L20" s="349" t="s">
+      <c r="L20" s="340" t="s">
         <v>365</v>
       </c>
       <c r="N20" s="27" t="s">
@@ -14876,20 +15095,20 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="347"/>
-      <c r="B21" s="348"/>
+      <c r="A21" s="338"/>
+      <c r="B21" s="339"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="334"/>
+      <c r="D21" s="346"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="G21" s="350"/>
-      <c r="H21" s="336"/>
-      <c r="I21" s="341"/>
-      <c r="J21" s="349"/>
-      <c r="K21" s="339"/>
-      <c r="L21" s="349"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="343"/>
+      <c r="I21" s="347"/>
+      <c r="J21" s="340"/>
+      <c r="K21" s="352"/>
+      <c r="L21" s="340"/>
       <c r="N21" s="27" t="s">
         <v>16</v>
       </c>
@@ -14901,17 +15120,17 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="334"/>
+      <c r="D22" s="346"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="G22" s="350"/>
-      <c r="H22" s="336"/>
-      <c r="I22" s="341"/>
-      <c r="J22" s="349"/>
-      <c r="K22" s="339"/>
-      <c r="L22" s="349"/>
+      <c r="G22" s="345"/>
+      <c r="H22" s="343"/>
+      <c r="I22" s="347"/>
+      <c r="J22" s="340"/>
+      <c r="K22" s="352"/>
+      <c r="L22" s="340"/>
       <c r="N22" s="27" t="s">
         <v>17</v>
       </c>
@@ -14923,17 +15142,17 @@
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="334"/>
+      <c r="D23" s="346"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="G23" s="350"/>
-      <c r="H23" s="336"/>
-      <c r="I23" s="341"/>
-      <c r="J23" s="349"/>
-      <c r="K23" s="339"/>
-      <c r="L23" s="349"/>
+      <c r="G23" s="345"/>
+      <c r="H23" s="343"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="340"/>
+      <c r="K23" s="352"/>
+      <c r="L23" s="340"/>
       <c r="N23" s="27" t="s">
         <v>18</v>
       </c>
@@ -14945,15 +15164,15 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="334"/>
+      <c r="D24" s="346"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="350"/>
-      <c r="H24" s="337"/>
-      <c r="I24" s="341"/>
-      <c r="J24" s="349"/>
-      <c r="K24" s="339"/>
-      <c r="L24" s="349"/>
+      <c r="G24" s="345"/>
+      <c r="H24" s="344"/>
+      <c r="I24" s="347"/>
+      <c r="J24" s="340"/>
+      <c r="K24" s="352"/>
+      <c r="L24" s="340"/>
       <c r="N24" s="27" t="s">
         <v>19</v>
       </c>
@@ -14982,6 +15201,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I20:I24"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="A17:B21"/>
     <mergeCell ref="J14:J18"/>
@@ -14993,16 +15222,6 @@
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="L20:L24"/>
     <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I20:I24"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.78680555555555598" bottom="0.39305555555555599" header="0.31388888888888899" footer="0.31388888888888899"/>

--- a/RB-Blessing/CE-Beurteilung.xlsx
+++ b/RB-Blessing/CE-Beurteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCF97E5-2E24-46E5-B61A-68B3862A0B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C0C4E5-D77B-40AD-922B-B389B4EF81B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grenzen der Maschine" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="544">
   <si>
     <t>Betriebsarten:</t>
   </si>
@@ -3794,16 +3794,59 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3818,20 +3861,32 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3858,58 +3913,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3943,28 +3946,46 @@
     <xf numFmtId="49" fontId="22" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3975,12 +3996,6 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4030,38 +4045,26 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4078,6 +4081,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4087,51 +4126,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4141,59 +4189,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4451,14 +4451,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4852,384 +4852,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="263" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="286"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="265"/>
     </row>
     <row r="2" spans="1:12" s="201" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="265"/>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="267"/>
+      <c r="A2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="271"/>
     </row>
     <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="272" t="s">
         <v>415</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="263"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="274"/>
     </row>
     <row r="4" spans="1:12" ht="37.5" customHeight="1">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="260" t="s">
         <v>470</v>
       </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="267"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="258"/>
-      <c r="B5" s="259"/>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="259"/>
-      <c r="G5" s="259"/>
-      <c r="H5" s="259"/>
-      <c r="I5" s="259"/>
-      <c r="J5" s="259"/>
-      <c r="K5" s="259"/>
-      <c r="L5" s="260"/>
+      <c r="A5" s="268"/>
+      <c r="B5" s="266"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="266"/>
+      <c r="J5" s="266"/>
+      <c r="K5" s="266"/>
+      <c r="L5" s="267"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="282" t="s">
+      <c r="A6" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="262"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="263"/>
+      <c r="B6" s="273"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="273"/>
+      <c r="K6" s="273"/>
+      <c r="L6" s="274"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="259" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="283"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="259"/>
+      <c r="I7" s="259"/>
+      <c r="J7" s="259"/>
+      <c r="K7" s="259"/>
+      <c r="L7" s="259"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="264" t="s">
+      <c r="A8" s="260" t="s">
         <v>445</v>
       </c>
-      <c r="B8" s="259"/>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="260"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="266"/>
+      <c r="J8" s="266"/>
+      <c r="K8" s="266"/>
+      <c r="L8" s="267"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="264" t="s">
+      <c r="A9" s="260" t="s">
         <v>446</v>
       </c>
-      <c r="B9" s="274"/>
-      <c r="C9" s="274"/>
-      <c r="D9" s="274"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="274"/>
-      <c r="G9" s="274"/>
-      <c r="H9" s="274"/>
-      <c r="I9" s="274"/>
-      <c r="J9" s="274"/>
-      <c r="K9" s="274"/>
-      <c r="L9" s="275"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="262"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="260" t="s">
         <v>447</v>
       </c>
-      <c r="B10" s="259"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="259"/>
-      <c r="K10" s="259"/>
-      <c r="L10" s="260"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
+      <c r="J10" s="266"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="267"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="258"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="260"/>
+      <c r="A11" s="268"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="267"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="282" t="s">
+      <c r="A12" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="262"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="262"/>
-      <c r="G12" s="262"/>
-      <c r="H12" s="262"/>
-      <c r="I12" s="262"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="262"/>
-      <c r="L12" s="263"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="273"/>
+      <c r="I12" s="273"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="273"/>
+      <c r="L12" s="274"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A13" s="264" t="s">
+      <c r="A13" s="260" t="s">
         <v>440</v>
       </c>
-      <c r="B13" s="259"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
-      <c r="K13" s="259"/>
-      <c r="L13" s="260"/>
+      <c r="B13" s="266"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="266"/>
+      <c r="H13" s="266"/>
+      <c r="I13" s="266"/>
+      <c r="J13" s="266"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="267"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="264" t="s">
+      <c r="A14" s="260" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="259"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="259"/>
-      <c r="J14" s="259"/>
-      <c r="K14" s="259"/>
-      <c r="L14" s="260"/>
+      <c r="B14" s="266"/>
+      <c r="C14" s="266"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="266"/>
+      <c r="H14" s="266"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="266"/>
+      <c r="K14" s="266"/>
+      <c r="L14" s="267"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="264"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="259"/>
-      <c r="J15" s="259"/>
-      <c r="K15" s="259"/>
-      <c r="L15" s="260"/>
+      <c r="A15" s="260"/>
+      <c r="B15" s="266"/>
+      <c r="C15" s="266"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="267"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="258"/>
-      <c r="B16" s="259"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="259"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="259"/>
-      <c r="K16" s="259"/>
-      <c r="L16" s="260"/>
+      <c r="A16" s="268"/>
+      <c r="B16" s="266"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="266"/>
+      <c r="L16" s="267"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="258"/>
-      <c r="B17" s="259"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="259"/>
-      <c r="G17" s="259"/>
-      <c r="H17" s="259"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="259"/>
-      <c r="K17" s="259"/>
-      <c r="L17" s="260"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="266"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="266"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="266"/>
+      <c r="H17" s="266"/>
+      <c r="I17" s="266"/>
+      <c r="J17" s="266"/>
+      <c r="K17" s="266"/>
+      <c r="L17" s="267"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="258"/>
-      <c r="B18" s="259"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="259"/>
-      <c r="G18" s="259"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="259"/>
-      <c r="K18" s="259"/>
-      <c r="L18" s="260"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="266"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="266"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="266"/>
+      <c r="K18" s="266"/>
+      <c r="L18" s="267"/>
     </row>
     <row r="19" spans="1:13" s="201" customFormat="1" ht="6" customHeight="1">
-      <c r="A19" s="265"/>
-      <c r="B19" s="266"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="266"/>
-      <c r="E19" s="266"/>
-      <c r="F19" s="266"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="266"/>
-      <c r="K19" s="266"/>
-      <c r="L19" s="267"/>
+      <c r="A19" s="269"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="270"/>
+      <c r="K19" s="270"/>
+      <c r="L19" s="271"/>
     </row>
     <row r="20" spans="1:13" ht="15.75">
-      <c r="A20" s="261" t="s">
+      <c r="A20" s="272" t="s">
         <v>389</v>
       </c>
-      <c r="B20" s="262"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="262"/>
-      <c r="F20" s="262"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="262"/>
-      <c r="I20" s="262"/>
-      <c r="J20" s="262"/>
-      <c r="K20" s="262"/>
-      <c r="L20" s="263"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="273"/>
+      <c r="F20" s="273"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="273"/>
+      <c r="J20" s="273"/>
+      <c r="K20" s="273"/>
+      <c r="L20" s="274"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="264"/>
-      <c r="B21" s="279"/>
-      <c r="C21" s="279"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="279"/>
-      <c r="K21" s="279"/>
-      <c r="L21" s="260"/>
+      <c r="A21" s="260"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="281"/>
+      <c r="L21" s="267"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="280"/>
-      <c r="B22" s="276" t="s">
+      <c r="A22" s="278"/>
+      <c r="B22" s="280" t="s">
         <v>367</v>
       </c>
-      <c r="C22" s="276"/>
-      <c r="D22" s="276"/>
-      <c r="E22" s="276"/>
-      <c r="F22" s="276"/>
-      <c r="G22" s="276"/>
-      <c r="H22" s="276"/>
-      <c r="I22" s="276"/>
-      <c r="J22" s="276"/>
-      <c r="K22" s="276"/>
+      <c r="C22" s="280"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="280"/>
+      <c r="H22" s="280"/>
+      <c r="I22" s="280"/>
+      <c r="J22" s="280"/>
+      <c r="K22" s="280"/>
       <c r="L22" s="131"/>
       <c r="M22" s="133"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A23" s="281"/>
-      <c r="B23" s="277" t="s">
+      <c r="A23" s="279"/>
+      <c r="B23" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="277" t="s">
+      <c r="C23" s="276" t="s">
         <v>375</v>
       </c>
-      <c r="D23" s="277" t="s">
+      <c r="D23" s="276" t="s">
         <v>370</v>
       </c>
-      <c r="E23" s="277" t="s">
+      <c r="E23" s="276" t="s">
         <v>372</v>
       </c>
-      <c r="F23" s="277" t="s">
+      <c r="F23" s="276" t="s">
         <v>368</v>
       </c>
-      <c r="G23" s="277" t="s">
+      <c r="G23" s="276" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="277" t="s">
+      <c r="H23" s="276" t="s">
         <v>371</v>
       </c>
-      <c r="I23" s="277" t="s">
+      <c r="I23" s="276" t="s">
         <v>376</v>
       </c>
-      <c r="J23" s="277"/>
-      <c r="K23" s="277"/>
+      <c r="J23" s="276"/>
+      <c r="K23" s="276"/>
       <c r="L23" s="132"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="202" t="s">
         <v>388</v>
       </c>
-      <c r="B24" s="278"/>
-      <c r="C24" s="278"/>
-      <c r="D24" s="278"/>
-      <c r="E24" s="278"/>
-      <c r="F24" s="278"/>
-      <c r="G24" s="278"/>
-      <c r="H24" s="278"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="278"/>
-      <c r="K24" s="278"/>
+      <c r="B24" s="277"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="277"/>
+      <c r="K24" s="277"/>
       <c r="L24" s="132"/>
     </row>
     <row r="25" spans="1:13">
@@ -5441,200 +5441,200 @@
       <c r="L35" s="132"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="258"/>
-      <c r="B36" s="259"/>
-      <c r="C36" s="259"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="259"/>
-      <c r="G36" s="259"/>
-      <c r="H36" s="259"/>
-      <c r="I36" s="259"/>
-      <c r="J36" s="259"/>
-      <c r="K36" s="259"/>
-      <c r="L36" s="260"/>
+      <c r="A36" s="268"/>
+      <c r="B36" s="266"/>
+      <c r="C36" s="266"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="266"/>
+      <c r="F36" s="266"/>
+      <c r="G36" s="266"/>
+      <c r="H36" s="266"/>
+      <c r="I36" s="266"/>
+      <c r="J36" s="266"/>
+      <c r="K36" s="266"/>
+      <c r="L36" s="267"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A37" s="258" t="s">
+      <c r="A37" s="268" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="259"/>
-      <c r="C37" s="259"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="259"/>
-      <c r="F37" s="259"/>
-      <c r="G37" s="259"/>
-      <c r="H37" s="259"/>
-      <c r="I37" s="259"/>
-      <c r="J37" s="259"/>
-      <c r="K37" s="259"/>
-      <c r="L37" s="260"/>
+      <c r="B37" s="266"/>
+      <c r="C37" s="266"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="266"/>
+      <c r="F37" s="266"/>
+      <c r="G37" s="266"/>
+      <c r="H37" s="266"/>
+      <c r="I37" s="266"/>
+      <c r="J37" s="266"/>
+      <c r="K37" s="266"/>
+      <c r="L37" s="267"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="264" t="s">
+      <c r="A38" s="260" t="s">
         <v>416</v>
       </c>
-      <c r="B38" s="259"/>
-      <c r="C38" s="259"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="259"/>
-      <c r="F38" s="259"/>
-      <c r="G38" s="259"/>
-      <c r="H38" s="259"/>
-      <c r="I38" s="259"/>
-      <c r="J38" s="259"/>
-      <c r="K38" s="259"/>
-      <c r="L38" s="260"/>
+      <c r="B38" s="266"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="266"/>
+      <c r="F38" s="266"/>
+      <c r="G38" s="266"/>
+      <c r="H38" s="266"/>
+      <c r="I38" s="266"/>
+      <c r="J38" s="266"/>
+      <c r="K38" s="266"/>
+      <c r="L38" s="267"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="258"/>
-      <c r="B39" s="259"/>
-      <c r="C39" s="259"/>
-      <c r="D39" s="259"/>
-      <c r="E39" s="259"/>
-      <c r="F39" s="259"/>
-      <c r="G39" s="259"/>
-      <c r="H39" s="259"/>
-      <c r="I39" s="259"/>
-      <c r="J39" s="259"/>
-      <c r="K39" s="259"/>
-      <c r="L39" s="260"/>
+      <c r="A39" s="268"/>
+      <c r="B39" s="266"/>
+      <c r="C39" s="266"/>
+      <c r="D39" s="266"/>
+      <c r="E39" s="266"/>
+      <c r="F39" s="266"/>
+      <c r="G39" s="266"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="266"/>
+      <c r="K39" s="266"/>
+      <c r="L39" s="267"/>
     </row>
     <row r="40" spans="1:12" ht="6" customHeight="1">
-      <c r="A40" s="265"/>
-      <c r="B40" s="266"/>
-      <c r="C40" s="266"/>
-      <c r="D40" s="266"/>
-      <c r="E40" s="266"/>
-      <c r="F40" s="266"/>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="266"/>
-      <c r="J40" s="266"/>
-      <c r="K40" s="266"/>
-      <c r="L40" s="267"/>
+      <c r="A40" s="269"/>
+      <c r="B40" s="270"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
+      <c r="E40" s="270"/>
+      <c r="F40" s="270"/>
+      <c r="G40" s="270"/>
+      <c r="H40" s="270"/>
+      <c r="I40" s="270"/>
+      <c r="J40" s="270"/>
+      <c r="K40" s="270"/>
+      <c r="L40" s="271"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="261" t="s">
+      <c r="A41" s="272" t="s">
         <v>417</v>
       </c>
-      <c r="B41" s="262"/>
-      <c r="C41" s="262"/>
-      <c r="D41" s="262"/>
-      <c r="E41" s="262"/>
-      <c r="F41" s="262"/>
-      <c r="G41" s="262"/>
-      <c r="H41" s="262"/>
-      <c r="I41" s="262"/>
-      <c r="J41" s="262"/>
-      <c r="K41" s="262"/>
-      <c r="L41" s="263"/>
+      <c r="B41" s="273"/>
+      <c r="C41" s="273"/>
+      <c r="D41" s="273"/>
+      <c r="E41" s="273"/>
+      <c r="F41" s="273"/>
+      <c r="G41" s="273"/>
+      <c r="H41" s="273"/>
+      <c r="I41" s="273"/>
+      <c r="J41" s="273"/>
+      <c r="K41" s="273"/>
+      <c r="L41" s="274"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="264" t="s">
+      <c r="A42" s="260" t="s">
         <v>427</v>
       </c>
-      <c r="B42" s="259"/>
-      <c r="C42" s="259"/>
-      <c r="D42" s="259"/>
-      <c r="E42" s="259"/>
-      <c r="F42" s="259"/>
-      <c r="G42" s="259"/>
-      <c r="H42" s="259"/>
-      <c r="I42" s="259"/>
-      <c r="J42" s="259"/>
-      <c r="K42" s="259"/>
-      <c r="L42" s="260"/>
+      <c r="B42" s="266"/>
+      <c r="C42" s="266"/>
+      <c r="D42" s="266"/>
+      <c r="E42" s="266"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="266"/>
+      <c r="L42" s="267"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="264" t="s">
+      <c r="A43" s="260" t="s">
         <v>428</v>
       </c>
-      <c r="B43" s="259"/>
-      <c r="C43" s="259"/>
-      <c r="D43" s="259"/>
-      <c r="E43" s="259"/>
-      <c r="F43" s="259"/>
-      <c r="G43" s="259"/>
-      <c r="H43" s="259"/>
-      <c r="I43" s="259"/>
-      <c r="J43" s="259"/>
-      <c r="K43" s="259"/>
-      <c r="L43" s="260"/>
+      <c r="B43" s="266"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="266"/>
+      <c r="E43" s="266"/>
+      <c r="F43" s="266"/>
+      <c r="G43" s="266"/>
+      <c r="H43" s="266"/>
+      <c r="I43" s="266"/>
+      <c r="J43" s="266"/>
+      <c r="K43" s="266"/>
+      <c r="L43" s="267"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="258"/>
-      <c r="B44" s="259"/>
-      <c r="C44" s="259"/>
-      <c r="D44" s="259"/>
-      <c r="E44" s="259"/>
-      <c r="F44" s="259"/>
-      <c r="G44" s="259"/>
-      <c r="H44" s="259"/>
-      <c r="I44" s="259"/>
-      <c r="J44" s="259"/>
-      <c r="K44" s="259"/>
-      <c r="L44" s="260"/>
+      <c r="A44" s="268"/>
+      <c r="B44" s="266"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="266"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="266"/>
+      <c r="H44" s="266"/>
+      <c r="I44" s="266"/>
+      <c r="J44" s="266"/>
+      <c r="K44" s="266"/>
+      <c r="L44" s="267"/>
     </row>
     <row r="45" spans="1:12" ht="6" customHeight="1">
-      <c r="A45" s="265"/>
-      <c r="B45" s="266"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="266"/>
-      <c r="E45" s="266"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="266"/>
-      <c r="H45" s="266"/>
-      <c r="I45" s="266"/>
-      <c r="J45" s="266"/>
-      <c r="K45" s="266"/>
-      <c r="L45" s="267"/>
+      <c r="A45" s="269"/>
+      <c r="B45" s="270"/>
+      <c r="C45" s="270"/>
+      <c r="D45" s="270"/>
+      <c r="E45" s="270"/>
+      <c r="F45" s="270"/>
+      <c r="G45" s="270"/>
+      <c r="H45" s="270"/>
+      <c r="I45" s="270"/>
+      <c r="J45" s="270"/>
+      <c r="K45" s="270"/>
+      <c r="L45" s="271"/>
     </row>
     <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="261" t="s">
+      <c r="A46" s="272" t="s">
         <v>418</v>
       </c>
-      <c r="B46" s="262"/>
-      <c r="C46" s="262"/>
-      <c r="D46" s="262"/>
-      <c r="E46" s="262"/>
-      <c r="F46" s="262"/>
-      <c r="G46" s="262"/>
-      <c r="H46" s="262"/>
-      <c r="I46" s="262"/>
-      <c r="J46" s="262"/>
-      <c r="K46" s="262"/>
-      <c r="L46" s="263"/>
+      <c r="B46" s="273"/>
+      <c r="C46" s="273"/>
+      <c r="D46" s="273"/>
+      <c r="E46" s="273"/>
+      <c r="F46" s="273"/>
+      <c r="G46" s="273"/>
+      <c r="H46" s="273"/>
+      <c r="I46" s="273"/>
+      <c r="J46" s="273"/>
+      <c r="K46" s="273"/>
+      <c r="L46" s="274"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="264" t="s">
+      <c r="A47" s="260" t="s">
         <v>441</v>
       </c>
-      <c r="B47" s="259"/>
-      <c r="C47" s="259"/>
-      <c r="D47" s="259"/>
-      <c r="E47" s="259"/>
-      <c r="F47" s="259"/>
-      <c r="G47" s="259"/>
-      <c r="H47" s="259"/>
-      <c r="I47" s="259"/>
-      <c r="J47" s="259"/>
-      <c r="K47" s="259"/>
-      <c r="L47" s="260"/>
+      <c r="B47" s="266"/>
+      <c r="C47" s="266"/>
+      <c r="D47" s="266"/>
+      <c r="E47" s="266"/>
+      <c r="F47" s="266"/>
+      <c r="G47" s="266"/>
+      <c r="H47" s="266"/>
+      <c r="I47" s="266"/>
+      <c r="J47" s="266"/>
+      <c r="K47" s="266"/>
+      <c r="L47" s="267"/>
     </row>
     <row r="48" spans="1:12" ht="7.5" customHeight="1">
-      <c r="A48" s="265"/>
-      <c r="B48" s="266"/>
-      <c r="C48" s="266"/>
-      <c r="D48" s="266"/>
-      <c r="E48" s="266"/>
-      <c r="F48" s="266"/>
-      <c r="G48" s="266"/>
-      <c r="H48" s="266"/>
-      <c r="I48" s="266"/>
-      <c r="J48" s="266"/>
-      <c r="K48" s="266"/>
-      <c r="L48" s="267"/>
+      <c r="A48" s="269"/>
+      <c r="B48" s="270"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="270"/>
+      <c r="E48" s="270"/>
+      <c r="F48" s="270"/>
+      <c r="G48" s="270"/>
+      <c r="H48" s="270"/>
+      <c r="I48" s="270"/>
+      <c r="J48" s="270"/>
+      <c r="K48" s="270"/>
+      <c r="L48" s="271"/>
     </row>
     <row r="49" spans="1:12" ht="11.25" customHeight="1">
       <c r="A49" s="203"/>
@@ -5651,401 +5651,409 @@
       <c r="L49" s="205"/>
     </row>
     <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="261" t="s">
+      <c r="A50" s="272" t="s">
         <v>419</v>
       </c>
-      <c r="B50" s="262"/>
-      <c r="C50" s="262"/>
-      <c r="D50" s="262"/>
-      <c r="E50" s="262"/>
-      <c r="F50" s="262"/>
-      <c r="G50" s="262"/>
-      <c r="H50" s="262"/>
-      <c r="I50" s="262"/>
-      <c r="J50" s="262"/>
-      <c r="K50" s="262"/>
-      <c r="L50" s="263"/>
+      <c r="B50" s="273"/>
+      <c r="C50" s="273"/>
+      <c r="D50" s="273"/>
+      <c r="E50" s="273"/>
+      <c r="F50" s="273"/>
+      <c r="G50" s="273"/>
+      <c r="H50" s="273"/>
+      <c r="I50" s="273"/>
+      <c r="J50" s="273"/>
+      <c r="K50" s="273"/>
+      <c r="L50" s="274"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="264" t="s">
+      <c r="A51" s="260" t="s">
         <v>424</v>
       </c>
-      <c r="B51" s="259"/>
-      <c r="C51" s="259"/>
-      <c r="D51" s="259"/>
-      <c r="E51" s="259"/>
-      <c r="F51" s="259"/>
-      <c r="G51" s="259"/>
-      <c r="H51" s="259"/>
-      <c r="I51" s="259"/>
-      <c r="J51" s="259"/>
-      <c r="K51" s="259"/>
-      <c r="L51" s="260"/>
+      <c r="B51" s="266"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="266"/>
+      <c r="E51" s="266"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="266"/>
+      <c r="H51" s="266"/>
+      <c r="I51" s="266"/>
+      <c r="J51" s="266"/>
+      <c r="K51" s="266"/>
+      <c r="L51" s="267"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="264" t="s">
+      <c r="A52" s="260" t="s">
         <v>442</v>
       </c>
-      <c r="B52" s="259"/>
-      <c r="C52" s="259"/>
-      <c r="D52" s="259"/>
-      <c r="E52" s="259"/>
-      <c r="F52" s="259"/>
-      <c r="G52" s="259"/>
-      <c r="H52" s="259"/>
-      <c r="I52" s="259"/>
-      <c r="J52" s="259"/>
-      <c r="K52" s="259"/>
-      <c r="L52" s="260"/>
+      <c r="B52" s="266"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="266"/>
+      <c r="E52" s="266"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="266"/>
+      <c r="H52" s="266"/>
+      <c r="I52" s="266"/>
+      <c r="J52" s="266"/>
+      <c r="K52" s="266"/>
+      <c r="L52" s="267"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="264" t="s">
+      <c r="A53" s="260" t="s">
         <v>443</v>
       </c>
-      <c r="B53" s="259"/>
-      <c r="C53" s="259"/>
-      <c r="D53" s="259"/>
-      <c r="E53" s="259"/>
-      <c r="F53" s="259"/>
-      <c r="G53" s="259"/>
-      <c r="H53" s="259"/>
-      <c r="I53" s="259"/>
-      <c r="J53" s="259"/>
-      <c r="K53" s="259"/>
-      <c r="L53" s="260"/>
+      <c r="B53" s="266"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="266"/>
+      <c r="E53" s="266"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="266"/>
+      <c r="H53" s="266"/>
+      <c r="I53" s="266"/>
+      <c r="J53" s="266"/>
+      <c r="K53" s="266"/>
+      <c r="L53" s="267"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="258"/>
-      <c r="B54" s="259"/>
-      <c r="C54" s="259"/>
-      <c r="D54" s="259"/>
-      <c r="E54" s="259"/>
-      <c r="F54" s="259"/>
-      <c r="G54" s="259"/>
-      <c r="H54" s="259"/>
-      <c r="I54" s="259"/>
-      <c r="J54" s="259"/>
-      <c r="K54" s="259"/>
-      <c r="L54" s="260"/>
+      <c r="A54" s="268"/>
+      <c r="B54" s="266"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="266"/>
+      <c r="E54" s="266"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="266"/>
+      <c r="H54" s="266"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="266"/>
+      <c r="L54" s="267"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="258"/>
-      <c r="B55" s="259"/>
-      <c r="C55" s="259"/>
-      <c r="D55" s="259"/>
-      <c r="E55" s="259"/>
-      <c r="F55" s="259"/>
-      <c r="G55" s="259"/>
-      <c r="H55" s="259"/>
-      <c r="I55" s="259"/>
-      <c r="J55" s="259"/>
-      <c r="K55" s="259"/>
-      <c r="L55" s="260"/>
+      <c r="A55" s="268"/>
+      <c r="B55" s="266"/>
+      <c r="C55" s="266"/>
+      <c r="D55" s="266"/>
+      <c r="E55" s="266"/>
+      <c r="F55" s="266"/>
+      <c r="G55" s="266"/>
+      <c r="H55" s="266"/>
+      <c r="I55" s="266"/>
+      <c r="J55" s="266"/>
+      <c r="K55" s="266"/>
+      <c r="L55" s="267"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="258"/>
-      <c r="B56" s="259"/>
-      <c r="C56" s="259"/>
-      <c r="D56" s="259"/>
-      <c r="E56" s="259"/>
-      <c r="F56" s="259"/>
-      <c r="G56" s="259"/>
-      <c r="H56" s="259"/>
-      <c r="I56" s="259"/>
-      <c r="J56" s="259"/>
-      <c r="K56" s="259"/>
-      <c r="L56" s="260"/>
+      <c r="A56" s="268"/>
+      <c r="B56" s="266"/>
+      <c r="C56" s="266"/>
+      <c r="D56" s="266"/>
+      <c r="E56" s="266"/>
+      <c r="F56" s="266"/>
+      <c r="G56" s="266"/>
+      <c r="H56" s="266"/>
+      <c r="I56" s="266"/>
+      <c r="J56" s="266"/>
+      <c r="K56" s="266"/>
+      <c r="L56" s="267"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="258"/>
-      <c r="B57" s="259"/>
-      <c r="C57" s="259"/>
-      <c r="D57" s="259"/>
-      <c r="E57" s="259"/>
-      <c r="F57" s="259"/>
-      <c r="G57" s="259"/>
-      <c r="H57" s="259"/>
-      <c r="I57" s="259"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="259"/>
-      <c r="L57" s="260"/>
+      <c r="A57" s="268"/>
+      <c r="B57" s="266"/>
+      <c r="C57" s="266"/>
+      <c r="D57" s="266"/>
+      <c r="E57" s="266"/>
+      <c r="F57" s="266"/>
+      <c r="G57" s="266"/>
+      <c r="H57" s="266"/>
+      <c r="I57" s="266"/>
+      <c r="J57" s="266"/>
+      <c r="K57" s="266"/>
+      <c r="L57" s="267"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="258"/>
-      <c r="B58" s="259"/>
-      <c r="C58" s="259"/>
-      <c r="D58" s="259"/>
-      <c r="E58" s="259"/>
-      <c r="F58" s="259"/>
-      <c r="G58" s="259"/>
-      <c r="H58" s="259"/>
-      <c r="I58" s="259"/>
-      <c r="J58" s="259"/>
-      <c r="K58" s="259"/>
-      <c r="L58" s="260"/>
+      <c r="A58" s="268"/>
+      <c r="B58" s="266"/>
+      <c r="C58" s="266"/>
+      <c r="D58" s="266"/>
+      <c r="E58" s="266"/>
+      <c r="F58" s="266"/>
+      <c r="G58" s="266"/>
+      <c r="H58" s="266"/>
+      <c r="I58" s="266"/>
+      <c r="J58" s="266"/>
+      <c r="K58" s="266"/>
+      <c r="L58" s="267"/>
     </row>
     <row r="59" spans="1:12" ht="6" customHeight="1">
-      <c r="A59" s="258"/>
-      <c r="B59" s="259"/>
-      <c r="C59" s="259"/>
-      <c r="D59" s="259"/>
-      <c r="E59" s="259"/>
-      <c r="F59" s="259"/>
-      <c r="G59" s="259"/>
-      <c r="H59" s="259"/>
-      <c r="I59" s="259"/>
-      <c r="J59" s="259"/>
-      <c r="K59" s="259"/>
-      <c r="L59" s="260"/>
+      <c r="A59" s="268"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
+      <c r="D59" s="266"/>
+      <c r="E59" s="266"/>
+      <c r="F59" s="266"/>
+      <c r="G59" s="266"/>
+      <c r="H59" s="266"/>
+      <c r="I59" s="266"/>
+      <c r="J59" s="266"/>
+      <c r="K59" s="266"/>
+      <c r="L59" s="267"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="271"/>
-      <c r="B60" s="272"/>
-      <c r="C60" s="272"/>
-      <c r="D60" s="272"/>
-      <c r="E60" s="272"/>
-      <c r="F60" s="272"/>
-      <c r="G60" s="272"/>
-      <c r="H60" s="272"/>
-      <c r="I60" s="272"/>
-      <c r="J60" s="272"/>
-      <c r="K60" s="272"/>
-      <c r="L60" s="273"/>
+      <c r="A60" s="285"/>
+      <c r="B60" s="286"/>
+      <c r="C60" s="286"/>
+      <c r="D60" s="286"/>
+      <c r="E60" s="286"/>
+      <c r="F60" s="286"/>
+      <c r="G60" s="286"/>
+      <c r="H60" s="286"/>
+      <c r="I60" s="286"/>
+      <c r="J60" s="286"/>
+      <c r="K60" s="286"/>
+      <c r="L60" s="287"/>
     </row>
     <row r="61" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A61" s="261" t="s">
+      <c r="A61" s="272" t="s">
         <v>420</v>
       </c>
-      <c r="B61" s="262"/>
-      <c r="C61" s="262"/>
-      <c r="D61" s="262"/>
-      <c r="E61" s="262"/>
-      <c r="F61" s="262"/>
-      <c r="G61" s="262"/>
-      <c r="H61" s="262"/>
-      <c r="I61" s="262"/>
-      <c r="J61" s="262"/>
-      <c r="K61" s="262"/>
-      <c r="L61" s="263"/>
+      <c r="B61" s="273"/>
+      <c r="C61" s="273"/>
+      <c r="D61" s="273"/>
+      <c r="E61" s="273"/>
+      <c r="F61" s="273"/>
+      <c r="G61" s="273"/>
+      <c r="H61" s="273"/>
+      <c r="I61" s="273"/>
+      <c r="J61" s="273"/>
+      <c r="K61" s="273"/>
+      <c r="L61" s="274"/>
     </row>
     <row r="62" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A62" s="268" t="s">
+      <c r="A62" s="282" t="s">
         <v>390</v>
       </c>
-      <c r="B62" s="269"/>
-      <c r="C62" s="269"/>
-      <c r="D62" s="269"/>
-      <c r="E62" s="269"/>
-      <c r="F62" s="269"/>
-      <c r="G62" s="269"/>
-      <c r="H62" s="269"/>
-      <c r="I62" s="269"/>
-      <c r="J62" s="269"/>
-      <c r="K62" s="269"/>
-      <c r="L62" s="270"/>
+      <c r="B62" s="283"/>
+      <c r="C62" s="283"/>
+      <c r="D62" s="283"/>
+      <c r="E62" s="283"/>
+      <c r="F62" s="283"/>
+      <c r="G62" s="283"/>
+      <c r="H62" s="283"/>
+      <c r="I62" s="283"/>
+      <c r="J62" s="283"/>
+      <c r="K62" s="283"/>
+      <c r="L62" s="284"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="264" t="s">
+      <c r="A63" s="260" t="s">
         <v>435</v>
       </c>
-      <c r="B63" s="259"/>
-      <c r="C63" s="259"/>
-      <c r="D63" s="259"/>
-      <c r="E63" s="259"/>
-      <c r="F63" s="259"/>
-      <c r="G63" s="259"/>
-      <c r="H63" s="259"/>
-      <c r="I63" s="259"/>
-      <c r="J63" s="259"/>
-      <c r="K63" s="259"/>
-      <c r="L63" s="260"/>
+      <c r="B63" s="266"/>
+      <c r="C63" s="266"/>
+      <c r="D63" s="266"/>
+      <c r="E63" s="266"/>
+      <c r="F63" s="266"/>
+      <c r="G63" s="266"/>
+      <c r="H63" s="266"/>
+      <c r="I63" s="266"/>
+      <c r="J63" s="266"/>
+      <c r="K63" s="266"/>
+      <c r="L63" s="267"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="264" t="s">
+      <c r="A64" s="260" t="s">
         <v>429</v>
       </c>
-      <c r="B64" s="259"/>
-      <c r="C64" s="259"/>
-      <c r="D64" s="259"/>
-      <c r="E64" s="259"/>
-      <c r="F64" s="259"/>
-      <c r="G64" s="259"/>
-      <c r="H64" s="259"/>
-      <c r="I64" s="259"/>
-      <c r="J64" s="259"/>
-      <c r="K64" s="259"/>
-      <c r="L64" s="260"/>
+      <c r="B64" s="266"/>
+      <c r="C64" s="266"/>
+      <c r="D64" s="266"/>
+      <c r="E64" s="266"/>
+      <c r="F64" s="266"/>
+      <c r="G64" s="266"/>
+      <c r="H64" s="266"/>
+      <c r="I64" s="266"/>
+      <c r="J64" s="266"/>
+      <c r="K64" s="266"/>
+      <c r="L64" s="267"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="264" t="s">
+      <c r="A65" s="260" t="s">
         <v>436</v>
       </c>
-      <c r="B65" s="259"/>
-      <c r="C65" s="259"/>
-      <c r="D65" s="259"/>
-      <c r="E65" s="259"/>
-      <c r="F65" s="259"/>
-      <c r="G65" s="259"/>
-      <c r="H65" s="259"/>
-      <c r="I65" s="259"/>
-      <c r="J65" s="259"/>
-      <c r="K65" s="259"/>
-      <c r="L65" s="260"/>
+      <c r="B65" s="266"/>
+      <c r="C65" s="266"/>
+      <c r="D65" s="266"/>
+      <c r="E65" s="266"/>
+      <c r="F65" s="266"/>
+      <c r="G65" s="266"/>
+      <c r="H65" s="266"/>
+      <c r="I65" s="266"/>
+      <c r="J65" s="266"/>
+      <c r="K65" s="266"/>
+      <c r="L65" s="267"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="264" t="s">
+      <c r="A66" s="260" t="s">
         <v>430</v>
       </c>
-      <c r="B66" s="259"/>
-      <c r="C66" s="259"/>
-      <c r="D66" s="259"/>
-      <c r="E66" s="259"/>
-      <c r="F66" s="259"/>
-      <c r="G66" s="259"/>
-      <c r="H66" s="259"/>
-      <c r="I66" s="259"/>
-      <c r="J66" s="259"/>
-      <c r="K66" s="259"/>
-      <c r="L66" s="260"/>
+      <c r="B66" s="266"/>
+      <c r="C66" s="266"/>
+      <c r="D66" s="266"/>
+      <c r="E66" s="266"/>
+      <c r="F66" s="266"/>
+      <c r="G66" s="266"/>
+      <c r="H66" s="266"/>
+      <c r="I66" s="266"/>
+      <c r="J66" s="266"/>
+      <c r="K66" s="266"/>
+      <c r="L66" s="267"/>
     </row>
     <row r="67" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A67" s="264" t="s">
+      <c r="A67" s="260" t="s">
         <v>431</v>
       </c>
-      <c r="B67" s="259"/>
-      <c r="C67" s="259"/>
-      <c r="D67" s="259"/>
-      <c r="E67" s="259"/>
-      <c r="F67" s="259"/>
-      <c r="G67" s="259"/>
-      <c r="H67" s="259"/>
-      <c r="I67" s="259"/>
-      <c r="J67" s="259"/>
-      <c r="K67" s="259"/>
-      <c r="L67" s="260"/>
+      <c r="B67" s="266"/>
+      <c r="C67" s="266"/>
+      <c r="D67" s="266"/>
+      <c r="E67" s="266"/>
+      <c r="F67" s="266"/>
+      <c r="G67" s="266"/>
+      <c r="H67" s="266"/>
+      <c r="I67" s="266"/>
+      <c r="J67" s="266"/>
+      <c r="K67" s="266"/>
+      <c r="L67" s="267"/>
     </row>
     <row r="68" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A68" s="264" t="s">
+      <c r="A68" s="260" t="s">
         <v>437</v>
       </c>
-      <c r="B68" s="259"/>
-      <c r="C68" s="259"/>
-      <c r="D68" s="259"/>
-      <c r="E68" s="259"/>
-      <c r="F68" s="259"/>
-      <c r="G68" s="259"/>
-      <c r="H68" s="259"/>
-      <c r="I68" s="259"/>
-      <c r="J68" s="259"/>
-      <c r="K68" s="259"/>
-      <c r="L68" s="260"/>
+      <c r="B68" s="266"/>
+      <c r="C68" s="266"/>
+      <c r="D68" s="266"/>
+      <c r="E68" s="266"/>
+      <c r="F68" s="266"/>
+      <c r="G68" s="266"/>
+      <c r="H68" s="266"/>
+      <c r="I68" s="266"/>
+      <c r="J68" s="266"/>
+      <c r="K68" s="266"/>
+      <c r="L68" s="267"/>
     </row>
     <row r="69" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A69" s="264" t="s">
+      <c r="A69" s="260" t="s">
         <v>438</v>
       </c>
-      <c r="B69" s="274"/>
-      <c r="C69" s="274"/>
-      <c r="D69" s="274"/>
-      <c r="E69" s="274"/>
-      <c r="F69" s="274"/>
-      <c r="G69" s="274"/>
-      <c r="H69" s="274"/>
-      <c r="I69" s="274"/>
-      <c r="J69" s="274"/>
-      <c r="K69" s="274"/>
-      <c r="L69" s="275"/>
+      <c r="B69" s="261"/>
+      <c r="C69" s="261"/>
+      <c r="D69" s="261"/>
+      <c r="E69" s="261"/>
+      <c r="F69" s="261"/>
+      <c r="G69" s="261"/>
+      <c r="H69" s="261"/>
+      <c r="I69" s="261"/>
+      <c r="J69" s="261"/>
+      <c r="K69" s="261"/>
+      <c r="L69" s="262"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="264" t="s">
+      <c r="A70" s="260" t="s">
         <v>439</v>
       </c>
-      <c r="B70" s="259"/>
-      <c r="C70" s="259"/>
-      <c r="D70" s="259"/>
-      <c r="E70" s="259"/>
-      <c r="F70" s="259"/>
-      <c r="G70" s="259"/>
-      <c r="H70" s="259"/>
-      <c r="I70" s="259"/>
-      <c r="J70" s="259"/>
-      <c r="K70" s="259"/>
-      <c r="L70" s="260"/>
+      <c r="B70" s="266"/>
+      <c r="C70" s="266"/>
+      <c r="D70" s="266"/>
+      <c r="E70" s="266"/>
+      <c r="F70" s="266"/>
+      <c r="G70" s="266"/>
+      <c r="H70" s="266"/>
+      <c r="I70" s="266"/>
+      <c r="J70" s="266"/>
+      <c r="K70" s="266"/>
+      <c r="L70" s="267"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="264" t="s">
+      <c r="A71" s="260" t="s">
         <v>434</v>
       </c>
-      <c r="B71" s="259"/>
-      <c r="C71" s="259"/>
-      <c r="D71" s="259"/>
-      <c r="E71" s="259"/>
-      <c r="F71" s="259"/>
-      <c r="G71" s="259"/>
-      <c r="H71" s="259"/>
-      <c r="I71" s="259"/>
-      <c r="J71" s="259"/>
-      <c r="K71" s="259"/>
-      <c r="L71" s="260"/>
+      <c r="B71" s="266"/>
+      <c r="C71" s="266"/>
+      <c r="D71" s="266"/>
+      <c r="E71" s="266"/>
+      <c r="F71" s="266"/>
+      <c r="G71" s="266"/>
+      <c r="H71" s="266"/>
+      <c r="I71" s="266"/>
+      <c r="J71" s="266"/>
+      <c r="K71" s="266"/>
+      <c r="L71" s="267"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="264" t="s">
+      <c r="A72" s="260" t="s">
         <v>432</v>
       </c>
-      <c r="B72" s="259"/>
-      <c r="C72" s="259"/>
-      <c r="D72" s="259"/>
-      <c r="E72" s="259"/>
-      <c r="F72" s="259"/>
-      <c r="G72" s="259"/>
-      <c r="H72" s="259"/>
-      <c r="I72" s="259"/>
-      <c r="J72" s="259"/>
-      <c r="K72" s="259"/>
-      <c r="L72" s="260"/>
+      <c r="B72" s="266"/>
+      <c r="C72" s="266"/>
+      <c r="D72" s="266"/>
+      <c r="E72" s="266"/>
+      <c r="F72" s="266"/>
+      <c r="G72" s="266"/>
+      <c r="H72" s="266"/>
+      <c r="I72" s="266"/>
+      <c r="J72" s="266"/>
+      <c r="K72" s="266"/>
+      <c r="L72" s="267"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="264" t="s">
+      <c r="A73" s="260" t="s">
         <v>433</v>
       </c>
-      <c r="B73" s="259"/>
-      <c r="C73" s="259"/>
-      <c r="D73" s="259"/>
-      <c r="E73" s="259"/>
-      <c r="F73" s="259"/>
-      <c r="G73" s="259"/>
-      <c r="H73" s="259"/>
-      <c r="I73" s="259"/>
-      <c r="J73" s="259"/>
-      <c r="K73" s="259"/>
-      <c r="L73" s="260"/>
+      <c r="B73" s="266"/>
+      <c r="C73" s="266"/>
+      <c r="D73" s="266"/>
+      <c r="E73" s="266"/>
+      <c r="F73" s="266"/>
+      <c r="G73" s="266"/>
+      <c r="H73" s="266"/>
+      <c r="I73" s="266"/>
+      <c r="J73" s="266"/>
+      <c r="K73" s="266"/>
+      <c r="L73" s="267"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <mergeCells count="70">
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="A19:L19"/>
     <mergeCell ref="A48:L48"/>
@@ -6062,37 +6070,29 @@
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A70:L70"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A73:L73"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6689,11 +6689,11 @@
   </sheetPr>
   <dimension ref="A1:AH181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R61" sqref="R61"/>
+      <selection pane="bottomRight" activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
@@ -6731,30 +6731,30 @@
       <c r="B2" s="143"/>
       <c r="C2" s="143"/>
       <c r="D2" s="144"/>
-      <c r="E2" s="296" t="s">
+      <c r="E2" s="297" t="s">
         <v>508</v>
       </c>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="296"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="297"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="297"/>
       <c r="P2" s="145" t="s">
         <v>530</v>
       </c>
-      <c r="Q2" s="287" t="s">
+      <c r="Q2" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="288"/>
-      <c r="S2" s="288"/>
-      <c r="T2" s="288"/>
-      <c r="U2" s="288"/>
-      <c r="V2" s="289"/>
+      <c r="R2" s="289"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="289"/>
+      <c r="U2" s="289"/>
+      <c r="V2" s="290"/>
     </row>
     <row r="3" spans="1:34" ht="23.25" customHeight="1">
       <c r="A3" s="146" t="s">
@@ -6763,56 +6763,56 @@
       <c r="B3" s="147"/>
       <c r="C3" s="147"/>
       <c r="D3" s="148"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="297"/>
-      <c r="K3" s="297"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
-      <c r="O3" s="297"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
       <c r="P3" s="149" t="s">
         <v>532</v>
       </c>
-      <c r="Q3" s="290" t="s">
+      <c r="Q3" s="291" t="s">
         <v>531</v>
       </c>
-      <c r="R3" s="291"/>
-      <c r="S3" s="291"/>
-      <c r="T3" s="291"/>
-      <c r="U3" s="291"/>
-      <c r="V3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="293"/>
     </row>
     <row r="4" spans="1:34" s="150" customFormat="1" ht="20.25">
-      <c r="A4" s="293" t="s">
+      <c r="A4" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="294"/>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="295"/>
-      <c r="H4" s="293" t="s">
+      <c r="B4" s="295"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="294" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="294"/>
-      <c r="N4" s="294"/>
-      <c r="O4" s="294"/>
-      <c r="P4" s="294"/>
-      <c r="Q4" s="294"/>
-      <c r="R4" s="294"/>
-      <c r="S4" s="294"/>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294"/>
-      <c r="V4" s="295"/>
+      <c r="I4" s="295"/>
+      <c r="J4" s="295"/>
+      <c r="K4" s="295"/>
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="295"/>
+      <c r="P4" s="295"/>
+      <c r="Q4" s="295"/>
+      <c r="R4" s="295"/>
+      <c r="S4" s="295"/>
+      <c r="T4" s="295"/>
+      <c r="U4" s="295"/>
+      <c r="V4" s="296"/>
     </row>
     <row r="5" spans="1:34" ht="12" customHeight="1">
       <c r="A5" s="151"/>
@@ -9768,7 +9768,7 @@
         <f>IF(OR(T42="",T42="-"),"",LOOKUP(CONCATENATE(T42,IF(SUM(Q42:S42)&lt;5,1,IF(SUM(Q42:S42)&lt;8,2,IF(SUM(Q42:S42)&lt;11,3,IF(SUM(Q42:S42)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v>AM</v>
       </c>
-      <c r="V42" s="375" t="s">
+      <c r="V42" s="258" t="s">
         <v>538</v>
       </c>
       <c r="AA42" s="162"/>
@@ -10899,9 +10899,7 @@
         <f>IF(OR(T57="",T57="-"),"",LOOKUP(CONCATENATE(T57,IF(SUM(Q57:S57)&lt;5,1,IF(SUM(Q57:S57)&lt;8,2,IF(SUM(Q57:S57)&lt;11,3,IF(SUM(Q57:S57)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v>-</v>
       </c>
-      <c r="V57" s="256" t="s">
-        <v>542</v>
-      </c>
+      <c r="V57" s="256"/>
       <c r="AA57" s="162"/>
       <c r="AB57" s="162"/>
       <c r="AC57" s="162" t="e">
@@ -12763,7 +12761,7 @@
   </sheetPr>
   <dimension ref="A1:CA104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
@@ -12911,12 +12909,12 @@
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="R3" s="306" t="s">
+      <c r="R3" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="306"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
+      <c r="S3" s="311"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
       <c r="W3" s="112" t="s">
         <v>22</v>
       </c>
@@ -12930,19 +12928,19 @@
       <c r="AD3" s="113"/>
     </row>
     <row r="4" spans="1:79" s="69" customFormat="1" ht="18">
-      <c r="A4" s="314" t="s">
+      <c r="A4" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="315"/>
-      <c r="C4" s="316"/>
+      <c r="B4" s="318"/>
+      <c r="C4" s="319"/>
       <c r="D4" s="166"/>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="326"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="304"/>
       <c r="J4" s="98"/>
       <c r="R4" s="99" t="s">
         <v>27</v>
@@ -12971,21 +12969,21 @@
       <c r="AB4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AC4" s="307" t="s">
+      <c r="AC4" s="312" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="308"/>
+      <c r="AD4" s="313"/>
     </row>
     <row r="5" spans="1:79" s="69" customFormat="1" ht="18">
-      <c r="A5" s="317"/>
-      <c r="B5" s="318"/>
-      <c r="C5" s="319"/>
+      <c r="A5" s="320"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="322"/>
       <c r="D5" s="167"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="329"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="100"/>
       <c r="R5" s="101" t="s">
         <v>35</v>
@@ -13015,15 +13013,15 @@
       <c r="AB5" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="307" t="s">
+      <c r="AC5" s="312" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="308"/>
+      <c r="AD5" s="313"/>
     </row>
     <row r="6" spans="1:79" ht="18">
-      <c r="A6" s="320"/>
-      <c r="B6" s="321"/>
-      <c r="C6" s="322"/>
+      <c r="A6" s="323"/>
+      <c r="B6" s="324"/>
+      <c r="C6" s="325"/>
       <c r="D6" s="168"/>
       <c r="E6" s="125" t="s">
         <v>41</v>
@@ -13069,10 +13067,10 @@
     </row>
     <row r="7" spans="1:79" ht="18">
       <c r="A7" s="169"/>
-      <c r="B7" s="313" t="s">
+      <c r="B7" s="316" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="313"/>
+      <c r="C7" s="316"/>
       <c r="D7" s="172" t="s">
         <v>387</v>
       </c>
@@ -13110,10 +13108,10 @@
       <c r="A8" s="171" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="311" t="s">
+      <c r="B8" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="312"/>
+      <c r="C8" s="315"/>
       <c r="D8" s="177" t="s">
         <v>49</v>
       </c>
@@ -13163,10 +13161,10 @@
       <c r="A9" s="81">
         <v>4</v>
       </c>
-      <c r="B9" s="309" t="s">
+      <c r="B9" s="299" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="310"/>
+      <c r="C9" s="300"/>
       <c r="D9" s="177" t="s">
         <v>55</v>
       </c>
@@ -13216,10 +13214,10 @@
       <c r="A10" s="81">
         <v>3</v>
       </c>
-      <c r="B10" s="309" t="s">
+      <c r="B10" s="299" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="310"/>
+      <c r="C10" s="300"/>
       <c r="D10" s="177" t="s">
         <v>59</v>
       </c>
@@ -13255,10 +13253,10 @@
       <c r="A11" s="81">
         <v>2</v>
       </c>
-      <c r="B11" s="309" t="s">
+      <c r="B11" s="299" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="310"/>
+      <c r="C11" s="300"/>
       <c r="D11" s="177" t="s">
         <v>64</v>
       </c>
@@ -13274,12 +13272,12 @@
         <v>51</v>
       </c>
       <c r="J11" s="66"/>
-      <c r="R11" s="323" t="s">
+      <c r="R11" s="301" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="323"/>
-      <c r="T11" s="323"/>
-      <c r="U11" s="323"/>
+      <c r="S11" s="301"/>
+      <c r="T11" s="301"/>
+      <c r="U11" s="301"/>
       <c r="W11" s="120">
         <v>2</v>
       </c>
@@ -13298,10 +13296,10 @@
       <c r="A12" s="81">
         <v>1</v>
       </c>
-      <c r="B12" s="309" t="s">
+      <c r="B12" s="299" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="310"/>
+      <c r="C12" s="300"/>
       <c r="D12" s="180" t="s">
         <v>39</v>
       </c>
@@ -13315,10 +13313,10 @@
         <v>56</v>
       </c>
       <c r="J12" s="66"/>
-      <c r="R12" s="323"/>
-      <c r="S12" s="323"/>
-      <c r="T12" s="323"/>
-      <c r="U12" s="323"/>
+      <c r="R12" s="301"/>
+      <c r="S12" s="301"/>
+      <c r="T12" s="301"/>
+      <c r="U12" s="301"/>
       <c r="W12" s="120">
         <v>2</v>
       </c>
@@ -13337,8 +13335,8 @@
       <c r="A13" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="330"/>
-      <c r="C13" s="331"/>
+      <c r="B13" s="309"/>
+      <c r="C13" s="310"/>
       <c r="D13" s="176"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
@@ -13346,10 +13344,10 @@
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
       <c r="J13" s="66"/>
-      <c r="R13" s="323"/>
-      <c r="S13" s="323"/>
-      <c r="T13" s="323"/>
-      <c r="U13" s="323"/>
+      <c r="R13" s="301"/>
+      <c r="S13" s="301"/>
+      <c r="T13" s="301"/>
+      <c r="U13" s="301"/>
       <c r="W13" s="120">
         <v>2</v>
       </c>
@@ -13377,10 +13375,10 @@
       <c r="H14" s="185"/>
       <c r="I14" s="185"/>
       <c r="J14" s="66"/>
-      <c r="R14" s="323"/>
-      <c r="S14" s="323"/>
-      <c r="T14" s="323"/>
-      <c r="U14" s="323"/>
+      <c r="R14" s="301"/>
+      <c r="S14" s="301"/>
+      <c r="T14" s="301"/>
+      <c r="U14" s="301"/>
       <c r="W14" s="120">
         <v>2</v>
       </c>
@@ -13420,10 +13418,10 @@
         <v>397</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="R15" s="323"/>
-      <c r="S15" s="323"/>
-      <c r="T15" s="323"/>
-      <c r="U15" s="323"/>
+      <c r="R15" s="301"/>
+      <c r="S15" s="301"/>
+      <c r="T15" s="301"/>
+      <c r="U15" s="301"/>
       <c r="W15" s="120">
         <v>3</v>
       </c>
@@ -13442,10 +13440,10 @@
       <c r="A16" s="186">
         <v>5</v>
       </c>
-      <c r="B16" s="304" t="s">
+      <c r="B16" s="308" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="304"/>
+      <c r="C16" s="308"/>
       <c r="D16" s="104" t="s">
         <v>384</v>
       </c>
@@ -13489,10 +13487,10 @@
       <c r="A17" s="186">
         <v>4</v>
       </c>
-      <c r="B17" s="304" t="s">
+      <c r="B17" s="308" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="304"/>
+      <c r="C17" s="308"/>
       <c r="D17" s="104" t="s">
         <v>385</v>
       </c>
@@ -13534,10 +13532,10 @@
       <c r="A18" s="186">
         <v>3</v>
       </c>
-      <c r="B18" s="304" t="s">
+      <c r="B18" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="304"/>
+      <c r="C18" s="308"/>
       <c r="D18" s="182"/>
       <c r="E18" s="182"/>
       <c r="F18" s="182"/>
@@ -13569,18 +13567,18 @@
       <c r="A19" s="186">
         <v>2</v>
       </c>
-      <c r="B19" s="304" t="s">
+      <c r="B19" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="304"/>
-      <c r="D19" s="303" t="s">
+      <c r="C19" s="308"/>
+      <c r="D19" s="329" t="s">
         <v>398</v>
       </c>
-      <c r="E19" s="303"/>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
+      <c r="E19" s="329"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="329"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329"/>
       <c r="J19" s="66"/>
       <c r="R19" s="109" t="s">
         <v>76</v>
@@ -13606,16 +13604,16 @@
       <c r="A20" s="186">
         <v>1</v>
       </c>
-      <c r="B20" s="304" t="s">
+      <c r="B20" s="308" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="304"/>
-      <c r="D20" s="303"/>
-      <c r="E20" s="303"/>
-      <c r="F20" s="303"/>
-      <c r="G20" s="303"/>
-      <c r="H20" s="303"/>
-      <c r="I20" s="303"/>
+      <c r="C20" s="308"/>
+      <c r="D20" s="329"/>
+      <c r="E20" s="329"/>
+      <c r="F20" s="329"/>
+      <c r="G20" s="329"/>
+      <c r="H20" s="329"/>
+      <c r="I20" s="329"/>
       <c r="J20" s="66"/>
       <c r="R20" s="109" t="s">
         <v>78</v>
@@ -13641,12 +13639,12 @@
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
-      <c r="D21" s="303"/>
-      <c r="E21" s="303"/>
-      <c r="F21" s="303"/>
-      <c r="G21" s="303"/>
-      <c r="H21" s="303"/>
-      <c r="I21" s="303"/>
+      <c r="D21" s="329"/>
+      <c r="E21" s="329"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="329"/>
+      <c r="H21" s="329"/>
+      <c r="I21" s="329"/>
       <c r="J21" s="66"/>
       <c r="W21" s="120">
         <v>4</v>
@@ -13668,12 +13666,12 @@
       </c>
       <c r="B22" s="191"/>
       <c r="C22" s="191"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="303"/>
-      <c r="G22" s="303"/>
-      <c r="H22" s="303"/>
-      <c r="I22" s="303"/>
+      <c r="D22" s="329"/>
+      <c r="E22" s="329"/>
+      <c r="F22" s="329"/>
+      <c r="G22" s="329"/>
+      <c r="H22" s="329"/>
+      <c r="I22" s="329"/>
       <c r="J22" s="66"/>
       <c r="W22" s="120">
         <v>4</v>
@@ -13693,16 +13691,16 @@
       <c r="A23" s="189">
         <v>5</v>
       </c>
-      <c r="B23" s="302" t="s">
+      <c r="B23" s="328" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="302"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="303"/>
-      <c r="F23" s="303"/>
-      <c r="G23" s="303"/>
-      <c r="H23" s="303"/>
-      <c r="I23" s="303"/>
+      <c r="C23" s="328"/>
+      <c r="D23" s="329"/>
+      <c r="E23" s="329"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="329"/>
+      <c r="H23" s="329"/>
+      <c r="I23" s="329"/>
       <c r="J23" s="66"/>
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
@@ -13726,16 +13724,16 @@
       <c r="A24" s="189">
         <v>3</v>
       </c>
-      <c r="B24" s="302" t="s">
+      <c r="B24" s="328" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="302"/>
-      <c r="D24" s="303"/>
-      <c r="E24" s="303"/>
-      <c r="F24" s="303"/>
-      <c r="G24" s="303"/>
-      <c r="H24" s="303"/>
-      <c r="I24" s="303"/>
+      <c r="C24" s="328"/>
+      <c r="D24" s="329"/>
+      <c r="E24" s="329"/>
+      <c r="F24" s="329"/>
+      <c r="G24" s="329"/>
+      <c r="H24" s="329"/>
+      <c r="I24" s="329"/>
       <c r="J24" s="66"/>
       <c r="W24" s="120">
         <v>4</v>
@@ -13755,16 +13753,16 @@
       <c r="A25" s="189">
         <v>1</v>
       </c>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="328" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="302"/>
-      <c r="D25" s="303"/>
-      <c r="E25" s="303"/>
-      <c r="F25" s="303"/>
-      <c r="G25" s="303"/>
-      <c r="H25" s="303"/>
-      <c r="I25" s="303"/>
+      <c r="C25" s="328"/>
+      <c r="D25" s="329"/>
+      <c r="E25" s="329"/>
+      <c r="F25" s="329"/>
+      <c r="G25" s="329"/>
+      <c r="H25" s="329"/>
+      <c r="I25" s="329"/>
       <c r="J25" s="66"/>
       <c r="W25" s="120">
         <v>5</v>
@@ -13784,12 +13782,12 @@
       <c r="A26" s="193"/>
       <c r="B26" s="193"/>
       <c r="C26" s="193"/>
-      <c r="D26" s="303"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="303"/>
-      <c r="G26" s="303"/>
-      <c r="H26" s="303"/>
-      <c r="I26" s="303"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="329"/>
+      <c r="F26" s="329"/>
+      <c r="G26" s="329"/>
+      <c r="H26" s="329"/>
+      <c r="I26" s="329"/>
       <c r="J26" s="66"/>
       <c r="W26" s="120"/>
       <c r="X26" s="112"/>
@@ -13800,12 +13798,12 @@
       <c r="A27" s="193"/>
       <c r="B27" s="193"/>
       <c r="C27" s="193"/>
-      <c r="D27" s="303"/>
-      <c r="E27" s="303"/>
-      <c r="F27" s="303"/>
-      <c r="G27" s="303"/>
-      <c r="H27" s="303"/>
-      <c r="I27" s="303"/>
+      <c r="D27" s="329"/>
+      <c r="E27" s="329"/>
+      <c r="F27" s="329"/>
+      <c r="G27" s="329"/>
+      <c r="H27" s="329"/>
+      <c r="I27" s="329"/>
       <c r="J27" s="66"/>
       <c r="W27" s="120"/>
       <c r="X27" s="112"/>
@@ -13816,12 +13814,12 @@
       <c r="A28" s="193"/>
       <c r="B28" s="193"/>
       <c r="C28" s="193"/>
-      <c r="D28" s="303"/>
-      <c r="E28" s="303"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
-      <c r="H28" s="303"/>
-      <c r="I28" s="303"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="329"/>
+      <c r="F28" s="329"/>
+      <c r="G28" s="329"/>
+      <c r="H28" s="329"/>
+      <c r="I28" s="329"/>
       <c r="J28" s="66"/>
       <c r="W28" s="120"/>
       <c r="X28" s="112"/>
@@ -13832,12 +13830,12 @@
       <c r="A29" s="193"/>
       <c r="B29" s="193"/>
       <c r="C29" s="193"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
+      <c r="D29" s="330"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
       <c r="J29" s="66"/>
       <c r="W29" s="120"/>
       <c r="X29" s="112"/>
@@ -13909,10 +13907,10 @@
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1">
       <c r="A32" s="90"/>
-      <c r="B32" s="300" t="s">
+      <c r="B32" s="332" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="300"/>
+      <c r="C32" s="332"/>
       <c r="D32" s="173" t="s">
         <v>82</v>
       </c>
@@ -13948,21 +13946,21 @@
       <c r="A33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="299" t="s">
+      <c r="B33" s="326" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="299"/>
+      <c r="C33" s="326"/>
       <c r="D33" s="165" t="s">
         <v>378</v>
       </c>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="299"/>
-      <c r="K33" s="299"/>
-      <c r="L33" s="299"/>
+      <c r="E33" s="326"/>
+      <c r="F33" s="326"/>
+      <c r="G33" s="326"/>
+      <c r="H33" s="326"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="326"/>
+      <c r="K33" s="326"/>
+      <c r="L33" s="326"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -13985,55 +13983,55 @@
       <c r="A34" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="299" t="s">
+      <c r="B34" s="326" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="299"/>
+      <c r="C34" s="326"/>
       <c r="D34" s="165" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="299" t="s">
+      <c r="E34" s="326" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
-      <c r="I34" s="299"/>
-      <c r="J34" s="299"/>
-      <c r="K34" s="299"/>
-      <c r="L34" s="299"/>
+      <c r="F34" s="326"/>
+      <c r="G34" s="326"/>
+      <c r="H34" s="326"/>
+      <c r="I34" s="326"/>
+      <c r="J34" s="326"/>
+      <c r="K34" s="326"/>
+      <c r="L34" s="326"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="R34" s="298" t="s">
+      <c r="R34" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="S34" s="298"/>
-      <c r="T34" s="298"/>
-      <c r="U34" s="298"/>
+      <c r="S34" s="331"/>
+      <c r="T34" s="331"/>
+      <c r="U34" s="331"/>
     </row>
     <row r="35" spans="1:47" ht="218.25" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="299" t="s">
+      <c r="B35" s="326" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="299"/>
+      <c r="C35" s="326"/>
       <c r="D35" s="165" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="299" t="s">
+      <c r="E35" s="326" t="s">
         <v>382</v>
       </c>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="299"/>
-      <c r="K35" s="299"/>
-      <c r="L35" s="299"/>
+      <c r="F35" s="326"/>
+      <c r="G35" s="326"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -14043,21 +14041,21 @@
       <c r="A36" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="299" t="s">
+      <c r="B36" s="326" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="301"/>
+      <c r="C36" s="327"/>
       <c r="D36" s="174" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="299"/>
+      <c r="E36" s="326"/>
+      <c r="F36" s="326"/>
+      <c r="G36" s="326"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -15877,23 +15875,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="R11:U15"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:L36"/>
     <mergeCell ref="E33:L33"/>
@@ -15905,11 +15891,23 @@
     <mergeCell ref="D19:I28"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D29:I29"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R11:U15"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39305555555555599" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.196527777777778"/>
@@ -15930,7 +15928,7 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -15945,23 +15943,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="334" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
@@ -15992,11 +15990,11 @@
       <c r="B6" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="334" t="s">
+      <c r="C6" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="335"/>
-      <c r="E6" s="335"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
@@ -16008,11 +16006,11 @@
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="C8" s="336" t="s">
+      <c r="C8" s="337" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
       <c r="F8" s="55"/>
       <c r="G8" s="31"/>
     </row>
@@ -17182,29 +17180,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="333" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="334" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="C3" s="32"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="34" t="s">
@@ -17214,9 +17212,9 @@
         <v>93</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="336"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="350"/>
+      <c r="F4" s="350"/>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="38" t="s">
@@ -17247,7 +17245,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="338" t="s">
+      <c r="A9" s="351" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17255,13 +17253,13 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="339"/>
+      <c r="A10" s="352"/>
       <c r="B10" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="340" t="s">
+      <c r="A11" s="338" t="s">
         <v>299</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -17269,7 +17267,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="342"/>
+      <c r="A12" s="340"/>
       <c r="B12" s="2" t="s">
         <v>301</v>
       </c>
@@ -17299,7 +17297,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="343" t="s">
+      <c r="A16" s="341" t="s">
         <v>308</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -17307,19 +17305,19 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="344"/>
+      <c r="A17" s="342"/>
       <c r="B17" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="345"/>
+      <c r="A18" s="343"/>
       <c r="B18" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="343" t="s">
+      <c r="A19" s="341" t="s">
         <v>312</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -17327,37 +17325,37 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="344"/>
+      <c r="A20" s="342"/>
       <c r="B20" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="344"/>
+      <c r="A21" s="342"/>
       <c r="B21" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="344"/>
+      <c r="A22" s="342"/>
       <c r="B22" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="344"/>
+      <c r="A23" s="342"/>
       <c r="B23" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="345"/>
+      <c r="A24" s="343"/>
       <c r="B24" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="346" t="s">
+      <c r="A25" s="344" t="s">
         <v>319</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -17365,37 +17363,37 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="347"/>
+      <c r="A26" s="345"/>
       <c r="B26" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="347"/>
+      <c r="A27" s="345"/>
       <c r="B27" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="347"/>
+      <c r="A28" s="345"/>
       <c r="B28" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="347"/>
+      <c r="A29" s="345"/>
       <c r="B29" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="348"/>
+      <c r="A30" s="346"/>
       <c r="B30" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A31" s="349" t="s">
+      <c r="A31" s="347" t="s">
         <v>326</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -17403,44 +17401,44 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="350"/>
+      <c r="A32" s="348"/>
       <c r="B32" s="48" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="350"/>
+      <c r="A33" s="348"/>
       <c r="B33" s="48" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="350"/>
+      <c r="A34" s="348"/>
       <c r="B34" s="48" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="350"/>
+      <c r="A35" s="348"/>
       <c r="B35" s="48" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="350"/>
+      <c r="A36" s="348"/>
       <c r="B36" s="48" t="s">
         <v>332</v>
       </c>
       <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="351"/>
+      <c r="A37" s="349"/>
       <c r="B37" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="340" t="s">
+      <c r="A38" s="338" t="s">
         <v>334</v>
       </c>
       <c r="B38" s="50" t="s">
@@ -17448,25 +17446,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="341"/>
+      <c r="A39" s="339"/>
       <c r="B39" s="51" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="341"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="51" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="341"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="51" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="342"/>
+      <c r="A42" s="340"/>
       <c r="B42" s="5" t="s">
         <v>339</v>
       </c>
@@ -17491,17 +17489,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -17557,19 +17555,19 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="23.25">
-      <c r="A4" s="352" t="s">
+      <c r="A4" s="370" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352"/>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352"/>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="352"/>
-      <c r="I4" s="352"/>
-      <c r="J4" s="352"/>
-      <c r="K4" s="352"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="370"/>
+      <c r="K4" s="370"/>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -17587,10 +17585,10 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="141" customHeight="1">
-      <c r="A6" s="353" t="s">
+      <c r="A6" s="354" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="354"/>
+      <c r="B6" s="355"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>342</v>
@@ -17600,18 +17598,18 @@
         <v>343</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="355" t="s">
+      <c r="H6" s="371" t="s">
         <v>344</v>
       </c>
-      <c r="I6" s="356"/>
-      <c r="J6" s="357"/>
+      <c r="I6" s="372"/>
+      <c r="J6" s="373"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="366" t="s">
+      <c r="L6" s="353" t="s">
         <v>345</v>
       </c>
-      <c r="M6" s="353"/>
-      <c r="N6" s="353"/>
-      <c r="O6" s="354"/>
+      <c r="M6" s="354"/>
+      <c r="N6" s="354"/>
+      <c r="O6" s="355"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="23.25">
       <c r="A7" s="11"/>
@@ -17631,25 +17629,25 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="359" t="s">
+      <c r="D8" s="364" t="s">
         <v>346</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G8" s="365" t="s">
+      <c r="G8" s="369" t="s">
         <v>348</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="358" t="s">
+      <c r="J8" s="368" t="s">
         <v>349</v>
       </c>
-      <c r="K8" s="362" t="s">
+      <c r="K8" s="363" t="s">
         <v>348</v>
       </c>
-      <c r="L8" s="358" t="s">
+      <c r="L8" s="368" t="s">
         <v>350</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -17663,16 +17661,16 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="360"/>
+      <c r="D9" s="365"/>
       <c r="E9" s="11"/>
       <c r="F9" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="G9" s="365"/>
+      <c r="G9" s="369"/>
       <c r="H9" s="19"/>
-      <c r="J9" s="358"/>
-      <c r="K9" s="362"/>
-      <c r="L9" s="358"/>
+      <c r="J9" s="368"/>
+      <c r="K9" s="363"/>
+      <c r="L9" s="368"/>
       <c r="N9" s="27" t="s">
         <v>13</v>
       </c>
@@ -17684,17 +17682,17 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="360"/>
+      <c r="D10" s="365"/>
       <c r="E10" s="11"/>
       <c r="F10" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="G10" s="365"/>
+      <c r="G10" s="369"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="362"/>
-      <c r="L10" s="358"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="363"/>
+      <c r="L10" s="368"/>
       <c r="N10" s="27" t="s">
         <v>14</v>
       </c>
@@ -17706,15 +17704,15 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="360"/>
+      <c r="D11" s="365"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="365"/>
+      <c r="G11" s="369"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="358"/>
-      <c r="K11" s="362"/>
-      <c r="L11" s="358"/>
+      <c r="J11" s="368"/>
+      <c r="K11" s="363"/>
+      <c r="L11" s="368"/>
       <c r="N11" s="27" t="s">
         <v>15</v>
       </c>
@@ -17730,15 +17728,15 @@
         <v>6</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="361"/>
+      <c r="D12" s="366"/>
       <c r="E12" s="11"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="365"/>
+      <c r="G12" s="369"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="358"/>
-      <c r="K12" s="362"/>
-      <c r="L12" s="358"/>
+      <c r="J12" s="368"/>
+      <c r="K12" s="363"/>
+      <c r="L12" s="368"/>
       <c r="N12" s="27" t="s">
         <v>16</v>
       </c>
@@ -17774,27 +17772,27 @@
         <v>6</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="358" t="s">
+      <c r="D14" s="368" t="s">
         <v>342</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="374" t="s">
+      <c r="G14" s="367" t="s">
         <v>348</v>
       </c>
-      <c r="H14" s="359" t="s">
+      <c r="H14" s="364" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="364" t="s">
+      <c r="I14" s="375" t="s">
         <v>348</v>
       </c>
-      <c r="J14" s="373" t="s">
+      <c r="J14" s="362" t="s">
         <v>354</v>
       </c>
-      <c r="K14" s="362" t="s">
+      <c r="K14" s="363" t="s">
         <v>348</v>
       </c>
-      <c r="L14" s="373" t="s">
+      <c r="L14" s="362" t="s">
         <v>350</v>
       </c>
       <c r="N14" s="27" t="s">
@@ -17812,17 +17810,17 @@
         <v>6</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="358"/>
+      <c r="D15" s="368"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="G15" s="374"/>
-      <c r="H15" s="360"/>
-      <c r="I15" s="364"/>
-      <c r="J15" s="373"/>
-      <c r="K15" s="362"/>
-      <c r="L15" s="373"/>
+      <c r="G15" s="367"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="375"/>
+      <c r="J15" s="362"/>
+      <c r="K15" s="363"/>
+      <c r="L15" s="362"/>
       <c r="N15" s="27" t="s">
         <v>13</v>
       </c>
@@ -17838,17 +17836,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="358"/>
+      <c r="D16" s="368"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G16" s="374"/>
-      <c r="H16" s="360"/>
-      <c r="I16" s="364"/>
-      <c r="J16" s="373"/>
-      <c r="K16" s="362"/>
-      <c r="L16" s="373"/>
+      <c r="G16" s="367"/>
+      <c r="H16" s="365"/>
+      <c r="I16" s="375"/>
+      <c r="J16" s="362"/>
+      <c r="K16" s="363"/>
+      <c r="L16" s="362"/>
       <c r="N16" s="27" t="s">
         <v>14</v>
       </c>
@@ -17857,22 +17855,22 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="367" t="s">
+      <c r="A17" s="356" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="368"/>
+      <c r="B17" s="357"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="358"/>
+      <c r="D17" s="368"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G17" s="374"/>
-      <c r="H17" s="360"/>
-      <c r="I17" s="364"/>
-      <c r="J17" s="373"/>
-      <c r="K17" s="362"/>
-      <c r="L17" s="373"/>
+      <c r="G17" s="367"/>
+      <c r="H17" s="365"/>
+      <c r="I17" s="375"/>
+      <c r="J17" s="362"/>
+      <c r="K17" s="363"/>
+      <c r="L17" s="362"/>
       <c r="N17" s="27" t="s">
         <v>15</v>
       </c>
@@ -17881,20 +17879,20 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="369"/>
-      <c r="B18" s="370"/>
+      <c r="A18" s="358"/>
+      <c r="B18" s="359"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="358"/>
+      <c r="D18" s="368"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="G18" s="374"/>
-      <c r="H18" s="360"/>
-      <c r="I18" s="364"/>
-      <c r="J18" s="373"/>
-      <c r="K18" s="362"/>
-      <c r="L18" s="373"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="365"/>
+      <c r="I18" s="375"/>
+      <c r="J18" s="362"/>
+      <c r="K18" s="363"/>
+      <c r="L18" s="362"/>
       <c r="M18" s="18"/>
       <c r="N18" s="27" t="s">
         <v>16</v>
@@ -17904,42 +17902,42 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="369"/>
-      <c r="B19" s="370"/>
+      <c r="A19" s="358"/>
+      <c r="B19" s="359"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="358"/>
+      <c r="D19" s="368"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="G19" s="374"/>
-      <c r="H19" s="360"/>
+      <c r="G19" s="367"/>
+      <c r="H19" s="365"/>
       <c r="I19" s="18"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="369"/>
-      <c r="B20" s="370"/>
+      <c r="A20" s="358"/>
+      <c r="B20" s="359"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="358"/>
+      <c r="D20" s="368"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="G20" s="374"/>
-      <c r="H20" s="360"/>
-      <c r="I20" s="365" t="s">
+      <c r="G20" s="367"/>
+      <c r="H20" s="365"/>
+      <c r="I20" s="369" t="s">
         <v>348</v>
       </c>
-      <c r="J20" s="373" t="s">
+      <c r="J20" s="362" t="s">
         <v>361</v>
       </c>
-      <c r="K20" s="363" t="s">
+      <c r="K20" s="374" t="s">
         <v>348</v>
       </c>
-      <c r="L20" s="373" t="s">
+      <c r="L20" s="362" t="s">
         <v>362</v>
       </c>
       <c r="N20" s="27" t="s">
@@ -17950,20 +17948,20 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="371"/>
-      <c r="B21" s="372"/>
+      <c r="A21" s="360"/>
+      <c r="B21" s="361"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="358"/>
+      <c r="D21" s="368"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="G21" s="374"/>
-      <c r="H21" s="360"/>
-      <c r="I21" s="365"/>
-      <c r="J21" s="373"/>
-      <c r="K21" s="363"/>
-      <c r="L21" s="373"/>
+      <c r="G21" s="367"/>
+      <c r="H21" s="365"/>
+      <c r="I21" s="369"/>
+      <c r="J21" s="362"/>
+      <c r="K21" s="374"/>
+      <c r="L21" s="362"/>
       <c r="N21" s="27" t="s">
         <v>13</v>
       </c>
@@ -17975,17 +17973,17 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="358"/>
+      <c r="D22" s="368"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G22" s="374"/>
-      <c r="H22" s="360"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="373"/>
-      <c r="K22" s="363"/>
-      <c r="L22" s="373"/>
+      <c r="G22" s="367"/>
+      <c r="H22" s="365"/>
+      <c r="I22" s="369"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="374"/>
+      <c r="L22" s="362"/>
       <c r="N22" s="27" t="s">
         <v>14</v>
       </c>
@@ -17997,17 +17995,17 @@
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="358"/>
+      <c r="D23" s="368"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G23" s="374"/>
-      <c r="H23" s="360"/>
-      <c r="I23" s="365"/>
-      <c r="J23" s="373"/>
-      <c r="K23" s="363"/>
-      <c r="L23" s="373"/>
+      <c r="G23" s="367"/>
+      <c r="H23" s="365"/>
+      <c r="I23" s="369"/>
+      <c r="J23" s="362"/>
+      <c r="K23" s="374"/>
+      <c r="L23" s="362"/>
       <c r="N23" s="27" t="s">
         <v>15</v>
       </c>
@@ -18019,15 +18017,15 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="358"/>
+      <c r="D24" s="368"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="361"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="373"/>
-      <c r="K24" s="363"/>
-      <c r="L24" s="373"/>
+      <c r="G24" s="367"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="362"/>
+      <c r="K24" s="374"/>
+      <c r="L24" s="362"/>
       <c r="N24" s="27" t="s">
         <v>16</v>
       </c>
@@ -18056,6 +18054,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I20:I24"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="A17:B21"/>
     <mergeCell ref="J14:J18"/>
@@ -18067,16 +18075,6 @@
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="L20:L24"/>
     <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I20:I24"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.78680555555555598" bottom="0.39305555555555599" header="0.31388888888888899" footer="0.31388888888888899"/>

--- a/RB-Blessing/CE-Beurteilung.xlsx
+++ b/RB-Blessing/CE-Beurteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C0C4E5-D77B-40AD-922B-B389B4EF81B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC6FC2E-399A-41EC-8A09-0CBA683A7EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grenzen der Maschine" sheetId="1" r:id="rId1"/>
@@ -1883,9 +1883,6 @@
     <t>Sollte das Förderband durch den Betrieb verschmutzt worden sein, sollten keine chemikalischen Reinigungsmittel verwendet werden, da das Material des Förderbandes, der Elekromotor oder andere Teile des Bandförderers dadurch beschädigt werden könnten. Bei der Reinigung mit Wasser ist zu beachten, dass keine Wasserrücktände in den Ritzen verbleiben sollten. Sollte bei der Reinigung der Anlage eine Demontage einzelner Bestandteile notwendig sein, ist die Demontage- und anschließend die Montageanleitung zu beachten. Bei Nichtbeachten kann die Funktion der Maschine nicht mehr gewährleistet werden.</t>
   </si>
   <si>
-    <t>Der Bandförderer kann sowohl in einer Halle als auch draußen genutzt werden. Der Elektromotor darf allerdings nicht dauerhaft der Witterung ausgesetzt sein, sondern benötigt dann eine Abschirmung.</t>
-  </si>
-  <si>
     <t>Die Lebensdauer beträgt 30000h, bedingt vor allem durch die Kugellager.</t>
   </si>
   <si>
@@ -2193,6 +2190,9 @@
   </si>
   <si>
     <t>Enstorgung nur durch ein Untersorgungsunternehmen</t>
+  </si>
+  <si>
+    <t>Der Bandförderer kann sowohl in einer Halle als auch draußen genutzt werden. Dafür ist eine Überdachung über die gesamte Bandlänge zwingend erforderlich.  Der Elektromotor darf nicht dauerhaft der Witterung ausgesetzt sein, sondern benötigt dann eine Abschirmung.</t>
   </si>
 </sst>
 </file>
@@ -3797,22 +3797,110 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -3825,94 +3913,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3946,11 +3946,92 @@
     <xf numFmtId="49" fontId="22" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3979,93 +4060,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4081,6 +4081,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4117,24 +4126,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4156,44 +4192,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4451,14 +4451,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4836,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4852,384 +4852,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="285" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="264"/>
-      <c r="L1" s="265"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="287"/>
     </row>
     <row r="2" spans="1:12" s="201" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="269"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="271"/>
+      <c r="A2" s="266"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="268"/>
     </row>
     <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="262" t="s">
         <v>415</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="274"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="264"/>
     </row>
     <row r="4" spans="1:12" ht="37.5" customHeight="1">
-      <c r="A4" s="260" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="266"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="267"/>
+      <c r="A4" s="265" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="261"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="268"/>
-      <c r="B5" s="266"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="266"/>
-      <c r="I5" s="266"/>
-      <c r="J5" s="266"/>
-      <c r="K5" s="266"/>
-      <c r="L5" s="267"/>
+      <c r="A5" s="259"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="261"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="275" t="s">
+      <c r="A6" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="273"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="273"/>
-      <c r="K6" s="273"/>
-      <c r="L6" s="274"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="263"/>
+      <c r="L6" s="264"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A7" s="259" t="s">
+      <c r="A7" s="284" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="265" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="259"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="259"/>
-      <c r="K7" s="259"/>
-      <c r="L7" s="259"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="260" t="s">
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="261"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="265" t="s">
         <v>445</v>
       </c>
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="266"/>
-      <c r="K8" s="266"/>
-      <c r="L8" s="267"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="260" t="s">
+      <c r="B9" s="275"/>
+      <c r="C9" s="275"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="275"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="276"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="265" t="s">
         <v>446</v>
       </c>
-      <c r="B9" s="261"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="261"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="262"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="260" t="s">
-        <v>447</v>
-      </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
-      <c r="G10" s="266"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="266"/>
-      <c r="J10" s="266"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="267"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="260"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="261"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="268"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="266"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="267"/>
+      <c r="A11" s="259"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="260"/>
+      <c r="K11" s="260"/>
+      <c r="L11" s="261"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="275" t="s">
+      <c r="A12" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="273"/>
-      <c r="C12" s="273"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="273"/>
-      <c r="I12" s="273"/>
-      <c r="J12" s="273"/>
-      <c r="K12" s="273"/>
-      <c r="L12" s="274"/>
-    </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A13" s="260" t="s">
-        <v>440</v>
-      </c>
-      <c r="B13" s="266"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="266"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="266"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="267"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="263"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="264"/>
+    </row>
+    <row r="13" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A13" s="265" t="s">
+        <v>543</v>
+      </c>
+      <c r="B13" s="260"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="260"/>
+      <c r="K13" s="260"/>
+      <c r="L13" s="261"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="260" t="s">
+      <c r="A14" s="265" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="266"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="266"/>
-      <c r="I14" s="266"/>
-      <c r="J14" s="266"/>
-      <c r="K14" s="266"/>
-      <c r="L14" s="267"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="261"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="260"/>
-      <c r="B15" s="266"/>
-      <c r="C15" s="266"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="266"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="267"/>
+      <c r="A15" s="265"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="261"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="268"/>
-      <c r="B16" s="266"/>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="266"/>
-      <c r="L16" s="267"/>
+      <c r="A16" s="259"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="260"/>
+      <c r="E16" s="260"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="260"/>
+      <c r="I16" s="260"/>
+      <c r="J16" s="260"/>
+      <c r="K16" s="260"/>
+      <c r="L16" s="261"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="268"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="266"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="266"/>
-      <c r="I17" s="266"/>
-      <c r="J17" s="266"/>
-      <c r="K17" s="266"/>
-      <c r="L17" s="267"/>
+      <c r="A17" s="259"/>
+      <c r="B17" s="260"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="260"/>
+      <c r="E17" s="260"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="260"/>
+      <c r="I17" s="260"/>
+      <c r="J17" s="260"/>
+      <c r="K17" s="260"/>
+      <c r="L17" s="261"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="268"/>
-      <c r="B18" s="266"/>
-      <c r="C18" s="266"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="266"/>
-      <c r="K18" s="266"/>
-      <c r="L18" s="267"/>
+      <c r="A18" s="259"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="260"/>
+      <c r="K18" s="260"/>
+      <c r="L18" s="261"/>
     </row>
     <row r="19" spans="1:13" s="201" customFormat="1" ht="6" customHeight="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="270"/>
-      <c r="I19" s="270"/>
-      <c r="J19" s="270"/>
-      <c r="K19" s="270"/>
-      <c r="L19" s="271"/>
+      <c r="A19" s="266"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="267"/>
+      <c r="I19" s="267"/>
+      <c r="J19" s="267"/>
+      <c r="K19" s="267"/>
+      <c r="L19" s="268"/>
     </row>
     <row r="20" spans="1:13" ht="15.75">
-      <c r="A20" s="272" t="s">
+      <c r="A20" s="262" t="s">
         <v>389</v>
       </c>
-      <c r="B20" s="273"/>
-      <c r="C20" s="273"/>
-      <c r="D20" s="273"/>
-      <c r="E20" s="273"/>
-      <c r="F20" s="273"/>
-      <c r="G20" s="273"/>
-      <c r="H20" s="273"/>
-      <c r="I20" s="273"/>
-      <c r="J20" s="273"/>
-      <c r="K20" s="273"/>
-      <c r="L20" s="274"/>
+      <c r="B20" s="263"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="263"/>
+      <c r="I20" s="263"/>
+      <c r="J20" s="263"/>
+      <c r="K20" s="263"/>
+      <c r="L20" s="264"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="260"/>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="281"/>
-      <c r="L21" s="267"/>
+      <c r="A21" s="265"/>
+      <c r="B21" s="280"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="280"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="261"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="278"/>
-      <c r="B22" s="280" t="s">
+      <c r="A22" s="281"/>
+      <c r="B22" s="277" t="s">
         <v>367</v>
       </c>
-      <c r="C22" s="280"/>
-      <c r="D22" s="280"/>
-      <c r="E22" s="280"/>
-      <c r="F22" s="280"/>
-      <c r="G22" s="280"/>
-      <c r="H22" s="280"/>
-      <c r="I22" s="280"/>
-      <c r="J22" s="280"/>
-      <c r="K22" s="280"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="277"/>
+      <c r="E22" s="277"/>
+      <c r="F22" s="277"/>
+      <c r="G22" s="277"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="277"/>
+      <c r="K22" s="277"/>
       <c r="L22" s="131"/>
       <c r="M22" s="133"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A23" s="279"/>
-      <c r="B23" s="276" t="s">
+      <c r="A23" s="282"/>
+      <c r="B23" s="278" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="276" t="s">
+      <c r="C23" s="278" t="s">
         <v>375</v>
       </c>
-      <c r="D23" s="276" t="s">
+      <c r="D23" s="278" t="s">
         <v>370</v>
       </c>
-      <c r="E23" s="276" t="s">
+      <c r="E23" s="278" t="s">
         <v>372</v>
       </c>
-      <c r="F23" s="276" t="s">
+      <c r="F23" s="278" t="s">
         <v>368</v>
       </c>
-      <c r="G23" s="276" t="s">
+      <c r="G23" s="278" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="276" t="s">
+      <c r="H23" s="278" t="s">
         <v>371</v>
       </c>
-      <c r="I23" s="276" t="s">
+      <c r="I23" s="278" t="s">
         <v>376</v>
       </c>
-      <c r="J23" s="276"/>
-      <c r="K23" s="276"/>
+      <c r="J23" s="278"/>
+      <c r="K23" s="278"/>
       <c r="L23" s="132"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="202" t="s">
         <v>388</v>
       </c>
-      <c r="B24" s="277"/>
-      <c r="C24" s="277"/>
-      <c r="D24" s="277"/>
-      <c r="E24" s="277"/>
-      <c r="F24" s="277"/>
-      <c r="G24" s="277"/>
-      <c r="H24" s="277"/>
-      <c r="I24" s="277"/>
-      <c r="J24" s="277"/>
-      <c r="K24" s="277"/>
+      <c r="B24" s="279"/>
+      <c r="C24" s="279"/>
+      <c r="D24" s="279"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
+      <c r="K24" s="279"/>
       <c r="L24" s="132"/>
     </row>
     <row r="25" spans="1:13">
@@ -5441,200 +5441,200 @@
       <c r="L35" s="132"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="268"/>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="266"/>
-      <c r="F36" s="266"/>
-      <c r="G36" s="266"/>
-      <c r="H36" s="266"/>
-      <c r="I36" s="266"/>
-      <c r="J36" s="266"/>
-      <c r="K36" s="266"/>
-      <c r="L36" s="267"/>
+      <c r="A36" s="259"/>
+      <c r="B36" s="260"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="260"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="260"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="260"/>
+      <c r="K36" s="260"/>
+      <c r="L36" s="261"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A37" s="268" t="s">
+      <c r="A37" s="259" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="266"/>
-      <c r="C37" s="266"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="266"/>
-      <c r="F37" s="266"/>
-      <c r="G37" s="266"/>
-      <c r="H37" s="266"/>
-      <c r="I37" s="266"/>
-      <c r="J37" s="266"/>
-      <c r="K37" s="266"/>
-      <c r="L37" s="267"/>
+      <c r="B37" s="260"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="260"/>
+      <c r="J37" s="260"/>
+      <c r="K37" s="260"/>
+      <c r="L37" s="261"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="265" t="s">
         <v>416</v>
       </c>
-      <c r="B38" s="266"/>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
-      <c r="E38" s="266"/>
-      <c r="F38" s="266"/>
-      <c r="G38" s="266"/>
-      <c r="H38" s="266"/>
-      <c r="I38" s="266"/>
-      <c r="J38" s="266"/>
-      <c r="K38" s="266"/>
-      <c r="L38" s="267"/>
+      <c r="B38" s="260"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="260"/>
+      <c r="H38" s="260"/>
+      <c r="I38" s="260"/>
+      <c r="J38" s="260"/>
+      <c r="K38" s="260"/>
+      <c r="L38" s="261"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="268"/>
-      <c r="B39" s="266"/>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
-      <c r="E39" s="266"/>
-      <c r="F39" s="266"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="266"/>
-      <c r="I39" s="266"/>
-      <c r="J39" s="266"/>
-      <c r="K39" s="266"/>
-      <c r="L39" s="267"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="260"/>
+      <c r="C39" s="260"/>
+      <c r="D39" s="260"/>
+      <c r="E39" s="260"/>
+      <c r="F39" s="260"/>
+      <c r="G39" s="260"/>
+      <c r="H39" s="260"/>
+      <c r="I39" s="260"/>
+      <c r="J39" s="260"/>
+      <c r="K39" s="260"/>
+      <c r="L39" s="261"/>
     </row>
     <row r="40" spans="1:12" ht="6" customHeight="1">
-      <c r="A40" s="269"/>
-      <c r="B40" s="270"/>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
-      <c r="E40" s="270"/>
-      <c r="F40" s="270"/>
-      <c r="G40" s="270"/>
-      <c r="H40" s="270"/>
-      <c r="I40" s="270"/>
-      <c r="J40" s="270"/>
-      <c r="K40" s="270"/>
-      <c r="L40" s="271"/>
+      <c r="A40" s="266"/>
+      <c r="B40" s="267"/>
+      <c r="C40" s="267"/>
+      <c r="D40" s="267"/>
+      <c r="E40" s="267"/>
+      <c r="F40" s="267"/>
+      <c r="G40" s="267"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="267"/>
+      <c r="J40" s="267"/>
+      <c r="K40" s="267"/>
+      <c r="L40" s="268"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="272" t="s">
+      <c r="A41" s="262" t="s">
         <v>417</v>
       </c>
-      <c r="B41" s="273"/>
-      <c r="C41" s="273"/>
-      <c r="D41" s="273"/>
-      <c r="E41" s="273"/>
-      <c r="F41" s="273"/>
-      <c r="G41" s="273"/>
-      <c r="H41" s="273"/>
-      <c r="I41" s="273"/>
-      <c r="J41" s="273"/>
-      <c r="K41" s="273"/>
-      <c r="L41" s="274"/>
+      <c r="B41" s="263"/>
+      <c r="C41" s="263"/>
+      <c r="D41" s="263"/>
+      <c r="E41" s="263"/>
+      <c r="F41" s="263"/>
+      <c r="G41" s="263"/>
+      <c r="H41" s="263"/>
+      <c r="I41" s="263"/>
+      <c r="J41" s="263"/>
+      <c r="K41" s="263"/>
+      <c r="L41" s="264"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="260" t="s">
+      <c r="A42" s="265" t="s">
         <v>427</v>
       </c>
-      <c r="B42" s="266"/>
-      <c r="C42" s="266"/>
-      <c r="D42" s="266"/>
-      <c r="E42" s="266"/>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="266"/>
-      <c r="L42" s="267"/>
+      <c r="B42" s="260"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="260"/>
+      <c r="L42" s="261"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="260" t="s">
+      <c r="A43" s="265" t="s">
         <v>428</v>
       </c>
-      <c r="B43" s="266"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="266"/>
-      <c r="E43" s="266"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="266"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="266"/>
-      <c r="K43" s="266"/>
-      <c r="L43" s="267"/>
+      <c r="B43" s="260"/>
+      <c r="C43" s="260"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="260"/>
+      <c r="G43" s="260"/>
+      <c r="H43" s="260"/>
+      <c r="I43" s="260"/>
+      <c r="J43" s="260"/>
+      <c r="K43" s="260"/>
+      <c r="L43" s="261"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="268"/>
-      <c r="B44" s="266"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="266"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="266"/>
-      <c r="H44" s="266"/>
-      <c r="I44" s="266"/>
-      <c r="J44" s="266"/>
-      <c r="K44" s="266"/>
-      <c r="L44" s="267"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="260"/>
+      <c r="C44" s="260"/>
+      <c r="D44" s="260"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="260"/>
+      <c r="I44" s="260"/>
+      <c r="J44" s="260"/>
+      <c r="K44" s="260"/>
+      <c r="L44" s="261"/>
     </row>
     <row r="45" spans="1:12" ht="6" customHeight="1">
-      <c r="A45" s="269"/>
-      <c r="B45" s="270"/>
-      <c r="C45" s="270"/>
-      <c r="D45" s="270"/>
-      <c r="E45" s="270"/>
-      <c r="F45" s="270"/>
-      <c r="G45" s="270"/>
-      <c r="H45" s="270"/>
-      <c r="I45" s="270"/>
-      <c r="J45" s="270"/>
-      <c r="K45" s="270"/>
-      <c r="L45" s="271"/>
+      <c r="A45" s="266"/>
+      <c r="B45" s="267"/>
+      <c r="C45" s="267"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="267"/>
+      <c r="G45" s="267"/>
+      <c r="H45" s="267"/>
+      <c r="I45" s="267"/>
+      <c r="J45" s="267"/>
+      <c r="K45" s="267"/>
+      <c r="L45" s="268"/>
     </row>
     <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="272" t="s">
+      <c r="A46" s="262" t="s">
         <v>418</v>
       </c>
-      <c r="B46" s="273"/>
-      <c r="C46" s="273"/>
-      <c r="D46" s="273"/>
-      <c r="E46" s="273"/>
-      <c r="F46" s="273"/>
-      <c r="G46" s="273"/>
-      <c r="H46" s="273"/>
-      <c r="I46" s="273"/>
-      <c r="J46" s="273"/>
-      <c r="K46" s="273"/>
-      <c r="L46" s="274"/>
+      <c r="B46" s="263"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="263"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="263"/>
+      <c r="I46" s="263"/>
+      <c r="J46" s="263"/>
+      <c r="K46" s="263"/>
+      <c r="L46" s="264"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="260" t="s">
-        <v>441</v>
-      </c>
-      <c r="B47" s="266"/>
-      <c r="C47" s="266"/>
-      <c r="D47" s="266"/>
-      <c r="E47" s="266"/>
-      <c r="F47" s="266"/>
-      <c r="G47" s="266"/>
-      <c r="H47" s="266"/>
-      <c r="I47" s="266"/>
-      <c r="J47" s="266"/>
-      <c r="K47" s="266"/>
-      <c r="L47" s="267"/>
+      <c r="A47" s="265" t="s">
+        <v>440</v>
+      </c>
+      <c r="B47" s="260"/>
+      <c r="C47" s="260"/>
+      <c r="D47" s="260"/>
+      <c r="E47" s="260"/>
+      <c r="F47" s="260"/>
+      <c r="G47" s="260"/>
+      <c r="H47" s="260"/>
+      <c r="I47" s="260"/>
+      <c r="J47" s="260"/>
+      <c r="K47" s="260"/>
+      <c r="L47" s="261"/>
     </row>
     <row r="48" spans="1:12" ht="7.5" customHeight="1">
-      <c r="A48" s="269"/>
-      <c r="B48" s="270"/>
-      <c r="C48" s="270"/>
-      <c r="D48" s="270"/>
-      <c r="E48" s="270"/>
-      <c r="F48" s="270"/>
-      <c r="G48" s="270"/>
-      <c r="H48" s="270"/>
-      <c r="I48" s="270"/>
-      <c r="J48" s="270"/>
-      <c r="K48" s="270"/>
-      <c r="L48" s="271"/>
+      <c r="A48" s="266"/>
+      <c r="B48" s="267"/>
+      <c r="C48" s="267"/>
+      <c r="D48" s="267"/>
+      <c r="E48" s="267"/>
+      <c r="F48" s="267"/>
+      <c r="G48" s="267"/>
+      <c r="H48" s="267"/>
+      <c r="I48" s="267"/>
+      <c r="J48" s="267"/>
+      <c r="K48" s="267"/>
+      <c r="L48" s="268"/>
     </row>
     <row r="49" spans="1:12" ht="11.25" customHeight="1">
       <c r="A49" s="203"/>
@@ -5651,378 +5651,432 @@
       <c r="L49" s="205"/>
     </row>
     <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="272" t="s">
+      <c r="A50" s="262" t="s">
         <v>419</v>
       </c>
-      <c r="B50" s="273"/>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="273"/>
-      <c r="F50" s="273"/>
-      <c r="G50" s="273"/>
-      <c r="H50" s="273"/>
-      <c r="I50" s="273"/>
-      <c r="J50" s="273"/>
-      <c r="K50" s="273"/>
-      <c r="L50" s="274"/>
+      <c r="B50" s="263"/>
+      <c r="C50" s="263"/>
+      <c r="D50" s="263"/>
+      <c r="E50" s="263"/>
+      <c r="F50" s="263"/>
+      <c r="G50" s="263"/>
+      <c r="H50" s="263"/>
+      <c r="I50" s="263"/>
+      <c r="J50" s="263"/>
+      <c r="K50" s="263"/>
+      <c r="L50" s="264"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="260" t="s">
+      <c r="A51" s="265" t="s">
         <v>424</v>
       </c>
-      <c r="B51" s="266"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="266"/>
-      <c r="E51" s="266"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="266"/>
-      <c r="H51" s="266"/>
-      <c r="I51" s="266"/>
-      <c r="J51" s="266"/>
-      <c r="K51" s="266"/>
-      <c r="L51" s="267"/>
+      <c r="B51" s="260"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="260"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="260"/>
+      <c r="G51" s="260"/>
+      <c r="H51" s="260"/>
+      <c r="I51" s="260"/>
+      <c r="J51" s="260"/>
+      <c r="K51" s="260"/>
+      <c r="L51" s="261"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="260" t="s">
+      <c r="A52" s="265" t="s">
+        <v>441</v>
+      </c>
+      <c r="B52" s="260"/>
+      <c r="C52" s="260"/>
+      <c r="D52" s="260"/>
+      <c r="E52" s="260"/>
+      <c r="F52" s="260"/>
+      <c r="G52" s="260"/>
+      <c r="H52" s="260"/>
+      <c r="I52" s="260"/>
+      <c r="J52" s="260"/>
+      <c r="K52" s="260"/>
+      <c r="L52" s="261"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="265" t="s">
         <v>442</v>
       </c>
-      <c r="B52" s="266"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="266"/>
-      <c r="E52" s="266"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="266"/>
-      <c r="H52" s="266"/>
-      <c r="I52" s="266"/>
-      <c r="J52" s="266"/>
-      <c r="K52" s="266"/>
-      <c r="L52" s="267"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="260" t="s">
-        <v>443</v>
-      </c>
-      <c r="B53" s="266"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="266"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="266"/>
-      <c r="H53" s="266"/>
-      <c r="I53" s="266"/>
-      <c r="J53" s="266"/>
-      <c r="K53" s="266"/>
-      <c r="L53" s="267"/>
+      <c r="B53" s="260"/>
+      <c r="C53" s="260"/>
+      <c r="D53" s="260"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="260"/>
+      <c r="G53" s="260"/>
+      <c r="H53" s="260"/>
+      <c r="I53" s="260"/>
+      <c r="J53" s="260"/>
+      <c r="K53" s="260"/>
+      <c r="L53" s="261"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="268"/>
-      <c r="B54" s="266"/>
-      <c r="C54" s="266"/>
-      <c r="D54" s="266"/>
-      <c r="E54" s="266"/>
-      <c r="F54" s="266"/>
-      <c r="G54" s="266"/>
-      <c r="H54" s="266"/>
-      <c r="I54" s="266"/>
-      <c r="J54" s="266"/>
-      <c r="K54" s="266"/>
-      <c r="L54" s="267"/>
+      <c r="A54" s="259"/>
+      <c r="B54" s="260"/>
+      <c r="C54" s="260"/>
+      <c r="D54" s="260"/>
+      <c r="E54" s="260"/>
+      <c r="F54" s="260"/>
+      <c r="G54" s="260"/>
+      <c r="H54" s="260"/>
+      <c r="I54" s="260"/>
+      <c r="J54" s="260"/>
+      <c r="K54" s="260"/>
+      <c r="L54" s="261"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="268"/>
-      <c r="B55" s="266"/>
-      <c r="C55" s="266"/>
-      <c r="D55" s="266"/>
-      <c r="E55" s="266"/>
-      <c r="F55" s="266"/>
-      <c r="G55" s="266"/>
-      <c r="H55" s="266"/>
-      <c r="I55" s="266"/>
-      <c r="J55" s="266"/>
-      <c r="K55" s="266"/>
-      <c r="L55" s="267"/>
+      <c r="A55" s="259"/>
+      <c r="B55" s="260"/>
+      <c r="C55" s="260"/>
+      <c r="D55" s="260"/>
+      <c r="E55" s="260"/>
+      <c r="F55" s="260"/>
+      <c r="G55" s="260"/>
+      <c r="H55" s="260"/>
+      <c r="I55" s="260"/>
+      <c r="J55" s="260"/>
+      <c r="K55" s="260"/>
+      <c r="L55" s="261"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="268"/>
-      <c r="B56" s="266"/>
-      <c r="C56" s="266"/>
-      <c r="D56" s="266"/>
-      <c r="E56" s="266"/>
-      <c r="F56" s="266"/>
-      <c r="G56" s="266"/>
-      <c r="H56" s="266"/>
-      <c r="I56" s="266"/>
-      <c r="J56" s="266"/>
-      <c r="K56" s="266"/>
-      <c r="L56" s="267"/>
+      <c r="A56" s="259"/>
+      <c r="B56" s="260"/>
+      <c r="C56" s="260"/>
+      <c r="D56" s="260"/>
+      <c r="E56" s="260"/>
+      <c r="F56" s="260"/>
+      <c r="G56" s="260"/>
+      <c r="H56" s="260"/>
+      <c r="I56" s="260"/>
+      <c r="J56" s="260"/>
+      <c r="K56" s="260"/>
+      <c r="L56" s="261"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="268"/>
-      <c r="B57" s="266"/>
-      <c r="C57" s="266"/>
-      <c r="D57" s="266"/>
-      <c r="E57" s="266"/>
-      <c r="F57" s="266"/>
-      <c r="G57" s="266"/>
-      <c r="H57" s="266"/>
-      <c r="I57" s="266"/>
-      <c r="J57" s="266"/>
-      <c r="K57" s="266"/>
-      <c r="L57" s="267"/>
+      <c r="A57" s="259"/>
+      <c r="B57" s="260"/>
+      <c r="C57" s="260"/>
+      <c r="D57" s="260"/>
+      <c r="E57" s="260"/>
+      <c r="F57" s="260"/>
+      <c r="G57" s="260"/>
+      <c r="H57" s="260"/>
+      <c r="I57" s="260"/>
+      <c r="J57" s="260"/>
+      <c r="K57" s="260"/>
+      <c r="L57" s="261"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="268"/>
-      <c r="B58" s="266"/>
-      <c r="C58" s="266"/>
-      <c r="D58" s="266"/>
-      <c r="E58" s="266"/>
-      <c r="F58" s="266"/>
-      <c r="G58" s="266"/>
-      <c r="H58" s="266"/>
-      <c r="I58" s="266"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="266"/>
-      <c r="L58" s="267"/>
+      <c r="A58" s="259"/>
+      <c r="B58" s="260"/>
+      <c r="C58" s="260"/>
+      <c r="D58" s="260"/>
+      <c r="E58" s="260"/>
+      <c r="F58" s="260"/>
+      <c r="G58" s="260"/>
+      <c r="H58" s="260"/>
+      <c r="I58" s="260"/>
+      <c r="J58" s="260"/>
+      <c r="K58" s="260"/>
+      <c r="L58" s="261"/>
     </row>
     <row r="59" spans="1:12" ht="6" customHeight="1">
-      <c r="A59" s="268"/>
-      <c r="B59" s="266"/>
-      <c r="C59" s="266"/>
-      <c r="D59" s="266"/>
-      <c r="E59" s="266"/>
-      <c r="F59" s="266"/>
-      <c r="G59" s="266"/>
-      <c r="H59" s="266"/>
-      <c r="I59" s="266"/>
-      <c r="J59" s="266"/>
-      <c r="K59" s="266"/>
-      <c r="L59" s="267"/>
+      <c r="A59" s="259"/>
+      <c r="B59" s="260"/>
+      <c r="C59" s="260"/>
+      <c r="D59" s="260"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="260"/>
+      <c r="G59" s="260"/>
+      <c r="H59" s="260"/>
+      <c r="I59" s="260"/>
+      <c r="J59" s="260"/>
+      <c r="K59" s="260"/>
+      <c r="L59" s="261"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="285"/>
-      <c r="B60" s="286"/>
-      <c r="C60" s="286"/>
-      <c r="D60" s="286"/>
-      <c r="E60" s="286"/>
-      <c r="F60" s="286"/>
-      <c r="G60" s="286"/>
-      <c r="H60" s="286"/>
-      <c r="I60" s="286"/>
-      <c r="J60" s="286"/>
-      <c r="K60" s="286"/>
-      <c r="L60" s="287"/>
+      <c r="A60" s="272"/>
+      <c r="B60" s="273"/>
+      <c r="C60" s="273"/>
+      <c r="D60" s="273"/>
+      <c r="E60" s="273"/>
+      <c r="F60" s="273"/>
+      <c r="G60" s="273"/>
+      <c r="H60" s="273"/>
+      <c r="I60" s="273"/>
+      <c r="J60" s="273"/>
+      <c r="K60" s="273"/>
+      <c r="L60" s="274"/>
     </row>
     <row r="61" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A61" s="272" t="s">
+      <c r="A61" s="262" t="s">
         <v>420</v>
       </c>
-      <c r="B61" s="273"/>
-      <c r="C61" s="273"/>
-      <c r="D61" s="273"/>
-      <c r="E61" s="273"/>
-      <c r="F61" s="273"/>
-      <c r="G61" s="273"/>
-      <c r="H61" s="273"/>
-      <c r="I61" s="273"/>
-      <c r="J61" s="273"/>
-      <c r="K61" s="273"/>
-      <c r="L61" s="274"/>
+      <c r="B61" s="263"/>
+      <c r="C61" s="263"/>
+      <c r="D61" s="263"/>
+      <c r="E61" s="263"/>
+      <c r="F61" s="263"/>
+      <c r="G61" s="263"/>
+      <c r="H61" s="263"/>
+      <c r="I61" s="263"/>
+      <c r="J61" s="263"/>
+      <c r="K61" s="263"/>
+      <c r="L61" s="264"/>
     </row>
     <row r="62" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A62" s="282" t="s">
+      <c r="A62" s="269" t="s">
         <v>390</v>
       </c>
-      <c r="B62" s="283"/>
-      <c r="C62" s="283"/>
-      <c r="D62" s="283"/>
-      <c r="E62" s="283"/>
-      <c r="F62" s="283"/>
-      <c r="G62" s="283"/>
-      <c r="H62" s="283"/>
-      <c r="I62" s="283"/>
-      <c r="J62" s="283"/>
-      <c r="K62" s="283"/>
-      <c r="L62" s="284"/>
+      <c r="B62" s="270"/>
+      <c r="C62" s="270"/>
+      <c r="D62" s="270"/>
+      <c r="E62" s="270"/>
+      <c r="F62" s="270"/>
+      <c r="G62" s="270"/>
+      <c r="H62" s="270"/>
+      <c r="I62" s="270"/>
+      <c r="J62" s="270"/>
+      <c r="K62" s="270"/>
+      <c r="L62" s="271"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="260" t="s">
+      <c r="A63" s="265" t="s">
         <v>435</v>
       </c>
-      <c r="B63" s="266"/>
-      <c r="C63" s="266"/>
-      <c r="D63" s="266"/>
-      <c r="E63" s="266"/>
-      <c r="F63" s="266"/>
-      <c r="G63" s="266"/>
-      <c r="H63" s="266"/>
-      <c r="I63" s="266"/>
-      <c r="J63" s="266"/>
-      <c r="K63" s="266"/>
-      <c r="L63" s="267"/>
+      <c r="B63" s="260"/>
+      <c r="C63" s="260"/>
+      <c r="D63" s="260"/>
+      <c r="E63" s="260"/>
+      <c r="F63" s="260"/>
+      <c r="G63" s="260"/>
+      <c r="H63" s="260"/>
+      <c r="I63" s="260"/>
+      <c r="J63" s="260"/>
+      <c r="K63" s="260"/>
+      <c r="L63" s="261"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="260" t="s">
+      <c r="A64" s="265" t="s">
         <v>429</v>
       </c>
-      <c r="B64" s="266"/>
-      <c r="C64" s="266"/>
-      <c r="D64" s="266"/>
-      <c r="E64" s="266"/>
-      <c r="F64" s="266"/>
-      <c r="G64" s="266"/>
-      <c r="H64" s="266"/>
-      <c r="I64" s="266"/>
-      <c r="J64" s="266"/>
-      <c r="K64" s="266"/>
-      <c r="L64" s="267"/>
+      <c r="B64" s="260"/>
+      <c r="C64" s="260"/>
+      <c r="D64" s="260"/>
+      <c r="E64" s="260"/>
+      <c r="F64" s="260"/>
+      <c r="G64" s="260"/>
+      <c r="H64" s="260"/>
+      <c r="I64" s="260"/>
+      <c r="J64" s="260"/>
+      <c r="K64" s="260"/>
+      <c r="L64" s="261"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="260" t="s">
+      <c r="A65" s="265" t="s">
         <v>436</v>
       </c>
-      <c r="B65" s="266"/>
-      <c r="C65" s="266"/>
-      <c r="D65" s="266"/>
-      <c r="E65" s="266"/>
-      <c r="F65" s="266"/>
-      <c r="G65" s="266"/>
-      <c r="H65" s="266"/>
-      <c r="I65" s="266"/>
-      <c r="J65" s="266"/>
-      <c r="K65" s="266"/>
-      <c r="L65" s="267"/>
+      <c r="B65" s="260"/>
+      <c r="C65" s="260"/>
+      <c r="D65" s="260"/>
+      <c r="E65" s="260"/>
+      <c r="F65" s="260"/>
+      <c r="G65" s="260"/>
+      <c r="H65" s="260"/>
+      <c r="I65" s="260"/>
+      <c r="J65" s="260"/>
+      <c r="K65" s="260"/>
+      <c r="L65" s="261"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="260" t="s">
+      <c r="A66" s="265" t="s">
         <v>430</v>
       </c>
-      <c r="B66" s="266"/>
-      <c r="C66" s="266"/>
-      <c r="D66" s="266"/>
-      <c r="E66" s="266"/>
-      <c r="F66" s="266"/>
-      <c r="G66" s="266"/>
-      <c r="H66" s="266"/>
-      <c r="I66" s="266"/>
-      <c r="J66" s="266"/>
-      <c r="K66" s="266"/>
-      <c r="L66" s="267"/>
+      <c r="B66" s="260"/>
+      <c r="C66" s="260"/>
+      <c r="D66" s="260"/>
+      <c r="E66" s="260"/>
+      <c r="F66" s="260"/>
+      <c r="G66" s="260"/>
+      <c r="H66" s="260"/>
+      <c r="I66" s="260"/>
+      <c r="J66" s="260"/>
+      <c r="K66" s="260"/>
+      <c r="L66" s="261"/>
     </row>
     <row r="67" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A67" s="260" t="s">
+      <c r="A67" s="265" t="s">
         <v>431</v>
       </c>
-      <c r="B67" s="266"/>
-      <c r="C67" s="266"/>
-      <c r="D67" s="266"/>
-      <c r="E67" s="266"/>
-      <c r="F67" s="266"/>
-      <c r="G67" s="266"/>
-      <c r="H67" s="266"/>
-      <c r="I67" s="266"/>
-      <c r="J67" s="266"/>
-      <c r="K67" s="266"/>
-      <c r="L67" s="267"/>
+      <c r="B67" s="260"/>
+      <c r="C67" s="260"/>
+      <c r="D67" s="260"/>
+      <c r="E67" s="260"/>
+      <c r="F67" s="260"/>
+      <c r="G67" s="260"/>
+      <c r="H67" s="260"/>
+      <c r="I67" s="260"/>
+      <c r="J67" s="260"/>
+      <c r="K67" s="260"/>
+      <c r="L67" s="261"/>
     </row>
     <row r="68" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A68" s="260" t="s">
+      <c r="A68" s="265" t="s">
         <v>437</v>
       </c>
-      <c r="B68" s="266"/>
-      <c r="C68" s="266"/>
-      <c r="D68" s="266"/>
-      <c r="E68" s="266"/>
-      <c r="F68" s="266"/>
-      <c r="G68" s="266"/>
-      <c r="H68" s="266"/>
-      <c r="I68" s="266"/>
-      <c r="J68" s="266"/>
-      <c r="K68" s="266"/>
-      <c r="L68" s="267"/>
+      <c r="B68" s="260"/>
+      <c r="C68" s="260"/>
+      <c r="D68" s="260"/>
+      <c r="E68" s="260"/>
+      <c r="F68" s="260"/>
+      <c r="G68" s="260"/>
+      <c r="H68" s="260"/>
+      <c r="I68" s="260"/>
+      <c r="J68" s="260"/>
+      <c r="K68" s="260"/>
+      <c r="L68" s="261"/>
     </row>
     <row r="69" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A69" s="260" t="s">
+      <c r="A69" s="265" t="s">
         <v>438</v>
       </c>
-      <c r="B69" s="261"/>
-      <c r="C69" s="261"/>
-      <c r="D69" s="261"/>
-      <c r="E69" s="261"/>
-      <c r="F69" s="261"/>
-      <c r="G69" s="261"/>
-      <c r="H69" s="261"/>
-      <c r="I69" s="261"/>
-      <c r="J69" s="261"/>
-      <c r="K69" s="261"/>
-      <c r="L69" s="262"/>
+      <c r="B69" s="275"/>
+      <c r="C69" s="275"/>
+      <c r="D69" s="275"/>
+      <c r="E69" s="275"/>
+      <c r="F69" s="275"/>
+      <c r="G69" s="275"/>
+      <c r="H69" s="275"/>
+      <c r="I69" s="275"/>
+      <c r="J69" s="275"/>
+      <c r="K69" s="275"/>
+      <c r="L69" s="276"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="260" t="s">
+      <c r="A70" s="265" t="s">
         <v>439</v>
       </c>
-      <c r="B70" s="266"/>
-      <c r="C70" s="266"/>
-      <c r="D70" s="266"/>
-      <c r="E70" s="266"/>
-      <c r="F70" s="266"/>
-      <c r="G70" s="266"/>
-      <c r="H70" s="266"/>
-      <c r="I70" s="266"/>
-      <c r="J70" s="266"/>
-      <c r="K70" s="266"/>
-      <c r="L70" s="267"/>
+      <c r="B70" s="260"/>
+      <c r="C70" s="260"/>
+      <c r="D70" s="260"/>
+      <c r="E70" s="260"/>
+      <c r="F70" s="260"/>
+      <c r="G70" s="260"/>
+      <c r="H70" s="260"/>
+      <c r="I70" s="260"/>
+      <c r="J70" s="260"/>
+      <c r="K70" s="260"/>
+      <c r="L70" s="261"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="260" t="s">
+      <c r="A71" s="265" t="s">
         <v>434</v>
       </c>
-      <c r="B71" s="266"/>
-      <c r="C71" s="266"/>
-      <c r="D71" s="266"/>
-      <c r="E71" s="266"/>
-      <c r="F71" s="266"/>
-      <c r="G71" s="266"/>
-      <c r="H71" s="266"/>
-      <c r="I71" s="266"/>
-      <c r="J71" s="266"/>
-      <c r="K71" s="266"/>
-      <c r="L71" s="267"/>
+      <c r="B71" s="260"/>
+      <c r="C71" s="260"/>
+      <c r="D71" s="260"/>
+      <c r="E71" s="260"/>
+      <c r="F71" s="260"/>
+      <c r="G71" s="260"/>
+      <c r="H71" s="260"/>
+      <c r="I71" s="260"/>
+      <c r="J71" s="260"/>
+      <c r="K71" s="260"/>
+      <c r="L71" s="261"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="260" t="s">
+      <c r="A72" s="265" t="s">
         <v>432</v>
       </c>
-      <c r="B72" s="266"/>
-      <c r="C72" s="266"/>
-      <c r="D72" s="266"/>
-      <c r="E72" s="266"/>
-      <c r="F72" s="266"/>
-      <c r="G72" s="266"/>
-      <c r="H72" s="266"/>
-      <c r="I72" s="266"/>
-      <c r="J72" s="266"/>
-      <c r="K72" s="266"/>
-      <c r="L72" s="267"/>
+      <c r="B72" s="260"/>
+      <c r="C72" s="260"/>
+      <c r="D72" s="260"/>
+      <c r="E72" s="260"/>
+      <c r="F72" s="260"/>
+      <c r="G72" s="260"/>
+      <c r="H72" s="260"/>
+      <c r="I72" s="260"/>
+      <c r="J72" s="260"/>
+      <c r="K72" s="260"/>
+      <c r="L72" s="261"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="260" t="s">
+      <c r="A73" s="265" t="s">
         <v>433</v>
       </c>
-      <c r="B73" s="266"/>
-      <c r="C73" s="266"/>
-      <c r="D73" s="266"/>
-      <c r="E73" s="266"/>
-      <c r="F73" s="266"/>
-      <c r="G73" s="266"/>
-      <c r="H73" s="266"/>
-      <c r="I73" s="266"/>
-      <c r="J73" s="266"/>
-      <c r="K73" s="266"/>
-      <c r="L73" s="267"/>
+      <c r="B73" s="260"/>
+      <c r="C73" s="260"/>
+      <c r="D73" s="260"/>
+      <c r="E73" s="260"/>
+      <c r="F73" s="260"/>
+      <c r="G73" s="260"/>
+      <c r="H73" s="260"/>
+      <c r="I73" s="260"/>
+      <c r="J73" s="260"/>
+      <c r="K73" s="260"/>
+      <c r="L73" s="261"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <mergeCells count="70">
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A56:L56"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A58:L58"/>
@@ -6039,60 +6093,6 @@
     <mergeCell ref="A45:L45"/>
     <mergeCell ref="A46:L46"/>
     <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A70:L70"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A73:L73"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6208,7 +6208,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="200" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>406</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6227,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6235,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6246,7 +6246,7 @@
         <v>403</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6254,7 +6254,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6262,10 +6262,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" t="s">
         <v>454</v>
-      </c>
-      <c r="C8" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6281,7 +6281,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6289,7 +6289,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6297,7 +6297,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6305,10 +6305,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" t="s">
         <v>460</v>
-      </c>
-      <c r="C13" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6319,7 +6319,7 @@
         <v>407</v>
       </c>
       <c r="C14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6327,7 +6327,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6335,7 +6335,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6343,7 +6343,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6351,7 +6351,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6359,7 +6359,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6367,7 +6367,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6375,7 +6375,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6402,7 +6402,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6410,7 +6410,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6421,7 +6421,7 @@
         <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6429,7 +6429,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6437,7 +6437,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6445,7 +6445,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6453,7 +6453,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6469,7 +6469,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6480,7 +6480,7 @@
         <v>410</v>
       </c>
       <c r="C33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6488,7 +6488,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6496,7 +6496,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6507,7 +6507,7 @@
         <v>411</v>
       </c>
       <c r="C36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6523,7 +6523,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6531,7 +6531,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6547,7 +6547,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6558,7 +6558,7 @@
         <v>412</v>
       </c>
       <c r="C42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6566,7 +6566,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6574,7 +6574,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6582,7 +6582,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6590,7 +6590,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6598,7 +6598,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6606,7 +6606,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6622,7 +6622,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6630,10 +6630,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>494</v>
+      </c>
+      <c r="C51" t="s">
         <v>495</v>
-      </c>
-      <c r="C51" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6641,7 +6641,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6649,7 +6649,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6657,7 +6657,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6665,7 +6665,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6673,7 +6673,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6732,7 +6732,7 @@
       <c r="C2" s="143"/>
       <c r="D2" s="144"/>
       <c r="E2" s="297" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F2" s="297"/>
       <c r="G2" s="297"/>
@@ -6745,7 +6745,7 @@
       <c r="N2" s="297"/>
       <c r="O2" s="297"/>
       <c r="P2" s="145" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q2" s="288" t="s">
         <v>3</v>
@@ -6775,10 +6775,10 @@
       <c r="N3" s="298"/>
       <c r="O3" s="298"/>
       <c r="P3" s="149" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q3" s="291" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R3" s="292"/>
       <c r="S3" s="292"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="C7" s="252"/>
       <c r="D7" s="251" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E7" s="216" t="s">
         <v>107</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="M7" s="219"/>
       <c r="N7" s="255" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O7" s="219"/>
       <c r="P7" s="219"/>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C8" s="252"/>
       <c r="D8" s="251" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E8" s="216" t="s">
         <v>196</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="M8" s="219"/>
       <c r="N8" s="255" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O8" s="219"/>
       <c r="P8" s="219"/>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="C9" s="252"/>
       <c r="D9" s="251" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E9" s="216" t="s">
         <v>137</v>
@@ -7134,7 +7134,7 @@
         <v>AM</v>
       </c>
       <c r="M9" s="255" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N9" s="219"/>
       <c r="O9" s="219"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="C10" s="252"/>
       <c r="D10" s="251" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" s="216" t="s">
         <v>252</v>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="M10" s="219"/>
       <c r="N10" s="255" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O10" s="219"/>
       <c r="P10" s="219"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="C11" s="252"/>
       <c r="D11" s="251" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E11" s="216" t="s">
         <v>266</v>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="M11" s="221"/>
       <c r="N11" s="256" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O11" s="219"/>
       <c r="P11" s="219"/>
@@ -7348,11 +7348,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="251" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C12" s="252"/>
       <c r="D12" s="251" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E12" s="216" t="s">
         <v>267</v>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="M12" s="221"/>
       <c r="N12" s="256" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O12" s="219"/>
       <c r="P12" s="219"/>
@@ -7428,11 +7428,11 @@
         <v>7</v>
       </c>
       <c r="B13" s="251" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C13" s="252"/>
       <c r="D13" s="251" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E13" s="216" t="s">
         <v>254</v>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="M13" s="219"/>
       <c r="N13" s="255" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O13" s="219"/>
       <c r="P13" s="219"/>
@@ -7511,11 +7511,11 @@
         <v>8</v>
       </c>
       <c r="B14" s="251" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C14" s="252"/>
       <c r="D14" s="251" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E14" s="216" t="s">
         <v>109</v>
@@ -7545,7 +7545,7 @@
       <c r="M14" s="219"/>
       <c r="N14" s="255"/>
       <c r="O14" s="255" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P14" s="219"/>
       <c r="Q14" s="218">
@@ -7594,11 +7594,11 @@
         <v>9</v>
       </c>
       <c r="B15" s="251" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C15" s="252"/>
       <c r="D15" s="251" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E15" s="216" t="s">
         <v>125</v>
@@ -7628,7 +7628,7 @@
       <c r="M15" s="219"/>
       <c r="N15" s="219"/>
       <c r="O15" s="255" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P15" s="219"/>
       <c r="Q15" s="218">
@@ -7677,11 +7677,11 @@
         <v>10</v>
       </c>
       <c r="B16" s="251" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C16" s="252"/>
       <c r="D16" s="251" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E16" s="216" t="s">
         <v>116</v>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="M16" s="219"/>
       <c r="N16" s="255" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O16" s="219"/>
       <c r="P16" s="219"/>
@@ -7760,11 +7760,11 @@
         <v>11</v>
       </c>
       <c r="B17" s="251" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C17" s="252"/>
       <c r="D17" s="251" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E17" s="216" t="s">
         <v>252</v>
@@ -7794,7 +7794,7 @@
       <c r="M17" s="219"/>
       <c r="N17" s="219"/>
       <c r="O17" s="255" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P17" s="219"/>
       <c r="Q17" s="218">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="C18" s="252"/>
       <c r="D18" s="251" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E18" s="216" t="s">
         <v>238</v>
@@ -7877,7 +7877,7 @@
       <c r="M18" s="219"/>
       <c r="N18" s="219"/>
       <c r="O18" s="255" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P18" s="219"/>
       <c r="Q18" s="218">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C19" s="252"/>
       <c r="D19" s="251" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E19" s="216" t="s">
         <v>133</v>
@@ -7955,7 +7955,7 @@
       <c r="M19" s="221"/>
       <c r="N19" s="221"/>
       <c r="O19" s="256" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P19" s="221"/>
       <c r="Q19" s="218">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="C20" s="252"/>
       <c r="D20" s="251" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E20" s="216" t="s">
         <v>140</v>
@@ -8033,7 +8033,7 @@
       <c r="M20" s="221"/>
       <c r="N20" s="221"/>
       <c r="O20" s="256" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P20" s="219"/>
       <c r="Q20" s="218">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="C21" s="252"/>
       <c r="D21" s="251" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E21" s="216" t="s">
         <v>156</v>
@@ -8111,7 +8111,7 @@
       <c r="M21" s="221"/>
       <c r="N21" s="221"/>
       <c r="O21" s="256" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P21" s="219"/>
       <c r="Q21" s="218">
@@ -8131,7 +8131,7 @@
         <v>SIL2</v>
       </c>
       <c r="V21" s="257" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA21" s="162"/>
       <c r="AB21" s="162"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="C22" s="252"/>
       <c r="D22" s="251" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E22" s="216" t="s">
         <v>231</v>
@@ -8191,7 +8191,7 @@
       <c r="M22" s="219"/>
       <c r="N22" s="219"/>
       <c r="O22" s="255" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P22" s="219"/>
       <c r="Q22" s="218">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C23" s="252"/>
       <c r="D23" s="251" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E23" s="216" t="s">
         <v>131</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="M23" s="221"/>
       <c r="N23" s="256" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O23" s="219"/>
       <c r="P23" s="219"/>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="C24" s="252"/>
       <c r="D24" s="251" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E24" s="216" t="s">
         <v>129</v>
@@ -8348,7 +8348,7 @@
       <c r="N24" s="219"/>
       <c r="O24" s="219"/>
       <c r="P24" s="255" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q24" s="218">
         <v>2</v>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="C25" s="252"/>
       <c r="D25" s="251" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E25" s="216" t="s">
         <v>133</v>
@@ -8426,7 +8426,7 @@
       <c r="N25" s="219"/>
       <c r="O25" s="219"/>
       <c r="P25" s="255" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="218">
         <v>2</v>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="C26" s="252"/>
       <c r="D26" s="251" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E26" s="216" t="s">
         <v>160</v>
@@ -8504,7 +8504,7 @@
       <c r="N26" s="221"/>
       <c r="O26" s="221"/>
       <c r="P26" s="255" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="218">
         <v>2</v>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C27" s="252"/>
       <c r="D27" s="251" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E27" s="216" t="s">
         <v>113</v>
@@ -8580,7 +8580,7 @@
         <v>AM</v>
       </c>
       <c r="M27" s="256" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N27" s="256"/>
       <c r="O27" s="221"/>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C28" s="252"/>
       <c r="D28" s="251" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E28" s="216" t="s">
         <v>129</v>
@@ -8661,7 +8661,7 @@
       <c r="N28" s="221"/>
       <c r="O28" s="221"/>
       <c r="P28" s="255" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q28" s="218">
         <v>2</v>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C29" s="252"/>
       <c r="D29" s="251" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E29" s="216" t="s">
         <v>133</v>
@@ -8736,7 +8736,7 @@
         <v>-</v>
       </c>
       <c r="M29" s="256" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N29" s="221"/>
       <c r="O29" s="221"/>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="C30" s="252"/>
       <c r="D30" s="251" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E30" s="216" t="s">
         <v>129</v>
@@ -8814,7 +8814,7 @@
         <v>AM</v>
       </c>
       <c r="M30" s="256" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N30" s="221"/>
       <c r="O30" s="221"/>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="C31" s="252"/>
       <c r="D31" s="251" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E31" s="216" t="s">
         <v>131</v>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="M31" s="221"/>
       <c r="N31" s="256" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O31" s="219"/>
       <c r="P31" s="219"/>
@@ -8942,7 +8942,7 @@
       </c>
       <c r="C32" s="252"/>
       <c r="D32" s="251" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E32" s="216" t="s">
         <v>258</v>
@@ -8970,7 +8970,7 @@
         <v>AM</v>
       </c>
       <c r="M32" s="256" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N32" s="221"/>
       <c r="O32" s="221"/>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="C33" s="252"/>
       <c r="D33" s="251" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E33" s="216" t="s">
         <v>129</v>
@@ -9048,7 +9048,7 @@
         <v>AM</v>
       </c>
       <c r="M33" s="256" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N33" s="221"/>
       <c r="O33" s="221"/>
@@ -9098,7 +9098,7 @@
       </c>
       <c r="C34" s="252"/>
       <c r="D34" s="251" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E34" s="216" t="s">
         <v>107</v>
@@ -9129,7 +9129,7 @@
       <c r="N34" s="219"/>
       <c r="O34" s="219"/>
       <c r="P34" s="255" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q34" s="218">
         <v>3</v>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="C35" s="252"/>
       <c r="D35" s="251" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E35" s="216" t="s">
         <v>129</v>
@@ -9204,7 +9204,7 @@
         <v>AM</v>
       </c>
       <c r="M35" s="256" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N35" s="221"/>
       <c r="O35" s="221"/>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="C36" s="252"/>
       <c r="D36" s="251" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E36" s="216" t="s">
         <v>131</v>
@@ -9282,7 +9282,7 @@
         <v>AM</v>
       </c>
       <c r="M36" s="255" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N36" s="219"/>
       <c r="O36" s="219"/>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="C37" s="252"/>
       <c r="D37" s="251" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E37" s="216" t="s">
         <v>135</v>
@@ -9360,7 +9360,7 @@
         <v>-</v>
       </c>
       <c r="M37" s="256" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N37" s="221"/>
       <c r="O37" s="221"/>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="C38" s="252"/>
       <c r="D38" s="251" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E38" s="216" t="s">
         <v>156</v>
@@ -9440,7 +9440,7 @@
       <c r="M38" s="221"/>
       <c r="N38" s="221"/>
       <c r="O38" s="256" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P38" s="219"/>
       <c r="Q38" s="218">
@@ -9460,7 +9460,7 @@
         <v>SIL2</v>
       </c>
       <c r="V38" s="257" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA38" s="162"/>
       <c r="AB38" s="162"/>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="C39" s="252"/>
       <c r="D39" s="251" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E39" s="216" t="s">
         <v>245</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="M39" s="221"/>
       <c r="N39" s="256" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O39" s="221"/>
       <c r="P39" s="219"/>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="C40" s="252"/>
       <c r="D40" s="251" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E40" s="216" t="s">
         <v>129</v>
@@ -9596,7 +9596,7 @@
         <v>AM</v>
       </c>
       <c r="M40" s="256" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N40" s="221"/>
       <c r="O40" s="221"/>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="C41" s="252"/>
       <c r="D41" s="251" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E41" s="216" t="s">
         <v>254</v>
@@ -9674,7 +9674,7 @@
         <v>AM</v>
       </c>
       <c r="M41" s="256" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N41" s="221"/>
       <c r="O41" s="221"/>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="C42" s="253"/>
       <c r="D42" s="251" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E42" s="216" t="s">
         <v>131</v>
@@ -9769,7 +9769,7 @@
         <v>AM</v>
       </c>
       <c r="V42" s="258" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA42" s="162"/>
       <c r="AB42" s="162"/>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="C43" s="253"/>
       <c r="D43" s="251" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E43" s="216" t="s">
         <v>156</v>
@@ -9826,7 +9826,7 @@
       <c r="M43" s="226"/>
       <c r="N43" s="226"/>
       <c r="O43" s="256" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P43" s="226"/>
       <c r="Q43" s="224">
@@ -9846,7 +9846,7 @@
         <v>SIL2</v>
       </c>
       <c r="V43" s="257" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA43" s="162"/>
       <c r="AB43" s="162"/>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="C44" s="254"/>
       <c r="D44" s="251" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E44" s="216" t="s">
         <v>245</v>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="M44" s="229"/>
       <c r="N44" s="256" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O44" s="229"/>
       <c r="P44" s="229"/>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="C45" s="254"/>
       <c r="D45" s="251" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E45" s="216" t="s">
         <v>129</v>
@@ -9976,7 +9976,7 @@
         <v>SIL1</v>
       </c>
       <c r="M45" s="256" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N45" s="229"/>
       <c r="O45" s="229"/>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="C46" s="254"/>
       <c r="D46" s="251" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E46" s="216" t="s">
         <v>135</v>
@@ -10053,7 +10053,7 @@
       <c r="M46" s="256"/>
       <c r="N46" s="256"/>
       <c r="O46" s="256" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P46" s="229"/>
       <c r="Q46" s="227">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="C47" s="254"/>
       <c r="D47" s="251" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E47" s="216" t="s">
         <v>129</v>
@@ -10126,7 +10126,7 @@
         <v>AM</v>
       </c>
       <c r="M47" s="256" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N47" s="256"/>
       <c r="O47" s="256"/>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="C48" s="254"/>
       <c r="D48" s="251" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E48" s="216" t="s">
         <v>156</v>
@@ -10203,7 +10203,7 @@
       <c r="M48" s="256"/>
       <c r="N48" s="256"/>
       <c r="O48" s="256" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P48" s="229"/>
       <c r="Q48" s="227">
@@ -10223,7 +10223,7 @@
         <v>SIL2</v>
       </c>
       <c r="V48" s="257" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA48" s="162"/>
       <c r="AB48" s="162"/>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="C49" s="254"/>
       <c r="D49" s="251" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E49" s="216" t="s">
         <v>144</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="M49" s="256"/>
       <c r="N49" s="256" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O49" s="256"/>
       <c r="P49" s="229"/>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="C50" s="254"/>
       <c r="D50" s="251" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E50" s="216" t="s">
         <v>133</v>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="M50" s="256"/>
       <c r="N50" s="256" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O50" s="256"/>
       <c r="P50" s="229"/>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="C51" s="254"/>
       <c r="D51" s="251" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E51" s="216" t="s">
         <v>254</v>
@@ -10428,7 +10428,7 @@
         <v>-</v>
       </c>
       <c r="M51" s="256" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N51" s="256"/>
       <c r="O51" s="256"/>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="C52" s="254"/>
       <c r="D52" s="251" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E52" s="216" t="s">
         <v>135</v>
@@ -10523,7 +10523,7 @@
         <v>-</v>
       </c>
       <c r="V52" s="256" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AA52" s="162"/>
       <c r="AB52" s="162"/>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="C53" s="254"/>
       <c r="D53" s="251" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E53" s="216" t="s">
         <v>113</v>
@@ -10578,7 +10578,7 @@
         <v>AM</v>
       </c>
       <c r="M53" s="256" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N53" s="256"/>
       <c r="O53" s="256"/>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="C54" s="254"/>
       <c r="D54" s="251" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E54" s="216" t="s">
         <v>113</v>
@@ -10653,7 +10653,7 @@
         <v>AM</v>
       </c>
       <c r="M54" s="256" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N54" s="256"/>
       <c r="O54" s="256"/>
@@ -10696,11 +10696,11 @@
         <v>49</v>
       </c>
       <c r="B55" s="251" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C55" s="254"/>
       <c r="D55" s="251" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E55" s="216" t="s">
         <v>156</v>
@@ -10730,7 +10730,7 @@
       <c r="M55" s="256"/>
       <c r="N55" s="256"/>
       <c r="O55" s="256" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P55" s="229"/>
       <c r="Q55" s="227">
@@ -10750,7 +10750,7 @@
         <v>SIL2</v>
       </c>
       <c r="V55" s="257" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA55" s="162"/>
       <c r="AB55" s="162"/>
@@ -10773,11 +10773,11 @@
         <v>50</v>
       </c>
       <c r="B56" s="251" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C56" s="254"/>
       <c r="D56" s="251" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E56" s="216" t="s">
         <v>131</v>
@@ -10807,7 +10807,7 @@
       <c r="M56" s="256"/>
       <c r="N56" s="256"/>
       <c r="O56" s="256" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P56" s="229"/>
       <c r="Q56" s="227">
@@ -10848,11 +10848,11 @@
         <v>51</v>
       </c>
       <c r="B57" s="251" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C57" s="254"/>
       <c r="D57" s="251" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E57" s="216" t="s">
         <v>140</v>
@@ -10921,11 +10921,11 @@
         <v>52</v>
       </c>
       <c r="B58" s="251" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C58" s="254"/>
       <c r="D58" s="251" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E58" s="216" t="s">
         <v>252</v>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="M58" s="256"/>
       <c r="N58" s="255" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O58" s="256"/>
       <c r="P58" s="229"/>
@@ -10996,11 +10996,11 @@
         <v>53</v>
       </c>
       <c r="B59" s="251" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C59" s="254"/>
       <c r="D59" s="251" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E59" s="216" t="s">
         <v>125</v>
@@ -11030,7 +11030,7 @@
       <c r="M59" s="256"/>
       <c r="N59" s="256"/>
       <c r="O59" s="256" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P59" s="229"/>
       <c r="Q59" s="218">
@@ -11071,11 +11071,11 @@
         <v>54</v>
       </c>
       <c r="B60" s="251" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C60" s="254"/>
       <c r="D60" s="251" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E60" s="216" t="s">
         <v>135</v>
@@ -11105,7 +11105,7 @@
       <c r="M60" s="256"/>
       <c r="N60" s="256"/>
       <c r="O60" s="256" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P60" s="232"/>
       <c r="Q60" s="230">
@@ -12909,12 +12909,12 @@
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="R3" s="311" t="s">
+      <c r="R3" s="307" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="311"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
       <c r="W3" s="112" t="s">
         <v>22</v>
       </c>
@@ -12928,19 +12928,19 @@
       <c r="AD3" s="113"/>
     </row>
     <row r="4" spans="1:79" s="69" customFormat="1" ht="18">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="315" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="318"/>
-      <c r="C4" s="319"/>
+      <c r="B4" s="316"/>
+      <c r="C4" s="317"/>
       <c r="D4" s="166"/>
-      <c r="E4" s="302" t="s">
+      <c r="E4" s="325" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="304"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="327"/>
       <c r="J4" s="98"/>
       <c r="R4" s="99" t="s">
         <v>27</v>
@@ -12969,21 +12969,21 @@
       <c r="AB4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AC4" s="312" t="s">
+      <c r="AC4" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="313"/>
+      <c r="AD4" s="309"/>
     </row>
     <row r="5" spans="1:79" s="69" customFormat="1" ht="18">
-      <c r="A5" s="320"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="322"/>
+      <c r="A5" s="318"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="320"/>
       <c r="D5" s="167"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="307"/>
+      <c r="E5" s="328"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="330"/>
       <c r="J5" s="100"/>
       <c r="R5" s="101" t="s">
         <v>35</v>
@@ -13013,15 +13013,15 @@
       <c r="AB5" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="312" t="s">
+      <c r="AC5" s="308" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="313"/>
+      <c r="AD5" s="309"/>
     </row>
     <row r="6" spans="1:79" ht="18">
-      <c r="A6" s="323"/>
-      <c r="B6" s="324"/>
-      <c r="C6" s="325"/>
+      <c r="A6" s="321"/>
+      <c r="B6" s="322"/>
+      <c r="C6" s="323"/>
       <c r="D6" s="168"/>
       <c r="E6" s="125" t="s">
         <v>41</v>
@@ -13067,10 +13067,10 @@
     </row>
     <row r="7" spans="1:79" ht="18">
       <c r="A7" s="169"/>
-      <c r="B7" s="316" t="s">
+      <c r="B7" s="314" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="316"/>
+      <c r="C7" s="314"/>
       <c r="D7" s="172" t="s">
         <v>387</v>
       </c>
@@ -13108,10 +13108,10 @@
       <c r="A8" s="171" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="314" t="s">
+      <c r="B8" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="315"/>
+      <c r="C8" s="313"/>
       <c r="D8" s="177" t="s">
         <v>49</v>
       </c>
@@ -13161,10 +13161,10 @@
       <c r="A9" s="81">
         <v>4</v>
       </c>
-      <c r="B9" s="299" t="s">
+      <c r="B9" s="310" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="300"/>
+      <c r="C9" s="311"/>
       <c r="D9" s="177" t="s">
         <v>55</v>
       </c>
@@ -13214,10 +13214,10 @@
       <c r="A10" s="81">
         <v>3</v>
       </c>
-      <c r="B10" s="299" t="s">
+      <c r="B10" s="310" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="300"/>
+      <c r="C10" s="311"/>
       <c r="D10" s="177" t="s">
         <v>59</v>
       </c>
@@ -13253,10 +13253,10 @@
       <c r="A11" s="81">
         <v>2</v>
       </c>
-      <c r="B11" s="299" t="s">
+      <c r="B11" s="310" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="300"/>
+      <c r="C11" s="311"/>
       <c r="D11" s="177" t="s">
         <v>64</v>
       </c>
@@ -13272,12 +13272,12 @@
         <v>51</v>
       </c>
       <c r="J11" s="66"/>
-      <c r="R11" s="301" t="s">
+      <c r="R11" s="324" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="301"/>
-      <c r="T11" s="301"/>
-      <c r="U11" s="301"/>
+      <c r="S11" s="324"/>
+      <c r="T11" s="324"/>
+      <c r="U11" s="324"/>
       <c r="W11" s="120">
         <v>2</v>
       </c>
@@ -13296,10 +13296,10 @@
       <c r="A12" s="81">
         <v>1</v>
       </c>
-      <c r="B12" s="299" t="s">
+      <c r="B12" s="310" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="300"/>
+      <c r="C12" s="311"/>
       <c r="D12" s="180" t="s">
         <v>39</v>
       </c>
@@ -13313,10 +13313,10 @@
         <v>56</v>
       </c>
       <c r="J12" s="66"/>
-      <c r="R12" s="301"/>
-      <c r="S12" s="301"/>
-      <c r="T12" s="301"/>
-      <c r="U12" s="301"/>
+      <c r="R12" s="324"/>
+      <c r="S12" s="324"/>
+      <c r="T12" s="324"/>
+      <c r="U12" s="324"/>
       <c r="W12" s="120">
         <v>2</v>
       </c>
@@ -13335,8 +13335,8 @@
       <c r="A13" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="309"/>
-      <c r="C13" s="310"/>
+      <c r="B13" s="331"/>
+      <c r="C13" s="332"/>
       <c r="D13" s="176"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
@@ -13344,10 +13344,10 @@
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
       <c r="J13" s="66"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="301"/>
-      <c r="T13" s="301"/>
-      <c r="U13" s="301"/>
+      <c r="R13" s="324"/>
+      <c r="S13" s="324"/>
+      <c r="T13" s="324"/>
+      <c r="U13" s="324"/>
       <c r="W13" s="120">
         <v>2</v>
       </c>
@@ -13375,10 +13375,10 @@
       <c r="H14" s="185"/>
       <c r="I14" s="185"/>
       <c r="J14" s="66"/>
-      <c r="R14" s="301"/>
-      <c r="S14" s="301"/>
-      <c r="T14" s="301"/>
-      <c r="U14" s="301"/>
+      <c r="R14" s="324"/>
+      <c r="S14" s="324"/>
+      <c r="T14" s="324"/>
+      <c r="U14" s="324"/>
       <c r="W14" s="120">
         <v>2</v>
       </c>
@@ -13418,10 +13418,10 @@
         <v>397</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="R15" s="301"/>
-      <c r="S15" s="301"/>
-      <c r="T15" s="301"/>
-      <c r="U15" s="301"/>
+      <c r="R15" s="324"/>
+      <c r="S15" s="324"/>
+      <c r="T15" s="324"/>
+      <c r="U15" s="324"/>
       <c r="W15" s="120">
         <v>3</v>
       </c>
@@ -13440,10 +13440,10 @@
       <c r="A16" s="186">
         <v>5</v>
       </c>
-      <c r="B16" s="308" t="s">
+      <c r="B16" s="305" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="308"/>
+      <c r="C16" s="305"/>
       <c r="D16" s="104" t="s">
         <v>384</v>
       </c>
@@ -13487,10 +13487,10 @@
       <c r="A17" s="186">
         <v>4</v>
       </c>
-      <c r="B17" s="308" t="s">
+      <c r="B17" s="305" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="308"/>
+      <c r="C17" s="305"/>
       <c r="D17" s="104" t="s">
         <v>385</v>
       </c>
@@ -13532,10 +13532,10 @@
       <c r="A18" s="186">
         <v>3</v>
       </c>
-      <c r="B18" s="308" t="s">
+      <c r="B18" s="305" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="308"/>
+      <c r="C18" s="305"/>
       <c r="D18" s="182"/>
       <c r="E18" s="182"/>
       <c r="F18" s="182"/>
@@ -13567,18 +13567,18 @@
       <c r="A19" s="186">
         <v>2</v>
       </c>
-      <c r="B19" s="308" t="s">
+      <c r="B19" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="308"/>
-      <c r="D19" s="329" t="s">
+      <c r="C19" s="305"/>
+      <c r="D19" s="304" t="s">
         <v>398</v>
       </c>
-      <c r="E19" s="329"/>
-      <c r="F19" s="329"/>
-      <c r="G19" s="329"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="304"/>
+      <c r="I19" s="304"/>
       <c r="J19" s="66"/>
       <c r="R19" s="109" t="s">
         <v>76</v>
@@ -13604,16 +13604,16 @@
       <c r="A20" s="186">
         <v>1</v>
       </c>
-      <c r="B20" s="308" t="s">
+      <c r="B20" s="305" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="308"/>
-      <c r="D20" s="329"/>
-      <c r="E20" s="329"/>
-      <c r="F20" s="329"/>
-      <c r="G20" s="329"/>
-      <c r="H20" s="329"/>
-      <c r="I20" s="329"/>
+      <c r="C20" s="305"/>
+      <c r="D20" s="304"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="304"/>
+      <c r="G20" s="304"/>
+      <c r="H20" s="304"/>
+      <c r="I20" s="304"/>
       <c r="J20" s="66"/>
       <c r="R20" s="109" t="s">
         <v>78</v>
@@ -13639,12 +13639,12 @@
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
-      <c r="D21" s="329"/>
-      <c r="E21" s="329"/>
-      <c r="F21" s="329"/>
-      <c r="G21" s="329"/>
-      <c r="H21" s="329"/>
-      <c r="I21" s="329"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="304"/>
+      <c r="G21" s="304"/>
+      <c r="H21" s="304"/>
+      <c r="I21" s="304"/>
       <c r="J21" s="66"/>
       <c r="W21" s="120">
         <v>4</v>
@@ -13666,12 +13666,12 @@
       </c>
       <c r="B22" s="191"/>
       <c r="C22" s="191"/>
-      <c r="D22" s="329"/>
-      <c r="E22" s="329"/>
-      <c r="F22" s="329"/>
-      <c r="G22" s="329"/>
-      <c r="H22" s="329"/>
-      <c r="I22" s="329"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="304"/>
+      <c r="H22" s="304"/>
+      <c r="I22" s="304"/>
       <c r="J22" s="66"/>
       <c r="W22" s="120">
         <v>4</v>
@@ -13691,16 +13691,16 @@
       <c r="A23" s="189">
         <v>5</v>
       </c>
-      <c r="B23" s="328" t="s">
+      <c r="B23" s="303" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="328"/>
-      <c r="D23" s="329"/>
-      <c r="E23" s="329"/>
-      <c r="F23" s="329"/>
-      <c r="G23" s="329"/>
-      <c r="H23" s="329"/>
-      <c r="I23" s="329"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="304"/>
+      <c r="F23" s="304"/>
+      <c r="G23" s="304"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="304"/>
       <c r="J23" s="66"/>
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
@@ -13724,16 +13724,16 @@
       <c r="A24" s="189">
         <v>3</v>
       </c>
-      <c r="B24" s="328" t="s">
+      <c r="B24" s="303" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="328"/>
-      <c r="D24" s="329"/>
-      <c r="E24" s="329"/>
-      <c r="F24" s="329"/>
-      <c r="G24" s="329"/>
-      <c r="H24" s="329"/>
-      <c r="I24" s="329"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="304"/>
+      <c r="F24" s="304"/>
+      <c r="G24" s="304"/>
+      <c r="H24" s="304"/>
+      <c r="I24" s="304"/>
       <c r="J24" s="66"/>
       <c r="W24" s="120">
         <v>4</v>
@@ -13753,16 +13753,16 @@
       <c r="A25" s="189">
         <v>1</v>
       </c>
-      <c r="B25" s="328" t="s">
+      <c r="B25" s="303" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="328"/>
-      <c r="D25" s="329"/>
-      <c r="E25" s="329"/>
-      <c r="F25" s="329"/>
-      <c r="G25" s="329"/>
-      <c r="H25" s="329"/>
-      <c r="I25" s="329"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="304"/>
+      <c r="F25" s="304"/>
+      <c r="G25" s="304"/>
+      <c r="H25" s="304"/>
+      <c r="I25" s="304"/>
       <c r="J25" s="66"/>
       <c r="W25" s="120">
         <v>5</v>
@@ -13782,12 +13782,12 @@
       <c r="A26" s="193"/>
       <c r="B26" s="193"/>
       <c r="C26" s="193"/>
-      <c r="D26" s="329"/>
-      <c r="E26" s="329"/>
-      <c r="F26" s="329"/>
-      <c r="G26" s="329"/>
-      <c r="H26" s="329"/>
-      <c r="I26" s="329"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="304"/>
+      <c r="G26" s="304"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="304"/>
       <c r="J26" s="66"/>
       <c r="W26" s="120"/>
       <c r="X26" s="112"/>
@@ -13798,12 +13798,12 @@
       <c r="A27" s="193"/>
       <c r="B27" s="193"/>
       <c r="C27" s="193"/>
-      <c r="D27" s="329"/>
-      <c r="E27" s="329"/>
-      <c r="F27" s="329"/>
-      <c r="G27" s="329"/>
-      <c r="H27" s="329"/>
-      <c r="I27" s="329"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
+      <c r="F27" s="304"/>
+      <c r="G27" s="304"/>
+      <c r="H27" s="304"/>
+      <c r="I27" s="304"/>
       <c r="J27" s="66"/>
       <c r="W27" s="120"/>
       <c r="X27" s="112"/>
@@ -13814,12 +13814,12 @@
       <c r="A28" s="193"/>
       <c r="B28" s="193"/>
       <c r="C28" s="193"/>
-      <c r="D28" s="329"/>
-      <c r="E28" s="329"/>
-      <c r="F28" s="329"/>
-      <c r="G28" s="329"/>
-      <c r="H28" s="329"/>
-      <c r="I28" s="329"/>
+      <c r="D28" s="304"/>
+      <c r="E28" s="304"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="304"/>
       <c r="J28" s="66"/>
       <c r="W28" s="120"/>
       <c r="X28" s="112"/>
@@ -13830,12 +13830,12 @@
       <c r="A29" s="193"/>
       <c r="B29" s="193"/>
       <c r="C29" s="193"/>
-      <c r="D29" s="330"/>
-      <c r="E29" s="330"/>
-      <c r="F29" s="330"/>
-      <c r="G29" s="330"/>
-      <c r="H29" s="330"/>
-      <c r="I29" s="330"/>
+      <c r="D29" s="306"/>
+      <c r="E29" s="306"/>
+      <c r="F29" s="306"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="306"/>
+      <c r="I29" s="306"/>
       <c r="J29" s="66"/>
       <c r="W29" s="120"/>
       <c r="X29" s="112"/>
@@ -13907,10 +13907,10 @@
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1">
       <c r="A32" s="90"/>
-      <c r="B32" s="332" t="s">
+      <c r="B32" s="301" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="332"/>
+      <c r="C32" s="301"/>
       <c r="D32" s="173" t="s">
         <v>82</v>
       </c>
@@ -13946,21 +13946,21 @@
       <c r="A33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="326" t="s">
+      <c r="B33" s="300" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="326"/>
+      <c r="C33" s="300"/>
       <c r="D33" s="165" t="s">
         <v>378</v>
       </c>
-      <c r="E33" s="326"/>
-      <c r="F33" s="326"/>
-      <c r="G33" s="326"/>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326"/>
-      <c r="J33" s="326"/>
-      <c r="K33" s="326"/>
-      <c r="L33" s="326"/>
+      <c r="E33" s="300"/>
+      <c r="F33" s="300"/>
+      <c r="G33" s="300"/>
+      <c r="H33" s="300"/>
+      <c r="I33" s="300"/>
+      <c r="J33" s="300"/>
+      <c r="K33" s="300"/>
+      <c r="L33" s="300"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -13983,55 +13983,55 @@
       <c r="A34" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="326" t="s">
+      <c r="B34" s="300" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="326"/>
+      <c r="C34" s="300"/>
       <c r="D34" s="165" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="326" t="s">
+      <c r="E34" s="300" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="326"/>
-      <c r="G34" s="326"/>
-      <c r="H34" s="326"/>
-      <c r="I34" s="326"/>
-      <c r="J34" s="326"/>
-      <c r="K34" s="326"/>
-      <c r="L34" s="326"/>
+      <c r="F34" s="300"/>
+      <c r="G34" s="300"/>
+      <c r="H34" s="300"/>
+      <c r="I34" s="300"/>
+      <c r="J34" s="300"/>
+      <c r="K34" s="300"/>
+      <c r="L34" s="300"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="R34" s="331" t="s">
+      <c r="R34" s="299" t="s">
         <v>86</v>
       </c>
-      <c r="S34" s="331"/>
-      <c r="T34" s="331"/>
-      <c r="U34" s="331"/>
+      <c r="S34" s="299"/>
+      <c r="T34" s="299"/>
+      <c r="U34" s="299"/>
     </row>
     <row r="35" spans="1:47" ht="218.25" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="326" t="s">
+      <c r="B35" s="300" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="326"/>
+      <c r="C35" s="300"/>
       <c r="D35" s="165" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="326" t="s">
+      <c r="E35" s="300" t="s">
         <v>382</v>
       </c>
-      <c r="F35" s="326"/>
-      <c r="G35" s="326"/>
-      <c r="H35" s="326"/>
-      <c r="I35" s="326"/>
-      <c r="J35" s="326"/>
-      <c r="K35" s="326"/>
-      <c r="L35" s="326"/>
+      <c r="F35" s="300"/>
+      <c r="G35" s="300"/>
+      <c r="H35" s="300"/>
+      <c r="I35" s="300"/>
+      <c r="J35" s="300"/>
+      <c r="K35" s="300"/>
+      <c r="L35" s="300"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -14041,21 +14041,21 @@
       <c r="A36" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="326" t="s">
+      <c r="B36" s="300" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="327"/>
+      <c r="C36" s="302"/>
       <c r="D36" s="174" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="326"/>
-      <c r="F36" s="326"/>
-      <c r="G36" s="326"/>
-      <c r="H36" s="326"/>
-      <c r="I36" s="326"/>
-      <c r="J36" s="326"/>
-      <c r="K36" s="326"/>
-      <c r="L36" s="326"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="300"/>
+      <c r="G36" s="300"/>
+      <c r="H36" s="300"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="300"/>
+      <c r="K36" s="300"/>
+      <c r="L36" s="300"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -15875,11 +15875,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R11:U15"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:C6"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:L36"/>
     <mergeCell ref="E33:L33"/>
@@ -15891,23 +15903,11 @@
     <mergeCell ref="D19:I28"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D29:I29"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="R11:U15"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39305555555555599" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.196527777777778"/>
@@ -15928,7 +15928,7 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -17213,8 +17213,8 @@
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="337"/>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="38" t="s">
@@ -17245,7 +17245,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="351" t="s">
+      <c r="A9" s="339" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17253,13 +17253,13 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="352"/>
+      <c r="A10" s="340"/>
       <c r="B10" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="338" t="s">
+      <c r="A11" s="341" t="s">
         <v>299</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -17267,7 +17267,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="340"/>
+      <c r="A12" s="343"/>
       <c r="B12" s="2" t="s">
         <v>301</v>
       </c>
@@ -17297,7 +17297,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="341" t="s">
+      <c r="A16" s="344" t="s">
         <v>308</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -17305,19 +17305,19 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="342"/>
+      <c r="A17" s="345"/>
       <c r="B17" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="343"/>
+      <c r="A18" s="346"/>
       <c r="B18" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="341" t="s">
+      <c r="A19" s="344" t="s">
         <v>312</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -17325,37 +17325,37 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="342"/>
+      <c r="A20" s="345"/>
       <c r="B20" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="342"/>
+      <c r="A21" s="345"/>
       <c r="B21" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="342"/>
+      <c r="A22" s="345"/>
       <c r="B22" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="342"/>
+      <c r="A23" s="345"/>
       <c r="B23" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="343"/>
+      <c r="A24" s="346"/>
       <c r="B24" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="344" t="s">
+      <c r="A25" s="347" t="s">
         <v>319</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -17363,37 +17363,37 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="345"/>
+      <c r="A26" s="348"/>
       <c r="B26" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="345"/>
+      <c r="A27" s="348"/>
       <c r="B27" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="345"/>
+      <c r="A28" s="348"/>
       <c r="B28" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="345"/>
+      <c r="A29" s="348"/>
       <c r="B29" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="346"/>
+      <c r="A30" s="349"/>
       <c r="B30" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A31" s="347" t="s">
+      <c r="A31" s="350" t="s">
         <v>326</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -17401,44 +17401,44 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="348"/>
+      <c r="A32" s="351"/>
       <c r="B32" s="48" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="348"/>
+      <c r="A33" s="351"/>
       <c r="B33" s="48" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="348"/>
+      <c r="A34" s="351"/>
       <c r="B34" s="48" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="348"/>
+      <c r="A35" s="351"/>
       <c r="B35" s="48" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="348"/>
+      <c r="A36" s="351"/>
       <c r="B36" s="48" t="s">
         <v>332</v>
       </c>
       <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="349"/>
+      <c r="A37" s="352"/>
       <c r="B37" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="338" t="s">
+      <c r="A38" s="341" t="s">
         <v>334</v>
       </c>
       <c r="B38" s="50" t="s">
@@ -17446,25 +17446,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="339"/>
+      <c r="A39" s="342"/>
       <c r="B39" s="51" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="339"/>
+      <c r="A40" s="342"/>
       <c r="B40" s="51" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="339"/>
+      <c r="A41" s="342"/>
       <c r="B41" s="51" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="340"/>
+      <c r="A42" s="343"/>
       <c r="B42" s="5" t="s">
         <v>339</v>
       </c>
@@ -17489,17 +17489,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -17555,19 +17555,19 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="23.25">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="353" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="370"/>
+      <c r="B4" s="353"/>
+      <c r="C4" s="353"/>
+      <c r="D4" s="353"/>
+      <c r="E4" s="353"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="353"/>
+      <c r="I4" s="353"/>
+      <c r="J4" s="353"/>
+      <c r="K4" s="353"/>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -17598,13 +17598,13 @@
         <v>343</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="371" t="s">
+      <c r="H6" s="356" t="s">
         <v>344</v>
       </c>
-      <c r="I6" s="372"/>
-      <c r="J6" s="373"/>
+      <c r="I6" s="357"/>
+      <c r="J6" s="358"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="353" t="s">
+      <c r="L6" s="367" t="s">
         <v>345</v>
       </c>
       <c r="M6" s="354"/>
@@ -17629,25 +17629,25 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="364" t="s">
+      <c r="D8" s="360" t="s">
         <v>346</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G8" s="369" t="s">
+      <c r="G8" s="366" t="s">
         <v>348</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="368" t="s">
+      <c r="J8" s="359" t="s">
         <v>349</v>
       </c>
       <c r="K8" s="363" t="s">
         <v>348</v>
       </c>
-      <c r="L8" s="368" t="s">
+      <c r="L8" s="359" t="s">
         <v>350</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -17661,16 +17661,16 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="365"/>
+      <c r="D9" s="361"/>
       <c r="E9" s="11"/>
       <c r="F9" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="G9" s="369"/>
+      <c r="G9" s="366"/>
       <c r="H9" s="19"/>
-      <c r="J9" s="368"/>
+      <c r="J9" s="359"/>
       <c r="K9" s="363"/>
-      <c r="L9" s="368"/>
+      <c r="L9" s="359"/>
       <c r="N9" s="27" t="s">
         <v>13</v>
       </c>
@@ -17682,17 +17682,17 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="365"/>
+      <c r="D10" s="361"/>
       <c r="E10" s="11"/>
       <c r="F10" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="G10" s="369"/>
+      <c r="G10" s="366"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="368"/>
+      <c r="J10" s="359"/>
       <c r="K10" s="363"/>
-      <c r="L10" s="368"/>
+      <c r="L10" s="359"/>
       <c r="N10" s="27" t="s">
         <v>14</v>
       </c>
@@ -17704,15 +17704,15 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="365"/>
+      <c r="D11" s="361"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="369"/>
+      <c r="G11" s="366"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="368"/>
+      <c r="J11" s="359"/>
       <c r="K11" s="363"/>
-      <c r="L11" s="368"/>
+      <c r="L11" s="359"/>
       <c r="N11" s="27" t="s">
         <v>15</v>
       </c>
@@ -17728,15 +17728,15 @@
         <v>6</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="366"/>
+      <c r="D12" s="362"/>
       <c r="E12" s="11"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="369"/>
+      <c r="G12" s="366"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="368"/>
+      <c r="J12" s="359"/>
       <c r="K12" s="363"/>
-      <c r="L12" s="368"/>
+      <c r="L12" s="359"/>
       <c r="N12" s="27" t="s">
         <v>16</v>
       </c>
@@ -17772,27 +17772,27 @@
         <v>6</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="368" t="s">
+      <c r="D14" s="359" t="s">
         <v>342</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="367" t="s">
+      <c r="G14" s="375" t="s">
         <v>348</v>
       </c>
-      <c r="H14" s="364" t="s">
+      <c r="H14" s="360" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="375" t="s">
+      <c r="I14" s="365" t="s">
         <v>348</v>
       </c>
-      <c r="J14" s="362" t="s">
+      <c r="J14" s="374" t="s">
         <v>354</v>
       </c>
       <c r="K14" s="363" t="s">
         <v>348</v>
       </c>
-      <c r="L14" s="362" t="s">
+      <c r="L14" s="374" t="s">
         <v>350</v>
       </c>
       <c r="N14" s="27" t="s">
@@ -17810,17 +17810,17 @@
         <v>6</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="368"/>
+      <c r="D15" s="359"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="G15" s="367"/>
-      <c r="H15" s="365"/>
-      <c r="I15" s="375"/>
-      <c r="J15" s="362"/>
+      <c r="G15" s="375"/>
+      <c r="H15" s="361"/>
+      <c r="I15" s="365"/>
+      <c r="J15" s="374"/>
       <c r="K15" s="363"/>
-      <c r="L15" s="362"/>
+      <c r="L15" s="374"/>
       <c r="N15" s="27" t="s">
         <v>13</v>
       </c>
@@ -17836,17 +17836,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="368"/>
+      <c r="D16" s="359"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G16" s="367"/>
-      <c r="H16" s="365"/>
-      <c r="I16" s="375"/>
-      <c r="J16" s="362"/>
+      <c r="G16" s="375"/>
+      <c r="H16" s="361"/>
+      <c r="I16" s="365"/>
+      <c r="J16" s="374"/>
       <c r="K16" s="363"/>
-      <c r="L16" s="362"/>
+      <c r="L16" s="374"/>
       <c r="N16" s="27" t="s">
         <v>14</v>
       </c>
@@ -17855,22 +17855,22 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="356" t="s">
+      <c r="A17" s="368" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="357"/>
+      <c r="B17" s="369"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="368"/>
+      <c r="D17" s="359"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G17" s="367"/>
-      <c r="H17" s="365"/>
-      <c r="I17" s="375"/>
-      <c r="J17" s="362"/>
+      <c r="G17" s="375"/>
+      <c r="H17" s="361"/>
+      <c r="I17" s="365"/>
+      <c r="J17" s="374"/>
       <c r="K17" s="363"/>
-      <c r="L17" s="362"/>
+      <c r="L17" s="374"/>
       <c r="N17" s="27" t="s">
         <v>15</v>
       </c>
@@ -17879,20 +17879,20 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="358"/>
-      <c r="B18" s="359"/>
+      <c r="A18" s="370"/>
+      <c r="B18" s="371"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="368"/>
+      <c r="D18" s="359"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="G18" s="367"/>
-      <c r="H18" s="365"/>
-      <c r="I18" s="375"/>
-      <c r="J18" s="362"/>
+      <c r="G18" s="375"/>
+      <c r="H18" s="361"/>
+      <c r="I18" s="365"/>
+      <c r="J18" s="374"/>
       <c r="K18" s="363"/>
-      <c r="L18" s="362"/>
+      <c r="L18" s="374"/>
       <c r="M18" s="18"/>
       <c r="N18" s="27" t="s">
         <v>16</v>
@@ -17902,42 +17902,42 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="358"/>
-      <c r="B19" s="359"/>
+      <c r="A19" s="370"/>
+      <c r="B19" s="371"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="368"/>
+      <c r="D19" s="359"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="G19" s="367"/>
-      <c r="H19" s="365"/>
+      <c r="G19" s="375"/>
+      <c r="H19" s="361"/>
       <c r="I19" s="18"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="358"/>
-      <c r="B20" s="359"/>
+      <c r="A20" s="370"/>
+      <c r="B20" s="371"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="368"/>
+      <c r="D20" s="359"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="G20" s="367"/>
-      <c r="H20" s="365"/>
-      <c r="I20" s="369" t="s">
+      <c r="G20" s="375"/>
+      <c r="H20" s="361"/>
+      <c r="I20" s="366" t="s">
         <v>348</v>
       </c>
-      <c r="J20" s="362" t="s">
+      <c r="J20" s="374" t="s">
         <v>361</v>
       </c>
-      <c r="K20" s="374" t="s">
+      <c r="K20" s="364" t="s">
         <v>348</v>
       </c>
-      <c r="L20" s="362" t="s">
+      <c r="L20" s="374" t="s">
         <v>362</v>
       </c>
       <c r="N20" s="27" t="s">
@@ -17948,20 +17948,20 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="360"/>
-      <c r="B21" s="361"/>
+      <c r="A21" s="372"/>
+      <c r="B21" s="373"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="368"/>
+      <c r="D21" s="359"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="G21" s="367"/>
-      <c r="H21" s="365"/>
-      <c r="I21" s="369"/>
-      <c r="J21" s="362"/>
-      <c r="K21" s="374"/>
-      <c r="L21" s="362"/>
+      <c r="G21" s="375"/>
+      <c r="H21" s="361"/>
+      <c r="I21" s="366"/>
+      <c r="J21" s="374"/>
+      <c r="K21" s="364"/>
+      <c r="L21" s="374"/>
       <c r="N21" s="27" t="s">
         <v>13</v>
       </c>
@@ -17973,17 +17973,17 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="368"/>
+      <c r="D22" s="359"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G22" s="367"/>
-      <c r="H22" s="365"/>
-      <c r="I22" s="369"/>
-      <c r="J22" s="362"/>
-      <c r="K22" s="374"/>
-      <c r="L22" s="362"/>
+      <c r="G22" s="375"/>
+      <c r="H22" s="361"/>
+      <c r="I22" s="366"/>
+      <c r="J22" s="374"/>
+      <c r="K22" s="364"/>
+      <c r="L22" s="374"/>
       <c r="N22" s="27" t="s">
         <v>14</v>
       </c>
@@ -17995,17 +17995,17 @@
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="368"/>
+      <c r="D23" s="359"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G23" s="367"/>
-      <c r="H23" s="365"/>
-      <c r="I23" s="369"/>
-      <c r="J23" s="362"/>
-      <c r="K23" s="374"/>
-      <c r="L23" s="362"/>
+      <c r="G23" s="375"/>
+      <c r="H23" s="361"/>
+      <c r="I23" s="366"/>
+      <c r="J23" s="374"/>
+      <c r="K23" s="364"/>
+      <c r="L23" s="374"/>
       <c r="N23" s="27" t="s">
         <v>15</v>
       </c>
@@ -18017,15 +18017,15 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="368"/>
+      <c r="D24" s="359"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="367"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="362"/>
-      <c r="K24" s="374"/>
-      <c r="L24" s="362"/>
+      <c r="G24" s="375"/>
+      <c r="H24" s="362"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="374"/>
+      <c r="K24" s="364"/>
+      <c r="L24" s="374"/>
       <c r="N24" s="27" t="s">
         <v>16</v>
       </c>
@@ -18054,16 +18054,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I20:I24"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="A17:B21"/>
     <mergeCell ref="J14:J18"/>
@@ -18075,6 +18065,16 @@
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="L20:L24"/>
     <mergeCell ref="G8:G12"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I20:I24"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.78680555555555598" bottom="0.39305555555555599" header="0.31388888888888899" footer="0.31388888888888899"/>

--- a/RB-Blessing/CE-Beurteilung.xlsx
+++ b/RB-Blessing/CE-Beurteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A518B-2AC2-4870-970C-3E499D78096F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B297614B-BA01-4279-A7B1-94B0AD7537D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3876,392 +3876,6 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4272,43 +3886,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4349,6 +3927,428 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4606,14 +4606,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5011,727 +5011,727 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="300" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="255"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="302"/>
     </row>
     <row r="2" spans="1:11" s="195" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="259"/>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="261"/>
+      <c r="A2" s="275"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="277"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="271" t="s">
         <v>415</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="264"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="273"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="274" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="258"/>
-      <c r="B5" s="256"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="257"/>
+      <c r="A5" s="268"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="270"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="265" t="s">
+      <c r="A6" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="264"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="273"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="367" t="s">
+      <c r="A7" s="297" t="s">
         <v>443</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="368"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="298"/>
+      <c r="J7" s="298"/>
+      <c r="K7" s="299"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="250" t="s">
+      <c r="A8" s="274" t="s">
         <v>444</v>
       </c>
-      <c r="B8" s="256"/>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="257"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="269"/>
+      <c r="I8" s="269"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="270"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="250" t="s">
+      <c r="A9" s="274" t="s">
         <v>445</v>
       </c>
-      <c r="B9" s="251"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="251"/>
-      <c r="K9" s="252"/>
+      <c r="B9" s="284"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="284"/>
+      <c r="F9" s="284"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="284"/>
+      <c r="I9" s="284"/>
+      <c r="J9" s="284"/>
+      <c r="K9" s="285"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="250" t="s">
+      <c r="A10" s="274" t="s">
         <v>446</v>
       </c>
-      <c r="B10" s="256"/>
-      <c r="C10" s="256"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="257"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="270"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="258"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="257"/>
+      <c r="A11" s="268"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="270"/>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="265" t="s">
+      <c r="A12" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="263"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="264"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="272"/>
+      <c r="H12" s="272"/>
+      <c r="I12" s="272"/>
+      <c r="J12" s="272"/>
+      <c r="K12" s="273"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A13" s="250" t="s">
+      <c r="A13" s="274" t="s">
         <v>543</v>
       </c>
-      <c r="B13" s="256"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="257"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="270"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="250" t="s">
+      <c r="A14" s="274" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="256"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="257"/>
+      <c r="B14" s="269"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="269"/>
+      <c r="F14" s="269"/>
+      <c r="G14" s="269"/>
+      <c r="H14" s="269"/>
+      <c r="I14" s="269"/>
+      <c r="J14" s="269"/>
+      <c r="K14" s="270"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="250"/>
-      <c r="B15" s="256"/>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="257"/>
+      <c r="A15" s="274"/>
+      <c r="B15" s="269"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="269"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="269"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="269"/>
+      <c r="K15" s="270"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="258"/>
-      <c r="B16" s="256"/>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
+      <c r="A16" s="268"/>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="269"/>
+      <c r="I16" s="269"/>
+      <c r="J16" s="269"/>
+      <c r="K16" s="270"/>
     </row>
     <row r="17" spans="1:11" ht="9" customHeight="1">
-      <c r="A17" s="258"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="257"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="269"/>
+      <c r="I17" s="269"/>
+      <c r="J17" s="269"/>
+      <c r="K17" s="270"/>
     </row>
     <row r="18" spans="1:11" s="195" customFormat="1" ht="6" customHeight="1">
-      <c r="A18" s="259"/>
-      <c r="B18" s="260"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="260"/>
-      <c r="J18" s="260"/>
-      <c r="K18" s="261"/>
+      <c r="A18" s="275"/>
+      <c r="B18" s="276"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="276"/>
+      <c r="E18" s="276"/>
+      <c r="F18" s="276"/>
+      <c r="G18" s="276"/>
+      <c r="H18" s="276"/>
+      <c r="I18" s="276"/>
+      <c r="J18" s="276"/>
+      <c r="K18" s="277"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="262" t="s">
+      <c r="A19" s="271" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="263"/>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="263"/>
-      <c r="F19" s="263"/>
-      <c r="G19" s="263"/>
-      <c r="H19" s="263"/>
-      <c r="I19" s="263"/>
-      <c r="J19" s="263"/>
-      <c r="K19" s="264"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="272"/>
+      <c r="I19" s="272"/>
+      <c r="J19" s="272"/>
+      <c r="K19" s="273"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="250"/>
-      <c r="B20" s="268"/>
-      <c r="C20" s="268"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="268"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="369"/>
+      <c r="A20" s="274"/>
+      <c r="B20" s="292"/>
+      <c r="C20" s="292"/>
+      <c r="D20" s="292"/>
+      <c r="E20" s="292"/>
+      <c r="F20" s="292"/>
+      <c r="G20" s="292"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="292"/>
+      <c r="J20" s="292"/>
+      <c r="K20" s="293"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="370"/>
-      <c r="B21" s="371" t="s">
+      <c r="A21" s="294"/>
+      <c r="B21" s="286" t="s">
         <v>367</v>
       </c>
-      <c r="C21" s="371"/>
-      <c r="D21" s="371"/>
-      <c r="E21" s="371"/>
-      <c r="F21" s="371"/>
-      <c r="G21" s="371"/>
-      <c r="H21" s="371"/>
-      <c r="I21" s="371"/>
-      <c r="J21" s="371"/>
-      <c r="K21" s="372"/>
+      <c r="C21" s="286"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="287"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A22" s="373"/>
-      <c r="B22" s="266" t="s">
+      <c r="A22" s="295"/>
+      <c r="B22" s="288" t="s">
         <v>373</v>
       </c>
-      <c r="C22" s="266" t="s">
+      <c r="C22" s="288" t="s">
         <v>375</v>
       </c>
-      <c r="D22" s="266" t="s">
+      <c r="D22" s="288" t="s">
         <v>370</v>
       </c>
-      <c r="E22" s="266" t="s">
+      <c r="E22" s="288" t="s">
         <v>372</v>
       </c>
-      <c r="F22" s="266" t="s">
+      <c r="F22" s="288" t="s">
         <v>368</v>
       </c>
-      <c r="G22" s="266" t="s">
+      <c r="G22" s="288" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="266" t="s">
+      <c r="H22" s="288" t="s">
         <v>371</v>
       </c>
-      <c r="I22" s="266" t="s">
+      <c r="I22" s="288" t="s">
         <v>376</v>
       </c>
-      <c r="J22" s="266"/>
-      <c r="K22" s="374"/>
+      <c r="J22" s="288"/>
+      <c r="K22" s="290"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="375" t="s">
+      <c r="A23" s="253" t="s">
         <v>388</v>
       </c>
-      <c r="B23" s="267"/>
-      <c r="C23" s="267"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="267"/>
-      <c r="F23" s="267"/>
-      <c r="G23" s="267"/>
-      <c r="H23" s="267"/>
-      <c r="I23" s="267"/>
-      <c r="J23" s="267"/>
-      <c r="K23" s="376"/>
+      <c r="B23" s="289"/>
+      <c r="C23" s="289"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="289"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="291"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="377" t="s">
+      <c r="A24" s="254" t="s">
         <v>406</v>
       </c>
-      <c r="B24" s="378" t="s">
+      <c r="B24" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="C24" s="378"/>
-      <c r="D24" s="379"/>
-      <c r="E24" s="379"/>
-      <c r="F24" s="379"/>
-      <c r="G24" s="379"/>
-      <c r="H24" s="379"/>
-      <c r="I24" s="379"/>
-      <c r="J24" s="379"/>
-      <c r="K24" s="380"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="256"/>
+      <c r="K24" s="257"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="381" t="s">
+      <c r="A25" s="258" t="s">
         <v>403</v>
       </c>
-      <c r="B25" s="379"/>
-      <c r="C25" s="378" t="s">
+      <c r="B25" s="256"/>
+      <c r="C25" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="378" t="s">
+      <c r="D25" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="379"/>
-      <c r="F25" s="379"/>
-      <c r="G25" s="379"/>
-      <c r="H25" s="379"/>
-      <c r="I25" s="379"/>
-      <c r="J25" s="379"/>
-      <c r="K25" s="380"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="256"/>
+      <c r="K25" s="257"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="381" t="s">
+      <c r="A26" s="258" t="s">
         <v>404</v>
       </c>
-      <c r="B26" s="379"/>
-      <c r="C26" s="379"/>
-      <c r="D26" s="379"/>
-      <c r="E26" s="378" t="s">
+      <c r="B26" s="256"/>
+      <c r="C26" s="256"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="F26" s="378"/>
-      <c r="G26" s="379"/>
-      <c r="H26" s="379"/>
-      <c r="I26" s="379"/>
-      <c r="J26" s="379"/>
-      <c r="K26" s="380"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="256"/>
+      <c r="K26" s="257"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="381" t="s">
+      <c r="A27" s="258" t="s">
         <v>405</v>
       </c>
-      <c r="B27" s="379"/>
-      <c r="C27" s="379"/>
-      <c r="D27" s="379"/>
-      <c r="E27" s="379"/>
-      <c r="F27" s="378" t="s">
+      <c r="B27" s="256"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="G27" s="379"/>
-      <c r="H27" s="379"/>
-      <c r="I27" s="379"/>
-      <c r="J27" s="379"/>
-      <c r="K27" s="380"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="256"/>
+      <c r="K27" s="257"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="381" t="s">
+      <c r="A28" s="258" t="s">
         <v>407</v>
       </c>
-      <c r="B28" s="379"/>
-      <c r="C28" s="379"/>
-      <c r="D28" s="379"/>
-      <c r="E28" s="379"/>
-      <c r="F28" s="378" t="s">
+      <c r="B28" s="256"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="G28" s="379"/>
-      <c r="H28" s="379"/>
-      <c r="I28" s="379"/>
-      <c r="J28" s="379"/>
-      <c r="K28" s="380"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="256"/>
+      <c r="K28" s="257"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="381" t="s">
+      <c r="A29" s="258" t="s">
         <v>408</v>
       </c>
-      <c r="B29" s="379"/>
-      <c r="C29" s="379"/>
-      <c r="D29" s="379"/>
-      <c r="E29" s="379"/>
-      <c r="F29" s="378" t="s">
+      <c r="B29" s="256"/>
+      <c r="C29" s="256"/>
+      <c r="D29" s="256"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="G29" s="379"/>
-      <c r="H29" s="379"/>
-      <c r="I29" s="379"/>
-      <c r="J29" s="379"/>
-      <c r="K29" s="380"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="256"/>
+      <c r="K29" s="257"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="381" t="s">
+      <c r="A30" s="258" t="s">
         <v>409</v>
       </c>
-      <c r="B30" s="379"/>
-      <c r="C30" s="379"/>
-      <c r="D30" s="379"/>
-      <c r="E30" s="379"/>
-      <c r="F30" s="378" t="s">
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="G30" s="379"/>
-      <c r="H30" s="379"/>
-      <c r="I30" s="379"/>
-      <c r="J30" s="379"/>
-      <c r="K30" s="380"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="256"/>
+      <c r="K30" s="257"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="381" t="s">
+      <c r="A31" s="258" t="s">
         <v>410</v>
       </c>
-      <c r="B31" s="379"/>
-      <c r="C31" s="379"/>
-      <c r="D31" s="379"/>
-      <c r="E31" s="379"/>
-      <c r="F31" s="378" t="s">
+      <c r="B31" s="256"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="G31" s="379"/>
-      <c r="H31" s="379"/>
-      <c r="I31" s="379"/>
-      <c r="J31" s="379"/>
-      <c r="K31" s="380"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="256"/>
+      <c r="K31" s="257"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="381" t="s">
+      <c r="A32" s="258" t="s">
         <v>411</v>
       </c>
-      <c r="B32" s="379"/>
-      <c r="C32" s="379"/>
-      <c r="D32" s="379"/>
-      <c r="E32" s="379"/>
-      <c r="F32" s="378" t="s">
+      <c r="B32" s="256"/>
+      <c r="C32" s="256"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="G32" s="378" t="s">
+      <c r="G32" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="H32" s="378"/>
-      <c r="I32" s="379"/>
-      <c r="J32" s="379"/>
-      <c r="K32" s="380"/>
+      <c r="H32" s="255"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="256"/>
+      <c r="K32" s="257"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="381" t="s">
+      <c r="A33" s="258" t="s">
         <v>412</v>
       </c>
-      <c r="B33" s="379"/>
-      <c r="C33" s="379"/>
-      <c r="D33" s="379"/>
-      <c r="E33" s="378" t="s">
+      <c r="B33" s="256"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="F33" s="379"/>
-      <c r="G33" s="378" t="s">
+      <c r="F33" s="256"/>
+      <c r="G33" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="H33" s="378" t="s">
+      <c r="H33" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="I33" s="379"/>
-      <c r="J33" s="379"/>
-      <c r="K33" s="380"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="257"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="381" t="s">
+      <c r="A34" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="379"/>
-      <c r="C34" s="379"/>
-      <c r="D34" s="379"/>
-      <c r="E34" s="379"/>
-      <c r="F34" s="378" t="s">
+      <c r="B34" s="256"/>
+      <c r="C34" s="256"/>
+      <c r="D34" s="256"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="G34" s="379"/>
-      <c r="H34" s="379"/>
-      <c r="I34" s="378" t="s">
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="J34" s="379"/>
-      <c r="K34" s="380"/>
+      <c r="J34" s="256"/>
+      <c r="K34" s="257"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="258"/>
-      <c r="B35" s="256"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="256"/>
-      <c r="E35" s="256"/>
-      <c r="F35" s="256"/>
-      <c r="G35" s="256"/>
-      <c r="H35" s="256"/>
-      <c r="I35" s="256"/>
-      <c r="J35" s="256"/>
-      <c r="K35" s="257"/>
+      <c r="A35" s="268"/>
+      <c r="B35" s="269"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="269"/>
+      <c r="I35" s="269"/>
+      <c r="J35" s="269"/>
+      <c r="K35" s="270"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="258" t="s">
+      <c r="A36" s="268" t="s">
         <v>369</v>
       </c>
-      <c r="B36" s="256"/>
-      <c r="C36" s="256"/>
-      <c r="D36" s="256"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="256"/>
-      <c r="G36" s="256"/>
-      <c r="H36" s="256"/>
-      <c r="I36" s="256"/>
-      <c r="J36" s="256"/>
-      <c r="K36" s="257"/>
+      <c r="B36" s="269"/>
+      <c r="C36" s="269"/>
+      <c r="D36" s="269"/>
+      <c r="E36" s="269"/>
+      <c r="F36" s="269"/>
+      <c r="G36" s="269"/>
+      <c r="H36" s="269"/>
+      <c r="I36" s="269"/>
+      <c r="J36" s="269"/>
+      <c r="K36" s="270"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="250" t="s">
+      <c r="A37" s="274" t="s">
         <v>416</v>
       </c>
-      <c r="B37" s="256"/>
-      <c r="C37" s="256"/>
-      <c r="D37" s="256"/>
-      <c r="E37" s="256"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
-      <c r="H37" s="256"/>
-      <c r="I37" s="256"/>
-      <c r="J37" s="256"/>
-      <c r="K37" s="257"/>
+      <c r="B37" s="269"/>
+      <c r="C37" s="269"/>
+      <c r="D37" s="269"/>
+      <c r="E37" s="269"/>
+      <c r="F37" s="269"/>
+      <c r="G37" s="269"/>
+      <c r="H37" s="269"/>
+      <c r="I37" s="269"/>
+      <c r="J37" s="269"/>
+      <c r="K37" s="270"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="258"/>
-      <c r="B38" s="256"/>
-      <c r="C38" s="256"/>
-      <c r="D38" s="256"/>
-      <c r="E38" s="256"/>
-      <c r="F38" s="256"/>
-      <c r="G38" s="256"/>
-      <c r="H38" s="256"/>
-      <c r="I38" s="256"/>
-      <c r="J38" s="256"/>
-      <c r="K38" s="257"/>
+      <c r="A38" s="268"/>
+      <c r="B38" s="269"/>
+      <c r="C38" s="269"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="269"/>
+      <c r="F38" s="269"/>
+      <c r="G38" s="269"/>
+      <c r="H38" s="269"/>
+      <c r="I38" s="269"/>
+      <c r="J38" s="269"/>
+      <c r="K38" s="270"/>
     </row>
     <row r="39" spans="1:11" ht="6" customHeight="1">
-      <c r="A39" s="259"/>
-      <c r="B39" s="260"/>
-      <c r="C39" s="260"/>
-      <c r="D39" s="260"/>
-      <c r="E39" s="260"/>
-      <c r="F39" s="260"/>
-      <c r="G39" s="260"/>
-      <c r="H39" s="260"/>
-      <c r="I39" s="260"/>
-      <c r="J39" s="260"/>
-      <c r="K39" s="261"/>
+      <c r="A39" s="275"/>
+      <c r="B39" s="276"/>
+      <c r="C39" s="276"/>
+      <c r="D39" s="276"/>
+      <c r="E39" s="276"/>
+      <c r="F39" s="276"/>
+      <c r="G39" s="276"/>
+      <c r="H39" s="276"/>
+      <c r="I39" s="276"/>
+      <c r="J39" s="276"/>
+      <c r="K39" s="277"/>
     </row>
     <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="262" t="s">
+      <c r="A40" s="271" t="s">
         <v>417</v>
       </c>
-      <c r="B40" s="263"/>
-      <c r="C40" s="263"/>
-      <c r="D40" s="263"/>
-      <c r="E40" s="263"/>
-      <c r="F40" s="263"/>
-      <c r="G40" s="263"/>
-      <c r="H40" s="263"/>
-      <c r="I40" s="263"/>
-      <c r="J40" s="263"/>
-      <c r="K40" s="264"/>
+      <c r="B40" s="272"/>
+      <c r="C40" s="272"/>
+      <c r="D40" s="272"/>
+      <c r="E40" s="272"/>
+      <c r="F40" s="272"/>
+      <c r="G40" s="272"/>
+      <c r="H40" s="272"/>
+      <c r="I40" s="272"/>
+      <c r="J40" s="272"/>
+      <c r="K40" s="273"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="250" t="s">
+      <c r="A41" s="274" t="s">
         <v>427</v>
       </c>
-      <c r="B41" s="256"/>
-      <c r="C41" s="256"/>
-      <c r="D41" s="256"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="256"/>
-      <c r="H41" s="256"/>
-      <c r="I41" s="256"/>
-      <c r="J41" s="256"/>
-      <c r="K41" s="257"/>
+      <c r="B41" s="269"/>
+      <c r="C41" s="269"/>
+      <c r="D41" s="269"/>
+      <c r="E41" s="269"/>
+      <c r="F41" s="269"/>
+      <c r="G41" s="269"/>
+      <c r="H41" s="269"/>
+      <c r="I41" s="269"/>
+      <c r="J41" s="269"/>
+      <c r="K41" s="270"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="250" t="s">
+      <c r="A42" s="274" t="s">
         <v>428</v>
       </c>
-      <c r="B42" s="256"/>
-      <c r="C42" s="256"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
+      <c r="B42" s="269"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="269"/>
+      <c r="E42" s="269"/>
+      <c r="F42" s="269"/>
+      <c r="G42" s="269"/>
+      <c r="H42" s="269"/>
+      <c r="I42" s="269"/>
+      <c r="J42" s="269"/>
+      <c r="K42" s="270"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="258"/>
-      <c r="B43" s="256"/>
-      <c r="C43" s="256"/>
-      <c r="D43" s="256"/>
-      <c r="E43" s="256"/>
-      <c r="F43" s="256"/>
-      <c r="G43" s="256"/>
-      <c r="H43" s="256"/>
-      <c r="I43" s="256"/>
-      <c r="J43" s="256"/>
-      <c r="K43" s="257"/>
+      <c r="A43" s="268"/>
+      <c r="B43" s="269"/>
+      <c r="C43" s="269"/>
+      <c r="D43" s="269"/>
+      <c r="E43" s="269"/>
+      <c r="F43" s="269"/>
+      <c r="G43" s="269"/>
+      <c r="H43" s="269"/>
+      <c r="I43" s="269"/>
+      <c r="J43" s="269"/>
+      <c r="K43" s="270"/>
     </row>
     <row r="44" spans="1:11" ht="6" customHeight="1">
-      <c r="A44" s="259"/>
-      <c r="B44" s="260"/>
-      <c r="C44" s="260"/>
-      <c r="D44" s="260"/>
-      <c r="E44" s="260"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="260"/>
-      <c r="H44" s="260"/>
-      <c r="I44" s="260"/>
-      <c r="J44" s="260"/>
-      <c r="K44" s="261"/>
+      <c r="A44" s="275"/>
+      <c r="B44" s="276"/>
+      <c r="C44" s="276"/>
+      <c r="D44" s="276"/>
+      <c r="E44" s="276"/>
+      <c r="F44" s="276"/>
+      <c r="G44" s="276"/>
+      <c r="H44" s="276"/>
+      <c r="I44" s="276"/>
+      <c r="J44" s="276"/>
+      <c r="K44" s="277"/>
     </row>
     <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="262" t="s">
+      <c r="A45" s="271" t="s">
         <v>418</v>
       </c>
-      <c r="B45" s="263"/>
-      <c r="C45" s="263"/>
-      <c r="D45" s="263"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="263"/>
-      <c r="G45" s="263"/>
-      <c r="H45" s="263"/>
-      <c r="I45" s="263"/>
-      <c r="J45" s="263"/>
-      <c r="K45" s="264"/>
+      <c r="B45" s="272"/>
+      <c r="C45" s="272"/>
+      <c r="D45" s="272"/>
+      <c r="E45" s="272"/>
+      <c r="F45" s="272"/>
+      <c r="G45" s="272"/>
+      <c r="H45" s="272"/>
+      <c r="I45" s="272"/>
+      <c r="J45" s="272"/>
+      <c r="K45" s="273"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="250" t="s">
+      <c r="A46" s="274" t="s">
         <v>440</v>
       </c>
-      <c r="B46" s="256"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
-      <c r="I46" s="256"/>
-      <c r="J46" s="256"/>
-      <c r="K46" s="257"/>
+      <c r="B46" s="269"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="269"/>
+      <c r="E46" s="269"/>
+      <c r="F46" s="269"/>
+      <c r="G46" s="269"/>
+      <c r="H46" s="269"/>
+      <c r="I46" s="269"/>
+      <c r="J46" s="269"/>
+      <c r="K46" s="270"/>
     </row>
     <row r="47" spans="1:11" ht="7.5" customHeight="1">
-      <c r="A47" s="259"/>
-      <c r="B47" s="260"/>
-      <c r="C47" s="260"/>
-      <c r="D47" s="260"/>
-      <c r="E47" s="260"/>
-      <c r="F47" s="260"/>
-      <c r="G47" s="260"/>
-      <c r="H47" s="260"/>
-      <c r="I47" s="260"/>
-      <c r="J47" s="260"/>
-      <c r="K47" s="261"/>
+      <c r="A47" s="275"/>
+      <c r="B47" s="276"/>
+      <c r="C47" s="276"/>
+      <c r="D47" s="276"/>
+      <c r="E47" s="276"/>
+      <c r="F47" s="276"/>
+      <c r="G47" s="276"/>
+      <c r="H47" s="276"/>
+      <c r="I47" s="276"/>
+      <c r="J47" s="276"/>
+      <c r="K47" s="277"/>
     </row>
     <row r="48" spans="1:11" ht="11.25" customHeight="1">
       <c r="A48" s="196"/>
@@ -5747,354 +5747,407 @@
       <c r="K48" s="198"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="262" t="s">
+      <c r="A49" s="271" t="s">
         <v>419</v>
       </c>
-      <c r="B49" s="263"/>
-      <c r="C49" s="263"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="263"/>
-      <c r="F49" s="263"/>
-      <c r="G49" s="263"/>
-      <c r="H49" s="263"/>
-      <c r="I49" s="263"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="264"/>
+      <c r="B49" s="272"/>
+      <c r="C49" s="272"/>
+      <c r="D49" s="272"/>
+      <c r="E49" s="272"/>
+      <c r="F49" s="272"/>
+      <c r="G49" s="272"/>
+      <c r="H49" s="272"/>
+      <c r="I49" s="272"/>
+      <c r="J49" s="272"/>
+      <c r="K49" s="273"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="250" t="s">
+      <c r="A50" s="274" t="s">
         <v>424</v>
       </c>
-      <c r="B50" s="256"/>
-      <c r="C50" s="256"/>
-      <c r="D50" s="256"/>
-      <c r="E50" s="256"/>
-      <c r="F50" s="256"/>
-      <c r="G50" s="256"/>
-      <c r="H50" s="256"/>
-      <c r="I50" s="256"/>
-      <c r="J50" s="256"/>
-      <c r="K50" s="257"/>
+      <c r="B50" s="269"/>
+      <c r="C50" s="269"/>
+      <c r="D50" s="269"/>
+      <c r="E50" s="269"/>
+      <c r="F50" s="269"/>
+      <c r="G50" s="269"/>
+      <c r="H50" s="269"/>
+      <c r="I50" s="269"/>
+      <c r="J50" s="269"/>
+      <c r="K50" s="270"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="250" t="s">
+      <c r="A51" s="274" t="s">
         <v>441</v>
       </c>
-      <c r="B51" s="256"/>
-      <c r="C51" s="256"/>
-      <c r="D51" s="256"/>
-      <c r="E51" s="256"/>
-      <c r="F51" s="256"/>
-      <c r="G51" s="256"/>
-      <c r="H51" s="256"/>
-      <c r="I51" s="256"/>
-      <c r="J51" s="256"/>
-      <c r="K51" s="257"/>
+      <c r="B51" s="269"/>
+      <c r="C51" s="269"/>
+      <c r="D51" s="269"/>
+      <c r="E51" s="269"/>
+      <c r="F51" s="269"/>
+      <c r="G51" s="269"/>
+      <c r="H51" s="269"/>
+      <c r="I51" s="269"/>
+      <c r="J51" s="269"/>
+      <c r="K51" s="270"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="250" t="s">
+      <c r="A52" s="274" t="s">
         <v>442</v>
       </c>
-      <c r="B52" s="256"/>
-      <c r="C52" s="256"/>
-      <c r="D52" s="256"/>
-      <c r="E52" s="256"/>
-      <c r="F52" s="256"/>
-      <c r="G52" s="256"/>
-      <c r="H52" s="256"/>
-      <c r="I52" s="256"/>
-      <c r="J52" s="256"/>
-      <c r="K52" s="257"/>
+      <c r="B52" s="269"/>
+      <c r="C52" s="269"/>
+      <c r="D52" s="269"/>
+      <c r="E52" s="269"/>
+      <c r="F52" s="269"/>
+      <c r="G52" s="269"/>
+      <c r="H52" s="269"/>
+      <c r="I52" s="269"/>
+      <c r="J52" s="269"/>
+      <c r="K52" s="270"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="258"/>
-      <c r="B53" s="256"/>
-      <c r="C53" s="256"/>
-      <c r="D53" s="256"/>
-      <c r="E53" s="256"/>
-      <c r="F53" s="256"/>
-      <c r="G53" s="256"/>
-      <c r="H53" s="256"/>
-      <c r="I53" s="256"/>
-      <c r="J53" s="256"/>
-      <c r="K53" s="257"/>
+      <c r="A53" s="268"/>
+      <c r="B53" s="269"/>
+      <c r="C53" s="269"/>
+      <c r="D53" s="269"/>
+      <c r="E53" s="269"/>
+      <c r="F53" s="269"/>
+      <c r="G53" s="269"/>
+      <c r="H53" s="269"/>
+      <c r="I53" s="269"/>
+      <c r="J53" s="269"/>
+      <c r="K53" s="270"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="258"/>
-      <c r="B54" s="256"/>
-      <c r="C54" s="256"/>
-      <c r="D54" s="256"/>
-      <c r="E54" s="256"/>
-      <c r="F54" s="256"/>
-      <c r="G54" s="256"/>
-      <c r="H54" s="256"/>
-      <c r="I54" s="256"/>
-      <c r="J54" s="256"/>
-      <c r="K54" s="257"/>
+      <c r="A54" s="268"/>
+      <c r="B54" s="269"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="269"/>
+      <c r="E54" s="269"/>
+      <c r="F54" s="269"/>
+      <c r="G54" s="269"/>
+      <c r="H54" s="269"/>
+      <c r="I54" s="269"/>
+      <c r="J54" s="269"/>
+      <c r="K54" s="270"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="258"/>
-      <c r="B55" s="256"/>
-      <c r="C55" s="256"/>
-      <c r="D55" s="256"/>
-      <c r="E55" s="256"/>
-      <c r="F55" s="256"/>
-      <c r="G55" s="256"/>
-      <c r="H55" s="256"/>
-      <c r="I55" s="256"/>
-      <c r="J55" s="256"/>
-      <c r="K55" s="257"/>
+      <c r="A55" s="268"/>
+      <c r="B55" s="269"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="269"/>
+      <c r="F55" s="269"/>
+      <c r="G55" s="269"/>
+      <c r="H55" s="269"/>
+      <c r="I55" s="269"/>
+      <c r="J55" s="269"/>
+      <c r="K55" s="270"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="258"/>
-      <c r="B56" s="256"/>
-      <c r="C56" s="256"/>
-      <c r="D56" s="256"/>
-      <c r="E56" s="256"/>
-      <c r="F56" s="256"/>
-      <c r="G56" s="256"/>
-      <c r="H56" s="256"/>
-      <c r="I56" s="256"/>
-      <c r="J56" s="256"/>
-      <c r="K56" s="257"/>
+      <c r="A56" s="268"/>
+      <c r="B56" s="269"/>
+      <c r="C56" s="269"/>
+      <c r="D56" s="269"/>
+      <c r="E56" s="269"/>
+      <c r="F56" s="269"/>
+      <c r="G56" s="269"/>
+      <c r="H56" s="269"/>
+      <c r="I56" s="269"/>
+      <c r="J56" s="269"/>
+      <c r="K56" s="270"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="258"/>
-      <c r="B57" s="256"/>
-      <c r="C57" s="256"/>
-      <c r="D57" s="256"/>
-      <c r="E57" s="256"/>
-      <c r="F57" s="256"/>
-      <c r="G57" s="256"/>
-      <c r="H57" s="256"/>
-      <c r="I57" s="256"/>
-      <c r="J57" s="256"/>
-      <c r="K57" s="257"/>
+      <c r="A57" s="268"/>
+      <c r="B57" s="269"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="269"/>
+      <c r="E57" s="269"/>
+      <c r="F57" s="269"/>
+      <c r="G57" s="269"/>
+      <c r="H57" s="269"/>
+      <c r="I57" s="269"/>
+      <c r="J57" s="269"/>
+      <c r="K57" s="270"/>
     </row>
     <row r="58" spans="1:11" ht="6" customHeight="1">
-      <c r="A58" s="258"/>
-      <c r="B58" s="256"/>
-      <c r="C58" s="256"/>
-      <c r="D58" s="256"/>
-      <c r="E58" s="256"/>
-      <c r="F58" s="256"/>
-      <c r="G58" s="256"/>
-      <c r="H58" s="256"/>
-      <c r="I58" s="256"/>
-      <c r="J58" s="256"/>
-      <c r="K58" s="257"/>
+      <c r="A58" s="268"/>
+      <c r="B58" s="269"/>
+      <c r="C58" s="269"/>
+      <c r="D58" s="269"/>
+      <c r="E58" s="269"/>
+      <c r="F58" s="269"/>
+      <c r="G58" s="269"/>
+      <c r="H58" s="269"/>
+      <c r="I58" s="269"/>
+      <c r="J58" s="269"/>
+      <c r="K58" s="270"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A59" s="272"/>
-      <c r="B59" s="273"/>
-      <c r="C59" s="273"/>
-      <c r="D59" s="273"/>
-      <c r="E59" s="273"/>
-      <c r="F59" s="273"/>
-      <c r="G59" s="273"/>
-      <c r="H59" s="273"/>
-      <c r="I59" s="273"/>
-      <c r="J59" s="273"/>
-      <c r="K59" s="274"/>
+      <c r="A59" s="281"/>
+      <c r="B59" s="282"/>
+      <c r="C59" s="282"/>
+      <c r="D59" s="282"/>
+      <c r="E59" s="282"/>
+      <c r="F59" s="282"/>
+      <c r="G59" s="282"/>
+      <c r="H59" s="282"/>
+      <c r="I59" s="282"/>
+      <c r="J59" s="282"/>
+      <c r="K59" s="283"/>
     </row>
     <row r="60" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A60" s="262" t="s">
+      <c r="A60" s="271" t="s">
         <v>420</v>
       </c>
-      <c r="B60" s="263"/>
-      <c r="C60" s="263"/>
-      <c r="D60" s="263"/>
-      <c r="E60" s="263"/>
-      <c r="F60" s="263"/>
-      <c r="G60" s="263"/>
-      <c r="H60" s="263"/>
-      <c r="I60" s="263"/>
-      <c r="J60" s="263"/>
-      <c r="K60" s="264"/>
+      <c r="B60" s="272"/>
+      <c r="C60" s="272"/>
+      <c r="D60" s="272"/>
+      <c r="E60" s="272"/>
+      <c r="F60" s="272"/>
+      <c r="G60" s="272"/>
+      <c r="H60" s="272"/>
+      <c r="I60" s="272"/>
+      <c r="J60" s="272"/>
+      <c r="K60" s="273"/>
     </row>
     <row r="61" spans="1:11" ht="54.75" customHeight="1">
-      <c r="A61" s="269" t="s">
+      <c r="A61" s="278" t="s">
         <v>390</v>
       </c>
-      <c r="B61" s="270"/>
-      <c r="C61" s="270"/>
-      <c r="D61" s="270"/>
-      <c r="E61" s="270"/>
-      <c r="F61" s="270"/>
-      <c r="G61" s="270"/>
-      <c r="H61" s="270"/>
-      <c r="I61" s="270"/>
-      <c r="J61" s="270"/>
-      <c r="K61" s="271"/>
+      <c r="B61" s="279"/>
+      <c r="C61" s="279"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
+      <c r="H61" s="279"/>
+      <c r="I61" s="279"/>
+      <c r="J61" s="279"/>
+      <c r="K61" s="280"/>
     </row>
     <row r="62" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A62" s="250" t="s">
+      <c r="A62" s="274" t="s">
         <v>435</v>
       </c>
-      <c r="B62" s="256"/>
-      <c r="C62" s="256"/>
-      <c r="D62" s="256"/>
-      <c r="E62" s="256"/>
-      <c r="F62" s="256"/>
-      <c r="G62" s="256"/>
-      <c r="H62" s="256"/>
-      <c r="I62" s="256"/>
-      <c r="J62" s="256"/>
-      <c r="K62" s="257"/>
+      <c r="B62" s="269"/>
+      <c r="C62" s="269"/>
+      <c r="D62" s="269"/>
+      <c r="E62" s="269"/>
+      <c r="F62" s="269"/>
+      <c r="G62" s="269"/>
+      <c r="H62" s="269"/>
+      <c r="I62" s="269"/>
+      <c r="J62" s="269"/>
+      <c r="K62" s="270"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="250" t="s">
+      <c r="A63" s="274" t="s">
         <v>429</v>
       </c>
-      <c r="B63" s="256"/>
-      <c r="C63" s="256"/>
-      <c r="D63" s="256"/>
-      <c r="E63" s="256"/>
-      <c r="F63" s="256"/>
-      <c r="G63" s="256"/>
-      <c r="H63" s="256"/>
-      <c r="I63" s="256"/>
-      <c r="J63" s="256"/>
-      <c r="K63" s="257"/>
+      <c r="B63" s="269"/>
+      <c r="C63" s="269"/>
+      <c r="D63" s="269"/>
+      <c r="E63" s="269"/>
+      <c r="F63" s="269"/>
+      <c r="G63" s="269"/>
+      <c r="H63" s="269"/>
+      <c r="I63" s="269"/>
+      <c r="J63" s="269"/>
+      <c r="K63" s="270"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="250" t="s">
+      <c r="A64" s="274" t="s">
         <v>436</v>
       </c>
-      <c r="B64" s="256"/>
-      <c r="C64" s="256"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="256"/>
-      <c r="F64" s="256"/>
-      <c r="G64" s="256"/>
-      <c r="H64" s="256"/>
-      <c r="I64" s="256"/>
-      <c r="J64" s="256"/>
-      <c r="K64" s="257"/>
+      <c r="B64" s="269"/>
+      <c r="C64" s="269"/>
+      <c r="D64" s="269"/>
+      <c r="E64" s="269"/>
+      <c r="F64" s="269"/>
+      <c r="G64" s="269"/>
+      <c r="H64" s="269"/>
+      <c r="I64" s="269"/>
+      <c r="J64" s="269"/>
+      <c r="K64" s="270"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="250" t="s">
+      <c r="A65" s="274" t="s">
         <v>430</v>
       </c>
-      <c r="B65" s="256"/>
-      <c r="C65" s="256"/>
-      <c r="D65" s="256"/>
-      <c r="E65" s="256"/>
-      <c r="F65" s="256"/>
-      <c r="G65" s="256"/>
-      <c r="H65" s="256"/>
-      <c r="I65" s="256"/>
-      <c r="J65" s="256"/>
-      <c r="K65" s="257"/>
+      <c r="B65" s="269"/>
+      <c r="C65" s="269"/>
+      <c r="D65" s="269"/>
+      <c r="E65" s="269"/>
+      <c r="F65" s="269"/>
+      <c r="G65" s="269"/>
+      <c r="H65" s="269"/>
+      <c r="I65" s="269"/>
+      <c r="J65" s="269"/>
+      <c r="K65" s="270"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A66" s="250" t="s">
+      <c r="A66" s="274" t="s">
         <v>431</v>
       </c>
-      <c r="B66" s="256"/>
-      <c r="C66" s="256"/>
-      <c r="D66" s="256"/>
-      <c r="E66" s="256"/>
-      <c r="F66" s="256"/>
-      <c r="G66" s="256"/>
-      <c r="H66" s="256"/>
-      <c r="I66" s="256"/>
-      <c r="J66" s="256"/>
-      <c r="K66" s="257"/>
+      <c r="B66" s="269"/>
+      <c r="C66" s="269"/>
+      <c r="D66" s="269"/>
+      <c r="E66" s="269"/>
+      <c r="F66" s="269"/>
+      <c r="G66" s="269"/>
+      <c r="H66" s="269"/>
+      <c r="I66" s="269"/>
+      <c r="J66" s="269"/>
+      <c r="K66" s="270"/>
     </row>
     <row r="67" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A67" s="250" t="s">
+      <c r="A67" s="274" t="s">
         <v>437</v>
       </c>
-      <c r="B67" s="256"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="256"/>
-      <c r="F67" s="256"/>
-      <c r="G67" s="256"/>
-      <c r="H67" s="256"/>
-      <c r="I67" s="256"/>
-      <c r="J67" s="256"/>
-      <c r="K67" s="257"/>
+      <c r="B67" s="269"/>
+      <c r="C67" s="269"/>
+      <c r="D67" s="269"/>
+      <c r="E67" s="269"/>
+      <c r="F67" s="269"/>
+      <c r="G67" s="269"/>
+      <c r="H67" s="269"/>
+      <c r="I67" s="269"/>
+      <c r="J67" s="269"/>
+      <c r="K67" s="270"/>
     </row>
     <row r="68" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A68" s="250" t="s">
+      <c r="A68" s="274" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="251"/>
-      <c r="C68" s="251"/>
-      <c r="D68" s="251"/>
-      <c r="E68" s="251"/>
-      <c r="F68" s="251"/>
-      <c r="G68" s="251"/>
-      <c r="H68" s="251"/>
-      <c r="I68" s="251"/>
-      <c r="J68" s="251"/>
-      <c r="K68" s="252"/>
+      <c r="B68" s="284"/>
+      <c r="C68" s="284"/>
+      <c r="D68" s="284"/>
+      <c r="E68" s="284"/>
+      <c r="F68" s="284"/>
+      <c r="G68" s="284"/>
+      <c r="H68" s="284"/>
+      <c r="I68" s="284"/>
+      <c r="J68" s="284"/>
+      <c r="K68" s="285"/>
     </row>
     <row r="69" spans="1:11" ht="54.75" customHeight="1">
-      <c r="A69" s="250" t="s">
+      <c r="A69" s="274" t="s">
         <v>439</v>
       </c>
-      <c r="B69" s="256"/>
-      <c r="C69" s="256"/>
-      <c r="D69" s="256"/>
-      <c r="E69" s="256"/>
-      <c r="F69" s="256"/>
-      <c r="G69" s="256"/>
-      <c r="H69" s="256"/>
-      <c r="I69" s="256"/>
-      <c r="J69" s="256"/>
-      <c r="K69" s="257"/>
+      <c r="B69" s="269"/>
+      <c r="C69" s="269"/>
+      <c r="D69" s="269"/>
+      <c r="E69" s="269"/>
+      <c r="F69" s="269"/>
+      <c r="G69" s="269"/>
+      <c r="H69" s="269"/>
+      <c r="I69" s="269"/>
+      <c r="J69" s="269"/>
+      <c r="K69" s="270"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="250" t="s">
+      <c r="A70" s="274" t="s">
         <v>434</v>
       </c>
-      <c r="B70" s="256"/>
-      <c r="C70" s="256"/>
-      <c r="D70" s="256"/>
-      <c r="E70" s="256"/>
-      <c r="F70" s="256"/>
-      <c r="G70" s="256"/>
-      <c r="H70" s="256"/>
-      <c r="I70" s="256"/>
-      <c r="J70" s="256"/>
-      <c r="K70" s="257"/>
+      <c r="B70" s="269"/>
+      <c r="C70" s="269"/>
+      <c r="D70" s="269"/>
+      <c r="E70" s="269"/>
+      <c r="F70" s="269"/>
+      <c r="G70" s="269"/>
+      <c r="H70" s="269"/>
+      <c r="I70" s="269"/>
+      <c r="J70" s="269"/>
+      <c r="K70" s="270"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="250" t="s">
+      <c r="A71" s="274" t="s">
         <v>432</v>
       </c>
-      <c r="B71" s="256"/>
-      <c r="C71" s="256"/>
-      <c r="D71" s="256"/>
-      <c r="E71" s="256"/>
-      <c r="F71" s="256"/>
-      <c r="G71" s="256"/>
-      <c r="H71" s="256"/>
-      <c r="I71" s="256"/>
-      <c r="J71" s="256"/>
-      <c r="K71" s="257"/>
+      <c r="B71" s="269"/>
+      <c r="C71" s="269"/>
+      <c r="D71" s="269"/>
+      <c r="E71" s="269"/>
+      <c r="F71" s="269"/>
+      <c r="G71" s="269"/>
+      <c r="H71" s="269"/>
+      <c r="I71" s="269"/>
+      <c r="J71" s="269"/>
+      <c r="K71" s="270"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="250" t="s">
+      <c r="A72" s="274" t="s">
         <v>433</v>
       </c>
-      <c r="B72" s="256"/>
-      <c r="C72" s="256"/>
-      <c r="D72" s="256"/>
-      <c r="E72" s="256"/>
-      <c r="F72" s="256"/>
-      <c r="G72" s="256"/>
-      <c r="H72" s="256"/>
-      <c r="I72" s="256"/>
-      <c r="J72" s="256"/>
-      <c r="K72" s="257"/>
+      <c r="B72" s="269"/>
+      <c r="C72" s="269"/>
+      <c r="D72" s="269"/>
+      <c r="E72" s="269"/>
+      <c r="F72" s="269"/>
+      <c r="G72" s="269"/>
+      <c r="H72" s="269"/>
+      <c r="I72" s="269"/>
+      <c r="J72" s="269"/>
+      <c r="K72" s="270"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <mergeCells count="69">
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A68:K68"/>
     <mergeCell ref="A55:K55"/>
     <mergeCell ref="A56:K56"/>
     <mergeCell ref="A57:K57"/>
@@ -6111,59 +6164,6 @@
     <mergeCell ref="A44:K44"/>
     <mergeCell ref="A45:K45"/>
     <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6265,8 +6265,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="363" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="363" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="249" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="249" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30">
@@ -6278,518 +6278,518 @@
       <c r="A2" s="194" t="s">
         <v>391</v>
       </c>
-      <c r="B2" s="364" t="s">
+      <c r="B2" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="364" t="s">
+      <c r="C2" s="250" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5">
-      <c r="A3" s="365">
+      <c r="A3" s="251">
         <v>1</v>
       </c>
-      <c r="B3" s="366" t="s">
+      <c r="B3" s="252" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="366" t="s">
+      <c r="C3" s="252" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="365">
-        <v>2</v>
-      </c>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366" t="s">
+      <c r="A4" s="251">
+        <v>2</v>
+      </c>
+      <c r="B4" s="252"/>
+      <c r="C4" s="252" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="365">
+      <c r="A5" s="251">
         <v>3</v>
       </c>
-      <c r="B5" s="366"/>
-      <c r="C5" s="366" t="s">
+      <c r="B5" s="252"/>
+      <c r="C5" s="252" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="365">
+      <c r="A6" s="251">
         <v>4</v>
       </c>
-      <c r="B6" s="366" t="s">
+      <c r="B6" s="252" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="366" t="s">
+      <c r="C6" s="252" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="365">
+      <c r="A7" s="251">
         <v>5</v>
       </c>
-      <c r="B7" s="366"/>
-      <c r="C7" s="366" t="s">
+      <c r="B7" s="252"/>
+      <c r="C7" s="252" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="365">
+      <c r="A8" s="251">
         <v>6</v>
       </c>
-      <c r="B8" s="366" t="s">
+      <c r="B8" s="252" t="s">
         <v>453</v>
       </c>
-      <c r="C8" s="366" t="s">
+      <c r="C8" s="252" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="365">
+      <c r="A9" s="251">
         <v>7</v>
       </c>
-      <c r="B9" s="366"/>
-      <c r="C9" s="366" t="s">
+      <c r="B9" s="252"/>
+      <c r="C9" s="252" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="365">
+      <c r="A10" s="251">
         <v>8</v>
       </c>
-      <c r="B10" s="366"/>
-      <c r="C10" s="366" t="s">
+      <c r="B10" s="252"/>
+      <c r="C10" s="252" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="365">
+      <c r="A11" s="251">
         <v>9</v>
       </c>
-      <c r="B11" s="366"/>
-      <c r="C11" s="366" t="s">
+      <c r="B11" s="252"/>
+      <c r="C11" s="252" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="365">
+      <c r="A12" s="251">
         <v>10</v>
       </c>
-      <c r="B12" s="366"/>
-      <c r="C12" s="366" t="s">
+      <c r="B12" s="252"/>
+      <c r="C12" s="252" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="365">
+    <row r="13" spans="1:3" ht="25.5">
+      <c r="A13" s="251">
         <v>11</v>
       </c>
-      <c r="B13" s="366" t="s">
+      <c r="B13" s="252" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="366" t="s">
+      <c r="C13" s="252" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25.5">
-      <c r="A14" s="365">
+    <row r="14" spans="1:3" ht="38.25">
+      <c r="A14" s="251">
         <v>12</v>
       </c>
-      <c r="B14" s="366" t="s">
+      <c r="B14" s="252" t="s">
         <v>407</v>
       </c>
-      <c r="C14" s="366" t="s">
+      <c r="C14" s="252" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="365">
+      <c r="A15" s="251">
         <v>13</v>
       </c>
-      <c r="B15" s="366"/>
-      <c r="C15" s="366" t="s">
+      <c r="B15" s="252"/>
+      <c r="C15" s="252" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="365">
+      <c r="A16" s="251">
         <v>14</v>
       </c>
-      <c r="B16" s="366"/>
-      <c r="C16" s="366" t="s">
+      <c r="B16" s="252"/>
+      <c r="C16" s="252" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="365">
+      <c r="A17" s="251">
         <v>15</v>
       </c>
-      <c r="B17" s="366"/>
-      <c r="C17" s="366" t="s">
+      <c r="B17" s="252"/>
+      <c r="C17" s="252" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="365">
+      <c r="A18" s="251">
         <v>16</v>
       </c>
-      <c r="B18" s="366"/>
-      <c r="C18" s="366" t="s">
+      <c r="B18" s="252"/>
+      <c r="C18" s="252" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="365">
+      <c r="A19" s="251">
         <v>17</v>
       </c>
-      <c r="B19" s="366"/>
-      <c r="C19" s="366" t="s">
+      <c r="B19" s="252"/>
+      <c r="C19" s="252" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="365">
+      <c r="A20" s="251">
         <v>18</v>
       </c>
-      <c r="B20" s="366"/>
-      <c r="C20" s="366" t="s">
+      <c r="B20" s="252"/>
+      <c r="C20" s="252" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="365">
+      <c r="A21" s="251">
         <v>19</v>
       </c>
-      <c r="B21" s="366"/>
-      <c r="C21" s="366" t="s">
+      <c r="B21" s="252"/>
+      <c r="C21" s="252" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
-      <c r="A22" s="365">
+      <c r="A22" s="251">
         <v>20</v>
       </c>
-      <c r="B22" s="366"/>
-      <c r="C22" s="366" t="s">
+      <c r="B22" s="252"/>
+      <c r="C22" s="252" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="38.25">
-      <c r="A23" s="365">
+      <c r="A23" s="251">
         <v>21</v>
       </c>
-      <c r="B23" s="366" t="s">
+      <c r="B23" s="252" t="s">
         <v>408</v>
       </c>
-      <c r="C23" s="366" t="s">
+      <c r="C23" s="252" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="365">
+      <c r="A24" s="251">
         <v>22</v>
       </c>
-      <c r="B24" s="366"/>
-      <c r="C24" s="366" t="s">
+      <c r="B24" s="252"/>
+      <c r="C24" s="252" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="365">
+      <c r="A25" s="251">
         <v>23</v>
       </c>
-      <c r="B25" s="366"/>
-      <c r="C25" s="366" t="s">
+      <c r="B25" s="252"/>
+      <c r="C25" s="252" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="365">
+      <c r="A26" s="251">
         <v>24</v>
       </c>
-      <c r="B26" s="366" t="s">
+      <c r="B26" s="252" t="s">
         <v>409</v>
       </c>
-      <c r="C26" s="366" t="s">
+      <c r="C26" s="252" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="365">
+      <c r="A27" s="251">
         <v>25</v>
       </c>
-      <c r="B27" s="366"/>
-      <c r="C27" s="366" t="s">
+      <c r="B27" s="252"/>
+      <c r="C27" s="252" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="365">
+      <c r="A28" s="251">
         <v>26</v>
       </c>
-      <c r="B28" s="366"/>
-      <c r="C28" s="366" t="s">
+      <c r="B28" s="252"/>
+      <c r="C28" s="252" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5">
-      <c r="A29" s="365">
+      <c r="A29" s="251">
         <v>27</v>
       </c>
-      <c r="B29" s="366"/>
-      <c r="C29" s="366" t="s">
+      <c r="B29" s="252"/>
+      <c r="C29" s="252" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="365">
+      <c r="A30" s="251">
         <v>28</v>
       </c>
-      <c r="B30" s="366"/>
-      <c r="C30" s="366" t="s">
+      <c r="B30" s="252"/>
+      <c r="C30" s="252" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
-      <c r="A31" s="365">
+      <c r="A31" s="251">
         <v>29</v>
       </c>
-      <c r="B31" s="366"/>
-      <c r="C31" s="366" t="s">
+      <c r="B31" s="252"/>
+      <c r="C31" s="252" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="365">
+      <c r="A32" s="251">
         <v>30</v>
       </c>
-      <c r="B32" s="366"/>
-      <c r="C32" s="366" t="s">
+      <c r="B32" s="252"/>
+      <c r="C32" s="252" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="365">
+      <c r="A33" s="251">
         <v>31</v>
       </c>
-      <c r="B33" s="366" t="s">
+      <c r="B33" s="252" t="s">
         <v>410</v>
       </c>
-      <c r="C33" s="366" t="s">
+      <c r="C33" s="252" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="365">
+      <c r="A34" s="251">
         <v>32</v>
       </c>
-      <c r="B34" s="366"/>
-      <c r="C34" s="366" t="s">
+      <c r="B34" s="252"/>
+      <c r="C34" s="252" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="365">
+      <c r="A35" s="251">
         <v>33</v>
       </c>
-      <c r="B35" s="366"/>
-      <c r="C35" s="366" t="s">
+      <c r="B35" s="252"/>
+      <c r="C35" s="252" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="38.25">
-      <c r="A36" s="365">
+      <c r="A36" s="251">
         <v>34</v>
       </c>
-      <c r="B36" s="366" t="s">
+      <c r="B36" s="252" t="s">
         <v>411</v>
       </c>
-      <c r="C36" s="366" t="s">
+      <c r="C36" s="252" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="365">
+      <c r="A37" s="251">
         <v>35</v>
       </c>
-      <c r="B37" s="366"/>
-      <c r="C37" s="366" t="s">
+      <c r="B37" s="252"/>
+      <c r="C37" s="252" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="365">
+      <c r="A38" s="251">
         <v>36</v>
       </c>
-      <c r="B38" s="366"/>
-      <c r="C38" s="366" t="s">
+      <c r="B38" s="252"/>
+      <c r="C38" s="252" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="365">
+      <c r="A39" s="251">
         <v>37</v>
       </c>
-      <c r="B39" s="366"/>
-      <c r="C39" s="366" t="s">
+      <c r="B39" s="252"/>
+      <c r="C39" s="252" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="365">
+      <c r="A40" s="251">
         <v>38</v>
       </c>
-      <c r="B40" s="366"/>
-      <c r="C40" s="366" t="s">
+      <c r="B40" s="252"/>
+      <c r="C40" s="252" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="365">
+      <c r="A41" s="251">
         <v>39</v>
       </c>
-      <c r="B41" s="366"/>
-      <c r="C41" s="366" t="s">
+      <c r="B41" s="252"/>
+      <c r="C41" s="252" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="365">
+      <c r="A42" s="251">
         <v>40</v>
       </c>
-      <c r="B42" s="366" t="s">
+      <c r="B42" s="252" t="s">
         <v>412</v>
       </c>
-      <c r="C42" s="366" t="s">
+      <c r="C42" s="252" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="365">
+      <c r="A43" s="251">
         <v>41</v>
       </c>
-      <c r="B43" s="366"/>
-      <c r="C43" s="366" t="s">
+      <c r="B43" s="252"/>
+      <c r="C43" s="252" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="365">
+      <c r="A44" s="251">
         <v>42</v>
       </c>
-      <c r="B44" s="366"/>
-      <c r="C44" s="366" t="s">
+      <c r="B44" s="252"/>
+      <c r="C44" s="252" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25.5">
-      <c r="A45" s="365">
+      <c r="A45" s="251">
         <v>43</v>
       </c>
-      <c r="B45" s="366"/>
-      <c r="C45" s="366" t="s">
+      <c r="B45" s="252"/>
+      <c r="C45" s="252" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="365">
+      <c r="A46" s="251">
         <v>44</v>
       </c>
-      <c r="B46" s="366"/>
-      <c r="C46" s="366" t="s">
+      <c r="B46" s="252"/>
+      <c r="C46" s="252" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="365">
+      <c r="A47" s="251">
         <v>45</v>
       </c>
-      <c r="B47" s="366"/>
-      <c r="C47" s="366" t="s">
+      <c r="B47" s="252"/>
+      <c r="C47" s="252" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="365">
+      <c r="A48" s="251">
         <v>46</v>
       </c>
-      <c r="B48" s="366"/>
-      <c r="C48" s="366" t="s">
+      <c r="B48" s="252"/>
+      <c r="C48" s="252" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="365">
+      <c r="A49" s="251">
         <v>47</v>
       </c>
-      <c r="B49" s="366"/>
-      <c r="C49" s="366" t="s">
+      <c r="B49" s="252"/>
+      <c r="C49" s="252" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="365">
+      <c r="A50" s="251">
         <v>48</v>
       </c>
-      <c r="B50" s="366"/>
-      <c r="C50" s="366" t="s">
+      <c r="B50" s="252"/>
+      <c r="C50" s="252" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="365">
+    <row r="51" spans="1:3" ht="25.5">
+      <c r="A51" s="251">
         <v>49</v>
       </c>
-      <c r="B51" s="366" t="s">
+      <c r="B51" s="252" t="s">
         <v>494</v>
       </c>
-      <c r="C51" s="366" t="s">
+      <c r="C51" s="252" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="365">
+      <c r="A52" s="251">
         <v>50</v>
       </c>
-      <c r="B52" s="366"/>
-      <c r="C52" s="366" t="s">
+      <c r="B52" s="252"/>
+      <c r="C52" s="252" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="365">
+      <c r="A53" s="251">
         <v>51</v>
       </c>
-      <c r="B53" s="366"/>
-      <c r="C53" s="366" t="s">
+      <c r="B53" s="252"/>
+      <c r="C53" s="252" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="365">
+      <c r="A54" s="251">
         <v>52</v>
       </c>
-      <c r="B54" s="366"/>
-      <c r="C54" s="366" t="s">
+      <c r="B54" s="252"/>
+      <c r="C54" s="252" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="365">
+      <c r="A55" s="251">
         <v>53</v>
       </c>
-      <c r="B55" s="366"/>
-      <c r="C55" s="366" t="s">
+      <c r="B55" s="252"/>
+      <c r="C55" s="252" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="365">
+      <c r="A56" s="251">
         <v>54</v>
       </c>
-      <c r="B56" s="366"/>
-      <c r="C56" s="366" t="s">
+      <c r="B56" s="252"/>
+      <c r="C56" s="252" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6810,7 +6810,7 @@
   </sheetPr>
   <dimension ref="A1:AH181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -6849,30 +6849,30 @@
       <c r="B2" s="139"/>
       <c r="C2" s="139"/>
       <c r="D2" s="140"/>
-      <c r="E2" s="284" t="s">
+      <c r="E2" s="312" t="s">
         <v>507</v>
       </c>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="284"/>
-      <c r="N2" s="284"/>
-      <c r="O2" s="284"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
       <c r="P2" s="141" t="s">
         <v>529</v>
       </c>
-      <c r="Q2" s="275" t="s">
+      <c r="Q2" s="303" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="276"/>
-      <c r="S2" s="276"/>
-      <c r="T2" s="276"/>
-      <c r="U2" s="276"/>
-      <c r="V2" s="277"/>
+      <c r="R2" s="304"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="305"/>
     </row>
     <row r="3" spans="1:34" ht="23.25" customHeight="1">
       <c r="A3" s="142" t="s">
@@ -6881,56 +6881,56 @@
       <c r="B3" s="143"/>
       <c r="C3" s="143"/>
       <c r="D3" s="144"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="285"/>
-      <c r="J3" s="285"/>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
       <c r="P3" s="145" t="s">
         <v>531</v>
       </c>
-      <c r="Q3" s="278" t="s">
+      <c r="Q3" s="306" t="s">
         <v>530</v>
       </c>
-      <c r="R3" s="279"/>
-      <c r="S3" s="279"/>
-      <c r="T3" s="279"/>
-      <c r="U3" s="279"/>
-      <c r="V3" s="280"/>
+      <c r="R3" s="307"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="308"/>
     </row>
     <row r="4" spans="1:34" s="146" customFormat="1" ht="20.25">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="281" t="s">
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="282"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="283"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="310"/>
+      <c r="P4" s="310"/>
+      <c r="Q4" s="310"/>
+      <c r="R4" s="310"/>
+      <c r="S4" s="310"/>
+      <c r="T4" s="310"/>
+      <c r="U4" s="310"/>
+      <c r="V4" s="311"/>
     </row>
     <row r="5" spans="1:34" ht="12" customHeight="1">
       <c r="A5" s="147"/>
@@ -11185,64 +11185,64 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="25.5">
-      <c r="A60" s="382">
+      <c r="A60" s="259">
         <v>54</v>
       </c>
-      <c r="B60" s="366" t="s">
+      <c r="B60" s="252" t="s">
         <v>494</v>
       </c>
-      <c r="C60" s="383"/>
-      <c r="D60" s="366" t="s">
+      <c r="C60" s="260"/>
+      <c r="D60" s="252" t="s">
         <v>498</v>
       </c>
-      <c r="E60" s="384" t="s">
+      <c r="E60" s="261" t="s">
         <v>135</v>
       </c>
-      <c r="F60" s="384" t="s">
+      <c r="F60" s="261" t="s">
         <v>313</v>
       </c>
-      <c r="G60" s="384" t="s">
+      <c r="G60" s="261" t="s">
         <v>124</v>
       </c>
-      <c r="H60" s="385">
-        <v>2</v>
-      </c>
-      <c r="I60" s="386">
+      <c r="H60" s="262">
+        <v>2</v>
+      </c>
+      <c r="I60" s="263">
         <v>3</v>
       </c>
-      <c r="J60" s="386">
+      <c r="J60" s="263">
         <v>1</v>
       </c>
-      <c r="K60" s="386">
-        <v>2</v>
-      </c>
-      <c r="L60" s="387" t="str">
+      <c r="K60" s="263">
+        <v>2</v>
+      </c>
+      <c r="L60" s="264" t="str">
         <f>IF(OR(K60="",K60="-"),"",LOOKUP(CONCATENATE(K60,IF(SUM(H60:J60)&lt;5,1,IF(SUM(H60:J60)&lt;8,2,IF(SUM(H60:J60)&lt;11,3,IF(SUM(H60:J60)&lt;14,4,5))))),SIL!Y$5:Y$33,SIL!Z$5:'SIL'!Z$33))</f>
         <v>-</v>
       </c>
-      <c r="M60" s="388"/>
-      <c r="N60" s="388"/>
-      <c r="O60" s="388" t="s">
+      <c r="M60" s="265"/>
+      <c r="N60" s="265"/>
+      <c r="O60" s="265" t="s">
         <v>542</v>
       </c>
-      <c r="P60" s="389"/>
-      <c r="Q60" s="385">
-        <v>2</v>
-      </c>
-      <c r="R60" s="386">
+      <c r="P60" s="266"/>
+      <c r="Q60" s="262">
+        <v>2</v>
+      </c>
+      <c r="R60" s="263">
         <v>1</v>
       </c>
-      <c r="S60" s="386">
+      <c r="S60" s="263">
         <v>1</v>
       </c>
-      <c r="T60" s="386">
-        <v>2</v>
-      </c>
-      <c r="U60" s="390" t="str">
+      <c r="T60" s="263">
+        <v>2</v>
+      </c>
+      <c r="U60" s="267" t="str">
         <f>IF(OR(T60="",T60="-"),"",LOOKUP(CONCATENATE(T60,IF(SUM(Q60:S60)&lt;5,1,IF(SUM(Q60:S60)&lt;8,2,IF(SUM(Q60:S60)&lt;11,3,IF(SUM(Q60:S60)&lt;14,4,5))))),SIL!Y$5:Y$24,SIL!Z$5:Z$24))</f>
         <v>-</v>
       </c>
-      <c r="V60" s="388"/>
+      <c r="V60" s="265"/>
       <c r="AA60" s="158"/>
       <c r="AB60" s="158"/>
       <c r="AC60" s="158" t="e">
@@ -13027,12 +13027,12 @@
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="80"/>
-      <c r="R3" s="298" t="s">
+      <c r="R3" s="322" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="298"/>
-      <c r="T3" s="298"/>
-      <c r="U3" s="298"/>
+      <c r="S3" s="322"/>
+      <c r="T3" s="322"/>
+      <c r="U3" s="322"/>
       <c r="W3" s="112" t="s">
         <v>22</v>
       </c>
@@ -13046,19 +13046,19 @@
       <c r="AD3" s="113"/>
     </row>
     <row r="4" spans="1:79" s="69" customFormat="1" ht="18">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="330" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="305"/>
-      <c r="C4" s="306"/>
+      <c r="B4" s="331"/>
+      <c r="C4" s="332"/>
       <c r="D4" s="162"/>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="340" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="291"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="341"/>
+      <c r="H4" s="341"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="98"/>
       <c r="R4" s="99" t="s">
         <v>27</v>
@@ -13087,21 +13087,21 @@
       <c r="AB4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AC4" s="299" t="s">
+      <c r="AC4" s="323" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="300"/>
+      <c r="AD4" s="324"/>
     </row>
     <row r="5" spans="1:79" s="69" customFormat="1" ht="18">
-      <c r="A5" s="307"/>
-      <c r="B5" s="308"/>
-      <c r="C5" s="309"/>
+      <c r="A5" s="333"/>
+      <c r="B5" s="334"/>
+      <c r="C5" s="335"/>
       <c r="D5" s="163"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="294"/>
+      <c r="E5" s="343"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="345"/>
       <c r="J5" s="100"/>
       <c r="R5" s="101" t="s">
         <v>35</v>
@@ -13131,15 +13131,15 @@
       <c r="AB5" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="299" t="s">
+      <c r="AC5" s="323" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="300"/>
+      <c r="AD5" s="324"/>
     </row>
     <row r="6" spans="1:79" ht="18">
-      <c r="A6" s="310"/>
-      <c r="B6" s="311"/>
-      <c r="C6" s="312"/>
+      <c r="A6" s="336"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="338"/>
       <c r="D6" s="164"/>
       <c r="E6" s="125" t="s">
         <v>41</v>
@@ -13185,10 +13185,10 @@
     </row>
     <row r="7" spans="1:79" ht="18">
       <c r="A7" s="165"/>
-      <c r="B7" s="303" t="s">
+      <c r="B7" s="329" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="303"/>
+      <c r="C7" s="329"/>
       <c r="D7" s="168" t="s">
         <v>387</v>
       </c>
@@ -13226,10 +13226,10 @@
       <c r="A8" s="167" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="301" t="s">
+      <c r="B8" s="327" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="302"/>
+      <c r="C8" s="328"/>
       <c r="D8" s="173" t="s">
         <v>49</v>
       </c>
@@ -13279,10 +13279,10 @@
       <c r="A9" s="81">
         <v>4</v>
       </c>
-      <c r="B9" s="286" t="s">
+      <c r="B9" s="325" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="287"/>
+      <c r="C9" s="326"/>
       <c r="D9" s="173" t="s">
         <v>55</v>
       </c>
@@ -13332,10 +13332,10 @@
       <c r="A10" s="81">
         <v>3</v>
       </c>
-      <c r="B10" s="286" t="s">
+      <c r="B10" s="325" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="287"/>
+      <c r="C10" s="326"/>
       <c r="D10" s="173" t="s">
         <v>59</v>
       </c>
@@ -13371,10 +13371,10 @@
       <c r="A11" s="81">
         <v>2</v>
       </c>
-      <c r="B11" s="286" t="s">
+      <c r="B11" s="325" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="287"/>
+      <c r="C11" s="326"/>
       <c r="D11" s="173" t="s">
         <v>64</v>
       </c>
@@ -13390,12 +13390,12 @@
         <v>51</v>
       </c>
       <c r="J11" s="66"/>
-      <c r="R11" s="288" t="s">
+      <c r="R11" s="339" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="288"/>
-      <c r="T11" s="288"/>
-      <c r="U11" s="288"/>
+      <c r="S11" s="339"/>
+      <c r="T11" s="339"/>
+      <c r="U11" s="339"/>
       <c r="W11" s="120">
         <v>2</v>
       </c>
@@ -13414,10 +13414,10 @@
       <c r="A12" s="81">
         <v>1</v>
       </c>
-      <c r="B12" s="286" t="s">
+      <c r="B12" s="325" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="287"/>
+      <c r="C12" s="326"/>
       <c r="D12" s="176" t="s">
         <v>39</v>
       </c>
@@ -13431,10 +13431,10 @@
         <v>56</v>
       </c>
       <c r="J12" s="66"/>
-      <c r="R12" s="288"/>
-      <c r="S12" s="288"/>
-      <c r="T12" s="288"/>
-      <c r="U12" s="288"/>
+      <c r="R12" s="339"/>
+      <c r="S12" s="339"/>
+      <c r="T12" s="339"/>
+      <c r="U12" s="339"/>
       <c r="W12" s="120">
         <v>2</v>
       </c>
@@ -13453,8 +13453,8 @@
       <c r="A13" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="296"/>
-      <c r="C13" s="297"/>
+      <c r="B13" s="346"/>
+      <c r="C13" s="347"/>
       <c r="D13" s="172"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
@@ -13462,10 +13462,10 @@
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
       <c r="J13" s="66"/>
-      <c r="R13" s="288"/>
-      <c r="S13" s="288"/>
-      <c r="T13" s="288"/>
-      <c r="U13" s="288"/>
+      <c r="R13" s="339"/>
+      <c r="S13" s="339"/>
+      <c r="T13" s="339"/>
+      <c r="U13" s="339"/>
       <c r="W13" s="120">
         <v>2</v>
       </c>
@@ -13493,10 +13493,10 @@
       <c r="H14" s="181"/>
       <c r="I14" s="181"/>
       <c r="J14" s="66"/>
-      <c r="R14" s="288"/>
-      <c r="S14" s="288"/>
-      <c r="T14" s="288"/>
-      <c r="U14" s="288"/>
+      <c r="R14" s="339"/>
+      <c r="S14" s="339"/>
+      <c r="T14" s="339"/>
+      <c r="U14" s="339"/>
       <c r="W14" s="120">
         <v>2</v>
       </c>
@@ -13536,10 +13536,10 @@
         <v>397</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="R15" s="288"/>
-      <c r="S15" s="288"/>
-      <c r="T15" s="288"/>
-      <c r="U15" s="288"/>
+      <c r="R15" s="339"/>
+      <c r="S15" s="339"/>
+      <c r="T15" s="339"/>
+      <c r="U15" s="339"/>
       <c r="W15" s="120">
         <v>3</v>
       </c>
@@ -13558,10 +13558,10 @@
       <c r="A16" s="182">
         <v>5</v>
       </c>
-      <c r="B16" s="295" t="s">
+      <c r="B16" s="320" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="295"/>
+      <c r="C16" s="320"/>
       <c r="D16" s="104" t="s">
         <v>384</v>
       </c>
@@ -13605,10 +13605,10 @@
       <c r="A17" s="182">
         <v>4</v>
       </c>
-      <c r="B17" s="295" t="s">
+      <c r="B17" s="320" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="295"/>
+      <c r="C17" s="320"/>
       <c r="D17" s="104" t="s">
         <v>385</v>
       </c>
@@ -13650,10 +13650,10 @@
       <c r="A18" s="182">
         <v>3</v>
       </c>
-      <c r="B18" s="295" t="s">
+      <c r="B18" s="320" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="295"/>
+      <c r="C18" s="320"/>
       <c r="D18" s="178"/>
       <c r="E18" s="178"/>
       <c r="F18" s="178"/>
@@ -13685,18 +13685,18 @@
       <c r="A19" s="182">
         <v>2</v>
       </c>
-      <c r="B19" s="295" t="s">
+      <c r="B19" s="320" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="295"/>
-      <c r="D19" s="316" t="s">
+      <c r="C19" s="320"/>
+      <c r="D19" s="319" t="s">
         <v>398</v>
       </c>
-      <c r="E19" s="316"/>
-      <c r="F19" s="316"/>
-      <c r="G19" s="316"/>
-      <c r="H19" s="316"/>
-      <c r="I19" s="316"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="319"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="319"/>
+      <c r="I19" s="319"/>
       <c r="J19" s="66"/>
       <c r="R19" s="109" t="s">
         <v>76</v>
@@ -13722,16 +13722,16 @@
       <c r="A20" s="182">
         <v>1</v>
       </c>
-      <c r="B20" s="295" t="s">
+      <c r="B20" s="320" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="295"/>
-      <c r="D20" s="316"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="316"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="316"/>
-      <c r="I20" s="316"/>
+      <c r="C20" s="320"/>
+      <c r="D20" s="319"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="319"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="319"/>
+      <c r="I20" s="319"/>
       <c r="J20" s="66"/>
       <c r="R20" s="109" t="s">
         <v>78</v>
@@ -13757,12 +13757,12 @@
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
-      <c r="D21" s="316"/>
-      <c r="E21" s="316"/>
-      <c r="F21" s="316"/>
-      <c r="G21" s="316"/>
-      <c r="H21" s="316"/>
-      <c r="I21" s="316"/>
+      <c r="D21" s="319"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="319"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="319"/>
       <c r="J21" s="66"/>
       <c r="W21" s="120">
         <v>4</v>
@@ -13784,12 +13784,12 @@
       </c>
       <c r="B22" s="187"/>
       <c r="C22" s="187"/>
-      <c r="D22" s="316"/>
-      <c r="E22" s="316"/>
-      <c r="F22" s="316"/>
-      <c r="G22" s="316"/>
-      <c r="H22" s="316"/>
-      <c r="I22" s="316"/>
+      <c r="D22" s="319"/>
+      <c r="E22" s="319"/>
+      <c r="F22" s="319"/>
+      <c r="G22" s="319"/>
+      <c r="H22" s="319"/>
+      <c r="I22" s="319"/>
       <c r="J22" s="66"/>
       <c r="W22" s="120">
         <v>4</v>
@@ -13809,16 +13809,16 @@
       <c r="A23" s="185">
         <v>5</v>
       </c>
-      <c r="B23" s="315" t="s">
+      <c r="B23" s="318" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="315"/>
-      <c r="D23" s="316"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="316"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="316"/>
-      <c r="I23" s="316"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="319"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="319"/>
+      <c r="G23" s="319"/>
+      <c r="H23" s="319"/>
+      <c r="I23" s="319"/>
       <c r="J23" s="66"/>
       <c r="R23" s="109"/>
       <c r="S23" s="109"/>
@@ -13842,16 +13842,16 @@
       <c r="A24" s="185">
         <v>3</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="318" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="315"/>
-      <c r="D24" s="316"/>
-      <c r="E24" s="316"/>
-      <c r="F24" s="316"/>
-      <c r="G24" s="316"/>
-      <c r="H24" s="316"/>
-      <c r="I24" s="316"/>
+      <c r="C24" s="318"/>
+      <c r="D24" s="319"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="319"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="319"/>
+      <c r="I24" s="319"/>
       <c r="J24" s="66"/>
       <c r="W24" s="120">
         <v>4</v>
@@ -13871,16 +13871,16 @@
       <c r="A25" s="185">
         <v>1</v>
       </c>
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="318" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="315"/>
-      <c r="D25" s="316"/>
-      <c r="E25" s="316"/>
-      <c r="F25" s="316"/>
-      <c r="G25" s="316"/>
-      <c r="H25" s="316"/>
-      <c r="I25" s="316"/>
+      <c r="C25" s="318"/>
+      <c r="D25" s="319"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
       <c r="J25" s="66"/>
       <c r="W25" s="120">
         <v>5</v>
@@ -13900,12 +13900,12 @@
       <c r="A26" s="189"/>
       <c r="B26" s="189"/>
       <c r="C26" s="189"/>
-      <c r="D26" s="316"/>
-      <c r="E26" s="316"/>
-      <c r="F26" s="316"/>
-      <c r="G26" s="316"/>
-      <c r="H26" s="316"/>
-      <c r="I26" s="316"/>
+      <c r="D26" s="319"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="319"/>
       <c r="J26" s="66"/>
       <c r="W26" s="120"/>
       <c r="X26" s="112"/>
@@ -13916,12 +13916,12 @@
       <c r="A27" s="189"/>
       <c r="B27" s="189"/>
       <c r="C27" s="189"/>
-      <c r="D27" s="316"/>
-      <c r="E27" s="316"/>
-      <c r="F27" s="316"/>
-      <c r="G27" s="316"/>
-      <c r="H27" s="316"/>
-      <c r="I27" s="316"/>
+      <c r="D27" s="319"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="319"/>
+      <c r="G27" s="319"/>
+      <c r="H27" s="319"/>
+      <c r="I27" s="319"/>
       <c r="J27" s="66"/>
       <c r="W27" s="120"/>
       <c r="X27" s="112"/>
@@ -13932,12 +13932,12 @@
       <c r="A28" s="189"/>
       <c r="B28" s="189"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="316"/>
-      <c r="E28" s="316"/>
-      <c r="F28" s="316"/>
-      <c r="G28" s="316"/>
-      <c r="H28" s="316"/>
-      <c r="I28" s="316"/>
+      <c r="D28" s="319"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="319"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="319"/>
+      <c r="I28" s="319"/>
       <c r="J28" s="66"/>
       <c r="W28" s="120"/>
       <c r="X28" s="112"/>
@@ -13948,12 +13948,12 @@
       <c r="A29" s="189"/>
       <c r="B29" s="189"/>
       <c r="C29" s="189"/>
-      <c r="D29" s="317"/>
-      <c r="E29" s="317"/>
-      <c r="F29" s="317"/>
-      <c r="G29" s="317"/>
-      <c r="H29" s="317"/>
-      <c r="I29" s="317"/>
+      <c r="D29" s="321"/>
+      <c r="E29" s="321"/>
+      <c r="F29" s="321"/>
+      <c r="G29" s="321"/>
+      <c r="H29" s="321"/>
+      <c r="I29" s="321"/>
       <c r="J29" s="66"/>
       <c r="W29" s="120"/>
       <c r="X29" s="112"/>
@@ -14025,10 +14025,10 @@
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1">
       <c r="A32" s="90"/>
-      <c r="B32" s="319" t="s">
+      <c r="B32" s="316" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="319"/>
+      <c r="C32" s="316"/>
       <c r="D32" s="169" t="s">
         <v>82</v>
       </c>
@@ -14064,21 +14064,21 @@
       <c r="A33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="313" t="s">
+      <c r="B33" s="315" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="313"/>
+      <c r="C33" s="315"/>
       <c r="D33" s="161" t="s">
         <v>378</v>
       </c>
-      <c r="E33" s="313"/>
-      <c r="F33" s="313"/>
-      <c r="G33" s="313"/>
-      <c r="H33" s="313"/>
-      <c r="I33" s="313"/>
-      <c r="J33" s="313"/>
-      <c r="K33" s="313"/>
-      <c r="L33" s="313"/>
+      <c r="E33" s="315"/>
+      <c r="F33" s="315"/>
+      <c r="G33" s="315"/>
+      <c r="H33" s="315"/>
+      <c r="I33" s="315"/>
+      <c r="J33" s="315"/>
+      <c r="K33" s="315"/>
+      <c r="L33" s="315"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -14101,55 +14101,55 @@
       <c r="A34" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="313" t="s">
+      <c r="B34" s="315" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="313"/>
+      <c r="C34" s="315"/>
       <c r="D34" s="161" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="313" t="s">
+      <c r="E34" s="315" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="313"/>
-      <c r="G34" s="313"/>
-      <c r="H34" s="313"/>
-      <c r="I34" s="313"/>
-      <c r="J34" s="313"/>
-      <c r="K34" s="313"/>
-      <c r="L34" s="313"/>
+      <c r="F34" s="315"/>
+      <c r="G34" s="315"/>
+      <c r="H34" s="315"/>
+      <c r="I34" s="315"/>
+      <c r="J34" s="315"/>
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="R34" s="318" t="s">
+      <c r="R34" s="314" t="s">
         <v>86</v>
       </c>
-      <c r="S34" s="318"/>
-      <c r="T34" s="318"/>
-      <c r="U34" s="318"/>
+      <c r="S34" s="314"/>
+      <c r="T34" s="314"/>
+      <c r="U34" s="314"/>
     </row>
     <row r="35" spans="1:47" ht="218.25" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="313" t="s">
+      <c r="B35" s="315" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="313"/>
+      <c r="C35" s="315"/>
       <c r="D35" s="161" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="313" t="s">
+      <c r="E35" s="315" t="s">
         <v>382</v>
       </c>
-      <c r="F35" s="313"/>
-      <c r="G35" s="313"/>
-      <c r="H35" s="313"/>
-      <c r="I35" s="313"/>
-      <c r="J35" s="313"/>
-      <c r="K35" s="313"/>
-      <c r="L35" s="313"/>
+      <c r="F35" s="315"/>
+      <c r="G35" s="315"/>
+      <c r="H35" s="315"/>
+      <c r="I35" s="315"/>
+      <c r="J35" s="315"/>
+      <c r="K35" s="315"/>
+      <c r="L35" s="315"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -14159,21 +14159,21 @@
       <c r="A36" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="313" t="s">
+      <c r="B36" s="315" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="314"/>
+      <c r="C36" s="317"/>
       <c r="D36" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="313"/>
-      <c r="F36" s="313"/>
-      <c r="G36" s="313"/>
-      <c r="H36" s="313"/>
-      <c r="I36" s="313"/>
-      <c r="J36" s="313"/>
-      <c r="K36" s="313"/>
-      <c r="L36" s="313"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="315"/>
+      <c r="G36" s="315"/>
+      <c r="H36" s="315"/>
+      <c r="I36" s="315"/>
+      <c r="J36" s="315"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="315"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -15993,11 +15993,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R11:U15"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:C6"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:L36"/>
     <mergeCell ref="E33:L33"/>
@@ -16009,23 +16021,11 @@
     <mergeCell ref="D19:I28"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D29:I29"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="R11:U15"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39305555555555599" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.196527777777778"/>
@@ -16061,23 +16061,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="348" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="349" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
@@ -16108,11 +16108,11 @@
       <c r="B6" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="322" t="s">
+      <c r="C6" s="350" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
+      <c r="D6" s="351"/>
+      <c r="E6" s="351"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
@@ -16124,11 +16124,11 @@
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="C8" s="324" t="s">
+      <c r="C8" s="352" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
+      <c r="D8" s="352"/>
+      <c r="E8" s="352"/>
       <c r="F8" s="55"/>
       <c r="G8" s="31"/>
     </row>
@@ -17298,29 +17298,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="348" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="349" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="C3" s="32"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="34" t="s">
@@ -17330,9 +17330,9 @@
         <v>93</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
+      <c r="D4" s="352"/>
+      <c r="E4" s="353"/>
+      <c r="F4" s="353"/>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="38" t="s">
@@ -17363,7 +17363,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="338" t="s">
+      <c r="A9" s="354" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17371,13 +17371,13 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="339"/>
+      <c r="A10" s="355"/>
       <c r="B10" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="325" t="s">
+      <c r="A11" s="356" t="s">
         <v>299</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -17385,7 +17385,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="327"/>
+      <c r="A12" s="358"/>
       <c r="B12" s="2" t="s">
         <v>301</v>
       </c>
@@ -17415,7 +17415,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="328" t="s">
+      <c r="A16" s="359" t="s">
         <v>308</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -17423,19 +17423,19 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="329"/>
+      <c r="A17" s="360"/>
       <c r="B17" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="330"/>
+      <c r="A18" s="361"/>
       <c r="B18" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="328" t="s">
+      <c r="A19" s="359" t="s">
         <v>312</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -17443,37 +17443,37 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="329"/>
+      <c r="A20" s="360"/>
       <c r="B20" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="329"/>
+      <c r="A21" s="360"/>
       <c r="B21" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="329"/>
+      <c r="A22" s="360"/>
       <c r="B22" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="329"/>
+      <c r="A23" s="360"/>
       <c r="B23" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="330"/>
+      <c r="A24" s="361"/>
       <c r="B24" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="331" t="s">
+      <c r="A25" s="362" t="s">
         <v>319</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -17481,37 +17481,37 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="332"/>
+      <c r="A26" s="363"/>
       <c r="B26" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="332"/>
+      <c r="A27" s="363"/>
       <c r="B27" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="332"/>
+      <c r="A28" s="363"/>
       <c r="B28" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="332"/>
+      <c r="A29" s="363"/>
       <c r="B29" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="333"/>
+      <c r="A30" s="364"/>
       <c r="B30" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A31" s="334" t="s">
+      <c r="A31" s="365" t="s">
         <v>326</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -17519,44 +17519,44 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="335"/>
+      <c r="A32" s="366"/>
       <c r="B32" s="48" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="335"/>
+      <c r="A33" s="366"/>
       <c r="B33" s="48" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="335"/>
+      <c r="A34" s="366"/>
       <c r="B34" s="48" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="335"/>
+      <c r="A35" s="366"/>
       <c r="B35" s="48" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="335"/>
+      <c r="A36" s="366"/>
       <c r="B36" s="48" t="s">
         <v>332</v>
       </c>
       <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="336"/>
+      <c r="A37" s="367"/>
       <c r="B37" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="325" t="s">
+      <c r="A38" s="356" t="s">
         <v>334</v>
       </c>
       <c r="B38" s="50" t="s">
@@ -17564,25 +17564,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="326"/>
+      <c r="A39" s="357"/>
       <c r="B39" s="51" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="326"/>
+      <c r="A40" s="357"/>
       <c r="B40" s="51" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="326"/>
+      <c r="A41" s="357"/>
       <c r="B41" s="51" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="327"/>
+      <c r="A42" s="358"/>
       <c r="B42" s="5" t="s">
         <v>339</v>
       </c>
@@ -17607,17 +17607,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -17673,19 +17673,19 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="23.25">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="368" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
+      <c r="B4" s="368"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="368"/>
+      <c r="E4" s="368"/>
+      <c r="F4" s="368"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="368"/>
+      <c r="J4" s="368"/>
+      <c r="K4" s="368"/>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="12.75" customHeight="1">
@@ -17703,10 +17703,10 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="141" customHeight="1">
-      <c r="A6" s="341" t="s">
+      <c r="A6" s="369" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="342"/>
+      <c r="B6" s="370"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>342</v>
@@ -17716,18 +17716,18 @@
         <v>343</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="358" t="s">
+      <c r="H6" s="371" t="s">
         <v>344</v>
       </c>
-      <c r="I6" s="359"/>
-      <c r="J6" s="360"/>
+      <c r="I6" s="372"/>
+      <c r="J6" s="373"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="340" t="s">
+      <c r="L6" s="382" t="s">
         <v>345</v>
       </c>
-      <c r="M6" s="341"/>
-      <c r="N6" s="341"/>
-      <c r="O6" s="342"/>
+      <c r="M6" s="369"/>
+      <c r="N6" s="369"/>
+      <c r="O6" s="370"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="23.25">
       <c r="A7" s="11"/>
@@ -17747,25 +17747,25 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="351" t="s">
+      <c r="D8" s="375" t="s">
         <v>346</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G8" s="356" t="s">
+      <c r="G8" s="381" t="s">
         <v>348</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="355" t="s">
+      <c r="J8" s="374" t="s">
         <v>349</v>
       </c>
-      <c r="K8" s="350" t="s">
+      <c r="K8" s="378" t="s">
         <v>348</v>
       </c>
-      <c r="L8" s="355" t="s">
+      <c r="L8" s="374" t="s">
         <v>350</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -17779,16 +17779,16 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="352"/>
+      <c r="D9" s="376"/>
       <c r="E9" s="11"/>
       <c r="F9" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="G9" s="356"/>
+      <c r="G9" s="381"/>
       <c r="H9" s="19"/>
-      <c r="J9" s="355"/>
-      <c r="K9" s="350"/>
-      <c r="L9" s="355"/>
+      <c r="J9" s="374"/>
+      <c r="K9" s="378"/>
+      <c r="L9" s="374"/>
       <c r="N9" s="27" t="s">
         <v>13</v>
       </c>
@@ -17800,17 +17800,17 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="352"/>
+      <c r="D10" s="376"/>
       <c r="E10" s="11"/>
       <c r="F10" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="G10" s="356"/>
+      <c r="G10" s="381"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="355"/>
-      <c r="K10" s="350"/>
-      <c r="L10" s="355"/>
+      <c r="J10" s="374"/>
+      <c r="K10" s="378"/>
+      <c r="L10" s="374"/>
       <c r="N10" s="27" t="s">
         <v>14</v>
       </c>
@@ -17822,15 +17822,15 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="352"/>
+      <c r="D11" s="376"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="356"/>
+      <c r="G11" s="381"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="355"/>
-      <c r="K11" s="350"/>
-      <c r="L11" s="355"/>
+      <c r="J11" s="374"/>
+      <c r="K11" s="378"/>
+      <c r="L11" s="374"/>
       <c r="N11" s="27" t="s">
         <v>15</v>
       </c>
@@ -17846,15 +17846,15 @@
         <v>6</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="353"/>
+      <c r="D12" s="377"/>
       <c r="E12" s="11"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="356"/>
+      <c r="G12" s="381"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="355"/>
-      <c r="K12" s="350"/>
-      <c r="L12" s="355"/>
+      <c r="J12" s="374"/>
+      <c r="K12" s="378"/>
+      <c r="L12" s="374"/>
       <c r="N12" s="27" t="s">
         <v>16</v>
       </c>
@@ -17890,27 +17890,27 @@
         <v>6</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="355" t="s">
+      <c r="D14" s="374" t="s">
         <v>342</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="354" t="s">
+      <c r="G14" s="390" t="s">
         <v>348</v>
       </c>
-      <c r="H14" s="351" t="s">
+      <c r="H14" s="375" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="362" t="s">
+      <c r="I14" s="380" t="s">
         <v>348</v>
       </c>
-      <c r="J14" s="349" t="s">
+      <c r="J14" s="389" t="s">
         <v>354</v>
       </c>
-      <c r="K14" s="350" t="s">
+      <c r="K14" s="378" t="s">
         <v>348</v>
       </c>
-      <c r="L14" s="349" t="s">
+      <c r="L14" s="389" t="s">
         <v>350</v>
       </c>
       <c r="N14" s="27" t="s">
@@ -17928,17 +17928,17 @@
         <v>6</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="355"/>
+      <c r="D15" s="374"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="G15" s="354"/>
-      <c r="H15" s="352"/>
-      <c r="I15" s="362"/>
-      <c r="J15" s="349"/>
-      <c r="K15" s="350"/>
-      <c r="L15" s="349"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="376"/>
+      <c r="I15" s="380"/>
+      <c r="J15" s="389"/>
+      <c r="K15" s="378"/>
+      <c r="L15" s="389"/>
       <c r="N15" s="27" t="s">
         <v>13</v>
       </c>
@@ -17954,17 +17954,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="355"/>
+      <c r="D16" s="374"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G16" s="354"/>
-      <c r="H16" s="352"/>
-      <c r="I16" s="362"/>
-      <c r="J16" s="349"/>
-      <c r="K16" s="350"/>
-      <c r="L16" s="349"/>
+      <c r="G16" s="390"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="380"/>
+      <c r="J16" s="389"/>
+      <c r="K16" s="378"/>
+      <c r="L16" s="389"/>
       <c r="N16" s="27" t="s">
         <v>14</v>
       </c>
@@ -17973,22 +17973,22 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="343" t="s">
+      <c r="A17" s="383" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="344"/>
+      <c r="B17" s="384"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="355"/>
+      <c r="D17" s="374"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G17" s="354"/>
-      <c r="H17" s="352"/>
-      <c r="I17" s="362"/>
-      <c r="J17" s="349"/>
-      <c r="K17" s="350"/>
-      <c r="L17" s="349"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="376"/>
+      <c r="I17" s="380"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="378"/>
+      <c r="L17" s="389"/>
       <c r="N17" s="27" t="s">
         <v>15</v>
       </c>
@@ -17997,20 +17997,20 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="345"/>
-      <c r="B18" s="346"/>
+      <c r="A18" s="385"/>
+      <c r="B18" s="386"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="355"/>
+      <c r="D18" s="374"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="G18" s="354"/>
-      <c r="H18" s="352"/>
-      <c r="I18" s="362"/>
-      <c r="J18" s="349"/>
-      <c r="K18" s="350"/>
-      <c r="L18" s="349"/>
+      <c r="G18" s="390"/>
+      <c r="H18" s="376"/>
+      <c r="I18" s="380"/>
+      <c r="J18" s="389"/>
+      <c r="K18" s="378"/>
+      <c r="L18" s="389"/>
       <c r="M18" s="18"/>
       <c r="N18" s="27" t="s">
         <v>16</v>
@@ -18020,42 +18020,42 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="345"/>
-      <c r="B19" s="346"/>
+      <c r="A19" s="385"/>
+      <c r="B19" s="386"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="355"/>
+      <c r="D19" s="374"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="G19" s="354"/>
-      <c r="H19" s="352"/>
+      <c r="G19" s="390"/>
+      <c r="H19" s="376"/>
       <c r="I19" s="18"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="345"/>
-      <c r="B20" s="346"/>
+      <c r="A20" s="385"/>
+      <c r="B20" s="386"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="355"/>
+      <c r="D20" s="374"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="G20" s="354"/>
-      <c r="H20" s="352"/>
-      <c r="I20" s="356" t="s">
+      <c r="G20" s="390"/>
+      <c r="H20" s="376"/>
+      <c r="I20" s="381" t="s">
         <v>348</v>
       </c>
-      <c r="J20" s="349" t="s">
+      <c r="J20" s="389" t="s">
         <v>361</v>
       </c>
-      <c r="K20" s="361" t="s">
+      <c r="K20" s="379" t="s">
         <v>348</v>
       </c>
-      <c r="L20" s="349" t="s">
+      <c r="L20" s="389" t="s">
         <v>362</v>
       </c>
       <c r="N20" s="27" t="s">
@@ -18066,20 +18066,20 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="347"/>
-      <c r="B21" s="348"/>
+      <c r="A21" s="387"/>
+      <c r="B21" s="388"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="355"/>
+      <c r="D21" s="374"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="G21" s="354"/>
-      <c r="H21" s="352"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="349"/>
-      <c r="K21" s="361"/>
-      <c r="L21" s="349"/>
+      <c r="G21" s="390"/>
+      <c r="H21" s="376"/>
+      <c r="I21" s="381"/>
+      <c r="J21" s="389"/>
+      <c r="K21" s="379"/>
+      <c r="L21" s="389"/>
       <c r="N21" s="27" t="s">
         <v>13</v>
       </c>
@@ -18091,17 +18091,17 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="355"/>
+      <c r="D22" s="374"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G22" s="354"/>
-      <c r="H22" s="352"/>
-      <c r="I22" s="356"/>
-      <c r="J22" s="349"/>
-      <c r="K22" s="361"/>
-      <c r="L22" s="349"/>
+      <c r="G22" s="390"/>
+      <c r="H22" s="376"/>
+      <c r="I22" s="381"/>
+      <c r="J22" s="389"/>
+      <c r="K22" s="379"/>
+      <c r="L22" s="389"/>
       <c r="N22" s="27" t="s">
         <v>14</v>
       </c>
@@ -18113,17 +18113,17 @@
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="355"/>
+      <c r="D23" s="374"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G23" s="354"/>
-      <c r="H23" s="352"/>
-      <c r="I23" s="356"/>
-      <c r="J23" s="349"/>
-      <c r="K23" s="361"/>
-      <c r="L23" s="349"/>
+      <c r="G23" s="390"/>
+      <c r="H23" s="376"/>
+      <c r="I23" s="381"/>
+      <c r="J23" s="389"/>
+      <c r="K23" s="379"/>
+      <c r="L23" s="389"/>
       <c r="N23" s="27" t="s">
         <v>15</v>
       </c>
@@ -18135,15 +18135,15 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="355"/>
+      <c r="D24" s="374"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="354"/>
-      <c r="H24" s="353"/>
-      <c r="I24" s="356"/>
-      <c r="J24" s="349"/>
-      <c r="K24" s="361"/>
-      <c r="L24" s="349"/>
+      <c r="G24" s="390"/>
+      <c r="H24" s="377"/>
+      <c r="I24" s="381"/>
+      <c r="J24" s="389"/>
+      <c r="K24" s="379"/>
+      <c r="L24" s="389"/>
       <c r="N24" s="27" t="s">
         <v>16</v>
       </c>
@@ -18172,16 +18172,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I20:I24"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="A17:B21"/>
     <mergeCell ref="J14:J18"/>
@@ -18193,6 +18183,16 @@
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="L20:L24"/>
     <mergeCell ref="G8:G12"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I20:I24"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.78680555555555598" bottom="0.39305555555555599" header="0.31388888888888899" footer="0.31388888888888899"/>
